--- a/datasets/D1_riskprem_exante.xlsx
+++ b/datasets/D1_riskprem_exante.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B638"/>
+  <dimension ref="A1:B760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,5103 +447,6079 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>Ex-ante</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>42913</v>
+        <v>42738</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.003503833785036344</v>
+        <v>-0.04985878938840322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>42914</v>
+        <v>42739</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.01660316430917141</v>
+        <v>0.04528921273023607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>42915</v>
+        <v>42740</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01305342357568105</v>
+        <v>-0.05572314465145796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>42916</v>
+        <v>42741</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1451071248823115</v>
+        <v>-0.02479923847529559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>42917</v>
+        <v>42742</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01069952532568579</v>
+        <v>0.106110460331345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>42920</v>
+        <v>42745</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.05490065965652946</v>
+        <v>0.154542439739699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>42921</v>
+        <v>42746</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03029477407056569</v>
+        <v>0.03511956841451126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>42922</v>
+        <v>42747</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.03171618891356509</v>
+        <v>-0.1496171189326957</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>42923</v>
+        <v>42748</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.05371507240997399</v>
+        <v>-0.142751662170431</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>42924</v>
+        <v>42749</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1447112507211127</v>
+        <v>-0.07373974270900154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>42927</v>
+        <v>42752</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.01895204512520637</v>
+        <v>0.396373055824403</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>42928</v>
+        <v>42753</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1312520817558269</v>
+        <v>0.3728978873674307</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>42929</v>
+        <v>42754</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1011939525475606</v>
+        <v>0.2606282964663535</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>42930</v>
+        <v>42755</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.08415701168509879</v>
+        <v>0.1639425571134693</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>42931</v>
+        <v>42756</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03498721236874543</v>
+        <v>0.09803308711084473</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>42934</v>
+        <v>42759</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.02858921947573573</v>
+        <v>-0.4065315430575445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>42935</v>
+        <v>42760</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.03090601297417246</v>
+        <v>0.190982034966815</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>42936</v>
+        <v>42761</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.03113611072627722</v>
+        <v>0.1699884125922505</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>42937</v>
+        <v>42762</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.03238448565965105</v>
+        <v>0.02660837945441941</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>42938</v>
+        <v>42763</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08441949853729035</v>
+        <v>0.008514878754746264</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>42941</v>
+        <v>42766</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.04588945463385779</v>
+        <v>-0.7558811750494305</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>42942</v>
+        <v>42767</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0779746265251352</v>
+        <v>0.03533813384267563</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>42943</v>
+        <v>42768</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.09968623218537599</v>
+        <v>0.01845370505207127</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>42944</v>
+        <v>42769</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.1012776731686598</v>
+        <v>0.01210316076141025</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>42945</v>
+        <v>42770</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05450582263883286</v>
+        <v>0.02737328957645539</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>42948</v>
+        <v>42773</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.0003908707471007255</v>
+        <v>0.1040110897247567</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>42949</v>
+        <v>42774</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.02529256655110018</v>
+        <v>0.07466449753457992</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>42950</v>
+        <v>42775</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.05141377563555893</v>
+        <v>0.05112505216186536</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>42951</v>
+        <v>42776</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.02615935673663069</v>
+        <v>-0.02912562510816611</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>42952</v>
+        <v>42777</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.06847442197520989</v>
+        <v>0.04487190112598739</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>42955</v>
+        <v>42780</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0657193606451489</v>
+        <v>-0.01599509813394172</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>42956</v>
+        <v>42781</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.07648139840834023</v>
+        <v>0.00815695560977976</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>42957</v>
+        <v>42782</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.0182140444343793</v>
+        <v>-0.04061601023350039</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>42958</v>
+        <v>42783</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06100367283862541</v>
+        <v>-0.06079909742247582</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>42959</v>
+        <v>42784</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.03701092191159155</v>
+        <v>0.04542686527890139</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>42962</v>
+        <v>42787</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.01857720648565946</v>
+        <v>-0.1710185392690673</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42963</v>
+        <v>42788</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03592723605083586</v>
+        <v>-0.2998409700761133</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42964</v>
+        <v>42789</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01763023303409018</v>
+        <v>-0.19795884534425</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42965</v>
+        <v>42790</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.04212970915961571</v>
+        <v>0.003525712345807701</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42966</v>
+        <v>42791</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3494388612802236</v>
+        <v>-0.087121783048955</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42969</v>
+        <v>42794</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.01055598849392783</v>
+        <v>-0.06378583652344005</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>42970</v>
+        <v>42795</v>
       </c>
       <c r="B43" t="n">
-        <v>0.009216500943778025</v>
+        <v>-0.001979393115920288</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42971</v>
+        <v>42796</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.03348817529011971</v>
+        <v>0.1625368292882795</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42972</v>
+        <v>42797</v>
       </c>
       <c r="B45" t="n">
-        <v>0.007961167665947589</v>
+        <v>0.008350407332049167</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42973</v>
+        <v>42798</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01858551965451364</v>
+        <v>-0.08878276273202568</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42976</v>
+        <v>42801</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01577039273505119</v>
+        <v>-0.1996444221612759</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42977</v>
+        <v>42802</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0004471267194755459</v>
+        <v>-0.07024537376639657</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42978</v>
+        <v>42803</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1305108933353664</v>
+        <v>-0.03613447248891582</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42979</v>
+        <v>42804</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.005235578953930474</v>
+        <v>-0.009587357287182586</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42980</v>
+        <v>42805</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02182012451818321</v>
+        <v>0.04221415922102916</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42983</v>
+        <v>42808</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.05800393119058529</v>
+        <v>-0.08393382531431155</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42984</v>
+        <v>42809</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.08517211220594541</v>
+        <v>-0.1125408943058491</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42985</v>
+        <v>42810</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.04448379641271662</v>
+        <v>-0.09241458330039229</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42986</v>
+        <v>42811</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.06772655555075516</v>
+        <v>-0.1797613598907055</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42987</v>
+        <v>42812</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1409783090665374</v>
+        <v>-0.2978020776546135</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42990</v>
+        <v>42815</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1449633047664756</v>
+        <v>-0.0168988074452199</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42991</v>
+        <v>42816</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.3718867811416376</v>
+        <v>-0.06720381520791327</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42992</v>
+        <v>42817</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.2693615155149343</v>
+        <v>-0.06645290259542998</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42993</v>
+        <v>42818</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.05954044765526955</v>
+        <v>-0.06011309357449829</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42994</v>
+        <v>42819</v>
       </c>
       <c r="B61" t="n">
-        <v>0.04925527457877888</v>
+        <v>0.0364463157592884</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42997</v>
+        <v>42822</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.03310621983444446</v>
+        <v>-0.002867918810242908</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42998</v>
+        <v>42823</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.04341498964110282</v>
+        <v>-0.05526847803008383</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42999</v>
+        <v>42824</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.08699782073036182</v>
+        <v>-0.02060157066758282</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43000</v>
+        <v>42825</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.05340230399164889</v>
+        <v>-0.0569686087545983</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43001</v>
+        <v>42826</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07516440162009062</v>
+        <v>0.01721053397525581</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43004</v>
+        <v>42829</v>
       </c>
       <c r="B67" t="n">
-        <v>0.008595393539714941</v>
+        <v>0.01289357669787446</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43005</v>
+        <v>42830</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02389644765679331</v>
+        <v>-0.07461284919427449</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43006</v>
+        <v>42831</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.001161050505682271</v>
+        <v>-0.09220201752907824</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43007</v>
+        <v>42832</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.02607582672898879</v>
+        <v>-0.08934075076096701</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43008</v>
+        <v>42833</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.06432100396182563</v>
+        <v>0.01066670153113704</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43011</v>
+        <v>42836</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.2625849277419157</v>
+        <v>-0.04290719905005527</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43012</v>
+        <v>42837</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.1233039759168718</v>
+        <v>-0.08157693800157345</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43013</v>
+        <v>42838</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.1700456291610481</v>
+        <v>-0.0943457373397887</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43014</v>
+        <v>42839</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.1543651396937676</v>
+        <v>-0.04747486989450145</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43015</v>
+        <v>42844</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.4449045890078808</v>
+        <v>-0.03331101398487576</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43018</v>
+        <v>42845</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.08951178585453383</v>
+        <v>-0.006306845429795175</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43019</v>
+        <v>42846</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.1240805254569938</v>
+        <v>-0.1374634429656139</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43020</v>
+        <v>42847</v>
       </c>
       <c r="B79" t="n">
-        <v>0.04013290421191274</v>
+        <v>-0.3421988352727961</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43021</v>
+        <v>42850</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02055752757111729</v>
+        <v>0.03326837630477744</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43022</v>
+        <v>42851</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.06343389239957309</v>
+        <v>-0.07565197758152133</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43025</v>
+        <v>42852</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.0228210577052966</v>
+        <v>-0.07165213020348336</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43026</v>
+        <v>42853</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1162952594133665</v>
+        <v>-0.04813741393999851</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43027</v>
+        <v>42854</v>
       </c>
       <c r="B84" t="n">
-        <v>0.07452200619437056</v>
+        <v>-0.02219824603951005</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43028</v>
+        <v>42858</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.079249371615881</v>
+        <v>-0.03995354055862971</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43029</v>
+        <v>42859</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.03472983941992845</v>
+        <v>0.001609886265186139</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43032</v>
+        <v>42860</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09105854340931718</v>
+        <v>0.01298053610511768</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43033</v>
+        <v>42861</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.1599840104764335</v>
+        <v>0.06542389941001443</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43034</v>
+        <v>42864</v>
       </c>
       <c r="B89" t="n">
-        <v>0.03419049151437276</v>
+        <v>0.04972351958469207</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43035</v>
+        <v>42865</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.2365204250521923</v>
+        <v>0.05452590339153345</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43036</v>
+        <v>42866</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.9421637331037254</v>
+        <v>0.09140518903489679</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43039</v>
+        <v>42867</v>
       </c>
       <c r="B92" t="n">
-        <v>0.003081898851860568</v>
+        <v>0.0490566701372325</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43040</v>
+        <v>42868</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.1673543489165928</v>
+        <v>0.2717759149470357</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43041</v>
+        <v>42871</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.1680407958215854</v>
+        <v>0.01808031606162452</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43042</v>
+        <v>42872</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.1109731227848613</v>
+        <v>-0.03753318664058942</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43043</v>
+        <v>42873</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.03195821882088733</v>
+        <v>0.03502095908826371</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43046</v>
+        <v>42874</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.09378579228587069</v>
+        <v>-0.04260625200293928</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43047</v>
+        <v>42875</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.04350939332113503</v>
+        <v>0.1125310385084681</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43048</v>
+        <v>42878</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.07050451915470564</v>
+        <v>-0.1022303848834598</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43049</v>
+        <v>42879</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.1548791302458066</v>
+        <v>-0.005425720412305546</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43050</v>
+        <v>42880</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.3025372045302291</v>
+        <v>0.2912510966573881</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43053</v>
+        <v>42881</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.04023684484099829</v>
+        <v>-0.03366443915930628</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43054</v>
+        <v>42882</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1376383089733946</v>
+        <v>0.04752654131452105</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43055</v>
+        <v>42885</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.07479706089115594</v>
+        <v>0.1704585275493142</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43056</v>
+        <v>42886</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.08678821449024066</v>
+        <v>-0.0223998436455306</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43057</v>
+        <v>42887</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.3102797570986059</v>
+        <v>-0.0585327718564844</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43060</v>
+        <v>42888</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.01208514113674657</v>
+        <v>-0.0516904755831768</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43061</v>
+        <v>42889</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.1566777589785923</v>
+        <v>0.04949553337998962</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43062</v>
+        <v>42892</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.2016968663816221</v>
+        <v>-0.1293857550489642</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43063</v>
+        <v>42893</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.11733937497563</v>
+        <v>0.4541031556591932</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43064</v>
+        <v>42894</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.01629652903370884</v>
+        <v>-0.1323053717858661</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43067</v>
+        <v>42895</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.1123499266660194</v>
+        <v>-0.1054076912671566</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43068</v>
+        <v>42896</v>
       </c>
       <c r="B113" t="n">
-        <v>0.07881662030971066</v>
+        <v>0.01238508984777047</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43069</v>
+        <v>42899</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1684895865763367</v>
+        <v>-0.09138873000552585</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43070</v>
+        <v>42900</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1664820061943403</v>
+        <v>0.02116850313606857</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43071</v>
+        <v>42901</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.01975098277524466</v>
+        <v>-0.00368967835633156</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43074</v>
+        <v>42902</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.1472877754637074</v>
+        <v>-0.2754628138099249</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43075</v>
+        <v>42903</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.1400555651025787</v>
+        <v>-0.09415418483116478</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43076</v>
+        <v>42906</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.1309156645254602</v>
+        <v>0.02631073315267414</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43077</v>
+        <v>42907</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.1863507716106968</v>
+        <v>0.05860791676085724</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43078</v>
+        <v>42908</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.4905417147187717</v>
+        <v>-0.06403898627778254</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43081</v>
+        <v>42909</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.1979491719950484</v>
+        <v>-0.1423428140209674</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43082</v>
+        <v>42910</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.2015531503912326</v>
+        <v>-0.1664677381036688</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43083</v>
+        <v>42913</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.1889262668982637</v>
+        <v>-0.003503833785036344</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43084</v>
+        <v>42914</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.1679707993959227</v>
+        <v>-0.01660316430917141</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43085</v>
+        <v>42915</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.07933849066132428</v>
+        <v>0.01305342357568105</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43088</v>
+        <v>42916</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.02871938786785439</v>
+        <v>-0.1451071248823115</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>43089</v>
+        <v>42917</v>
       </c>
       <c r="B128" t="n">
-        <v>0.02826589027606527</v>
+        <v>0.01069952532568579</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>43090</v>
+        <v>42920</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.16909108561497</v>
+        <v>-0.05490065965652946</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>43091</v>
+        <v>42921</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.1950446348992651</v>
+        <v>0.03029477407056569</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>43092</v>
+        <v>42922</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.6169380485694482</v>
+        <v>-0.03171618891356509</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>43097</v>
+        <v>42923</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.1863802988829955</v>
+        <v>-0.05371507240997399</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>43098</v>
+        <v>42924</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.3898813182772113</v>
+        <v>0.1447112507211127</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>43099</v>
+        <v>42927</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.5612576602570769</v>
+        <v>-0.01895204512520637</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>43103</v>
+        <v>42928</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.6623866948657472</v>
+        <v>-0.1312520817558269</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>43104</v>
+        <v>42929</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.3364056916913025</v>
+        <v>-0.1011939525475606</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>43105</v>
+        <v>42930</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.2774622626557732</v>
+        <v>-0.08415701168509879</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>43106</v>
+        <v>42931</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.1836936469413466</v>
+        <v>0.03498721236874543</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>43109</v>
+        <v>42934</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.09707771902437799</v>
+        <v>-0.02858921947573573</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>43110</v>
+        <v>42935</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.1158988221816826</v>
+        <v>-0.03090601297417246</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>43111</v>
+        <v>42936</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.1435252369419652</v>
+        <v>-0.03113611072627722</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>43112</v>
+        <v>42937</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.1677944532893511</v>
+        <v>-0.03238448565965105</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>43113</v>
+        <v>42938</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.1095288557199239</v>
+        <v>0.08441949853729035</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>43116</v>
+        <v>42941</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.2743371050885055</v>
+        <v>-0.04588945463385779</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>43117</v>
+        <v>42942</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.2518269396348894</v>
+        <v>-0.0779746265251352</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>43118</v>
+        <v>42943</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.189434723051315</v>
+        <v>-0.09968623218537599</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>43119</v>
+        <v>42944</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.1263866001892452</v>
+        <v>-0.1012776731686598</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>43120</v>
+        <v>42945</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.1024465508778736</v>
+        <v>0.05450582263883286</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>43123</v>
+        <v>42948</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.1610460522614516</v>
+        <v>-0.0003908707471007255</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>43124</v>
+        <v>42949</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.191204901033939</v>
+        <v>-0.02529256655110018</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>43125</v>
+        <v>42950</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.1661098557185483</v>
+        <v>-0.05141377563555893</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>43126</v>
+        <v>42951</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.164410445774038</v>
+        <v>-0.02615935673663069</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>43127</v>
+        <v>42952</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.1963287554291927</v>
+        <v>-0.06847442197520989</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>43130</v>
+        <v>42955</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.177713096031485</v>
+        <v>-0.0657193606451489</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>43131</v>
+        <v>42956</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.1515745462577107</v>
+        <v>-0.07648139840834023</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>43132</v>
+        <v>42957</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.1937587502871229</v>
+        <v>-0.0182140444343793</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>43133</v>
+        <v>42958</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.1112806102820967</v>
+        <v>0.06100367283862541</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>43134</v>
+        <v>42959</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.0358957924573898</v>
+        <v>-0.03701092191159155</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>43137</v>
+        <v>42962</v>
       </c>
       <c r="B159" t="n">
-        <v>0.01662374724804828</v>
+        <v>-0.01857720648565946</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>43138</v>
+        <v>42963</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.1159832527233066</v>
+        <v>0.03592723605083586</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>43139</v>
+        <v>42964</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.08151028231971971</v>
+        <v>0.01763023303409018</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>43140</v>
+        <v>42965</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.1910117606000321</v>
+        <v>-0.04212970915961571</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>43141</v>
+        <v>42966</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.04266395977146981</v>
+        <v>0.3494388612802236</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>43144</v>
+        <v>42969</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.06716840944591418</v>
+        <v>-0.01055598849392783</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>43145</v>
+        <v>42970</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.04018695108637823</v>
+        <v>0.009216500943778025</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>43146</v>
+        <v>42971</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.1854224520611729</v>
+        <v>-0.03348817529011971</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>43147</v>
+        <v>42972</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.08403245444623447</v>
+        <v>0.007961167665947589</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>43148</v>
+        <v>42973</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.05698910264011807</v>
+        <v>0.01858551965451364</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>43151</v>
+        <v>42976</v>
       </c>
       <c r="B169" t="n">
-        <v>0.02785791366735986</v>
+        <v>0.01577039273505119</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>43152</v>
+        <v>42977</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.06580192237436196</v>
+        <v>0.0004471267194755459</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>43153</v>
+        <v>42978</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.09143444780467479</v>
+        <v>0.1305108933353664</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>43154</v>
+        <v>42979</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.03704253464649954</v>
+        <v>-0.005235578953930474</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>43155</v>
+        <v>42980</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.1633533937036855</v>
+        <v>0.02182012451818321</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>43158</v>
+        <v>42983</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1416336249384962</v>
+        <v>-0.05800393119058529</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>43159</v>
+        <v>42984</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.04824111685283448</v>
+        <v>-0.08517211220594541</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>43160</v>
+        <v>42985</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.0891667836556983</v>
+        <v>-0.04448379641271662</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>43161</v>
+        <v>42986</v>
       </c>
       <c r="B177" t="n">
-        <v>0.04809708601905658</v>
+        <v>-0.06772655555075516</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>43162</v>
+        <v>42987</v>
       </c>
       <c r="B178" t="n">
-        <v>0.006498364800092556</v>
+        <v>-0.1409783090665374</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>43165</v>
+        <v>42990</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.01788349108871706</v>
+        <v>-0.1449633047664756</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>43166</v>
+        <v>42991</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.01655575919275845</v>
+        <v>-0.3718867811416376</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>43167</v>
+        <v>42992</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.04113151553815811</v>
+        <v>-0.2693615155149343</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>43168</v>
+        <v>42993</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.1234129741592799</v>
+        <v>-0.05954044765526955</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>43169</v>
+        <v>42994</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.02978115084160132</v>
+        <v>0.04925527457877888</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>43172</v>
+        <v>42997</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.04931356456694135</v>
+        <v>-0.03310621983444446</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>43173</v>
+        <v>42998</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.01138532636630825</v>
+        <v>-0.04341498964110282</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>43174</v>
+        <v>42999</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.2008312947186446</v>
+        <v>-0.08699782073036182</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>43175</v>
+        <v>43000</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.2224806855300996</v>
+        <v>-0.05340230399164889</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>43176</v>
+        <v>43001</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.8242442679882471</v>
+        <v>0.07516440162009062</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>43179</v>
+        <v>43004</v>
       </c>
       <c r="B189" t="n">
-        <v>0.06091256373365155</v>
+        <v>0.008595393539714941</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>43180</v>
+        <v>43005</v>
       </c>
       <c r="B190" t="n">
-        <v>0.2164311154390138</v>
+        <v>0.02389644765679331</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>43181</v>
+        <v>43006</v>
       </c>
       <c r="B191" t="n">
-        <v>0.01667765972828245</v>
+        <v>-0.001161050505682271</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>43182</v>
+        <v>43007</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1003436933267225</v>
+        <v>-0.02607582672898879</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>43183</v>
+        <v>43008</v>
       </c>
       <c r="B193" t="n">
-        <v>0.03959323982185991</v>
+        <v>-0.06432100396182563</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>43186</v>
+        <v>43011</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.05212009028041453</v>
+        <v>-0.2625849277419157</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>43187</v>
+        <v>43012</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.09215228346597994</v>
+        <v>-0.1233039759168718</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>43188</v>
+        <v>43013</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.1192337296554978</v>
+        <v>-0.1700456291610481</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>43189</v>
+        <v>43014</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.1627537222687322</v>
+        <v>-0.1543651396937676</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>43194</v>
+        <v>43015</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.04202048332135352</v>
+        <v>-0.4449045890078808</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>43195</v>
+        <v>43018</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.1535157136938916</v>
+        <v>-0.08951178585453383</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>43196</v>
+        <v>43019</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.06733690962884777</v>
+        <v>-0.1240805254569938</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>43197</v>
+        <v>43020</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.4397984528611186</v>
+        <v>0.04013290421191274</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>43200</v>
+        <v>43021</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.06694028780216826</v>
+        <v>0.02055752757111729</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>43201</v>
+        <v>43022</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.1437673196982591</v>
+        <v>-0.06343389239957309</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>43202</v>
+        <v>43025</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.06891307136886984</v>
+        <v>-0.0228210577052966</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>43203</v>
+        <v>43026</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.08757196269528407</v>
+        <v>0.1162952594133665</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>43204</v>
+        <v>43027</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.07483668022152201</v>
+        <v>0.07452200619437056</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>43207</v>
+        <v>43028</v>
       </c>
       <c r="B207" t="n">
-        <v>0.06755856890903066</v>
+        <v>-0.079249371615881</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43208</v>
+        <v>43029</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.04571358566453704</v>
+        <v>-0.03472983941992845</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43209</v>
+        <v>43032</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.02315478942596701</v>
+        <v>0.09105854340931718</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43210</v>
+        <v>43033</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.005386410340415661</v>
+        <v>-0.1599840104764335</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43211</v>
+        <v>43034</v>
       </c>
       <c r="B211" t="n">
-        <v>0.05167180370720746</v>
+        <v>0.03419049151437276</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43214</v>
+        <v>43035</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.0623192987053577</v>
+        <v>-0.2365204250521923</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43215</v>
+        <v>43036</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.1778703347347641</v>
+        <v>-0.9421637331037254</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43216</v>
+        <v>43039</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.03294579870525273</v>
+        <v>0.003081898851860568</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43217</v>
+        <v>43040</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0375752943356019</v>
+        <v>-0.1673543489165928</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43218</v>
+        <v>43041</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.1326350320718869</v>
+        <v>-0.1680407958215854</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>43223</v>
+        <v>43042</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.06792277275845177</v>
+        <v>-0.1109731227848613</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>43224</v>
+        <v>43043</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.0484714768357626</v>
+        <v>-0.03195821882088733</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>43225</v>
+        <v>43046</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.05119313551728796</v>
+        <v>-0.09378579228587069</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>43228</v>
+        <v>43047</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.0754713731264724</v>
+        <v>-0.04350939332113503</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>43229</v>
+        <v>43048</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.1182020767008416</v>
+        <v>-0.07050451915470564</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>43230</v>
+        <v>43049</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.0226098290694105</v>
+        <v>-0.1548791302458066</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>43231</v>
+        <v>43050</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.1322795469172341</v>
+        <v>-0.3025372045302291</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>43232</v>
+        <v>43053</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.05905466920827273</v>
+        <v>-0.04023684484099829</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>43235</v>
+        <v>43054</v>
       </c>
       <c r="B225" t="n">
-        <v>0.06936801328733676</v>
+        <v>0.1376383089733946</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>43236</v>
+        <v>43055</v>
       </c>
       <c r="B226" t="n">
-        <v>0.02126557786194956</v>
+        <v>-0.07479706089115594</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>43237</v>
+        <v>43056</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.03744908371355143</v>
+        <v>-0.08678821449024066</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>43238</v>
+        <v>43057</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.02909175443658368</v>
+        <v>-0.3102797570986059</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>43239</v>
+        <v>43060</v>
       </c>
       <c r="B229" t="n">
-        <v>0.00759657275383142</v>
+        <v>-0.01208514113674657</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>43242</v>
+        <v>43061</v>
       </c>
       <c r="B230" t="n">
-        <v>0.02182687389218676</v>
+        <v>-0.1566777589785923</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>43243</v>
+        <v>43062</v>
       </c>
       <c r="B231" t="n">
-        <v>0.1271266647419493</v>
+        <v>-0.2016968663816221</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>43244</v>
+        <v>43063</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.1121743715955836</v>
+        <v>-0.11733937497563</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>43245</v>
+        <v>43064</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.003822002474953309</v>
+        <v>-0.01629652903370884</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>43246</v>
+        <v>43067</v>
       </c>
       <c r="B234" t="n">
-        <v>0.05265455611599564</v>
+        <v>-0.1123499266660194</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>43249</v>
+        <v>43068</v>
       </c>
       <c r="B235" t="n">
-        <v>0.009845124652076948</v>
+        <v>0.07881662030971066</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>43250</v>
+        <v>43069</v>
       </c>
       <c r="B236" t="n">
-        <v>0.03765804839239928</v>
+        <v>0.1684895865763367</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>43251</v>
+        <v>43070</v>
       </c>
       <c r="B237" t="n">
-        <v>0.02798267950653271</v>
+        <v>0.1664820061943403</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>43252</v>
+        <v>43071</v>
       </c>
       <c r="B238" t="n">
-        <v>0.006718231929722366</v>
+        <v>-0.01975098277524466</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>43253</v>
+        <v>43074</v>
       </c>
       <c r="B239" t="n">
-        <v>0.05826379324323783</v>
+        <v>-0.1472877754637074</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>43256</v>
+        <v>43075</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.007763339716891417</v>
+        <v>-0.1400555651025787</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>43257</v>
+        <v>43076</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.004735658430740127</v>
+        <v>-0.1309156645254602</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>43258</v>
+        <v>43077</v>
       </c>
       <c r="B242" t="n">
-        <v>0.01989564425604393</v>
+        <v>-0.1863507716106968</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>43259</v>
+        <v>43078</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.0004396479609661075</v>
+        <v>-0.4905417147187717</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>43260</v>
+        <v>43081</v>
       </c>
       <c r="B244" t="n">
-        <v>0.002167084191101649</v>
+        <v>-0.1979491719950484</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>43263</v>
+        <v>43082</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.04891062402520174</v>
+        <v>-0.2015531503912326</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>43264</v>
+        <v>43083</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.06546027208493686</v>
+        <v>-0.1889262668982637</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>43265</v>
+        <v>43084</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.1020791182127248</v>
+        <v>-0.1679707993959227</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>43266</v>
+        <v>43085</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.06939965219364802</v>
+        <v>-0.07933849066132428</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>43267</v>
+        <v>43088</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.002275236795399761</v>
+        <v>-0.02871938786785439</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>43270</v>
+        <v>43089</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.04311783496448019</v>
+        <v>0.02826589027606527</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>43271</v>
+        <v>43090</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.06514924161645562</v>
+        <v>-0.16909108561497</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>43272</v>
+        <v>43091</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.01393317863956375</v>
+        <v>-0.1950446348992651</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>43273</v>
+        <v>43092</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.07086759791338335</v>
+        <v>-0.6169380485694482</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>43274</v>
+        <v>43097</v>
       </c>
       <c r="B254" t="n">
-        <v>0.1747055021754371</v>
+        <v>-0.1863802988829955</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>43277</v>
+        <v>43098</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.05255158137155206</v>
+        <v>-0.3898813182772113</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>43278</v>
+        <v>43099</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.061838071896679</v>
+        <v>-0.5612576602570769</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>43279</v>
+        <v>43103</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.08129638166870308</v>
+        <v>-0.6623866948657472</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>43280</v>
+        <v>43104</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.07477930620278629</v>
+        <v>-0.3364056916913025</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>43281</v>
+        <v>43105</v>
       </c>
       <c r="B259" t="n">
-        <v>0.3726691521507013</v>
+        <v>-0.2774622626557732</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>43284</v>
+        <v>43106</v>
       </c>
       <c r="B260" t="n">
-        <v>0.007055639220382509</v>
+        <v>-0.1836936469413466</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>43285</v>
+        <v>43109</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.05638770485246642</v>
+        <v>-0.09707771902437799</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>43286</v>
+        <v>43110</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.0665510629542289</v>
+        <v>-0.1158988221816826</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43287</v>
+        <v>43111</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.09239561057453585</v>
+        <v>-0.1435252369419652</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43288</v>
+        <v>43112</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.1225111579139306</v>
+        <v>-0.1677944532893511</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43291</v>
+        <v>43113</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.01882181959761437</v>
+        <v>-0.1095288557199239</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43292</v>
+        <v>43116</v>
       </c>
       <c r="B266" t="n">
-        <v>0.002509523315262863</v>
+        <v>-0.2743371050885055</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43293</v>
+        <v>43117</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.03846754428599636</v>
+        <v>-0.2518269396348894</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43294</v>
+        <v>43118</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.02535053427806016</v>
+        <v>-0.189434723051315</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43295</v>
+        <v>43119</v>
       </c>
       <c r="B269" t="n">
-        <v>0.04449767268732502</v>
+        <v>-0.1263866001892452</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43298</v>
+        <v>43120</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.03068600183061454</v>
+        <v>-0.1024465508778736</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43299</v>
+        <v>43123</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.01879178305995839</v>
+        <v>-0.1610460522614516</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43300</v>
+        <v>43124</v>
       </c>
       <c r="B272" t="n">
-        <v>0.01949312445601564</v>
+        <v>-0.191204901033939</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43301</v>
+        <v>43125</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.0498944357525624</v>
+        <v>-0.1661098557185483</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43302</v>
+        <v>43126</v>
       </c>
       <c r="B274" t="n">
-        <v>0.03922839025103172</v>
+        <v>-0.164410445774038</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43305</v>
+        <v>43127</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.01912849786725601</v>
+        <v>-0.1963287554291927</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43306</v>
+        <v>43130</v>
       </c>
       <c r="B276" t="n">
-        <v>0.008858664677193699</v>
+        <v>-0.177713096031485</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43307</v>
+        <v>43131</v>
       </c>
       <c r="B277" t="n">
-        <v>0.03148361850259773</v>
+        <v>-0.1515745462577107</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43308</v>
+        <v>43132</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.00545975657674807</v>
+        <v>-0.1937587502871229</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43309</v>
+        <v>43133</v>
       </c>
       <c r="B279" t="n">
-        <v>0.02199288508084746</v>
+        <v>-0.1112806102820967</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43312</v>
+        <v>43134</v>
       </c>
       <c r="B280" t="n">
-        <v>0.07399569620876413</v>
+        <v>-0.0358957924573898</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43313</v>
+        <v>43137</v>
       </c>
       <c r="B281" t="n">
-        <v>0.05933627957578911</v>
+        <v>0.01662374724804828</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43314</v>
+        <v>43138</v>
       </c>
       <c r="B282" t="n">
-        <v>0.04090024130456398</v>
+        <v>-0.1159832527233066</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43315</v>
+        <v>43139</v>
       </c>
       <c r="B283" t="n">
-        <v>0.1977186133113679</v>
+        <v>-0.08151028231971971</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43316</v>
+        <v>43140</v>
       </c>
       <c r="B284" t="n">
-        <v>0.1590344014057069</v>
+        <v>-0.1910117606000321</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43319</v>
+        <v>43141</v>
       </c>
       <c r="B285" t="n">
-        <v>0.1220831541724392</v>
+        <v>-0.04266395977146981</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43320</v>
+        <v>43144</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.003539291520547985</v>
+        <v>-0.06716840944591418</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43321</v>
+        <v>43145</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.04022876873830838</v>
+        <v>-0.04018695108637823</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43322</v>
+        <v>43146</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.03702086899887398</v>
+        <v>-0.1854224520611729</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43323</v>
+        <v>43147</v>
       </c>
       <c r="B289" t="n">
-        <v>0.1015304011480155</v>
+        <v>-0.08403245444623447</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43326</v>
+        <v>43148</v>
       </c>
       <c r="B290" t="n">
-        <v>0.09367769146024929</v>
+        <v>-0.05698910264011807</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43327</v>
+        <v>43151</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.003643611560201006</v>
+        <v>0.02785791366735986</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43328</v>
+        <v>43152</v>
       </c>
       <c r="B292" t="n">
-        <v>0.01206382204163142</v>
+        <v>-0.06580192237436196</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43329</v>
+        <v>43153</v>
       </c>
       <c r="B293" t="n">
-        <v>0.04399193826499007</v>
+        <v>-0.09143444780467479</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43330</v>
+        <v>43154</v>
       </c>
       <c r="B294" t="n">
-        <v>0.1105924193648672</v>
+        <v>-0.03704253464649954</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43333</v>
+        <v>43155</v>
       </c>
       <c r="B295" t="n">
-        <v>0.07700444374740477</v>
+        <v>-0.1633533937036855</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>43334</v>
+        <v>43158</v>
       </c>
       <c r="B296" t="n">
-        <v>0.09022854101613396</v>
+        <v>0.1416336249384962</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>43335</v>
+        <v>43159</v>
       </c>
       <c r="B297" t="n">
-        <v>0.06217389767948726</v>
+        <v>-0.04824111685283448</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>43336</v>
+        <v>43160</v>
       </c>
       <c r="B298" t="n">
-        <v>0.06018536425285565</v>
+        <v>-0.0891667836556983</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>43337</v>
+        <v>43161</v>
       </c>
       <c r="B299" t="n">
-        <v>0.1070636060331889</v>
+        <v>0.04809708601905658</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>43340</v>
+        <v>43162</v>
       </c>
       <c r="B300" t="n">
-        <v>0.04574560020144054</v>
+        <v>0.006498364800092556</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>43341</v>
+        <v>43165</v>
       </c>
       <c r="B301" t="n">
-        <v>0.02405545240417357</v>
+        <v>-0.01788349108871706</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>43342</v>
+        <v>43166</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.04330565399488818</v>
+        <v>-0.01655575919275845</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>43343</v>
+        <v>43167</v>
       </c>
       <c r="B303" t="n">
-        <v>0.03958455426482013</v>
+        <v>-0.04113151553815811</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>43344</v>
+        <v>43168</v>
       </c>
       <c r="B304" t="n">
-        <v>0.1196457718350634</v>
+        <v>-0.1234129741592799</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>43347</v>
+        <v>43169</v>
       </c>
       <c r="B305" t="n">
-        <v>0.01611640016648801</v>
+        <v>-0.02978115084160132</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>43348</v>
+        <v>43172</v>
       </c>
       <c r="B306" t="n">
-        <v>0.01589489141835371</v>
+        <v>-0.04931356456694135</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>43349</v>
+        <v>43173</v>
       </c>
       <c r="B307" t="n">
-        <v>0.009091713325641175</v>
+        <v>-0.01138532636630825</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>43350</v>
+        <v>43174</v>
       </c>
       <c r="B308" t="n">
-        <v>0.01499085336491914</v>
+        <v>-0.2008312947186446</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>43351</v>
+        <v>43175</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.002562865851540399</v>
+        <v>-0.2224806855300996</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>43354</v>
+        <v>43176</v>
       </c>
       <c r="B310" t="n">
-        <v>0.05067111076766995</v>
+        <v>-0.8242442679882471</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>43355</v>
+        <v>43179</v>
       </c>
       <c r="B311" t="n">
-        <v>0.004208810208625226</v>
+        <v>0.06091256373365155</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>43356</v>
+        <v>43180</v>
       </c>
       <c r="B312" t="n">
-        <v>0.04682924053434886</v>
+        <v>0.2164311154390138</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>43357</v>
+        <v>43181</v>
       </c>
       <c r="B313" t="n">
-        <v>0.04941256680421031</v>
+        <v>0.01667765972828245</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>43358</v>
+        <v>43182</v>
       </c>
       <c r="B314" t="n">
-        <v>0.07504421830518369</v>
+        <v>0.1003436933267225</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>43361</v>
+        <v>43183</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.03963994200948776</v>
+        <v>0.03959323982185991</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>43362</v>
+        <v>43186</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.01469292903930752</v>
+        <v>-0.05212009028041453</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>43363</v>
+        <v>43187</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.02099636921722419</v>
+        <v>-0.09215228346597994</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>43364</v>
+        <v>43188</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.02806679388233221</v>
+        <v>-0.1192337296554978</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>43365</v>
+        <v>43189</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.2497138677789376</v>
+        <v>-0.1627537222687322</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>43368</v>
+        <v>43194</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.08569360545559522</v>
+        <v>-0.04202048332135352</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>43369</v>
+        <v>43195</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.08285910645851237</v>
+        <v>-0.1535157136938916</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>43370</v>
+        <v>43196</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.09175455942389495</v>
+        <v>-0.06733690962884777</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>43371</v>
+        <v>43197</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.06579520013817182</v>
+        <v>-0.4397984528611186</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>43372</v>
+        <v>43200</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.08300402118495274</v>
+        <v>-0.06694028780216826</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>43375</v>
+        <v>43201</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.2419396097538953</v>
+        <v>-0.1437673196982591</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>43376</v>
+        <v>43202</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.653187864267465</v>
+        <v>-0.06891307136886984</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>43377</v>
+        <v>43203</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.03726344097772698</v>
+        <v>-0.08757196269528407</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>43378</v>
+        <v>43204</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.01734979155062044</v>
+        <v>-0.07483668022152201</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>43379</v>
+        <v>43207</v>
       </c>
       <c r="B329" t="n">
-        <v>0.002765023248006746</v>
+        <v>0.06755856890903066</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>43382</v>
+        <v>43208</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.004828636318509886</v>
+        <v>-0.04571358566453704</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>43383</v>
+        <v>43209</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.01450380619991191</v>
+        <v>-0.02315478942596701</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>43384</v>
+        <v>43210</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.09554724301046991</v>
+        <v>-0.005386410340415661</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>43385</v>
+        <v>43211</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.03778057291396039</v>
+        <v>0.05167180370720746</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>43386</v>
+        <v>43214</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.06589552232232712</v>
+        <v>-0.0623192987053577</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>43389</v>
+        <v>43215</v>
       </c>
       <c r="B335" t="n">
-        <v>0.01573441844841494</v>
+        <v>-0.1778703347347641</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>43390</v>
+        <v>43216</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.01658214701867491</v>
+        <v>-0.03294579870525273</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>43391</v>
+        <v>43217</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.07368325309606351</v>
+        <v>0.0375752943356019</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>43392</v>
+        <v>43218</v>
       </c>
       <c r="B338" t="n">
-        <v>0.0130578773950085</v>
+        <v>-0.1326350320718869</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>43393</v>
+        <v>43223</v>
       </c>
       <c r="B339" t="n">
-        <v>0.03691399879519121</v>
+        <v>-0.06792277275845177</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>43396</v>
+        <v>43224</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.3493760337177874</v>
+        <v>-0.0484714768357626</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>43397</v>
+        <v>43225</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.2862721224160663</v>
+        <v>-0.05119313551728796</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>43398</v>
+        <v>43228</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.1028648379126283</v>
+        <v>-0.0754713731264724</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>43399</v>
+        <v>43229</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.1367794152896341</v>
+        <v>-0.1182020767008416</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>43400</v>
+        <v>43230</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.150885393478849</v>
+        <v>-0.0226098290694105</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>43403</v>
+        <v>43231</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.3590397167563054</v>
+        <v>-0.1322795469172341</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>43404</v>
+        <v>43232</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.06711265253128308</v>
+        <v>-0.05905466920827273</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>43405</v>
+        <v>43235</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.03691835120492611</v>
+        <v>0.06936801328733676</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>43406</v>
+        <v>43236</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.05979676951966243</v>
+        <v>0.02126557786194956</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>43407</v>
+        <v>43237</v>
       </c>
       <c r="B349" t="n">
-        <v>0.08080713336927006</v>
+        <v>-0.03744908371355143</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>43410</v>
+        <v>43238</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.01344582799775243</v>
+        <v>-0.02909175443658368</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>43411</v>
+        <v>43239</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.008358557123455136</v>
+        <v>0.00759657275383142</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>43412</v>
+        <v>43242</v>
       </c>
       <c r="B352" t="n">
-        <v>0.02847708429770744</v>
+        <v>0.02182687389218676</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>43413</v>
+        <v>43243</v>
       </c>
       <c r="B353" t="n">
-        <v>0.006670121451546792</v>
+        <v>0.1271266647419493</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>43414</v>
+        <v>43244</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.05942164073376899</v>
+        <v>-0.1121743715955836</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>43417</v>
+        <v>43245</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.05334182781140762</v>
+        <v>-0.003822002474953309</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>43418</v>
+        <v>43246</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.03589650820752494</v>
+        <v>0.05265455611599564</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>43419</v>
+        <v>43249</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.0683166496066117</v>
+        <v>0.009845124652076948</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>43420</v>
+        <v>43250</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.04614716822523883</v>
+        <v>0.03765804839239928</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>43421</v>
+        <v>43251</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.03227843828826098</v>
+        <v>0.02798267950653271</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>43424</v>
+        <v>43252</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.09508426958257726</v>
+        <v>0.006718231929722366</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>43425</v>
+        <v>43253</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.04860662669543243</v>
+        <v>0.05826379324323783</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>43426</v>
+        <v>43256</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.08901560946339881</v>
+        <v>-0.007763339716891417</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>43427</v>
+        <v>43257</v>
       </c>
       <c r="B363" t="n">
-        <v>0.02571294986970779</v>
+        <v>-0.004735658430740127</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>43428</v>
+        <v>43258</v>
       </c>
       <c r="B364" t="n">
-        <v>0.09685117015161755</v>
+        <v>0.01989564425604393</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>43431</v>
+        <v>43259</v>
       </c>
       <c r="B365" t="n">
-        <v>0.06418362170143373</v>
+        <v>-0.0004396479609661075</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>43432</v>
+        <v>43260</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.06444217318750013</v>
+        <v>0.002167084191101649</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>43433</v>
+        <v>43263</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.09761325849885115</v>
+        <v>-0.04891062402520174</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>43434</v>
+        <v>43264</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.0569686539500197</v>
+        <v>-0.06546027208493686</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>43435</v>
+        <v>43265</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.04025153053647788</v>
+        <v>-0.1020791182127248</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>43438</v>
+        <v>43266</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.0414289561410312</v>
+        <v>-0.06939965219364802</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>43439</v>
+        <v>43267</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.1491717095571534</v>
+        <v>-0.002275236795399761</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>43440</v>
+        <v>43270</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.1604710032338714</v>
+        <v>-0.04311783496448019</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>43441</v>
+        <v>43271</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.1421501347708915</v>
+        <v>-0.06514924161645562</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>43442</v>
+        <v>43272</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.1743740654759798</v>
+        <v>-0.01393317863956375</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>43445</v>
+        <v>43273</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.1320448285953444</v>
+        <v>-0.07086759791338335</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>43446</v>
+        <v>43274</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.2195622591901998</v>
+        <v>0.1747055021754371</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>43447</v>
+        <v>43277</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.1854215880890271</v>
+        <v>-0.05255158137155206</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>43448</v>
+        <v>43278</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.3098590476018414</v>
+        <v>-0.061838071896679</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>43449</v>
+        <v>43279</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.002326237204349873</v>
+        <v>-0.08129638166870308</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>43452</v>
+        <v>43280</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.1217063913844039</v>
+        <v>-0.07477930620278629</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>43453</v>
+        <v>43281</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.153690423409008</v>
+        <v>0.3726691521507013</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>43454</v>
+        <v>43284</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.1833147162174467</v>
+        <v>0.007055639220382509</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>43455</v>
+        <v>43285</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.09616529163532345</v>
+        <v>-0.05638770485246642</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>43456</v>
+        <v>43286</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.1973130298206993</v>
+        <v>-0.0665510629542289</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>43462</v>
+        <v>43287</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.1036710772266489</v>
+        <v>-0.09239561057453585</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>43463</v>
+        <v>43288</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.2156178384042256</v>
+        <v>-0.1225111579139306</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>43468</v>
+        <v>43291</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.1547815825516128</v>
+        <v>-0.01882181959761437</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>43469</v>
+        <v>43292</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.171021185875072</v>
+        <v>0.002509523315262863</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>43470</v>
+        <v>43293</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.1688933325008069</v>
+        <v>-0.03846754428599636</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>43473</v>
+        <v>43294</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.3946316720118505</v>
+        <v>-0.02535053427806016</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>43474</v>
+        <v>43295</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.1474170253475838</v>
+        <v>0.04449767268732502</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>43475</v>
+        <v>43298</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.1932967190580633</v>
+        <v>-0.03068600183061454</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>43476</v>
+        <v>43299</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.05011210676301411</v>
+        <v>-0.01879178305995839</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>43477</v>
+        <v>43300</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.1123427412563382</v>
+        <v>0.01949312445601564</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>43480</v>
+        <v>43301</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.09732956746078582</v>
+        <v>-0.0498944357525624</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>43481</v>
+        <v>43302</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.1290603288165978</v>
+        <v>0.03922839025103172</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>43482</v>
+        <v>43305</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.1653932461557844</v>
+        <v>-0.01912849786725601</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>43483</v>
+        <v>43306</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.06723968280344492</v>
+        <v>0.008858664677193699</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>43484</v>
+        <v>43307</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.004482408107834531</v>
+        <v>0.03148361850259773</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>43487</v>
+        <v>43308</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.1163838179900653</v>
+        <v>-0.00545975657674807</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>43488</v>
+        <v>43309</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.2533523753960483</v>
+        <v>0.02199288508084746</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>43489</v>
+        <v>43312</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.1600485000885875</v>
+        <v>0.07399569620876413</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>43490</v>
+        <v>43313</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.1774366175639396</v>
+        <v>0.05933627957578911</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>43491</v>
+        <v>43314</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.05115837241090743</v>
+        <v>0.04090024130456398</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>43494</v>
+        <v>43315</v>
       </c>
       <c r="B405" t="n">
-        <v>-0.1922512566539409</v>
+        <v>0.1977186133113679</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>43495</v>
+        <v>43316</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.2292571283168029</v>
+        <v>0.1590344014057069</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>43496</v>
+        <v>43319</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.208449548891265</v>
+        <v>0.1220831541724392</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>43497</v>
+        <v>43320</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.116004153716843</v>
+        <v>-0.003539291520547985</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>43498</v>
+        <v>43321</v>
       </c>
       <c r="B409" t="n">
-        <v>0.01098280336860272</v>
+        <v>-0.04022876873830838</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>43501</v>
+        <v>43322</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.1058639658732912</v>
+        <v>-0.03702086899887398</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>43502</v>
+        <v>43323</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.1077936560016924</v>
+        <v>0.1015304011480155</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>43503</v>
+        <v>43326</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.1038795840187451</v>
+        <v>0.09367769146024929</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>43504</v>
+        <v>43327</v>
       </c>
       <c r="B413" t="n">
-        <v>-0.143074715028626</v>
+        <v>-0.003643611560201006</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>43505</v>
+        <v>43328</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.1494064066923234</v>
+        <v>0.01206382204163142</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>43508</v>
+        <v>43329</v>
       </c>
       <c r="B415" t="n">
-        <v>-0.1317693644872034</v>
+        <v>0.04399193826499007</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>43509</v>
+        <v>43330</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.160550827715335</v>
+        <v>0.1105924193648672</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>43510</v>
+        <v>43333</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.1733537976291212</v>
+        <v>0.07700444374740477</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>43511</v>
+        <v>43334</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.1731625210275518</v>
+        <v>0.09022854101613396</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>43512</v>
+        <v>43335</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.06638712200404424</v>
+        <v>0.06217389767948726</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>43515</v>
+        <v>43336</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.181151929085987</v>
+        <v>0.06018536425285565</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>43516</v>
+        <v>43337</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.1366973024704397</v>
+        <v>0.1070636060331889</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>43517</v>
+        <v>43340</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.1057011786033975</v>
+        <v>0.04574560020144054</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>43518</v>
+        <v>43341</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.1579206522095183</v>
+        <v>0.02405545240417357</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>43519</v>
+        <v>43342</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.06925936110499907</v>
+        <v>-0.04330565399488818</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>43522</v>
+        <v>43343</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.1547262403262676</v>
+        <v>0.03958455426482013</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>43523</v>
+        <v>43344</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.2016797130133796</v>
+        <v>0.1196457718350634</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>43524</v>
+        <v>43347</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.1239206830556315</v>
+        <v>0.01611640016648801</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>43525</v>
+        <v>43348</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.08572412343394463</v>
+        <v>0.01589489141835371</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>43526</v>
+        <v>43349</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.02108860201917226</v>
+        <v>0.009091713325641175</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>43529</v>
+        <v>43350</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.2168554518332438</v>
+        <v>0.01499085336491914</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>43530</v>
+        <v>43351</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.04026696708972923</v>
+        <v>-0.002562865851540399</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>43531</v>
+        <v>43354</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.08540193223751767</v>
+        <v>0.05067111076766995</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43532</v>
+        <v>43355</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.2371586986310157</v>
+        <v>0.004208810208625226</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43533</v>
+        <v>43356</v>
       </c>
       <c r="B434" t="n">
-        <v>0.2704861859728456</v>
+        <v>0.04682924053434886</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43536</v>
+        <v>43357</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.06708845260287202</v>
+        <v>0.04941256680421031</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43537</v>
+        <v>43358</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.2947840126489472</v>
+        <v>0.07504421830518369</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43538</v>
+        <v>43361</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.1188317432885077</v>
+        <v>-0.03963994200948776</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43539</v>
+        <v>43362</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.1413999940777444</v>
+        <v>-0.01469292903930752</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43540</v>
+        <v>43363</v>
       </c>
       <c r="B439" t="n">
-        <v>-0.1848943264863058</v>
+        <v>-0.02099636921722419</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43543</v>
+        <v>43364</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.04182325149834776</v>
+        <v>-0.02806679388233221</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43544</v>
+        <v>43365</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.0728705163691211</v>
+        <v>-0.2497138677789376</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43545</v>
+        <v>43368</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.1028280727524678</v>
+        <v>-0.08569360545559522</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43546</v>
+        <v>43369</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.1293294116505999</v>
+        <v>-0.08285910645851237</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43547</v>
+        <v>43370</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.1158315709917753</v>
+        <v>-0.09175455942389495</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43550</v>
+        <v>43371</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.1303065646228612</v>
+        <v>-0.06579520013817182</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43551</v>
+        <v>43372</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.1024266453868693</v>
+        <v>-0.08300402118495274</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43552</v>
+        <v>43375</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.106158288956706</v>
+        <v>-0.2419396097538953</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43553</v>
+        <v>43376</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.1127840455006859</v>
+        <v>-0.653187864267465</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43554</v>
+        <v>43377</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.03748121398754469</v>
+        <v>-0.03726344097772698</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43557</v>
+        <v>43378</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.1010834715509833</v>
+        <v>-0.01734979155062044</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43558</v>
+        <v>43379</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.03390465460510597</v>
+        <v>0.002765023248006746</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43559</v>
+        <v>43382</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.009015416811422419</v>
+        <v>-0.004828636318509886</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43560</v>
+        <v>43383</v>
       </c>
       <c r="B453" t="n">
-        <v>-8.44469039071772e-05</v>
+        <v>-0.01450380619991191</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43561</v>
+        <v>43384</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.003867755981684654</v>
+        <v>-0.09554724301046991</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43564</v>
+        <v>43385</v>
       </c>
       <c r="B455" t="n">
-        <v>0.005240480290791997</v>
+        <v>-0.03778057291396039</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43565</v>
+        <v>43386</v>
       </c>
       <c r="B456" t="n">
-        <v>0.001383972147097356</v>
+        <v>-0.06589552232232712</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43566</v>
+        <v>43389</v>
       </c>
       <c r="B457" t="n">
-        <v>-0.01845434289017954</v>
+        <v>0.01573441844841494</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43567</v>
+        <v>43390</v>
       </c>
       <c r="B458" t="n">
-        <v>-0.03037129708735568</v>
+        <v>-0.01658214701867491</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43568</v>
+        <v>43391</v>
       </c>
       <c r="B459" t="n">
-        <v>0.01488607800477391</v>
+        <v>-0.07368325309606351</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43571</v>
+        <v>43392</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.03404878991987306</v>
+        <v>0.0130578773950085</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43572</v>
+        <v>43393</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.008738186900189413</v>
+        <v>0.03691399879519121</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43573</v>
+        <v>43396</v>
       </c>
       <c r="B462" t="n">
-        <v>0.00278620762915662</v>
+        <v>-0.3493760337177874</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43574</v>
+        <v>43397</v>
       </c>
       <c r="B463" t="n">
-        <v>0.05836337306913217</v>
+        <v>-0.2862721224160663</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43579</v>
+        <v>43398</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.1457181209598831</v>
+        <v>-0.1028648379126283</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43580</v>
+        <v>43399</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.06354274906470413</v>
+        <v>-0.1367794152896341</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43581</v>
+        <v>43400</v>
       </c>
       <c r="B466" t="n">
-        <v>-0.01736816350814919</v>
+        <v>-0.150885393478849</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43582</v>
+        <v>43403</v>
       </c>
       <c r="B467" t="n">
-        <v>0.00902101787119257</v>
+        <v>-0.3590397167563054</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43585</v>
+        <v>43404</v>
       </c>
       <c r="B468" t="n">
-        <v>0.005031112891703044</v>
+        <v>-0.06711265253128308</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>43586</v>
+        <v>43405</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.1558387538080347</v>
+        <v>-0.03691835120492611</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>43588</v>
+        <v>43406</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.08132950764642875</v>
+        <v>-0.05979676951966243</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>43589</v>
+        <v>43407</v>
       </c>
       <c r="B471" t="n">
-        <v>0.01702404680276958</v>
+        <v>0.08080713336927006</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>43592</v>
+        <v>43410</v>
       </c>
       <c r="B472" t="n">
-        <v>0.05628025044861148</v>
+        <v>-0.01344582799775243</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>43593</v>
+        <v>43411</v>
       </c>
       <c r="B473" t="n">
-        <v>0.03057975678572696</v>
+        <v>-0.008358557123455136</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>43594</v>
+        <v>43412</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.02056844358933265</v>
+        <v>0.02847708429770744</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>43595</v>
+        <v>43413</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.008385851327221588</v>
+        <v>0.006670121451546792</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>43596</v>
+        <v>43414</v>
       </c>
       <c r="B476" t="n">
-        <v>0.00145988477091403</v>
+        <v>-0.05942164073376899</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>43599</v>
+        <v>43417</v>
       </c>
       <c r="B477" t="n">
-        <v>0.01933322257133398</v>
+        <v>-0.05334182781140762</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>43600</v>
+        <v>43418</v>
       </c>
       <c r="B478" t="n">
-        <v>-0.01556032629547312</v>
+        <v>-0.03589650820752494</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>43601</v>
+        <v>43419</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.02752616416029513</v>
+        <v>-0.0683166496066117</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>43602</v>
+        <v>43420</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.05165824246123698</v>
+        <v>-0.04614716822523883</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>43603</v>
+        <v>43421</v>
       </c>
       <c r="B481" t="n">
-        <v>0.03843500582469757</v>
+        <v>-0.03227843828826098</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>43606</v>
+        <v>43424</v>
       </c>
       <c r="B482" t="n">
-        <v>0.01661901091433224</v>
+        <v>-0.09508426958257726</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>43607</v>
+        <v>43425</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.01641612221188334</v>
+        <v>-0.04860662669543243</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>43608</v>
+        <v>43426</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.02009336109789035</v>
+        <v>-0.08901560946339881</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>43609</v>
+        <v>43427</v>
       </c>
       <c r="B485" t="n">
-        <v>0.008718414939815677</v>
+        <v>0.02571294986970779</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>43610</v>
+        <v>43428</v>
       </c>
       <c r="B486" t="n">
-        <v>0.02324800658599491</v>
+        <v>0.09685117015161755</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>43613</v>
+        <v>43431</v>
       </c>
       <c r="B487" t="n">
-        <v>0.003295350070283128</v>
+        <v>0.06418362170143373</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>43614</v>
+        <v>43432</v>
       </c>
       <c r="B488" t="n">
-        <v>0.0208205289502799</v>
+        <v>-0.06444217318750013</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>43615</v>
+        <v>43433</v>
       </c>
       <c r="B489" t="n">
-        <v>0.2027952848301202</v>
+        <v>-0.09761325849885115</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>43616</v>
+        <v>43434</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.05685749833977512</v>
+        <v>-0.0569686539500197</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>43617</v>
+        <v>43435</v>
       </c>
       <c r="B491" t="n">
-        <v>-0.03083536600710918</v>
+        <v>-0.04025153053647788</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>43620</v>
+        <v>43438</v>
       </c>
       <c r="B492" t="n">
-        <v>0.007928624850847339</v>
+        <v>-0.0414289561410312</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>43621</v>
+        <v>43439</v>
       </c>
       <c r="B493" t="n">
-        <v>-0.02612969658107027</v>
+        <v>-0.1491717095571534</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>43622</v>
+        <v>43440</v>
       </c>
       <c r="B494" t="n">
-        <v>0.001266267789262482</v>
+        <v>-0.1604710032338714</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>43623</v>
+        <v>43441</v>
       </c>
       <c r="B495" t="n">
-        <v>0.02533524088025345</v>
+        <v>-0.1421501347708915</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>43627</v>
+        <v>43442</v>
       </c>
       <c r="B496" t="n">
-        <v>0.06746871986880267</v>
+        <v>-0.1743740654759798</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>43628</v>
+        <v>43445</v>
       </c>
       <c r="B497" t="n">
-        <v>0.02428777755138619</v>
+        <v>-0.1320448285953444</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>43629</v>
+        <v>43446</v>
       </c>
       <c r="B498" t="n">
-        <v>-0.04047759641775135</v>
+        <v>-0.2195622591901998</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>43630</v>
+        <v>43447</v>
       </c>
       <c r="B499" t="n">
-        <v>0.05744644877549925</v>
+        <v>-0.1854215880890271</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>43631</v>
+        <v>43448</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.08755181366595804</v>
+        <v>-0.3098590476018414</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>43634</v>
+        <v>43449</v>
       </c>
       <c r="B501" t="n">
-        <v>0.05529956211865333</v>
+        <v>-0.002326237204349873</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>43635</v>
+        <v>43452</v>
       </c>
       <c r="B502" t="n">
-        <v>0.0285336106348642</v>
+        <v>-0.1217063913844039</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>43636</v>
+        <v>43453</v>
       </c>
       <c r="B503" t="n">
-        <v>0.03361705591390339</v>
+        <v>-0.153690423409008</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>43637</v>
+        <v>43454</v>
       </c>
       <c r="B504" t="n">
-        <v>0.02772371842164648</v>
+        <v>-0.1833147162174467</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>43638</v>
+        <v>43455</v>
       </c>
       <c r="B505" t="n">
-        <v>0.005705760219142014</v>
+        <v>-0.09616529163532345</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>43641</v>
+        <v>43456</v>
       </c>
       <c r="B506" t="n">
-        <v>0.06619457333158338</v>
+        <v>-0.1973130298206993</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>43642</v>
+        <v>43462</v>
       </c>
       <c r="B507" t="n">
-        <v>0.0572019168050177</v>
+        <v>-0.1036710772266489</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>43643</v>
+        <v>43463</v>
       </c>
       <c r="B508" t="n">
-        <v>0.0279986328321248</v>
+        <v>-0.2156178384042256</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>43644</v>
+        <v>43468</v>
       </c>
       <c r="B509" t="n">
-        <v>0.1248453351296356</v>
+        <v>-0.1547815825516128</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>43645</v>
+        <v>43469</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.02916361532164902</v>
+        <v>-0.171021185875072</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>43648</v>
+        <v>43470</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.02656040505346284</v>
+        <v>-0.1688933325008069</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>43649</v>
+        <v>43473</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.05034232184286994</v>
+        <v>-0.3946316720118505</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>43650</v>
+        <v>43474</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.08819099607550519</v>
+        <v>-0.1474170253475838</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>43651</v>
+        <v>43475</v>
       </c>
       <c r="B514" t="n">
-        <v>-0.03318162893515534</v>
+        <v>-0.1932967190580633</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>43652</v>
+        <v>43476</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.06774954871909145</v>
+        <v>-0.05011210676301411</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>43655</v>
+        <v>43477</v>
       </c>
       <c r="B516" t="n">
-        <v>0.01134399467541333</v>
+        <v>-0.1123427412563382</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>43656</v>
+        <v>43480</v>
       </c>
       <c r="B517" t="n">
-        <v>0.05306169110628393</v>
+        <v>-0.09732956746078582</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>43657</v>
+        <v>43481</v>
       </c>
       <c r="B518" t="n">
-        <v>0.1093620872164987</v>
+        <v>-0.1290603288165978</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>43658</v>
+        <v>43482</v>
       </c>
       <c r="B519" t="n">
-        <v>0.08422321156181291</v>
+        <v>-0.1653932461557844</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>43659</v>
+        <v>43483</v>
       </c>
       <c r="B520" t="n">
-        <v>0.09543020555669292</v>
+        <v>-0.06723968280344492</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>43662</v>
+        <v>43484</v>
       </c>
       <c r="B521" t="n">
-        <v>0.08047589310109993</v>
+        <v>-0.004482408107834531</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>43663</v>
+        <v>43487</v>
       </c>
       <c r="B522" t="n">
-        <v>0.09127993676374126</v>
+        <v>-0.1163838179900653</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>43664</v>
+        <v>43488</v>
       </c>
       <c r="B523" t="n">
-        <v>0.1088272252160747</v>
+        <v>-0.2533523753960483</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>43665</v>
+        <v>43489</v>
       </c>
       <c r="B524" t="n">
-        <v>0.03232972746921448</v>
+        <v>-0.1600485000885875</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>43666</v>
+        <v>43490</v>
       </c>
       <c r="B525" t="n">
-        <v>0.07420118126601749</v>
+        <v>-0.1774366175639396</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>43669</v>
+        <v>43491</v>
       </c>
       <c r="B526" t="n">
-        <v>0.1168678960722502</v>
+        <v>-0.05115837241090743</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>43670</v>
+        <v>43494</v>
       </c>
       <c r="B527" t="n">
-        <v>0.146254756897546</v>
+        <v>-0.1922512566539409</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>43671</v>
+        <v>43495</v>
       </c>
       <c r="B528" t="n">
-        <v>0.2266793998426641</v>
+        <v>-0.2292571283168029</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>43672</v>
+        <v>43496</v>
       </c>
       <c r="B529" t="n">
-        <v>0.1327495403440523</v>
+        <v>-0.208449548891265</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>43673</v>
+        <v>43497</v>
       </c>
       <c r="B530" t="n">
-        <v>0.06066056129127696</v>
+        <v>-0.116004153716843</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>43676</v>
+        <v>43498</v>
       </c>
       <c r="B531" t="n">
-        <v>0.140336633676044</v>
+        <v>0.01098280336860272</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>43677</v>
+        <v>43501</v>
       </c>
       <c r="B532" t="n">
-        <v>0.0907509681879963</v>
+        <v>-0.1058639658732912</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>43678</v>
+        <v>43502</v>
       </c>
       <c r="B533" t="n">
-        <v>0.1478060424498919</v>
+        <v>-0.1077936560016924</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>43679</v>
+        <v>43503</v>
       </c>
       <c r="B534" t="n">
-        <v>0.1345903858583871</v>
+        <v>-0.1038795840187451</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>43680</v>
+        <v>43504</v>
       </c>
       <c r="B535" t="n">
-        <v>0.04373589815942756</v>
+        <v>-0.143074715028626</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>43683</v>
+        <v>43505</v>
       </c>
       <c r="B536" t="n">
-        <v>0.02896888995709318</v>
+        <v>-0.1494064066923234</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>43684</v>
+        <v>43508</v>
       </c>
       <c r="B537" t="n">
-        <v>0.05212953732854535</v>
+        <v>-0.1317693644872034</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>43685</v>
+        <v>43509</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.01476900053694584</v>
+        <v>-0.160550827715335</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>43686</v>
+        <v>43510</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.01869365004388277</v>
+        <v>-0.1733537976291212</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>43687</v>
+        <v>43511</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.3383008034357077</v>
+        <v>-0.1731625210275518</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>43690</v>
+        <v>43512</v>
       </c>
       <c r="B541" t="n">
-        <v>0.05219984113495648</v>
+        <v>-0.06638712200404424</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>43691</v>
+        <v>43515</v>
       </c>
       <c r="B542" t="n">
-        <v>0.09540346143397183</v>
+        <v>-0.181151929085987</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>43692</v>
+        <v>43516</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.05416700893135788</v>
+        <v>-0.1366973024704397</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>43693</v>
+        <v>43517</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.05918656268902572</v>
+        <v>-0.1057011786033975</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>43694</v>
+        <v>43518</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.08203908988154908</v>
+        <v>-0.1579206522095183</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>43697</v>
+        <v>43519</v>
       </c>
       <c r="B546" t="n">
-        <v>0.008643612194722565</v>
+        <v>-0.06925936110499907</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>43698</v>
+        <v>43522</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.008241273360993459</v>
+        <v>-0.1547262403262676</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>43699</v>
+        <v>43523</v>
       </c>
       <c r="B548" t="n">
-        <v>-0.02000000601252049</v>
+        <v>-0.2016797130133796</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>43700</v>
+        <v>43524</v>
       </c>
       <c r="B549" t="n">
-        <v>-0.04396403200781605</v>
+        <v>-0.1239206830556315</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>43701</v>
+        <v>43525</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.05517843338789236</v>
+        <v>-0.08572412343394463</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>43704</v>
+        <v>43526</v>
       </c>
       <c r="B551" t="n">
-        <v>0.05165888347078276</v>
+        <v>-0.02108860201917226</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>43705</v>
+        <v>43529</v>
       </c>
       <c r="B552" t="n">
-        <v>0.1342444671079855</v>
+        <v>-0.2168554518332438</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>43706</v>
+        <v>43530</v>
       </c>
       <c r="B553" t="n">
-        <v>0.1390006063528235</v>
+        <v>-0.04026696708972923</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>43707</v>
+        <v>43531</v>
       </c>
       <c r="B554" t="n">
-        <v>0.07476645605153415</v>
+        <v>-0.08540193223751767</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>43708</v>
+        <v>43532</v>
       </c>
       <c r="B555" t="n">
-        <v>-0.02575093006415476</v>
+        <v>-0.2371586986310157</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>43711</v>
+        <v>43533</v>
       </c>
       <c r="B556" t="n">
-        <v>-0.100720146380516</v>
+        <v>0.2704861859728456</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>43712</v>
+        <v>43536</v>
       </c>
       <c r="B557" t="n">
-        <v>-0.1643807686670191</v>
+        <v>-0.06708845260287202</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>43713</v>
+        <v>43537</v>
       </c>
       <c r="B558" t="n">
-        <v>-0.1367686560810194</v>
+        <v>-0.2947840126489472</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>43714</v>
+        <v>43538</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.1169786591120301</v>
+        <v>-0.1188317432885077</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>43715</v>
+        <v>43539</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.08687640363034065</v>
+        <v>-0.1413999940777444</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>43718</v>
+        <v>43540</v>
       </c>
       <c r="B561" t="n">
-        <v>-0.1041643457272653</v>
+        <v>-0.1848943264863058</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>43719</v>
+        <v>43543</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.1391240442255268</v>
+        <v>-0.04182325149834776</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>43720</v>
+        <v>43544</v>
       </c>
       <c r="B563" t="n">
-        <v>-0.09845591504564329</v>
+        <v>-0.0728705163691211</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>43721</v>
+        <v>43545</v>
       </c>
       <c r="B564" t="n">
-        <v>-0.09532811146265621</v>
+        <v>-0.1028280727524678</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>43722</v>
+        <v>43546</v>
       </c>
       <c r="B565" t="n">
-        <v>0.002062167671684955</v>
+        <v>-0.1293294116505999</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>43725</v>
+        <v>43547</v>
       </c>
       <c r="B566" t="n">
-        <v>-0.08285402214906519</v>
+        <v>-0.1158315709917753</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>43726</v>
+        <v>43550</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.1201149446343533</v>
+        <v>-0.1303065646228612</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>43727</v>
+        <v>43551</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.004277828981747253</v>
+        <v>-0.1024266453868693</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>43728</v>
+        <v>43552</v>
       </c>
       <c r="B569" t="n">
-        <v>0.01508272228726244</v>
+        <v>-0.106158288956706</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>43729</v>
+        <v>43553</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.06458981517174815</v>
+        <v>-0.1127840455006859</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>43732</v>
+        <v>43554</v>
       </c>
       <c r="B571" t="n">
-        <v>0.03428223074132708</v>
+        <v>-0.03748121398754469</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>43733</v>
+        <v>43557</v>
       </c>
       <c r="B572" t="n">
-        <v>0.06810038943187245</v>
+        <v>-0.1010834715509833</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>43734</v>
+        <v>43558</v>
       </c>
       <c r="B573" t="n">
-        <v>-0.02005196518780555</v>
+        <v>-0.03390465460510597</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>43735</v>
+        <v>43559</v>
       </c>
       <c r="B574" t="n">
-        <v>-0.04991581794704435</v>
+        <v>-0.009015416811422419</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>43736</v>
+        <v>43560</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.1137104007178478</v>
+        <v>-8.44469039071772e-05</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>43739</v>
+        <v>43561</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.05327789234203358</v>
+        <v>-0.003867755981684654</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>43740</v>
+        <v>43564</v>
       </c>
       <c r="B577" t="n">
-        <v>0.005123191805900444</v>
+        <v>0.005240480290791997</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>43741</v>
+        <v>43565</v>
       </c>
       <c r="B578" t="n">
-        <v>-0.08078180477859281</v>
+        <v>0.001383972147097356</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>43742</v>
+        <v>43566</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.1005936639889635</v>
+        <v>-0.01845434289017954</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>43743</v>
+        <v>43567</v>
       </c>
       <c r="B580" t="n">
-        <v>-0.04182827662838138</v>
+        <v>-0.03037129708735568</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>43746</v>
+        <v>43568</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.1378832187843642</v>
+        <v>0.01488607800477391</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>43747</v>
+        <v>43571</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.1742055165891509</v>
+        <v>-0.03404878991987306</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>43748</v>
+        <v>43572</v>
       </c>
       <c r="B583" t="n">
-        <v>-0.1453083734434957</v>
+        <v>-0.008738186900189413</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>43749</v>
+        <v>43573</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.2480520060618865</v>
+        <v>0.00278620762915662</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>43750</v>
+        <v>43574</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.2991795151211966</v>
+        <v>0.05836337306913217</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>43753</v>
+        <v>43579</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.167357806017869</v>
+        <v>-0.1457181209598831</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>43754</v>
+        <v>43580</v>
       </c>
       <c r="B587" t="n">
-        <v>-0.1061814993942923</v>
+        <v>-0.06354274906470413</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>43755</v>
+        <v>43581</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.07261361055914177</v>
+        <v>-0.01736816350814919</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>43756</v>
+        <v>43582</v>
       </c>
       <c r="B589" t="n">
-        <v>-0.134835820162865</v>
+        <v>0.00902101787119257</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>43757</v>
+        <v>43585</v>
       </c>
       <c r="B590" t="n">
-        <v>-0.1254752868060139</v>
+        <v>0.005031112891703044</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>43760</v>
+        <v>43586</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.04508749214177566</v>
+        <v>-0.1558387538080347</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>43761</v>
+        <v>43588</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.0782503554183509</v>
+        <v>-0.08132950764642875</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>43762</v>
+        <v>43589</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.1318071776097514</v>
+        <v>0.01702404680276958</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>43763</v>
+        <v>43592</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.09678108889136944</v>
+        <v>0.05628025044861148</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>43764</v>
+        <v>43593</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.3361744116142422</v>
+        <v>0.03057975678572696</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>43767</v>
+        <v>43594</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.0530684169098324</v>
+        <v>-0.02056844358933265</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>43768</v>
+        <v>43595</v>
       </c>
       <c r="B597" t="n">
-        <v>-0.02690011434388767</v>
+        <v>-0.008385851327221588</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>43769</v>
+        <v>43596</v>
       </c>
       <c r="B598" t="n">
-        <v>-0.06685437458188569</v>
+        <v>0.00145988477091403</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>43770</v>
+        <v>43599</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.1758995420226555</v>
+        <v>0.01933322257133398</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>43771</v>
+        <v>43600</v>
       </c>
       <c r="B600" t="n">
-        <v>-0.2297490617521531</v>
+        <v>-0.01556032629547312</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>43774</v>
+        <v>43601</v>
       </c>
       <c r="B601" t="n">
-        <v>-0.08137218962563006</v>
+        <v>-0.02752616416029513</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>43775</v>
+        <v>43602</v>
       </c>
       <c r="B602" t="n">
-        <v>-0.1311693013091949</v>
+        <v>-0.05165824246123698</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>43776</v>
+        <v>43603</v>
       </c>
       <c r="B603" t="n">
-        <v>-0.08986556564289924</v>
+        <v>0.03843500582469757</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>43777</v>
+        <v>43606</v>
       </c>
       <c r="B604" t="n">
-        <v>-0.09081901076312635</v>
+        <v>0.01661901091433224</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>43778</v>
+        <v>43607</v>
       </c>
       <c r="B605" t="n">
-        <v>0.006669109270681421</v>
+        <v>-0.01641612221188334</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>43781</v>
+        <v>43608</v>
       </c>
       <c r="B606" t="n">
-        <v>-0.01891913128809755</v>
+        <v>-0.02009336109789035</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>43782</v>
+        <v>43609</v>
       </c>
       <c r="B607" t="n">
-        <v>0.05256548592351644</v>
+        <v>0.008718414939815677</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>43783</v>
+        <v>43610</v>
       </c>
       <c r="B608" t="n">
-        <v>-0.02771731026637619</v>
+        <v>0.02324800658599491</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>43784</v>
+        <v>43613</v>
       </c>
       <c r="B609" t="n">
-        <v>-0.07972817082726785</v>
+        <v>0.003295350070283128</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>43785</v>
+        <v>43614</v>
       </c>
       <c r="B610" t="n">
-        <v>0.002094002605429616</v>
+        <v>0.0208205289502799</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>43788</v>
+        <v>43615</v>
       </c>
       <c r="B611" t="n">
-        <v>-0.03818828098259397</v>
+        <v>0.2027952848301202</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>43789</v>
+        <v>43616</v>
       </c>
       <c r="B612" t="n">
-        <v>0.01571907062730717</v>
+        <v>-0.05685749833977512</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>43790</v>
+        <v>43617</v>
       </c>
       <c r="B613" t="n">
-        <v>-0.06502919107748317</v>
+        <v>-0.03083536600710918</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>43791</v>
+        <v>43620</v>
       </c>
       <c r="B614" t="n">
-        <v>-0.1482401240928097</v>
+        <v>0.007928624850847339</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>43792</v>
+        <v>43621</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.1194067834669983</v>
+        <v>-0.02612969658107027</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>43795</v>
+        <v>43622</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.05597684905804496</v>
+        <v>0.001266267789262482</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>43796</v>
+        <v>43623</v>
       </c>
       <c r="B617" t="n">
-        <v>-0.09692258373690804</v>
+        <v>0.02533524088025345</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>43797</v>
+        <v>43627</v>
       </c>
       <c r="B618" t="n">
-        <v>-0.220018408850944</v>
+        <v>0.06746871986880267</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>43798</v>
+        <v>43628</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.1087508395087451</v>
+        <v>0.02428777755138619</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>43799</v>
+        <v>43629</v>
       </c>
       <c r="B620" t="n">
-        <v>-0.07891359797161836</v>
+        <v>-0.04047759641775135</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>43802</v>
+        <v>43630</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.0205413038594522</v>
+        <v>0.05744644877549925</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>43803</v>
+        <v>43631</v>
       </c>
       <c r="B622" t="n">
-        <v>0.007127768965302461</v>
+        <v>-0.08755181366595804</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>43804</v>
+        <v>43634</v>
       </c>
       <c r="B623" t="n">
-        <v>-0.0414302803860382</v>
+        <v>0.05529956211865333</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>43805</v>
+        <v>43635</v>
       </c>
       <c r="B624" t="n">
-        <v>-0.2497766424330141</v>
+        <v>0.0285336106348642</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>43806</v>
+        <v>43636</v>
       </c>
       <c r="B625" t="n">
-        <v>-0.3666682274724083</v>
+        <v>0.03361705591390339</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>43809</v>
+        <v>43637</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.04516157554198218</v>
+        <v>0.02772371842164648</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>43810</v>
+        <v>43638</v>
       </c>
       <c r="B627" t="n">
-        <v>-0.1430956686522662</v>
+        <v>0.005705760219142014</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>43811</v>
+        <v>43641</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.1784529149410046</v>
+        <v>0.06619457333158338</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>43812</v>
+        <v>43642</v>
       </c>
       <c r="B629" t="n">
-        <v>-0.1690322920464461</v>
+        <v>0.0572019168050177</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>43813</v>
+        <v>43643</v>
       </c>
       <c r="B630" t="n">
-        <v>-0.2551569891366094</v>
+        <v>0.0279986328321248</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>43816</v>
+        <v>43644</v>
       </c>
       <c r="B631" t="n">
-        <v>-0.1175305618488406</v>
+        <v>0.1248453351296356</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>43817</v>
+        <v>43645</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.1248194610035688</v>
+        <v>-0.02916361532164902</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>43818</v>
+        <v>43648</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.1626970754713135</v>
+        <v>-0.02656040505346284</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>43819</v>
+        <v>43649</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.2477341121248013</v>
+        <v>-0.05034232184286994</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>43820</v>
+        <v>43650</v>
       </c>
       <c r="B635" t="n">
-        <v>-0.216188263648341</v>
+        <v>-0.08819099607550519</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>43823</v>
+        <v>43651</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.3780933399957348</v>
+        <v>-0.03318162893515534</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>43827</v>
+        <v>43652</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.135218540470627</v>
+        <v>-0.06774954871909145</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
+        <v>43655</v>
+      </c>
+      <c r="B638" t="n">
+        <v>0.01134399467541333</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>43656</v>
+      </c>
+      <c r="B639" t="n">
+        <v>0.05306169110628393</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>43657</v>
+      </c>
+      <c r="B640" t="n">
+        <v>0.1093620872164987</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>43658</v>
+      </c>
+      <c r="B641" t="n">
+        <v>0.08422321156181291</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>43659</v>
+      </c>
+      <c r="B642" t="n">
+        <v>0.09543020555669292</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>43662</v>
+      </c>
+      <c r="B643" t="n">
+        <v>0.08047589310109993</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>43663</v>
+      </c>
+      <c r="B644" t="n">
+        <v>0.09127993676374126</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>43664</v>
+      </c>
+      <c r="B645" t="n">
+        <v>0.1088272252160747</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>43665</v>
+      </c>
+      <c r="B646" t="n">
+        <v>0.03232972746921448</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>43666</v>
+      </c>
+      <c r="B647" t="n">
+        <v>0.07420118126601749</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>43669</v>
+      </c>
+      <c r="B648" t="n">
+        <v>0.1168678960722502</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>43670</v>
+      </c>
+      <c r="B649" t="n">
+        <v>0.146254756897546</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>43671</v>
+      </c>
+      <c r="B650" t="n">
+        <v>0.2266793998426641</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>43672</v>
+      </c>
+      <c r="B651" t="n">
+        <v>0.1327495403440523</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>43673</v>
+      </c>
+      <c r="B652" t="n">
+        <v>0.06066056129127696</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>43676</v>
+      </c>
+      <c r="B653" t="n">
+        <v>0.140336633676044</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B654" t="n">
+        <v>0.0907509681879963</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B655" t="n">
+        <v>0.1478060424498919</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>43679</v>
+      </c>
+      <c r="B656" t="n">
+        <v>0.1345903858583871</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>43680</v>
+      </c>
+      <c r="B657" t="n">
+        <v>0.04373589815942756</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>43683</v>
+      </c>
+      <c r="B658" t="n">
+        <v>0.02896888995709318</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>43684</v>
+      </c>
+      <c r="B659" t="n">
+        <v>0.05212953732854535</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>43685</v>
+      </c>
+      <c r="B660" t="n">
+        <v>-0.01476900053694584</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>43686</v>
+      </c>
+      <c r="B661" t="n">
+        <v>-0.01869365004388277</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>43687</v>
+      </c>
+      <c r="B662" t="n">
+        <v>-0.3383008034357077</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>43690</v>
+      </c>
+      <c r="B663" t="n">
+        <v>0.05219984113495648</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>43691</v>
+      </c>
+      <c r="B664" t="n">
+        <v>0.09540346143397183</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>43692</v>
+      </c>
+      <c r="B665" t="n">
+        <v>-0.05416700893135788</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>43693</v>
+      </c>
+      <c r="B666" t="n">
+        <v>-0.05918656268902572</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>43694</v>
+      </c>
+      <c r="B667" t="n">
+        <v>-0.08203908988154908</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>43697</v>
+      </c>
+      <c r="B668" t="n">
+        <v>0.008643612194722565</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>43698</v>
+      </c>
+      <c r="B669" t="n">
+        <v>-0.008241273360993459</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>43699</v>
+      </c>
+      <c r="B670" t="n">
+        <v>-0.02000000601252049</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>43700</v>
+      </c>
+      <c r="B671" t="n">
+        <v>-0.04396403200781605</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>43701</v>
+      </c>
+      <c r="B672" t="n">
+        <v>-0.05517843338789236</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>43704</v>
+      </c>
+      <c r="B673" t="n">
+        <v>0.05165888347078276</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>43705</v>
+      </c>
+      <c r="B674" t="n">
+        <v>0.1342444671079855</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>43706</v>
+      </c>
+      <c r="B675" t="n">
+        <v>0.1390006063528235</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B676" t="n">
+        <v>0.07476645605153415</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>43708</v>
+      </c>
+      <c r="B677" t="n">
+        <v>-0.02575093006415476</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>43711</v>
+      </c>
+      <c r="B678" t="n">
+        <v>-0.100720146380516</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>43712</v>
+      </c>
+      <c r="B679" t="n">
+        <v>-0.1643807686670191</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>43713</v>
+      </c>
+      <c r="B680" t="n">
+        <v>-0.1367686560810194</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>43714</v>
+      </c>
+      <c r="B681" t="n">
+        <v>-0.1169786591120301</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>43715</v>
+      </c>
+      <c r="B682" t="n">
+        <v>-0.08687640363034065</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>43718</v>
+      </c>
+      <c r="B683" t="n">
+        <v>-0.1041643457272653</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>43719</v>
+      </c>
+      <c r="B684" t="n">
+        <v>-0.1391240442255268</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>43720</v>
+      </c>
+      <c r="B685" t="n">
+        <v>-0.09845591504564329</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>43721</v>
+      </c>
+      <c r="B686" t="n">
+        <v>-0.09532811146265621</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>43722</v>
+      </c>
+      <c r="B687" t="n">
+        <v>0.002062167671684955</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>43725</v>
+      </c>
+      <c r="B688" t="n">
+        <v>-0.08285402214906519</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>43726</v>
+      </c>
+      <c r="B689" t="n">
+        <v>-0.1201149446343533</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>43727</v>
+      </c>
+      <c r="B690" t="n">
+        <v>-0.004277828981747253</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>43728</v>
+      </c>
+      <c r="B691" t="n">
+        <v>0.01508272228726244</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>43729</v>
+      </c>
+      <c r="B692" t="n">
+        <v>-0.06458981517174815</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>43732</v>
+      </c>
+      <c r="B693" t="n">
+        <v>0.03428223074132708</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>43733</v>
+      </c>
+      <c r="B694" t="n">
+        <v>0.06810038943187245</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>43734</v>
+      </c>
+      <c r="B695" t="n">
+        <v>-0.02005196518780555</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>43735</v>
+      </c>
+      <c r="B696" t="n">
+        <v>-0.04991581794704435</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>43736</v>
+      </c>
+      <c r="B697" t="n">
+        <v>-0.1137104007178478</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B698" t="n">
+        <v>-0.05327789234203358</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>43740</v>
+      </c>
+      <c r="B699" t="n">
+        <v>0.005123191805900444</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>43741</v>
+      </c>
+      <c r="B700" t="n">
+        <v>-0.08078180477859281</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>43742</v>
+      </c>
+      <c r="B701" t="n">
+        <v>-0.1005936639889635</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2" t="n">
+        <v>43743</v>
+      </c>
+      <c r="B702" t="n">
+        <v>-0.04182827662838138</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2" t="n">
+        <v>43746</v>
+      </c>
+      <c r="B703" t="n">
+        <v>-0.1378832187843642</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="n">
+        <v>43747</v>
+      </c>
+      <c r="B704" t="n">
+        <v>-0.1742055165891509</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2" t="n">
+        <v>43748</v>
+      </c>
+      <c r="B705" t="n">
+        <v>-0.1453083734434957</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="n">
+        <v>43749</v>
+      </c>
+      <c r="B706" t="n">
+        <v>-0.2480520060618865</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2" t="n">
+        <v>43750</v>
+      </c>
+      <c r="B707" t="n">
+        <v>-0.2991795151211966</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>43753</v>
+      </c>
+      <c r="B708" t="n">
+        <v>-0.167357806017869</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>43754</v>
+      </c>
+      <c r="B709" t="n">
+        <v>-0.1061814993942923</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>43755</v>
+      </c>
+      <c r="B710" t="n">
+        <v>-0.07261361055914177</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>43756</v>
+      </c>
+      <c r="B711" t="n">
+        <v>-0.134835820162865</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>43757</v>
+      </c>
+      <c r="B712" t="n">
+        <v>-0.1254752868060139</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>43760</v>
+      </c>
+      <c r="B713" t="n">
+        <v>-0.04508749214177566</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>43761</v>
+      </c>
+      <c r="B714" t="n">
+        <v>-0.0782503554183509</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>43762</v>
+      </c>
+      <c r="B715" t="n">
+        <v>-0.1318071776097514</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>43763</v>
+      </c>
+      <c r="B716" t="n">
+        <v>-0.09678108889136944</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>43764</v>
+      </c>
+      <c r="B717" t="n">
+        <v>-0.3361744116142422</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>43767</v>
+      </c>
+      <c r="B718" t="n">
+        <v>-0.0530684169098324</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>43768</v>
+      </c>
+      <c r="B719" t="n">
+        <v>-0.02690011434388767</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B720" t="n">
+        <v>-0.06685437458188569</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B721" t="n">
+        <v>-0.1758995420226555</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>43771</v>
+      </c>
+      <c r="B722" t="n">
+        <v>-0.2297490617521531</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>43774</v>
+      </c>
+      <c r="B723" t="n">
+        <v>-0.08137218962563006</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>43775</v>
+      </c>
+      <c r="B724" t="n">
+        <v>-0.1311693013091949</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>43776</v>
+      </c>
+      <c r="B725" t="n">
+        <v>-0.08986556564289924</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>43777</v>
+      </c>
+      <c r="B726" t="n">
+        <v>-0.09081901076312635</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>43778</v>
+      </c>
+      <c r="B727" t="n">
+        <v>0.006669109270681421</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>43781</v>
+      </c>
+      <c r="B728" t="n">
+        <v>-0.01891913128809755</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>43782</v>
+      </c>
+      <c r="B729" t="n">
+        <v>0.05256548592351644</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>43783</v>
+      </c>
+      <c r="B730" t="n">
+        <v>-0.02771731026637619</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>43784</v>
+      </c>
+      <c r="B731" t="n">
+        <v>-0.07972817082726785</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>43785</v>
+      </c>
+      <c r="B732" t="n">
+        <v>0.002094002605429616</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>43788</v>
+      </c>
+      <c r="B733" t="n">
+        <v>-0.03818828098259397</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>43789</v>
+      </c>
+      <c r="B734" t="n">
+        <v>0.01571907062730717</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>43790</v>
+      </c>
+      <c r="B735" t="n">
+        <v>-0.06502919107748317</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>43791</v>
+      </c>
+      <c r="B736" t="n">
+        <v>-0.1482401240928097</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>43792</v>
+      </c>
+      <c r="B737" t="n">
+        <v>-0.1194067834669983</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>43795</v>
+      </c>
+      <c r="B738" t="n">
+        <v>-0.05597684905804496</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="B739" t="n">
+        <v>-0.09692258373690804</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>43797</v>
+      </c>
+      <c r="B740" t="n">
+        <v>-0.220018408850944</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B741" t="n">
+        <v>-0.1087508395087451</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>43799</v>
+      </c>
+      <c r="B742" t="n">
+        <v>-0.07891359797161836</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>43802</v>
+      </c>
+      <c r="B743" t="n">
+        <v>-0.0205413038594522</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>43803</v>
+      </c>
+      <c r="B744" t="n">
+        <v>0.007127768965302461</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>43804</v>
+      </c>
+      <c r="B745" t="n">
+        <v>-0.0414302803860382</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>43805</v>
+      </c>
+      <c r="B746" t="n">
+        <v>-0.2497766424330141</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>43806</v>
+      </c>
+      <c r="B747" t="n">
+        <v>-0.3666682274724083</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>43809</v>
+      </c>
+      <c r="B748" t="n">
+        <v>-0.04516157554198218</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="n">
+        <v>43810</v>
+      </c>
+      <c r="B749" t="n">
+        <v>-0.1430956686522662</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>43811</v>
+      </c>
+      <c r="B750" t="n">
+        <v>-0.1784529149410046</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
+        <v>43812</v>
+      </c>
+      <c r="B751" t="n">
+        <v>-0.1690322920464461</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>43813</v>
+      </c>
+      <c r="B752" t="n">
+        <v>-0.2551569891366094</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>43816</v>
+      </c>
+      <c r="B753" t="n">
+        <v>-0.1175305618488406</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>43817</v>
+      </c>
+      <c r="B754" t="n">
+        <v>-0.1248194610035688</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2" t="n">
+        <v>43818</v>
+      </c>
+      <c r="B755" t="n">
+        <v>-0.1626970754713135</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2" t="n">
+        <v>43819</v>
+      </c>
+      <c r="B756" t="n">
+        <v>-0.2477341121248013</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2" t="n">
+        <v>43820</v>
+      </c>
+      <c r="B757" t="n">
+        <v>-0.216188263648341</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2" t="n">
+        <v>43823</v>
+      </c>
+      <c r="B758" t="n">
+        <v>-0.3780933399957348</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2" t="n">
+        <v>43827</v>
+      </c>
+      <c r="B759" t="n">
+        <v>-0.135218540470627</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2" t="n">
         <v>43830</v>
       </c>
-      <c r="B638" t="n">
+      <c r="B760" t="n">
         <v>-0.3021085645550494</v>
       </c>
     </row>

--- a/datasets/D1_riskprem_exante.xlsx
+++ b/datasets/D1_riskprem_exante.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B760"/>
+  <dimension ref="A1:B759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
         <v>42738</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.04985878938840322</v>
+        <v>-0.09492031661173861</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>42739</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04528921273023607</v>
+        <v>-0.08074381862710953</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>42740</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.05572314465145796</v>
+        <v>0.05720941679772636</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>42741</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.02479923847529559</v>
+        <v>0.1208442245255682</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>42742</v>
       </c>
       <c r="B6" t="n">
-        <v>0.106110460331345</v>
+        <v>0.009717549363427716</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>42745</v>
       </c>
       <c r="B7" t="n">
-        <v>0.154542439739699</v>
+        <v>0.004208268692524092</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>42746</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03511956841451126</v>
+        <v>-0.08562985141121325</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>42747</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1496171189326957</v>
+        <v>-0.06673856166107756</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>42748</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.142751662170431</v>
+        <v>-0.001318541213385654</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>42749</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.07373974270900154</v>
+        <v>-0.03417898761563432</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>42752</v>
       </c>
       <c r="B12" t="n">
-        <v>0.396373055824403</v>
+        <v>0.006049959781591491</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>42753</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3728978873674307</v>
+        <v>-0.02737836940824235</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>42754</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2606282964663535</v>
+        <v>-0.004598211351638459</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>42755</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1639425571134693</v>
+        <v>-0.0306001117689655</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>42756</v>
       </c>
       <c r="B16" t="n">
-        <v>0.09803308711084473</v>
+        <v>-0.003337570764003882</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>42759</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.4065315430575445</v>
+        <v>0.04731489355587942</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>42760</v>
       </c>
       <c r="B18" t="n">
-        <v>0.190982034966815</v>
+        <v>0.003138438236205571</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>42761</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1699884125922505</v>
+        <v>0.01988301499139465</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>42762</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02660837945441941</v>
+        <v>0.05751702169326162</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>42763</v>
       </c>
       <c r="B21" t="n">
-        <v>0.008514878754746264</v>
+        <v>0.02769016884381749</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>42766</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.7558811750494305</v>
+        <v>0.1007694542396241</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>42767</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03533813384267563</v>
+        <v>-0.0402485163201508</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>42768</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01845370505207127</v>
+        <v>-0.01759105591705418</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>42769</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01210316076141025</v>
+        <v>0.0410851486172027</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>42770</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02737328957645539</v>
+        <v>0.01129715195053308</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>42773</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1040110897247567</v>
+        <v>-0.04953631959298855</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>42774</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07466449753457992</v>
+        <v>-0.05980201120862774</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>42775</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05112505216186536</v>
+        <v>0.01244280696069527</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>42776</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.02912562510816611</v>
+        <v>0.01050154294941977</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>42777</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04487190112598739</v>
+        <v>0.002395001699303306</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>42780</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.01599509813394172</v>
+        <v>-0.001299647344609669</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>42781</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00815695560977976</v>
+        <v>0.02233576466859256</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>42782</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.04061601023350039</v>
+        <v>-0.00887494595817747</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>42783</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.06079909742247582</v>
+        <v>0.01740000696252352</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>42784</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04542686527890139</v>
+        <v>-0.02443093056481664</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>42787</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.1710185392690673</v>
+        <v>0.07409779095550163</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>42788</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.2998409700761133</v>
+        <v>0.03088641813054188</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>42789</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.19795884534425</v>
+        <v>-0.009066695919613149</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>42790</v>
       </c>
       <c r="B40" t="n">
-        <v>0.003525712345807701</v>
+        <v>0.04813279163257043</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>42791</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.087121783048955</v>
+        <v>-0.05103402188680985</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>42794</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.06378583652344005</v>
+        <v>-0.01577157361248784</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>42795</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.001979393115920288</v>
+        <v>-0.01586941656715656</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>42796</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1625368292882795</v>
+        <v>0.00109798338370087</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>42797</v>
       </c>
       <c r="B45" t="n">
-        <v>0.008350407332049167</v>
+        <v>-0.00713096466440434</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>42798</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.08878276273202568</v>
+        <v>0.0056400659365096</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>42801</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1996444221612759</v>
+        <v>0.02583894209016781</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>42802</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.07024537376639657</v>
+        <v>-0.04345797271836298</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>42803</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.03613447248891582</v>
+        <v>0.01340238167661044</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>42804</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.009587357287182586</v>
+        <v>-0.003992373259002237</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>42805</v>
       </c>
       <c r="B51" t="n">
-        <v>0.04221415922102916</v>
+        <v>0.02087119850193804</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>42808</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.08393382531431155</v>
+        <v>-0.009707322810002755</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>42809</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1125408943058491</v>
+        <v>0.01965425559959424</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>42810</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.09241458330039229</v>
+        <v>0.01667003635403323</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>42811</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1797613598907055</v>
+        <v>0.01270050546359056</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>42812</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.2978020776546135</v>
+        <v>-0.2092617316070296</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>42815</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.0168988074452199</v>
+        <v>0.06371809227354175</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>42816</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.06720381520791327</v>
+        <v>0.02716319681543518</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>42817</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.06645290259542998</v>
+        <v>-0.01262338661194535</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>42818</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.06011309357449829</v>
+        <v>0.003125070790250194</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>42819</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0364463157592884</v>
+        <v>-0.001858798230591543</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>42822</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.002867918810242908</v>
+        <v>-0.001870357284948631</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>42823</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.05526847803008383</v>
+        <v>-0.02366477066300236</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>42824</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.02060157066758282</v>
+        <v>-0.008393284310443935</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>42825</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.0569686087545983</v>
+        <v>-0.002107502516471838</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>42826</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01721053397525581</v>
+        <v>0.08881692512611389</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>42829</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01289357669787446</v>
+        <v>-0.001804766379337199</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>42830</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.07461284919427449</v>
+        <v>-0.05677255685803555</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>42831</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.09220201752907824</v>
+        <v>0.01768382805047449</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>42832</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.08934075076096701</v>
+        <v>0.02053071900456245</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>42833</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01066670153113704</v>
+        <v>0.04449373162238024</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>42836</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.04290719905005527</v>
+        <v>0.04554169388786786</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>42837</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.08157693800157345</v>
+        <v>0.02570631577431746</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>42838</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.0943457373397887</v>
+        <v>0.03098779508947976</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>42839</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.04747486989450145</v>
+        <v>0.02751489660738326</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>42844</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.03331101398487576</v>
+        <v>0.02843952853917918</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>42845</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.006306845429795175</v>
+        <v>0.01582596774206175</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>42846</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.1374634429656139</v>
+        <v>0.02773725871668414</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>42847</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.3421988352727961</v>
+        <v>-0.09769461447964485</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>42850</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03326837630477744</v>
+        <v>0.01738295363339127</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>42851</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.07565197758152133</v>
+        <v>0.03215665526173574</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>42852</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.07165213020348336</v>
+        <v>-0.005288517807054932</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>42853</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.04813741393999851</v>
+        <v>-0.02623770100277757</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>42854</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.02219824603951005</v>
+        <v>0.01496046116570949</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>42858</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.03995354055862971</v>
+        <v>-0.01928249381160321</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>42859</v>
       </c>
       <c r="B86" t="n">
-        <v>0.001609886265186139</v>
+        <v>0.004458094751455424</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>42860</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01298053610511768</v>
+        <v>-0.002660257357729643</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>42861</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06542389941001443</v>
+        <v>0.05722518275391835</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>42864</v>
       </c>
       <c r="B89" t="n">
-        <v>0.04972351958469207</v>
+        <v>0.004232465300512067</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>42865</v>
       </c>
       <c r="B90" t="n">
-        <v>0.05452590339153345</v>
+        <v>0.007495268696550443</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>42866</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09140518903489679</v>
+        <v>0.0002370816299462137</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>42867</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0490566701372325</v>
+        <v>0.002503812246118401</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>42868</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2717759149470357</v>
+        <v>0.06055482877785611</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>42871</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01808031606162452</v>
+        <v>0.01019476578726532</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>42872</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.03753318664058942</v>
+        <v>-0.02864547164189769</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>42873</v>
       </c>
       <c r="B96" t="n">
-        <v>0.03502095908826371</v>
+        <v>-0.02972461049101668</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>42874</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.04260625200293928</v>
+        <v>0.03882200883915672</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42875</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1125310385084681</v>
+        <v>0.03967822997661374</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42878</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1022303848834598</v>
+        <v>-0.0328607365613082</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42879</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.005425720412305546</v>
+        <v>0.03326917184699164</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42880</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2912510966573881</v>
+        <v>0.05778913431004627</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42881</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.03366443915930628</v>
+        <v>0.06683018488789914</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>42882</v>
       </c>
       <c r="B103" t="n">
-        <v>0.04752654131452105</v>
+        <v>0.02062426212948488</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>42885</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1704585275493142</v>
+        <v>-0.01076121710641099</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42886</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.0223998436455306</v>
+        <v>0.03124113495513414</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42887</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.0585327718564844</v>
+        <v>0.05644847079547624</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42888</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.0516904755831768</v>
+        <v>-0.007034339114316742</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42889</v>
       </c>
       <c r="B108" t="n">
-        <v>0.04949553337998962</v>
+        <v>0.0229710567016556</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>42892</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.1293857550489642</v>
+        <v>0.03526466783147218</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>42893</v>
       </c>
       <c r="B110" t="n">
-        <v>0.4541031556591932</v>
+        <v>-0.04422586893003105</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>42894</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.1323053717858661</v>
+        <v>0.1104170919682886</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>42895</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.1054076912671566</v>
+        <v>0.05314833834888647</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>42896</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01238508984777047</v>
+        <v>0.005631654914649673</v>
       </c>
     </row>
     <row r="114">
@@ -1352,7 +1352,7 @@
         <v>42899</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.09138873000552585</v>
+        <v>0.06946943018868797</v>
       </c>
     </row>
     <row r="115">
@@ -1360,7 +1360,7 @@
         <v>42900</v>
       </c>
       <c r="B115" t="n">
-        <v>0.02116850313606857</v>
+        <v>0.04788842563521777</v>
       </c>
     </row>
     <row r="116">
@@ -1368,7 +1368,7 @@
         <v>42901</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.00368967835633156</v>
+        <v>0.04741471241046775</v>
       </c>
     </row>
     <row r="117">
@@ -1376,7 +1376,7 @@
         <v>42902</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.2754628138099249</v>
+        <v>-0.2134422696429521</v>
       </c>
     </row>
     <row r="118">
@@ -1384,7 +1384,7 @@
         <v>42903</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.09415418483116478</v>
+        <v>0.04138082563644233</v>
       </c>
     </row>
     <row r="119">
@@ -1392,7 +1392,7 @@
         <v>42906</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02631073315267414</v>
+        <v>0.005008593529837293</v>
       </c>
     </row>
     <row r="120">
@@ -1400,7 +1400,7 @@
         <v>42907</v>
       </c>
       <c r="B120" t="n">
-        <v>0.05860791676085724</v>
+        <v>0.01871892710911897</v>
       </c>
     </row>
     <row r="121">
@@ -1408,7 +1408,7 @@
         <v>42908</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.06403898627778254</v>
+        <v>0.007715883166574664</v>
       </c>
     </row>
     <row r="122">
@@ -1416,7 +1416,7 @@
         <v>42909</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.1423428140209674</v>
+        <v>0.07206921476656408</v>
       </c>
     </row>
     <row r="123">
@@ -1424,7 +1424,7 @@
         <v>42910</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.1664677381036688</v>
+        <v>-0.07509257155630807</v>
       </c>
     </row>
     <row r="124">
@@ -1432,7 +1432,7 @@
         <v>42913</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.003503833785036344</v>
+        <v>0.05967391687005084</v>
       </c>
     </row>
     <row r="125">
@@ -1440,7 +1440,7 @@
         <v>42914</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.01660316430917141</v>
+        <v>0.04352071865582482</v>
       </c>
     </row>
     <row r="126">
@@ -1448,7 +1448,7 @@
         <v>42915</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01305342357568105</v>
+        <v>0.03916441000549111</v>
       </c>
     </row>
     <row r="127">
@@ -1456,7 +1456,7 @@
         <v>42916</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.1451071248823115</v>
+        <v>0.04335742625646193</v>
       </c>
     </row>
     <row r="128">
@@ -1464,7 +1464,7 @@
         <v>42917</v>
       </c>
       <c r="B128" t="n">
-        <v>0.01069952532568579</v>
+        <v>0.111780951459712</v>
       </c>
     </row>
     <row r="129">
@@ -1472,7 +1472,7 @@
         <v>42920</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.05490065965652946</v>
+        <v>0.02221570793109895</v>
       </c>
     </row>
     <row r="130">
@@ -1480,7 +1480,7 @@
         <v>42921</v>
       </c>
       <c r="B130" t="n">
-        <v>0.03029477407056569</v>
+        <v>0.04602341082288492</v>
       </c>
     </row>
     <row r="131">
@@ -1488,7 +1488,7 @@
         <v>42922</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.03171618891356509</v>
+        <v>0.0357164902645526</v>
       </c>
     </row>
     <row r="132">
@@ -1496,7 +1496,7 @@
         <v>42923</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.05371507240997399</v>
+        <v>-0.02871074479065401</v>
       </c>
     </row>
     <row r="133">
@@ -1504,7 +1504,7 @@
         <v>42924</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1447112507211127</v>
+        <v>0.05078490952226677</v>
       </c>
     </row>
     <row r="134">
@@ -1512,7 +1512,7 @@
         <v>42927</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.01895204512520637</v>
+        <v>-0.07369453473694118</v>
       </c>
     </row>
     <row r="135">
@@ -1520,7 +1520,7 @@
         <v>42928</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.1312520817558269</v>
+        <v>-0.02433716147731666</v>
       </c>
     </row>
     <row r="136">
@@ -1528,7 +1528,7 @@
         <v>42929</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.1011939525475606</v>
+        <v>0.04218301070585052</v>
       </c>
     </row>
     <row r="137">
@@ -1536,7 +1536,7 @@
         <v>42930</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.08415701168509879</v>
+        <v>0.03887394062839683</v>
       </c>
     </row>
     <row r="138">
@@ -1544,7 +1544,7 @@
         <v>42931</v>
       </c>
       <c r="B138" t="n">
-        <v>0.03498721236874543</v>
+        <v>-0.01824971670075662</v>
       </c>
     </row>
     <row r="139">
@@ -1552,7 +1552,7 @@
         <v>42934</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.02858921947573573</v>
+        <v>-0.008468094008821007</v>
       </c>
     </row>
     <row r="140">
@@ -1560,7 +1560,7 @@
         <v>42935</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.03090601297417246</v>
+        <v>-0.004379587790440885</v>
       </c>
     </row>
     <row r="141">
@@ -1568,7 +1568,7 @@
         <v>42936</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.03113611072627722</v>
+        <v>0.01272045635052676</v>
       </c>
     </row>
     <row r="142">
@@ -1576,7 +1576,7 @@
         <v>42937</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.03238448565965105</v>
+        <v>0.01312735182519025</v>
       </c>
     </row>
     <row r="143">
@@ -1584,7 +1584,7 @@
         <v>42938</v>
       </c>
       <c r="B143" t="n">
-        <v>0.08441949853729035</v>
+        <v>0.02879371879907937</v>
       </c>
     </row>
     <row r="144">
@@ -1592,7 +1592,7 @@
         <v>42941</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.04588945463385779</v>
+        <v>0.02163837246660775</v>
       </c>
     </row>
     <row r="145">
@@ -1600,7 +1600,7 @@
         <v>42942</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.0779746265251352</v>
+        <v>-0.04349090537014026</v>
       </c>
     </row>
     <row r="146">
@@ -1608,7 +1608,7 @@
         <v>42943</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.09968623218537599</v>
+        <v>-0.002440929448776429</v>
       </c>
     </row>
     <row r="147">
@@ -1616,7 +1616,7 @@
         <v>42944</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.1012776731686598</v>
+        <v>-0.01089763853215002</v>
       </c>
     </row>
     <row r="148">
@@ -1624,7 +1624,7 @@
         <v>42945</v>
       </c>
       <c r="B148" t="n">
-        <v>0.05450582263883286</v>
+        <v>-0.09790410706044191</v>
       </c>
     </row>
     <row r="149">
@@ -1632,7 +1632,7 @@
         <v>42948</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.0003908707471007255</v>
+        <v>0.0001403736174634937</v>
       </c>
     </row>
     <row r="150">
@@ -1640,7 +1640,7 @@
         <v>42949</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.02529256655110018</v>
+        <v>-0.03579127030388432</v>
       </c>
     </row>
     <row r="151">
@@ -1648,7 +1648,7 @@
         <v>42950</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.05141377563555893</v>
+        <v>-0.04903413922232621</v>
       </c>
     </row>
     <row r="152">
@@ -1656,7 +1656,7 @@
         <v>42951</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.02615935673663069</v>
+        <v>0.08060715456419669</v>
       </c>
     </row>
     <row r="153">
@@ -1664,7 +1664,7 @@
         <v>42952</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.06847442197520989</v>
+        <v>0.06236340021316934</v>
       </c>
     </row>
     <row r="154">
@@ -1672,7 +1672,7 @@
         <v>42955</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.0657193606451489</v>
+        <v>-0.03551633531730758</v>
       </c>
     </row>
     <row r="155">
@@ -1680,7 +1680,7 @@
         <v>42956</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.07648139840834023</v>
+        <v>0.0310377138672555</v>
       </c>
     </row>
     <row r="156">
@@ -1688,7 +1688,7 @@
         <v>42957</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.0182140444343793</v>
+        <v>0.02254533485619948</v>
       </c>
     </row>
     <row r="157">
@@ -1696,7 +1696,7 @@
         <v>42958</v>
       </c>
       <c r="B157" t="n">
-        <v>0.06100367283862541</v>
+        <v>0.06008671459955226</v>
       </c>
     </row>
     <row r="158">
@@ -1704,7 +1704,7 @@
         <v>42959</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.03701092191159155</v>
+        <v>-0.0613228772377607</v>
       </c>
     </row>
     <row r="159">
@@ -1712,7 +1712,7 @@
         <v>42962</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.01857720648565946</v>
+        <v>0.00725351706225176</v>
       </c>
     </row>
     <row r="160">
@@ -1720,7 +1720,7 @@
         <v>42963</v>
       </c>
       <c r="B160" t="n">
-        <v>0.03592723605083586</v>
+        <v>0.04127581922151782</v>
       </c>
     </row>
     <row r="161">
@@ -1728,7 +1728,7 @@
         <v>42964</v>
       </c>
       <c r="B161" t="n">
-        <v>0.01763023303409018</v>
+        <v>0.02703468185897255</v>
       </c>
     </row>
     <row r="162">
@@ -1736,7 +1736,7 @@
         <v>42965</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.04212970915961571</v>
+        <v>0.01588380877961817</v>
       </c>
     </row>
     <row r="163">
@@ -1744,7 +1744,7 @@
         <v>42966</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3494388612802236</v>
+        <v>-0.06582967124172807</v>
       </c>
     </row>
     <row r="164">
@@ -1752,7 +1752,7 @@
         <v>42969</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.01055598849392783</v>
+        <v>0.01500721252939089</v>
       </c>
     </row>
     <row r="165">
@@ -1760,7 +1760,7 @@
         <v>42970</v>
       </c>
       <c r="B165" t="n">
-        <v>0.009216500943778025</v>
+        <v>-0.003397183314626283</v>
       </c>
     </row>
     <row r="166">
@@ -1768,7 +1768,7 @@
         <v>42971</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.03348817529011971</v>
+        <v>0.01602338142874531</v>
       </c>
     </row>
     <row r="167">
@@ -1776,7 +1776,7 @@
         <v>42972</v>
       </c>
       <c r="B167" t="n">
-        <v>0.007961167665947589</v>
+        <v>0.01607732851640007</v>
       </c>
     </row>
     <row r="168">
@@ -1784,7 +1784,7 @@
         <v>42973</v>
       </c>
       <c r="B168" t="n">
-        <v>0.01858551965451364</v>
+        <v>0.06090143084132421</v>
       </c>
     </row>
     <row r="169">
@@ -1792,7 +1792,7 @@
         <v>42976</v>
       </c>
       <c r="B169" t="n">
-        <v>0.01577039273505119</v>
+        <v>0.02303837925738829</v>
       </c>
     </row>
     <row r="170">
@@ -1800,7 +1800,7 @@
         <v>42977</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0004471267194755459</v>
+        <v>-0.01061812418427571</v>
       </c>
     </row>
     <row r="171">
@@ -1808,7 +1808,7 @@
         <v>42978</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1305108933353664</v>
+        <v>0.02116896826915334</v>
       </c>
     </row>
     <row r="172">
@@ -1816,7 +1816,7 @@
         <v>42979</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.005235578953930474</v>
+        <v>0.005586710574764964</v>
       </c>
     </row>
     <row r="173">
@@ -1824,7 +1824,7 @@
         <v>42980</v>
       </c>
       <c r="B173" t="n">
-        <v>0.02182012451818321</v>
+        <v>0.01818250360322065</v>
       </c>
     </row>
     <row r="174">
@@ -1832,7 +1832,7 @@
         <v>42983</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.05800393119058529</v>
+        <v>-0.008315348954630597</v>
       </c>
     </row>
     <row r="175">
@@ -1840,7 +1840,7 @@
         <v>42984</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.08517211220594541</v>
+        <v>-0.03375442979493905</v>
       </c>
     </row>
     <row r="176">
@@ -1848,7 +1848,7 @@
         <v>42985</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.04448379641271662</v>
+        <v>-0.0243748362410043</v>
       </c>
     </row>
     <row r="177">
@@ -1856,7 +1856,7 @@
         <v>42986</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.06772655555075516</v>
+        <v>0.001882035038336913</v>
       </c>
     </row>
     <row r="178">
@@ -1864,7 +1864,7 @@
         <v>42987</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.1409783090665374</v>
+        <v>-0.01836462045560803</v>
       </c>
     </row>
     <row r="179">
@@ -1872,7 +1872,7 @@
         <v>42990</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.1449633047664756</v>
+        <v>-0.04154445799581275</v>
       </c>
     </row>
     <row r="180">
@@ -1880,7 +1880,7 @@
         <v>42991</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.3718867811416376</v>
+        <v>-0.1353485585680167</v>
       </c>
     </row>
     <row r="181">
@@ -1888,7 +1888,7 @@
         <v>42992</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.2693615155149343</v>
+        <v>-0.001629327994894949</v>
       </c>
     </row>
     <row r="182">
@@ -1896,7 +1896,7 @@
         <v>42993</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.05954044765526955</v>
+        <v>0.05172762970090215</v>
       </c>
     </row>
     <row r="183">
@@ -1904,7 +1904,7 @@
         <v>42994</v>
       </c>
       <c r="B183" t="n">
-        <v>0.04925527457877888</v>
+        <v>0.04974316861244456</v>
       </c>
     </row>
     <row r="184">
@@ -1912,7 +1912,7 @@
         <v>42997</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.03310621983444446</v>
+        <v>0.02505575864415581</v>
       </c>
     </row>
     <row r="185">
@@ -1920,7 +1920,7 @@
         <v>42998</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.04341498964110282</v>
+        <v>0.01115623967093635</v>
       </c>
     </row>
     <row r="186">
@@ -1928,7 +1928,7 @@
         <v>42999</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.08699782073036182</v>
+        <v>-0.001723914225701113</v>
       </c>
     </row>
     <row r="187">
@@ -1936,7 +1936,7 @@
         <v>43000</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.05340230399164889</v>
+        <v>0.006588478509371189</v>
       </c>
     </row>
     <row r="188">
@@ -1944,7 +1944,7 @@
         <v>43001</v>
       </c>
       <c r="B188" t="n">
-        <v>0.07516440162009062</v>
+        <v>0.02567314223367477</v>
       </c>
     </row>
     <row r="189">
@@ -1952,7 +1952,7 @@
         <v>43004</v>
       </c>
       <c r="B189" t="n">
-        <v>0.008595393539714941</v>
+        <v>0.00751024134839247</v>
       </c>
     </row>
     <row r="190">
@@ -1960,7 +1960,7 @@
         <v>43005</v>
       </c>
       <c r="B190" t="n">
-        <v>0.02389644765679331</v>
+        <v>0.05493340725156284</v>
       </c>
     </row>
     <row r="191">
@@ -1968,7 +1968,7 @@
         <v>43006</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.001161050505682271</v>
+        <v>0.05014250147140807</v>
       </c>
     </row>
     <row r="192">
@@ -1976,7 +1976,7 @@
         <v>43007</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.02607582672898879</v>
+        <v>-0.008139177336175465</v>
       </c>
     </row>
     <row r="193">
@@ -1984,7 +1984,7 @@
         <v>43008</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.06432100396182563</v>
+        <v>0.01323103006250674</v>
       </c>
     </row>
     <row r="194">
@@ -1992,7 +1992,7 @@
         <v>43011</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.2625849277419157</v>
+        <v>0.02070320433128918</v>
       </c>
     </row>
     <row r="195">
@@ -2000,7 +2000,7 @@
         <v>43012</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.1233039759168718</v>
+        <v>-0.01197877065449842</v>
       </c>
     </row>
     <row r="196">
@@ -2008,7 +2008,7 @@
         <v>43013</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.1700456291610481</v>
+        <v>0.006641798565298149</v>
       </c>
     </row>
     <row r="197">
@@ -2016,7 +2016,7 @@
         <v>43014</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.1543651396937676</v>
+        <v>0.02241322699552321</v>
       </c>
     </row>
     <row r="198">
@@ -2024,7 +2024,7 @@
         <v>43015</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.4449045890078808</v>
+        <v>-0.3643589773663019</v>
       </c>
     </row>
     <row r="199">
@@ -2032,7 +2032,7 @@
         <v>43018</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.08951178585453383</v>
+        <v>-0.02015785364548039</v>
       </c>
     </row>
     <row r="200">
@@ -2040,7 +2040,7 @@
         <v>43019</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.1240805254569938</v>
+        <v>0.01160100694850567</v>
       </c>
     </row>
     <row r="201">
@@ -2048,7 +2048,7 @@
         <v>43020</v>
       </c>
       <c r="B201" t="n">
-        <v>0.04013290421191274</v>
+        <v>-0.04131576926426634</v>
       </c>
     </row>
     <row r="202">
@@ -2056,7 +2056,7 @@
         <v>43021</v>
       </c>
       <c r="B202" t="n">
-        <v>0.02055752757111729</v>
+        <v>0.03835328917944059</v>
       </c>
     </row>
     <row r="203">
@@ -2064,7 +2064,7 @@
         <v>43022</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.06343389239957309</v>
+        <v>0.04563347469987817</v>
       </c>
     </row>
     <row r="204">
@@ -2072,7 +2072,7 @@
         <v>43025</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.0228210577052966</v>
+        <v>-0.006173905354997069</v>
       </c>
     </row>
     <row r="205">
@@ -2080,7 +2080,7 @@
         <v>43026</v>
       </c>
       <c r="B205" t="n">
-        <v>0.1162952594133665</v>
+        <v>0.03330564774447047</v>
       </c>
     </row>
     <row r="206">
@@ -2088,7 +2088,7 @@
         <v>43027</v>
       </c>
       <c r="B206" t="n">
-        <v>0.07452200619437056</v>
+        <v>0.01645066899256605</v>
       </c>
     </row>
     <row r="207">
@@ -2096,7 +2096,7 @@
         <v>43028</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.079249371615881</v>
+        <v>-0.008656915943436783</v>
       </c>
     </row>
     <row r="208">
@@ -2104,7 +2104,7 @@
         <v>43029</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.03472983941992845</v>
+        <v>0.04930996224493439</v>
       </c>
     </row>
     <row r="209">
@@ -2112,7 +2112,7 @@
         <v>43032</v>
       </c>
       <c r="B209" t="n">
-        <v>0.09105854340931718</v>
+        <v>0.02566948070867934</v>
       </c>
     </row>
     <row r="210">
@@ -2120,7 +2120,7 @@
         <v>43033</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.1599840104764335</v>
+        <v>-0.09588405744344879</v>
       </c>
     </row>
     <row r="211">
@@ -2128,7 +2128,7 @@
         <v>43034</v>
       </c>
       <c r="B211" t="n">
-        <v>0.03419049151437276</v>
+        <v>0.07361272194015883</v>
       </c>
     </row>
     <row r="212">
@@ -2136,7 +2136,7 @@
         <v>43035</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.2365204250521923</v>
+        <v>0.0005259786784504176</v>
       </c>
     </row>
     <row r="213">
@@ -2144,7 +2144,7 @@
         <v>43036</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.9421637331037254</v>
+        <v>-0.7313368496161223</v>
       </c>
     </row>
     <row r="214">
@@ -2152,7 +2152,7 @@
         <v>43039</v>
       </c>
       <c r="B214" t="n">
-        <v>0.003081898851860568</v>
+        <v>0.07579749042163562</v>
       </c>
     </row>
     <row r="215">
@@ -2160,7 +2160,7 @@
         <v>43040</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.1673543489165928</v>
+        <v>0.01422714026679655</v>
       </c>
     </row>
     <row r="216">
@@ -2168,7 +2168,7 @@
         <v>43041</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.1680407958215854</v>
+        <v>-0.07445688805972731</v>
       </c>
     </row>
     <row r="217">
@@ -2176,7 +2176,7 @@
         <v>43042</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.1109731227848613</v>
+        <v>0.02432798355471983</v>
       </c>
     </row>
     <row r="218">
@@ -2184,7 +2184,7 @@
         <v>43043</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.03195821882088733</v>
+        <v>-0.03245223951755014</v>
       </c>
     </row>
     <row r="219">
@@ -2192,7 +2192,7 @@
         <v>43046</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.09378579228587069</v>
+        <v>0.03036271877950003</v>
       </c>
     </row>
     <row r="220">
@@ -2200,7 +2200,7 @@
         <v>43047</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.04350939332113503</v>
+        <v>0.1377520107422481</v>
       </c>
     </row>
     <row r="221">
@@ -2208,7 +2208,7 @@
         <v>43048</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.07050451915470564</v>
+        <v>0.03315513503945535</v>
       </c>
     </row>
     <row r="222">
@@ -2216,7 +2216,7 @@
         <v>43049</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.1548791302458066</v>
+        <v>0.05802177383030183</v>
       </c>
     </row>
     <row r="223">
@@ -2224,7 +2224,7 @@
         <v>43050</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.3025372045302291</v>
+        <v>0.05594252561612409</v>
       </c>
     </row>
     <row r="224">
@@ -2232,7 +2232,7 @@
         <v>43053</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.04023684484099829</v>
+        <v>-0.03403929237382067</v>
       </c>
     </row>
     <row r="225">
@@ -2240,7 +2240,7 @@
         <v>43054</v>
       </c>
       <c r="B225" t="n">
-        <v>0.1376383089733946</v>
+        <v>0.09272266993358755</v>
       </c>
     </row>
     <row r="226">
@@ -2248,7 +2248,7 @@
         <v>43055</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.07479706089115594</v>
+        <v>-0.02468034020769476</v>
       </c>
     </row>
     <row r="227">
@@ -2256,7 +2256,7 @@
         <v>43056</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.08678821449024066</v>
+        <v>0.0855125898000848</v>
       </c>
     </row>
     <row r="228">
@@ -2264,7 +2264,7 @@
         <v>43057</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.3102797570986059</v>
+        <v>-0.02250207553954934</v>
       </c>
     </row>
     <row r="229">
@@ -2272,7 +2272,7 @@
         <v>43060</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.01208514113674657</v>
+        <v>0.04272959038618226</v>
       </c>
     </row>
     <row r="230">
@@ -2280,7 +2280,7 @@
         <v>43061</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.1566777589785923</v>
+        <v>-0.03016689513837131</v>
       </c>
     </row>
     <row r="231">
@@ -2288,7 +2288,7 @@
         <v>43062</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.2016968663816221</v>
+        <v>-0.03647318430075474</v>
       </c>
     </row>
     <row r="232">
@@ -2296,7 +2296,7 @@
         <v>43063</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.11733937497563</v>
+        <v>0.0615892360458098</v>
       </c>
     </row>
     <row r="233">
@@ -2304,7 +2304,7 @@
         <v>43064</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.01629652903370884</v>
+        <v>0.02124415883101254</v>
       </c>
     </row>
     <row r="234">
@@ -2312,7 +2312,7 @@
         <v>43067</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.1123499266660194</v>
+        <v>-0.01183739339046156</v>
       </c>
     </row>
     <row r="235">
@@ -2320,7 +2320,7 @@
         <v>43068</v>
       </c>
       <c r="B235" t="n">
-        <v>0.07881662030971066</v>
+        <v>0.07465464051789365</v>
       </c>
     </row>
     <row r="236">
@@ -2328,7 +2328,7 @@
         <v>43069</v>
       </c>
       <c r="B236" t="n">
-        <v>0.1684895865763367</v>
+        <v>-0.01446155699232006</v>
       </c>
     </row>
     <row r="237">
@@ -2336,7 +2336,7 @@
         <v>43070</v>
       </c>
       <c r="B237" t="n">
-        <v>0.1664820061943403</v>
+        <v>-0.03351388773974635</v>
       </c>
     </row>
     <row r="238">
@@ -2344,7 +2344,7 @@
         <v>43071</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.01975098277524466</v>
+        <v>-0.0249670809143415</v>
       </c>
     </row>
     <row r="239">
@@ -2352,7 +2352,7 @@
         <v>43074</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.1472877754637074</v>
+        <v>0.02487400988550741</v>
       </c>
     </row>
     <row r="240">
@@ -2360,7 +2360,7 @@
         <v>43075</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.1400555651025787</v>
+        <v>-0.01916087038466831</v>
       </c>
     </row>
     <row r="241">
@@ -2368,7 +2368,7 @@
         <v>43076</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.1309156645254602</v>
+        <v>-0.03468265389488464</v>
       </c>
     </row>
     <row r="242">
@@ -2376,7 +2376,7 @@
         <v>43077</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.1863507716106968</v>
+        <v>-0.04640624269752896</v>
       </c>
     </row>
     <row r="243">
@@ -2384,7 +2384,7 @@
         <v>43078</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.4905417147187717</v>
+        <v>-0.3740252380766502</v>
       </c>
     </row>
     <row r="244">
@@ -2392,7 +2392,7 @@
         <v>43081</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.1979491719950484</v>
+        <v>-0.07686058988786258</v>
       </c>
     </row>
     <row r="245">
@@ -2400,7 +2400,7 @@
         <v>43082</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.2015531503912326</v>
+        <v>-0.01348730724107322</v>
       </c>
     </row>
     <row r="246">
@@ -2408,7 +2408,7 @@
         <v>43083</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.1889262668982637</v>
+        <v>0.02618648110827966</v>
       </c>
     </row>
     <row r="247">
@@ -2416,7 +2416,7 @@
         <v>43084</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.1679707993959227</v>
+        <v>0.08954399858302144</v>
       </c>
     </row>
     <row r="248">
@@ -2424,7 +2424,7 @@
         <v>43085</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.07933849066132428</v>
+        <v>0.02742123195158635</v>
       </c>
     </row>
     <row r="249">
@@ -2432,7 +2432,7 @@
         <v>43088</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.02871938786785439</v>
+        <v>0.0351493822614677</v>
       </c>
     </row>
     <row r="250">
@@ -2440,7 +2440,7 @@
         <v>43089</v>
       </c>
       <c r="B250" t="n">
-        <v>0.02826589027606527</v>
+        <v>0.05967276324959156</v>
       </c>
     </row>
     <row r="251">
@@ -2448,7 +2448,7 @@
         <v>43090</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.16909108561497</v>
+        <v>-0.01699164262446103</v>
       </c>
     </row>
     <row r="252">
@@ -2456,7 +2456,7 @@
         <v>43091</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.1950446348992651</v>
+        <v>0.1206420187158315</v>
       </c>
     </row>
     <row r="253">
@@ -2464,7 +2464,7 @@
         <v>43092</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.6169380485694482</v>
+        <v>-0.003268848911325165</v>
       </c>
     </row>
     <row r="254">
@@ -2472,7 +2472,7 @@
         <v>43097</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.1863802988829955</v>
+        <v>0.1225985592473523</v>
       </c>
     </row>
     <row r="255">
@@ -2480,7 +2480,7 @@
         <v>43098</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.3898813182772113</v>
+        <v>-0.02026079073841349</v>
       </c>
     </row>
     <row r="256">
@@ -2488,7 +2488,7 @@
         <v>43099</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.5612576602570769</v>
+        <v>0.05393729159972516</v>
       </c>
     </row>
     <row r="257">
@@ -2496,7 +2496,7 @@
         <v>43103</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.6623866948657472</v>
+        <v>-0.4111493726206645</v>
       </c>
     </row>
     <row r="258">
@@ -2504,7 +2504,7 @@
         <v>43104</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.3364056916913025</v>
+        <v>-0.0683553985787918</v>
       </c>
     </row>
     <row r="259">
@@ -2512,7 +2512,7 @@
         <v>43105</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.2774622626557732</v>
+        <v>-0.01104606121606026</v>
       </c>
     </row>
     <row r="260">
@@ -2520,7 +2520,7 @@
         <v>43106</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.1836936469413466</v>
+        <v>0.1209447241777334</v>
       </c>
     </row>
     <row r="261">
@@ -2528,7 +2528,7 @@
         <v>43109</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.09707771902437799</v>
+        <v>0.0260497696963285</v>
       </c>
     </row>
     <row r="262">
@@ -2536,7 +2536,7 @@
         <v>43110</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.1158988221816826</v>
+        <v>-0.01301965120671572</v>
       </c>
     </row>
     <row r="263">
@@ -2544,7 +2544,7 @@
         <v>43111</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.1435252369419652</v>
+        <v>0.002480102212699912</v>
       </c>
     </row>
     <row r="264">
@@ -2552,7 +2552,7 @@
         <v>43112</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.1677944532893511</v>
+        <v>-0.04981791902366822</v>
       </c>
     </row>
     <row r="265">
@@ -2560,7 +2560,7 @@
         <v>43113</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.1095288557199239</v>
+        <v>0.004020671156899679</v>
       </c>
     </row>
     <row r="266">
@@ -2568,7 +2568,7 @@
         <v>43116</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.2743371050885055</v>
+        <v>0.04835443691246935</v>
       </c>
     </row>
     <row r="267">
@@ -2576,7 +2576,7 @@
         <v>43117</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.2518269396348894</v>
+        <v>0.01134540952681195</v>
       </c>
     </row>
     <row r="268">
@@ -2584,7 +2584,7 @@
         <v>43118</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.189434723051315</v>
+        <v>0.06794161717180566</v>
       </c>
     </row>
     <row r="269">
@@ -2592,7 +2592,7 @@
         <v>43119</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.1263866001892452</v>
+        <v>0.05897614540623048</v>
       </c>
     </row>
     <row r="270">
@@ -2600,7 +2600,7 @@
         <v>43120</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.1024465508778736</v>
+        <v>0.009642252751455384</v>
       </c>
     </row>
     <row r="271">
@@ -2608,7 +2608,7 @@
         <v>43123</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.1610460522614516</v>
+        <v>-0.00552894306501142</v>
       </c>
     </row>
     <row r="272">
@@ -2616,7 +2616,7 @@
         <v>43124</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.191204901033939</v>
+        <v>-0.08247841193317423</v>
       </c>
     </row>
     <row r="273">
@@ -2624,7 +2624,7 @@
         <v>43125</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.1661098557185483</v>
+        <v>-0.004626982035633479</v>
       </c>
     </row>
     <row r="274">
@@ -2632,7 +2632,7 @@
         <v>43126</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.164410445774038</v>
+        <v>0.04852485665370961</v>
       </c>
     </row>
     <row r="275">
@@ -2640,7 +2640,7 @@
         <v>43127</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.1963287554291927</v>
+        <v>-0.01705003830157535</v>
       </c>
     </row>
     <row r="276">
@@ -2648,7 +2648,7 @@
         <v>43130</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.177713096031485</v>
+        <v>0.1559445054079635</v>
       </c>
     </row>
     <row r="277">
@@ -2656,7 +2656,7 @@
         <v>43131</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.1515745462577107</v>
+        <v>0.01754988357524294</v>
       </c>
     </row>
     <row r="278">
@@ -2664,7 +2664,7 @@
         <v>43132</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.1937587502871229</v>
+        <v>0.05838555418254818</v>
       </c>
     </row>
     <row r="279">
@@ -2672,7 +2672,7 @@
         <v>43133</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.1112806102820967</v>
+        <v>0.02251362570294903</v>
       </c>
     </row>
     <row r="280">
@@ -2680,7 +2680,7 @@
         <v>43134</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.0358957924573898</v>
+        <v>0.0143908579594758</v>
       </c>
     </row>
     <row r="281">
@@ -2688,7 +2688,7 @@
         <v>43137</v>
       </c>
       <c r="B281" t="n">
-        <v>0.01662374724804828</v>
+        <v>0.04053254220194556</v>
       </c>
     </row>
     <row r="282">
@@ -2696,7 +2696,7 @@
         <v>43138</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.1159832527233066</v>
+        <v>-0.01354267263783801</v>
       </c>
     </row>
     <row r="283">
@@ -2704,7 +2704,7 @@
         <v>43139</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.08151028231971971</v>
+        <v>0.01498761457590046</v>
       </c>
     </row>
     <row r="284">
@@ -2712,7 +2712,7 @@
         <v>43140</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.1910117606000321</v>
+        <v>-0.04137956464475946</v>
       </c>
     </row>
     <row r="285">
@@ -2720,7 +2720,7 @@
         <v>43141</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.04266395977146981</v>
+        <v>0.01981981120705173</v>
       </c>
     </row>
     <row r="286">
@@ -2728,7 +2728,7 @@
         <v>43144</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.06716840944591418</v>
+        <v>0.04875438786966131</v>
       </c>
     </row>
     <row r="287">
@@ -2736,7 +2736,7 @@
         <v>43145</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.04018695108637823</v>
+        <v>-0.02304104335464923</v>
       </c>
     </row>
     <row r="288">
@@ -2744,7 +2744,7 @@
         <v>43146</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.1854224520611729</v>
+        <v>-0.03941588941463588</v>
       </c>
     </row>
     <row r="289">
@@ -2752,7 +2752,7 @@
         <v>43147</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.08403245444623447</v>
+        <v>0.01826014027957232</v>
       </c>
     </row>
     <row r="290">
@@ -2760,7 +2760,7 @@
         <v>43148</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.05698910264011807</v>
+        <v>0.05295167672933029</v>
       </c>
     </row>
     <row r="291">
@@ -2768,7 +2768,7 @@
         <v>43151</v>
       </c>
       <c r="B291" t="n">
-        <v>0.02785791366735986</v>
+        <v>0.01848150277774015</v>
       </c>
     </row>
     <row r="292">
@@ -2776,7 +2776,7 @@
         <v>43152</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.06580192237436196</v>
+        <v>0.03002635478026923</v>
       </c>
     </row>
     <row r="293">
@@ -2784,7 +2784,7 @@
         <v>43153</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.09143444780467479</v>
+        <v>-0.02465244228392632</v>
       </c>
     </row>
     <row r="294">
@@ -2792,7 +2792,7 @@
         <v>43154</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.03704253464649954</v>
+        <v>-0.04928969656302861</v>
       </c>
     </row>
     <row r="295">
@@ -2800,7 +2800,7 @@
         <v>43155</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.1633533937036855</v>
+        <v>-0.2238528004445358</v>
       </c>
     </row>
     <row r="296">
@@ -2808,7 +2808,7 @@
         <v>43158</v>
       </c>
       <c r="B296" t="n">
-        <v>0.1416336249384962</v>
+        <v>-0.01081935210041165</v>
       </c>
     </row>
     <row r="297">
@@ -2816,7 +2816,7 @@
         <v>43159</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.04824111685283448</v>
+        <v>-0.08082261638719741</v>
       </c>
     </row>
     <row r="298">
@@ -2824,7 +2824,7 @@
         <v>43160</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.0891667836556983</v>
+        <v>-0.04676037711703872</v>
       </c>
     </row>
     <row r="299">
@@ -2832,7 +2832,7 @@
         <v>43161</v>
       </c>
       <c r="B299" t="n">
-        <v>0.04809708601905658</v>
+        <v>0.04649071925949673</v>
       </c>
     </row>
     <row r="300">
@@ -2840,7 +2840,7 @@
         <v>43162</v>
       </c>
       <c r="B300" t="n">
-        <v>0.006498364800092556</v>
+        <v>-0.05666618594956597</v>
       </c>
     </row>
     <row r="301">
@@ -2848,7 +2848,7 @@
         <v>43165</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.01788349108871706</v>
+        <v>-0.08008132926726783</v>
       </c>
     </row>
     <row r="302">
@@ -2856,7 +2856,7 @@
         <v>43166</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.01655575919275845</v>
+        <v>-0.01552389667347836</v>
       </c>
     </row>
     <row r="303">
@@ -2864,7 +2864,7 @@
         <v>43167</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.04113151553815811</v>
+        <v>-0.1067181632502033</v>
       </c>
     </row>
     <row r="304">
@@ -2872,7 +2872,7 @@
         <v>43168</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.1234129741592799</v>
+        <v>0.05951231833468108</v>
       </c>
     </row>
     <row r="305">
@@ -2880,7 +2880,7 @@
         <v>43169</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.02978115084160132</v>
+        <v>-0.07487065253183124</v>
       </c>
     </row>
     <row r="306">
@@ -2888,7 +2888,7 @@
         <v>43172</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.04931356456694135</v>
+        <v>-0.03259970809102462</v>
       </c>
     </row>
     <row r="307">
@@ -2896,7 +2896,7 @@
         <v>43173</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.01138532636630825</v>
+        <v>0.03751116196308689</v>
       </c>
     </row>
     <row r="308">
@@ -2904,7 +2904,7 @@
         <v>43174</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.2008312947186446</v>
+        <v>-0.09314485678808257</v>
       </c>
     </row>
     <row r="309">
@@ -2912,7 +2912,7 @@
         <v>43175</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.2224806855300996</v>
+        <v>0.01381923587945906</v>
       </c>
     </row>
     <row r="310">
@@ -2920,7 +2920,7 @@
         <v>43176</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.8242442679882471</v>
+        <v>-0.5952720346070142</v>
       </c>
     </row>
     <row r="311">
@@ -2928,7 +2928,7 @@
         <v>43179</v>
       </c>
       <c r="B311" t="n">
-        <v>0.06091256373365155</v>
+        <v>-0.09010130538404854</v>
       </c>
     </row>
     <row r="312">
@@ -2936,7 +2936,7 @@
         <v>43180</v>
       </c>
       <c r="B312" t="n">
-        <v>0.2164311154390138</v>
+        <v>0.03913835597570893</v>
       </c>
     </row>
     <row r="313">
@@ -2944,7 +2944,7 @@
         <v>43181</v>
       </c>
       <c r="B313" t="n">
-        <v>0.01667765972828245</v>
+        <v>-0.04291952706320245</v>
       </c>
     </row>
     <row r="314">
@@ -2952,7 +2952,7 @@
         <v>43182</v>
       </c>
       <c r="B314" t="n">
-        <v>0.1003436933267225</v>
+        <v>0.04914817940936111</v>
       </c>
     </row>
     <row r="315">
@@ -2960,7 +2960,7 @@
         <v>43183</v>
       </c>
       <c r="B315" t="n">
-        <v>0.03959323982185991</v>
+        <v>0.1511286324681636</v>
       </c>
     </row>
     <row r="316">
@@ -2968,7 +2968,7 @@
         <v>43186</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.05212009028041453</v>
+        <v>0.007133683951962797</v>
       </c>
     </row>
     <row r="317">
@@ -2976,7 +2976,7 @@
         <v>43187</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.09215228346597994</v>
+        <v>0.02569832450498781</v>
       </c>
     </row>
     <row r="318">
@@ -2984,7 +2984,7 @@
         <v>43188</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.1192337296554978</v>
+        <v>0.02638572182907706</v>
       </c>
     </row>
     <row r="319">
@@ -2992,7 +2992,7 @@
         <v>43189</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.1627537222687322</v>
+        <v>-0.03602930175705542</v>
       </c>
     </row>
     <row r="320">
@@ -3000,7 +3000,7 @@
         <v>43194</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.04202048332135352</v>
+        <v>-0.02655032068640923</v>
       </c>
     </row>
     <row r="321">
@@ -3008,7 +3008,7 @@
         <v>43195</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.1535157136938916</v>
+        <v>-0.05389858037238962</v>
       </c>
     </row>
     <row r="322">
@@ -3016,7 +3016,7 @@
         <v>43196</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.06733690962884777</v>
+        <v>0.03570120228631703</v>
       </c>
     </row>
     <row r="323">
@@ -3024,7 +3024,7 @@
         <v>43197</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.4397984528611186</v>
+        <v>-0.219865994978296</v>
       </c>
     </row>
     <row r="324">
@@ -3032,7 +3032,7 @@
         <v>43200</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.06694028780216826</v>
+        <v>-0.04774925293699103</v>
       </c>
     </row>
     <row r="325">
@@ -3040,7 +3040,7 @@
         <v>43201</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.1437673196982591</v>
+        <v>0.0111483169923238</v>
       </c>
     </row>
     <row r="326">
@@ -3048,7 +3048,7 @@
         <v>43202</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.06891307136886984</v>
+        <v>-0.07446822371962278</v>
       </c>
     </row>
     <row r="327">
@@ -3056,7 +3056,7 @@
         <v>43203</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.08757196269528407</v>
+        <v>0.05373847744078396</v>
       </c>
     </row>
     <row r="328">
@@ -3064,7 +3064,7 @@
         <v>43204</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.07483668022152201</v>
+        <v>0.181115343215726</v>
       </c>
     </row>
     <row r="329">
@@ -3072,7 +3072,7 @@
         <v>43207</v>
       </c>
       <c r="B329" t="n">
-        <v>0.06755856890903066</v>
+        <v>0.004007416300939699</v>
       </c>
     </row>
     <row r="330">
@@ -3080,7 +3080,7 @@
         <v>43208</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.04571358566453704</v>
+        <v>-0.006417310191840578</v>
       </c>
     </row>
     <row r="331">
@@ -3088,7 +3088,7 @@
         <v>43209</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.02315478942596701</v>
+        <v>-0.006362934088044762</v>
       </c>
     </row>
     <row r="332">
@@ -3096,7 +3096,7 @@
         <v>43210</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.005386410340415661</v>
+        <v>-0.00983608023192383</v>
       </c>
     </row>
     <row r="333">
@@ -3104,7 +3104,7 @@
         <v>43211</v>
       </c>
       <c r="B333" t="n">
-        <v>0.05167180370720746</v>
+        <v>0.003418064932008658</v>
       </c>
     </row>
     <row r="334">
@@ -3112,7 +3112,7 @@
         <v>43214</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.0623192987053577</v>
+        <v>0.03317080799337501</v>
       </c>
     </row>
     <row r="335">
@@ -3120,7 +3120,7 @@
         <v>43215</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.1778703347347641</v>
+        <v>-0.0008723621483435653</v>
       </c>
     </row>
     <row r="336">
@@ -3128,7 +3128,7 @@
         <v>43216</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.03294579870525273</v>
+        <v>-0.005967898637854165</v>
       </c>
     </row>
     <row r="337">
@@ -3136,7 +3136,7 @@
         <v>43217</v>
       </c>
       <c r="B337" t="n">
-        <v>0.0375752943356019</v>
+        <v>0.080862816828256</v>
       </c>
     </row>
     <row r="338">
@@ -3144,7 +3144,7 @@
         <v>43218</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.1326350320718869</v>
+        <v>-0.01597438987577879</v>
       </c>
     </row>
     <row r="339">
@@ -3152,7 +3152,7 @@
         <v>43223</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.06792277275845177</v>
+        <v>-0.04017433813139876</v>
       </c>
     </row>
     <row r="340">
@@ -3160,7 +3160,7 @@
         <v>43224</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.0484714768357626</v>
+        <v>-0.02155000782864832</v>
       </c>
     </row>
     <row r="341">
@@ -3168,7 +3168,7 @@
         <v>43225</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.05119313551728796</v>
+        <v>-0.02692753450015467</v>
       </c>
     </row>
     <row r="342">
@@ -3176,7 +3176,7 @@
         <v>43228</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.0754713731264724</v>
+        <v>-0.07143430873477868</v>
       </c>
     </row>
     <row r="343">
@@ -3184,7 +3184,7 @@
         <v>43229</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.1182020767008416</v>
+        <v>0.02940171579595823</v>
       </c>
     </row>
     <row r="344">
@@ -3192,7 +3192,7 @@
         <v>43230</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.0226098290694105</v>
+        <v>-0.0293365262825149</v>
       </c>
     </row>
     <row r="345">
@@ -3200,7 +3200,7 @@
         <v>43231</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.1322795469172341</v>
+        <v>0.05137006747711877</v>
       </c>
     </row>
     <row r="346">
@@ -3208,7 +3208,7 @@
         <v>43232</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.05905466920827273</v>
+        <v>0.03176470551587347</v>
       </c>
     </row>
     <row r="347">
@@ -3216,7 +3216,7 @@
         <v>43235</v>
       </c>
       <c r="B347" t="n">
-        <v>0.06936801328733676</v>
+        <v>0.0408479234580506</v>
       </c>
     </row>
     <row r="348">
@@ -3224,7 +3224,7 @@
         <v>43236</v>
       </c>
       <c r="B348" t="n">
-        <v>0.02126557786194956</v>
+        <v>0.03247783808081871</v>
       </c>
     </row>
     <row r="349">
@@ -3232,7 +3232,7 @@
         <v>43237</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.03744908371355143</v>
+        <v>-0.01388989738340042</v>
       </c>
     </row>
     <row r="350">
@@ -3240,7 +3240,7 @@
         <v>43238</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.02909175443658368</v>
+        <v>0.0424171826199293</v>
       </c>
     </row>
     <row r="351">
@@ -3248,7 +3248,7 @@
         <v>43239</v>
       </c>
       <c r="B351" t="n">
-        <v>0.00759657275383142</v>
+        <v>0.05854445869926369</v>
       </c>
     </row>
     <row r="352">
@@ -3256,7 +3256,7 @@
         <v>43242</v>
       </c>
       <c r="B352" t="n">
-        <v>0.02182687389218676</v>
+        <v>0.03213512032932007</v>
       </c>
     </row>
     <row r="353">
@@ -3264,7 +3264,7 @@
         <v>43243</v>
       </c>
       <c r="B353" t="n">
-        <v>0.1271266647419493</v>
+        <v>0.005250847616485216</v>
       </c>
     </row>
     <row r="354">
@@ -3272,7 +3272,7 @@
         <v>43244</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.1121743715955836</v>
+        <v>0.0104518084605517</v>
       </c>
     </row>
     <row r="355">
@@ -3280,7 +3280,7 @@
         <v>43245</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.003822002474953309</v>
+        <v>0.01875222044990603</v>
       </c>
     </row>
     <row r="356">
@@ -3288,7 +3288,7 @@
         <v>43246</v>
       </c>
       <c r="B356" t="n">
-        <v>0.05265455611599564</v>
+        <v>-0.009992250339689764</v>
       </c>
     </row>
     <row r="357">
@@ -3296,7 +3296,7 @@
         <v>43249</v>
       </c>
       <c r="B357" t="n">
-        <v>0.009845124652076948</v>
+        <v>0.02785627366262953</v>
       </c>
     </row>
     <row r="358">
@@ -3304,7 +3304,7 @@
         <v>43250</v>
       </c>
       <c r="B358" t="n">
-        <v>0.03765804839239928</v>
+        <v>0.02721800339282989</v>
       </c>
     </row>
     <row r="359">
@@ -3312,7 +3312,7 @@
         <v>43251</v>
       </c>
       <c r="B359" t="n">
-        <v>0.02798267950653271</v>
+        <v>0.07278481773027137</v>
       </c>
     </row>
     <row r="360">
@@ -3320,7 +3320,7 @@
         <v>43252</v>
       </c>
       <c r="B360" t="n">
-        <v>0.006718231929722366</v>
+        <v>0.008361773825416249</v>
       </c>
     </row>
     <row r="361">
@@ -3328,7 +3328,7 @@
         <v>43253</v>
       </c>
       <c r="B361" t="n">
-        <v>0.05826379324323783</v>
+        <v>0.0237665046532414</v>
       </c>
     </row>
     <row r="362">
@@ -3336,7 +3336,7 @@
         <v>43256</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.007763339716891417</v>
+        <v>0.00318425178010127</v>
       </c>
     </row>
     <row r="363">
@@ -3344,7 +3344,7 @@
         <v>43257</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.004735658430740127</v>
+        <v>-0.01817443863166331</v>
       </c>
     </row>
     <row r="364">
@@ -3352,7 +3352,7 @@
         <v>43258</v>
       </c>
       <c r="B364" t="n">
-        <v>0.01989564425604393</v>
+        <v>-0.009838359091039131</v>
       </c>
     </row>
     <row r="365">
@@ -3360,7 +3360,7 @@
         <v>43259</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.0004396479609661075</v>
+        <v>-0.006840109878421938</v>
       </c>
     </row>
     <row r="366">
@@ -3368,7 +3368,7 @@
         <v>43260</v>
       </c>
       <c r="B366" t="n">
-        <v>0.002167084191101649</v>
+        <v>-0.03061519757131815</v>
       </c>
     </row>
     <row r="367">
@@ -3376,7 +3376,7 @@
         <v>43263</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.04891062402520174</v>
+        <v>-0.01939102348874913</v>
       </c>
     </row>
     <row r="368">
@@ -3384,7 +3384,7 @@
         <v>43264</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.06546027208493686</v>
+        <v>-0.02413513764131261</v>
       </c>
     </row>
     <row r="369">
@@ -3392,7 +3392,7 @@
         <v>43265</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.1020791182127248</v>
+        <v>-0.03149604073632986</v>
       </c>
     </row>
     <row r="370">
@@ -3400,7 +3400,7 @@
         <v>43266</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.06939965219364802</v>
+        <v>0.01910343686430331</v>
       </c>
     </row>
     <row r="371">
@@ -3408,7 +3408,7 @@
         <v>43267</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.002275236795399761</v>
+        <v>-0.04121469853720532</v>
       </c>
     </row>
     <row r="372">
@@ -3416,7 +3416,7 @@
         <v>43270</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.04311783496448019</v>
+        <v>0.008961124234286759</v>
       </c>
     </row>
     <row r="373">
@@ -3424,7 +3424,7 @@
         <v>43271</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.06514924161645562</v>
+        <v>-0.033159583515135</v>
       </c>
     </row>
     <row r="374">
@@ -3432,7 +3432,7 @@
         <v>43272</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.01393317863956375</v>
+        <v>-0.1111286403257164</v>
       </c>
     </row>
     <row r="375">
@@ -3440,7 +3440,7 @@
         <v>43273</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.07086759791338335</v>
+        <v>0.01625695678646052</v>
       </c>
     </row>
     <row r="376">
@@ -3448,7 +3448,7 @@
         <v>43274</v>
       </c>
       <c r="B376" t="n">
-        <v>0.1747055021754371</v>
+        <v>-0.06608819577301747</v>
       </c>
     </row>
     <row r="377">
@@ -3456,7 +3456,7 @@
         <v>43277</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.05255158137155206</v>
+        <v>-0.009969647409894639</v>
       </c>
     </row>
     <row r="378">
@@ -3464,7 +3464,7 @@
         <v>43278</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.061838071896679</v>
+        <v>0.006005808912132962</v>
       </c>
     </row>
     <row r="379">
@@ -3472,7 +3472,7 @@
         <v>43279</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.08129638166870308</v>
+        <v>-0.01344545257849188</v>
       </c>
     </row>
     <row r="380">
@@ -3480,7 +3480,7 @@
         <v>43280</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.07477930620278629</v>
+        <v>-0.02341448466448014</v>
       </c>
     </row>
     <row r="381">
@@ -3488,7 +3488,7 @@
         <v>43281</v>
       </c>
       <c r="B381" t="n">
-        <v>0.3726691521507013</v>
+        <v>0.02484958736567606</v>
       </c>
     </row>
     <row r="382">
@@ -3496,7 +3496,7 @@
         <v>43284</v>
       </c>
       <c r="B382" t="n">
-        <v>0.007055639220382509</v>
+        <v>-0.01161808851455268</v>
       </c>
     </row>
     <row r="383">
@@ -3504,7 +3504,7 @@
         <v>43285</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.05638770485246642</v>
+        <v>0.009556326111246056</v>
       </c>
     </row>
     <row r="384">
@@ -3512,7 +3512,7 @@
         <v>43286</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.0665510629542289</v>
+        <v>-0.02108701373587897</v>
       </c>
     </row>
     <row r="385">
@@ -3520,7 +3520,7 @@
         <v>43287</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.09239561057453585</v>
+        <v>-0.001864005107574677</v>
       </c>
     </row>
     <row r="386">
@@ -3528,7 +3528,7 @@
         <v>43288</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.1225111579139306</v>
+        <v>-0.04844989228130139</v>
       </c>
     </row>
     <row r="387">
@@ -3536,7 +3536,7 @@
         <v>43291</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.01882181959761437</v>
+        <v>0.02188481052837726</v>
       </c>
     </row>
     <row r="388">
@@ -3544,7 +3544,7 @@
         <v>43292</v>
       </c>
       <c r="B388" t="n">
-        <v>0.002509523315262863</v>
+        <v>-0.001371677448164778</v>
       </c>
     </row>
     <row r="389">
@@ -3552,7 +3552,7 @@
         <v>43293</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.03846754428599636</v>
+        <v>0.005385640045099182</v>
       </c>
     </row>
     <row r="390">
@@ -3560,7 +3560,7 @@
         <v>43294</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.02535053427806016</v>
+        <v>-0.01106438720537885</v>
       </c>
     </row>
     <row r="391">
@@ -3568,7 +3568,7 @@
         <v>43295</v>
       </c>
       <c r="B391" t="n">
-        <v>0.04449767268732502</v>
+        <v>0.006555857381380737</v>
       </c>
     </row>
     <row r="392">
@@ -3576,7 +3576,7 @@
         <v>43298</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.03068600183061454</v>
+        <v>0.004519384377747677</v>
       </c>
     </row>
     <row r="393">
@@ -3584,7 +3584,7 @@
         <v>43299</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.01879178305995839</v>
+        <v>-0.01712418317834915</v>
       </c>
     </row>
     <row r="394">
@@ -3592,7 +3592,7 @@
         <v>43300</v>
       </c>
       <c r="B394" t="n">
-        <v>0.01949312445601564</v>
+        <v>0.005833869590979087</v>
       </c>
     </row>
     <row r="395">
@@ -3600,7 +3600,7 @@
         <v>43301</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.0498944357525624</v>
+        <v>0.008324418196796907</v>
       </c>
     </row>
     <row r="396">
@@ -3608,7 +3608,7 @@
         <v>43302</v>
       </c>
       <c r="B396" t="n">
-        <v>0.03922839025103172</v>
+        <v>0.03295442440097705</v>
       </c>
     </row>
     <row r="397">
@@ -3616,7 +3616,7 @@
         <v>43305</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.01912849786725601</v>
+        <v>0.04076459845852552</v>
       </c>
     </row>
     <row r="398">
@@ -3624,7 +3624,7 @@
         <v>43306</v>
       </c>
       <c r="B398" t="n">
-        <v>0.008858664677193699</v>
+        <v>0.01203429269999912</v>
       </c>
     </row>
     <row r="399">
@@ -3632,7 +3632,7 @@
         <v>43307</v>
       </c>
       <c r="B399" t="n">
-        <v>0.03148361850259773</v>
+        <v>-0.02972047183808812</v>
       </c>
     </row>
     <row r="400">
@@ -3640,7 +3640,7 @@
         <v>43308</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.00545975657674807</v>
+        <v>-0.02634113472534431</v>
       </c>
     </row>
     <row r="401">
@@ -3648,7 +3648,7 @@
         <v>43309</v>
       </c>
       <c r="B401" t="n">
-        <v>0.02199288508084746</v>
+        <v>0.03937159673820765</v>
       </c>
     </row>
     <row r="402">
@@ -3656,7 +3656,7 @@
         <v>43312</v>
       </c>
       <c r="B402" t="n">
-        <v>0.07399569620876413</v>
+        <v>-0.01246294852560387</v>
       </c>
     </row>
     <row r="403">
@@ -3664,7 +3664,7 @@
         <v>43313</v>
       </c>
       <c r="B403" t="n">
-        <v>0.05933627957578911</v>
+        <v>-0.001721289867252184</v>
       </c>
     </row>
     <row r="404">
@@ -3672,7 +3672,7 @@
         <v>43314</v>
       </c>
       <c r="B404" t="n">
-        <v>0.04090024130456398</v>
+        <v>0.01734052721826886</v>
       </c>
     </row>
     <row r="405">
@@ -3680,7 +3680,7 @@
         <v>43315</v>
       </c>
       <c r="B405" t="n">
-        <v>0.1977186133113679</v>
+        <v>0.03885686714130393</v>
       </c>
     </row>
     <row r="406">
@@ -3688,7 +3688,7 @@
         <v>43316</v>
       </c>
       <c r="B406" t="n">
-        <v>0.1590344014057069</v>
+        <v>-0.002150508678732851</v>
       </c>
     </row>
     <row r="407">
@@ -3696,7 +3696,7 @@
         <v>43319</v>
       </c>
       <c r="B407" t="n">
-        <v>0.1220831541724392</v>
+        <v>0.005766381908066547</v>
       </c>
     </row>
     <row r="408">
@@ -3704,7 +3704,7 @@
         <v>43320</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.003539291520547985</v>
+        <v>-0.01155665254773322</v>
       </c>
     </row>
     <row r="409">
@@ -3712,7 +3712,7 @@
         <v>43321</v>
       </c>
       <c r="B409" t="n">
-        <v>-0.04022876873830838</v>
+        <v>0.00306040428250239</v>
       </c>
     </row>
     <row r="410">
@@ -3720,7 +3720,7 @@
         <v>43322</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.03702086899887398</v>
+        <v>-0.004408522922514256</v>
       </c>
     </row>
     <row r="411">
@@ -3728,7 +3728,7 @@
         <v>43323</v>
       </c>
       <c r="B411" t="n">
-        <v>0.1015304011480155</v>
+        <v>-0.02096358544628758</v>
       </c>
     </row>
     <row r="412">
@@ -3736,7 +3736,7 @@
         <v>43326</v>
       </c>
       <c r="B412" t="n">
-        <v>0.09367769146024929</v>
+        <v>-0.005630687291511213</v>
       </c>
     </row>
     <row r="413">
@@ -3744,7 +3744,7 @@
         <v>43327</v>
       </c>
       <c r="B413" t="n">
-        <v>-0.003643611560201006</v>
+        <v>0.03608246805045831</v>
       </c>
     </row>
     <row r="414">
@@ -3752,7 +3752,7 @@
         <v>43328</v>
       </c>
       <c r="B414" t="n">
-        <v>0.01206382204163142</v>
+        <v>0.02236052056818645</v>
       </c>
     </row>
     <row r="415">
@@ -3760,7 +3760,7 @@
         <v>43329</v>
       </c>
       <c r="B415" t="n">
-        <v>0.04399193826499007</v>
+        <v>0.009844070395760433</v>
       </c>
     </row>
     <row r="416">
@@ -3768,7 +3768,7 @@
         <v>43330</v>
       </c>
       <c r="B416" t="n">
-        <v>0.1105924193648672</v>
+        <v>0.05476837616705788</v>
       </c>
     </row>
     <row r="417">
@@ -3776,7 +3776,7 @@
         <v>43333</v>
       </c>
       <c r="B417" t="n">
-        <v>0.07700444374740477</v>
+        <v>0.08710200978438246</v>
       </c>
     </row>
     <row r="418">
@@ -3784,7 +3784,7 @@
         <v>43334</v>
       </c>
       <c r="B418" t="n">
-        <v>0.09022854101613396</v>
+        <v>0.007003187841175454</v>
       </c>
     </row>
     <row r="419">
@@ -3792,7 +3792,7 @@
         <v>43335</v>
       </c>
       <c r="B419" t="n">
-        <v>0.06217389767948726</v>
+        <v>0.01503038479054644</v>
       </c>
     </row>
     <row r="420">
@@ -3800,7 +3800,7 @@
         <v>43336</v>
       </c>
       <c r="B420" t="n">
-        <v>0.06018536425285565</v>
+        <v>-0.0119035174587828</v>
       </c>
     </row>
     <row r="421">
@@ -3808,7 +3808,7 @@
         <v>43337</v>
       </c>
       <c r="B421" t="n">
-        <v>0.1070636060331889</v>
+        <v>-1.21235240571439e-05</v>
       </c>
     </row>
     <row r="422">
@@ -3816,7 +3816,7 @@
         <v>43340</v>
       </c>
       <c r="B422" t="n">
-        <v>0.04574560020144054</v>
+        <v>0.04796914748146695</v>
       </c>
     </row>
     <row r="423">
@@ -3824,7 +3824,7 @@
         <v>43341</v>
       </c>
       <c r="B423" t="n">
-        <v>0.02405545240417357</v>
+        <v>-0.03183854275847657</v>
       </c>
     </row>
     <row r="424">
@@ -3832,7 +3832,7 @@
         <v>43342</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.04330565399488818</v>
+        <v>-0.0008146225255455615</v>
       </c>
     </row>
     <row r="425">
@@ -3840,7 +3840,7 @@
         <v>43343</v>
       </c>
       <c r="B425" t="n">
-        <v>0.03958455426482013</v>
+        <v>0.01534576808174985</v>
       </c>
     </row>
     <row r="426">
@@ -3848,7 +3848,7 @@
         <v>43344</v>
       </c>
       <c r="B426" t="n">
-        <v>0.1196457718350634</v>
+        <v>0.01453428146207723</v>
       </c>
     </row>
     <row r="427">
@@ -3856,7 +3856,7 @@
         <v>43347</v>
       </c>
       <c r="B427" t="n">
-        <v>0.01611640016648801</v>
+        <v>0.004624497578309888</v>
       </c>
     </row>
     <row r="428">
@@ -3864,7 +3864,7 @@
         <v>43348</v>
       </c>
       <c r="B428" t="n">
-        <v>0.01589489141835371</v>
+        <v>0.009602790455155521</v>
       </c>
     </row>
     <row r="429">
@@ -3872,7 +3872,7 @@
         <v>43349</v>
       </c>
       <c r="B429" t="n">
-        <v>0.009091713325641175</v>
+        <v>-0.003515233695454349</v>
       </c>
     </row>
     <row r="430">
@@ -3880,7 +3880,7 @@
         <v>43350</v>
       </c>
       <c r="B430" t="n">
-        <v>0.01499085336491914</v>
+        <v>-0.006312115438392905</v>
       </c>
     </row>
     <row r="431">
@@ -3888,7 +3888,7 @@
         <v>43351</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.002562865851540399</v>
+        <v>-0.05280973136643449</v>
       </c>
     </row>
     <row r="432">
@@ -3896,7 +3896,7 @@
         <v>43354</v>
       </c>
       <c r="B432" t="n">
-        <v>0.05067111076766995</v>
+        <v>-0.02899503908401713</v>
       </c>
     </row>
     <row r="433">
@@ -3904,7 +3904,7 @@
         <v>43355</v>
       </c>
       <c r="B433" t="n">
-        <v>0.004208810208625226</v>
+        <v>0.0222782485332642</v>
       </c>
     </row>
     <row r="434">
@@ -3912,7 +3912,7 @@
         <v>43356</v>
       </c>
       <c r="B434" t="n">
-        <v>0.04682924053434886</v>
+        <v>0.02127634656287664</v>
       </c>
     </row>
     <row r="435">
@@ -3920,7 +3920,7 @@
         <v>43357</v>
       </c>
       <c r="B435" t="n">
-        <v>0.04941256680421031</v>
+        <v>-0.00190681948548115</v>
       </c>
     </row>
     <row r="436">
@@ -3928,7 +3928,7 @@
         <v>43358</v>
       </c>
       <c r="B436" t="n">
-        <v>0.07504421830518369</v>
+        <v>-0.01042036261678063</v>
       </c>
     </row>
     <row r="437">
@@ -3936,7 +3936,7 @@
         <v>43361</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.03963994200948776</v>
+        <v>-0.051315454294165</v>
       </c>
     </row>
     <row r="438">
@@ -3944,7 +3944,7 @@
         <v>43362</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.01469292903930752</v>
+        <v>0.01757407227954812</v>
       </c>
     </row>
     <row r="439">
@@ -3952,7 +3952,7 @@
         <v>43363</v>
       </c>
       <c r="B439" t="n">
-        <v>-0.02099636921722419</v>
+        <v>-0.009886551597878634</v>
       </c>
     </row>
     <row r="440">
@@ -3960,7 +3960,7 @@
         <v>43364</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.02806679388233221</v>
+        <v>-0.1154047103792345</v>
       </c>
     </row>
     <row r="441">
@@ -3968,7 +3968,7 @@
         <v>43365</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.2497138677789376</v>
+        <v>-0.1332252056500849</v>
       </c>
     </row>
     <row r="442">
@@ -3976,7 +3976,7 @@
         <v>43368</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.08569360545559522</v>
+        <v>0.1101071476553314</v>
       </c>
     </row>
     <row r="443">
@@ -3984,7 +3984,7 @@
         <v>43369</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.08285910645851237</v>
+        <v>-0.05636163617128619</v>
       </c>
     </row>
     <row r="444">
@@ -3992,7 +3992,7 @@
         <v>43370</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.09175455942389495</v>
+        <v>-0.02069304716547874</v>
       </c>
     </row>
     <row r="445">
@@ -4000,7 +4000,7 @@
         <v>43371</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.06579520013817182</v>
+        <v>-0.002035050592712799</v>
       </c>
     </row>
     <row r="446">
@@ -4008,7 +4008,7 @@
         <v>43372</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.08300402118495274</v>
+        <v>0.05140373765563825</v>
       </c>
     </row>
     <row r="447">
@@ -4016,7 +4016,7 @@
         <v>43375</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.2419396097538953</v>
+        <v>-0.01100174543775261</v>
       </c>
     </row>
     <row r="448">
@@ -4024,7 +4024,7 @@
         <v>43376</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.653187864267465</v>
+        <v>-0.2792778045847036</v>
       </c>
     </row>
     <row r="449">
@@ -4032,7 +4032,7 @@
         <v>43377</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.03726344097772698</v>
+        <v>-0.03930306966757297</v>
       </c>
     </row>
     <row r="450">
@@ -4040,7 +4040,7 @@
         <v>43378</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.01734979155062044</v>
+        <v>-0.02707430617315702</v>
       </c>
     </row>
     <row r="451">
@@ -4048,7 +4048,7 @@
         <v>43379</v>
       </c>
       <c r="B451" t="n">
-        <v>0.002765023248006746</v>
+        <v>0.02063432620034043</v>
       </c>
     </row>
     <row r="452">
@@ -4056,7 +4056,7 @@
         <v>43382</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.004828636318509886</v>
+        <v>0.00697063717950933</v>
       </c>
     </row>
     <row r="453">
@@ -4064,7 +4064,7 @@
         <v>43383</v>
       </c>
       <c r="B453" t="n">
-        <v>-0.01450380619991191</v>
+        <v>-0.02444681021034387</v>
       </c>
     </row>
     <row r="454">
@@ -4072,7 +4072,7 @@
         <v>43384</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.09554724301046991</v>
+        <v>-0.01385129688758992</v>
       </c>
     </row>
     <row r="455">
@@ -4080,7 +4080,7 @@
         <v>43385</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.03778057291396039</v>
+        <v>-0.008446360380059281</v>
       </c>
     </row>
     <row r="456">
@@ -4088,7 +4088,7 @@
         <v>43386</v>
       </c>
       <c r="B456" t="n">
-        <v>-0.06589552232232712</v>
+        <v>-0.02112934737450387</v>
       </c>
     </row>
     <row r="457">
@@ -4096,7 +4096,7 @@
         <v>43389</v>
       </c>
       <c r="B457" t="n">
-        <v>0.01573441844841494</v>
+        <v>0.01336039682646618</v>
       </c>
     </row>
     <row r="458">
@@ -4104,7 +4104,7 @@
         <v>43390</v>
       </c>
       <c r="B458" t="n">
-        <v>-0.01658214701867491</v>
+        <v>-0.02274624952370437</v>
       </c>
     </row>
     <row r="459">
@@ -4112,7 +4112,7 @@
         <v>43391</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.07368325309606351</v>
+        <v>-0.0594213915169458</v>
       </c>
     </row>
     <row r="460">
@@ -4120,7 +4120,7 @@
         <v>43392</v>
       </c>
       <c r="B460" t="n">
-        <v>0.0130578773950085</v>
+        <v>-0.01916217357900023</v>
       </c>
     </row>
     <row r="461">
@@ -4128,7 +4128,7 @@
         <v>43393</v>
       </c>
       <c r="B461" t="n">
-        <v>0.03691399879519121</v>
+        <v>-0.04578626839031502</v>
       </c>
     </row>
     <row r="462">
@@ -4136,7 +4136,7 @@
         <v>43396</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.3493760337177874</v>
+        <v>-0.151146679146247</v>
       </c>
     </row>
     <row r="463">
@@ -4144,7 +4144,7 @@
         <v>43397</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.2862721224160663</v>
+        <v>0.08913887840574038</v>
       </c>
     </row>
     <row r="464">
@@ -4152,7 +4152,7 @@
         <v>43398</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.1028648379126283</v>
+        <v>-0.0170522273951464</v>
       </c>
     </row>
     <row r="465">
@@ -4160,7 +4160,7 @@
         <v>43399</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.1367794152896341</v>
+        <v>0.0005433274291858308</v>
       </c>
     </row>
     <row r="466">
@@ -4168,7 +4168,7 @@
         <v>43400</v>
       </c>
       <c r="B466" t="n">
-        <v>-0.150885393478849</v>
+        <v>-0.07759162976526983</v>
       </c>
     </row>
     <row r="467">
@@ -4176,7 +4176,7 @@
         <v>43403</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.3590397167563054</v>
+        <v>0.1183562707673297</v>
       </c>
     </row>
     <row r="468">
@@ -4184,7 +4184,7 @@
         <v>43404</v>
       </c>
       <c r="B468" t="n">
-        <v>-0.06711265253128308</v>
+        <v>0.02279510355470016</v>
       </c>
     </row>
     <row r="469">
@@ -4192,7 +4192,7 @@
         <v>43405</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.03691835120492611</v>
+        <v>-0.0388920351190743</v>
       </c>
     </row>
     <row r="470">
@@ -4200,7 +4200,7 @@
         <v>43406</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.05979676951966243</v>
+        <v>-0.1191956354114991</v>
       </c>
     </row>
     <row r="471">
@@ -4208,7 +4208,7 @@
         <v>43407</v>
       </c>
       <c r="B471" t="n">
-        <v>0.08080713336927006</v>
+        <v>0.01796117680493272</v>
       </c>
     </row>
     <row r="472">
@@ -4216,7 +4216,7 @@
         <v>43410</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.01344582799775243</v>
+        <v>-0.02242257574349875</v>
       </c>
     </row>
     <row r="473">
@@ -4224,7 +4224,7 @@
         <v>43411</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.008358557123455136</v>
+        <v>-0.02021205585890387</v>
       </c>
     </row>
     <row r="474">
@@ -4232,7 +4232,7 @@
         <v>43412</v>
       </c>
       <c r="B474" t="n">
-        <v>0.02847708429770744</v>
+        <v>-0.0004761168222731387</v>
       </c>
     </row>
     <row r="475">
@@ -4240,7 +4240,7 @@
         <v>43413</v>
       </c>
       <c r="B475" t="n">
-        <v>0.006670121451546792</v>
+        <v>-0.02859354417055531</v>
       </c>
     </row>
     <row r="476">
@@ -4248,7 +4248,7 @@
         <v>43414</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.05942164073376899</v>
+        <v>0.009623896208209293</v>
       </c>
     </row>
     <row r="477">
@@ -4256,7 +4256,7 @@
         <v>43417</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.05334182781140762</v>
+        <v>0.05177986877623004</v>
       </c>
     </row>
     <row r="478">
@@ -4264,7 +4264,7 @@
         <v>43418</v>
       </c>
       <c r="B478" t="n">
-        <v>-0.03589650820752494</v>
+        <v>-0.009985618026678994</v>
       </c>
     </row>
     <row r="479">
@@ -4272,7 +4272,7 @@
         <v>43419</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.0683166496066117</v>
+        <v>-0.01220580831911244</v>
       </c>
     </row>
     <row r="480">
@@ -4280,7 +4280,7 @@
         <v>43420</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.04614716822523883</v>
+        <v>-0.01513008676088093</v>
       </c>
     </row>
     <row r="481">
@@ -4288,7 +4288,7 @@
         <v>43421</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.03227843828826098</v>
+        <v>0.01464656794009563</v>
       </c>
     </row>
     <row r="482">
@@ -4296,7 +4296,7 @@
         <v>43424</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.09508426958257726</v>
+        <v>-0.02164407385713254</v>
       </c>
     </row>
     <row r="483">
@@ -4304,7 +4304,7 @@
         <v>43425</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.04860662669543243</v>
+        <v>0.01866644067005564</v>
       </c>
     </row>
     <row r="484">
@@ -4312,7 +4312,7 @@
         <v>43426</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.08901560946339881</v>
+        <v>0.09296127369516444</v>
       </c>
     </row>
     <row r="485">
@@ -4320,7 +4320,7 @@
         <v>43427</v>
       </c>
       <c r="B485" t="n">
-        <v>0.02571294986970779</v>
+        <v>0.03071930575714373</v>
       </c>
     </row>
     <row r="486">
@@ -4328,7 +4328,7 @@
         <v>43428</v>
       </c>
       <c r="B486" t="n">
-        <v>0.09685117015161755</v>
+        <v>0.002581388456178371</v>
       </c>
     </row>
     <row r="487">
@@ -4336,7 +4336,7 @@
         <v>43431</v>
       </c>
       <c r="B487" t="n">
-        <v>0.06418362170143373</v>
+        <v>0.0652729914958451</v>
       </c>
     </row>
     <row r="488">
@@ -4344,7 +4344,7 @@
         <v>43432</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.06444217318750013</v>
+        <v>-0.06287126908538933</v>
       </c>
     </row>
     <row r="489">
@@ -4352,7 +4352,7 @@
         <v>43433</v>
       </c>
       <c r="B489" t="n">
-        <v>-0.09761325849885115</v>
+        <v>0.02437402610674643</v>
       </c>
     </row>
     <row r="490">
@@ -4360,7 +4360,7 @@
         <v>43434</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.0569686539500197</v>
+        <v>-0.003431954477414623</v>
       </c>
     </row>
     <row r="491">
@@ -4368,7 +4368,7 @@
         <v>43435</v>
       </c>
       <c r="B491" t="n">
-        <v>-0.04025153053647788</v>
+        <v>-0.01672702590832843</v>
       </c>
     </row>
     <row r="492">
@@ -4376,7 +4376,7 @@
         <v>43438</v>
       </c>
       <c r="B492" t="n">
-        <v>-0.0414289561410312</v>
+        <v>-0.03996265493835275</v>
       </c>
     </row>
     <row r="493">
@@ -4384,7 +4384,7 @@
         <v>43439</v>
       </c>
       <c r="B493" t="n">
-        <v>-0.1491717095571534</v>
+        <v>-0.03013466435055867</v>
       </c>
     </row>
     <row r="494">
@@ -4392,7 +4392,7 @@
         <v>43440</v>
       </c>
       <c r="B494" t="n">
-        <v>-0.1604710032338714</v>
+        <v>-0.01952056349872099</v>
       </c>
     </row>
     <row r="495">
@@ -4400,7 +4400,7 @@
         <v>43441</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.1421501347708915</v>
+        <v>-0.05289157775608465</v>
       </c>
     </row>
     <row r="496">
@@ -4408,7 +4408,7 @@
         <v>43442</v>
       </c>
       <c r="B496" t="n">
-        <v>-0.1743740654759798</v>
+        <v>0.7540550379645008</v>
       </c>
     </row>
     <row r="497">
@@ -4416,7 +4416,7 @@
         <v>43445</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.1320448285953444</v>
+        <v>-0.0251228095895355</v>
       </c>
     </row>
     <row r="498">
@@ -4424,7 +4424,7 @@
         <v>43446</v>
       </c>
       <c r="B498" t="n">
-        <v>-0.2195622591901998</v>
+        <v>-0.008489780448763917</v>
       </c>
     </row>
     <row r="499">
@@ -4432,7 +4432,7 @@
         <v>43447</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.1854215880890271</v>
+        <v>-0.09412859143788607</v>
       </c>
     </row>
     <row r="500">
@@ -4440,7 +4440,7 @@
         <v>43448</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.3098590476018414</v>
+        <v>-0.003715383421459614</v>
       </c>
     </row>
     <row r="501">
@@ -4448,7 +4448,7 @@
         <v>43449</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.002326237204349873</v>
+        <v>-0.1490406371545945</v>
       </c>
     </row>
     <row r="502">
@@ -4456,7 +4456,7 @@
         <v>43452</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.1217063913844039</v>
+        <v>-0.16640398833191</v>
       </c>
     </row>
     <row r="503">
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.153690423409008</v>
+        <v>0.002990695261795832</v>
       </c>
     </row>
     <row r="504">
@@ -4472,7 +4472,7 @@
         <v>43454</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.1833147162174467</v>
+        <v>-0.067424019247769</v>
       </c>
     </row>
     <row r="505">
@@ -4480,7 +4480,7 @@
         <v>43455</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.09616529163532345</v>
+        <v>-0.03849738721669756</v>
       </c>
     </row>
     <row r="506">
@@ -4488,7 +4488,7 @@
         <v>43456</v>
       </c>
       <c r="B506" t="n">
-        <v>-0.1973130298206993</v>
+        <v>0.1266552707363433</v>
       </c>
     </row>
     <row r="507">
@@ -4496,7 +4496,7 @@
         <v>43462</v>
       </c>
       <c r="B507" t="n">
-        <v>-0.1036710772266489</v>
+        <v>0.04704373404406913</v>
       </c>
     </row>
     <row r="508">
@@ -4504,7 +4504,7 @@
         <v>43463</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.2156178384042256</v>
+        <v>0.04125414284075125</v>
       </c>
     </row>
     <row r="509">
@@ -4512,7 +4512,7 @@
         <v>43468</v>
       </c>
       <c r="B509" t="n">
-        <v>-0.1547815825516128</v>
+        <v>0.05719331866097702</v>
       </c>
     </row>
     <row r="510">
@@ -4520,7 +4520,7 @@
         <v>43469</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.171021185875072</v>
+        <v>-0.0164749763321911</v>
       </c>
     </row>
     <row r="511">
@@ -4528,7 +4528,7 @@
         <v>43470</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.1688933325008069</v>
+        <v>0.01682444879289446</v>
       </c>
     </row>
     <row r="512">
@@ -4536,7 +4536,7 @@
         <v>43473</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.3946316720118505</v>
+        <v>0.02534060147321981</v>
       </c>
     </row>
     <row r="513">
@@ -4544,7 +4544,7 @@
         <v>43474</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.1474170253475838</v>
+        <v>-0.08086247932946579</v>
       </c>
     </row>
     <row r="514">
@@ -4552,7 +4552,7 @@
         <v>43475</v>
       </c>
       <c r="B514" t="n">
-        <v>-0.1932967190580633</v>
+        <v>0.03359264321186439</v>
       </c>
     </row>
     <row r="515">
@@ -4560,7 +4560,7 @@
         <v>43476</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.05011210676301411</v>
+        <v>-0.03181608553177923</v>
       </c>
     </row>
     <row r="516">
@@ -4568,7 +4568,7 @@
         <v>43477</v>
       </c>
       <c r="B516" t="n">
-        <v>-0.1123427412563382</v>
+        <v>0.04912304083720714</v>
       </c>
     </row>
     <row r="517">
@@ -4576,7 +4576,7 @@
         <v>43480</v>
       </c>
       <c r="B517" t="n">
-        <v>-0.09732956746078582</v>
+        <v>0.05086693268334153</v>
       </c>
     </row>
     <row r="518">
@@ -4584,7 +4584,7 @@
         <v>43481</v>
       </c>
       <c r="B518" t="n">
-        <v>-0.1290603288165978</v>
+        <v>-0.005867859452371627</v>
       </c>
     </row>
     <row r="519">
@@ -4592,7 +4592,7 @@
         <v>43482</v>
       </c>
       <c r="B519" t="n">
-        <v>-0.1653932461557844</v>
+        <v>0.01961769803142529</v>
       </c>
     </row>
     <row r="520">
@@ -4600,7 +4600,7 @@
         <v>43483</v>
       </c>
       <c r="B520" t="n">
-        <v>-0.06723968280344492</v>
+        <v>0.02748937523078979</v>
       </c>
     </row>
     <row r="521">
@@ -4608,7 +4608,7 @@
         <v>43484</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.004482408107834531</v>
+        <v>-0.02837193708045357</v>
       </c>
     </row>
     <row r="522">
@@ -4616,7 +4616,7 @@
         <v>43487</v>
       </c>
       <c r="B522" t="n">
-        <v>-0.1163838179900653</v>
+        <v>-0.01305825305380418</v>
       </c>
     </row>
     <row r="523">
@@ -4624,7 +4624,7 @@
         <v>43488</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.2533523753960483</v>
+        <v>0.02249932974582695</v>
       </c>
     </row>
     <row r="524">
@@ -4632,7 +4632,7 @@
         <v>43489</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.1600485000885875</v>
+        <v>0.07714204699734005</v>
       </c>
     </row>
     <row r="525">
@@ -4640,7 +4640,7 @@
         <v>43490</v>
       </c>
       <c r="B525" t="n">
-        <v>-0.1774366175639396</v>
+        <v>0.001613249193473937</v>
       </c>
     </row>
     <row r="526">
@@ -4648,7 +4648,7 @@
         <v>43491</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.05115837241090743</v>
+        <v>-0.09189424670774027</v>
       </c>
     </row>
     <row r="527">
@@ -4656,7 +4656,7 @@
         <v>43494</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.1922512566539409</v>
+        <v>-0.04678928602609558</v>
       </c>
     </row>
     <row r="528">
@@ -4664,7 +4664,7 @@
         <v>43495</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.2292571283168029</v>
+        <v>0.01742663320340716</v>
       </c>
     </row>
     <row r="529">
@@ -4672,7 +4672,7 @@
         <v>43496</v>
       </c>
       <c r="B529" t="n">
-        <v>-0.208449548891265</v>
+        <v>0.005919823141561054</v>
       </c>
     </row>
     <row r="530">
@@ -4680,7 +4680,7 @@
         <v>43497</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.116004153716843</v>
+        <v>-0.009824719878548686</v>
       </c>
     </row>
     <row r="531">
@@ -4688,7 +4688,7 @@
         <v>43498</v>
       </c>
       <c r="B531" t="n">
-        <v>0.01098280336860272</v>
+        <v>0.007530743360550514</v>
       </c>
     </row>
     <row r="532">
@@ -4696,7 +4696,7 @@
         <v>43501</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.1058639658732912</v>
+        <v>0.0617826996996888</v>
       </c>
     </row>
     <row r="533">
@@ -4704,7 +4704,7 @@
         <v>43502</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.1077936560016924</v>
+        <v>0.02465496677298166</v>
       </c>
     </row>
     <row r="534">
@@ -4712,7 +4712,7 @@
         <v>43503</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.1038795840187451</v>
+        <v>0.4256573269074017</v>
       </c>
     </row>
     <row r="535">
@@ -4720,7 +4720,7 @@
         <v>43504</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.143074715028626</v>
+        <v>0.03288489326389683</v>
       </c>
     </row>
     <row r="536">
@@ -4728,7 +4728,7 @@
         <v>43505</v>
       </c>
       <c r="B536" t="n">
-        <v>-0.1494064066923234</v>
+        <v>4.493877149518696</v>
       </c>
     </row>
     <row r="537">
@@ -4736,7 +4736,7 @@
         <v>43508</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.1317693644872034</v>
+        <v>0.02980773183160999</v>
       </c>
     </row>
     <row r="538">
@@ -4744,7 +4744,7 @@
         <v>43509</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.160550827715335</v>
+        <v>-0.004526513725272523</v>
       </c>
     </row>
     <row r="539">
@@ -4752,7 +4752,7 @@
         <v>43510</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.1733537976291212</v>
+        <v>-0.01456332410428018</v>
       </c>
     </row>
     <row r="540">
@@ -4760,7 +4760,7 @@
         <v>43511</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.1731625210275518</v>
+        <v>-0.007216919499240359</v>
       </c>
     </row>
     <row r="541">
@@ -4768,7 +4768,7 @@
         <v>43512</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.06638712200404424</v>
+        <v>-0.03833585200695502</v>
       </c>
     </row>
     <row r="542">
@@ -4776,7 +4776,7 @@
         <v>43515</v>
       </c>
       <c r="B542" t="n">
-        <v>-0.181151929085987</v>
+        <v>0.02866267785708605</v>
       </c>
     </row>
     <row r="543">
@@ -4784,7 +4784,7 @@
         <v>43516</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.1366973024704397</v>
+        <v>-0.007296297064120405</v>
       </c>
     </row>
     <row r="544">
@@ -4792,7 +4792,7 @@
         <v>43517</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.1057011786033975</v>
+        <v>0.0002030475986503301</v>
       </c>
     </row>
     <row r="545">
@@ -4800,7 +4800,7 @@
         <v>43518</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.1579206522095183</v>
+        <v>-0.02139254829685088</v>
       </c>
     </row>
     <row r="546">
@@ -4808,7 +4808,7 @@
         <v>43519</v>
       </c>
       <c r="B546" t="n">
-        <v>-0.06925936110499907</v>
+        <v>-0.01010917165450388</v>
       </c>
     </row>
     <row r="547">
@@ -4816,7 +4816,7 @@
         <v>43522</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.1547262403262676</v>
+        <v>-0.04602005510536882</v>
       </c>
     </row>
     <row r="548">
@@ -4824,7 +4824,7 @@
         <v>43523</v>
       </c>
       <c r="B548" t="n">
-        <v>-0.2016797130133796</v>
+        <v>-0.03173636753947742</v>
       </c>
     </row>
     <row r="549">
@@ -4832,7 +4832,7 @@
         <v>43524</v>
       </c>
       <c r="B549" t="n">
-        <v>-0.1239206830556315</v>
+        <v>0.01256762450270336</v>
       </c>
     </row>
     <row r="550">
@@ -4840,7 +4840,7 @@
         <v>43525</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.08572412343394463</v>
+        <v>0.01319392269799705</v>
       </c>
     </row>
     <row r="551">
@@ -4848,7 +4848,7 @@
         <v>43526</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.02108860201917226</v>
+        <v>0.003229671996007084</v>
       </c>
     </row>
     <row r="552">
@@ -4856,7 +4856,7 @@
         <v>43529</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.2168554518332438</v>
+        <v>0.1755521037487796</v>
       </c>
     </row>
     <row r="553">
@@ -4864,7 +4864,7 @@
         <v>43530</v>
       </c>
       <c r="B553" t="n">
-        <v>-0.04026696708972923</v>
+        <v>-0.001706270669395207</v>
       </c>
     </row>
     <row r="554">
@@ -4872,7 +4872,7 @@
         <v>43531</v>
       </c>
       <c r="B554" t="n">
-        <v>-0.08540193223751767</v>
+        <v>-0.02367798934165363</v>
       </c>
     </row>
     <row r="555">
@@ -4880,7 +4880,7 @@
         <v>43532</v>
       </c>
       <c r="B555" t="n">
-        <v>-0.2371586986310157</v>
+        <v>0.1112580746241526</v>
       </c>
     </row>
     <row r="556">
@@ -4888,7 +4888,7 @@
         <v>43533</v>
       </c>
       <c r="B556" t="n">
-        <v>0.2704861859728456</v>
+        <v>1.927611123514323</v>
       </c>
     </row>
     <row r="557">
@@ -4896,7 +4896,7 @@
         <v>43536</v>
       </c>
       <c r="B557" t="n">
-        <v>-0.06708845260287202</v>
+        <v>-0.005067290824760672</v>
       </c>
     </row>
     <row r="558">
@@ -4904,7 +4904,7 @@
         <v>43537</v>
       </c>
       <c r="B558" t="n">
-        <v>-0.2947840126489472</v>
+        <v>0.006151579744452692</v>
       </c>
     </row>
     <row r="559">
@@ -4912,7 +4912,7 @@
         <v>43538</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.1188317432885077</v>
+        <v>0.0545257262506467</v>
       </c>
     </row>
     <row r="560">
@@ -4920,7 +4920,7 @@
         <v>43539</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.1413999940777444</v>
+        <v>0.05521288336548051</v>
       </c>
     </row>
     <row r="561">
@@ -4928,7 +4928,7 @@
         <v>43540</v>
       </c>
       <c r="B561" t="n">
-        <v>-0.1848943264863058</v>
+        <v>-0.1049895128920281</v>
       </c>
     </row>
     <row r="562">
@@ -4936,7 +4936,7 @@
         <v>43543</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.04182325149834776</v>
+        <v>0.003704014580610988</v>
       </c>
     </row>
     <row r="563">
@@ -4944,7 +4944,7 @@
         <v>43544</v>
       </c>
       <c r="B563" t="n">
-        <v>-0.0728705163691211</v>
+        <v>0.02741651326994464</v>
       </c>
     </row>
     <row r="564">
@@ -4952,7 +4952,7 @@
         <v>43545</v>
       </c>
       <c r="B564" t="n">
-        <v>-0.1028280727524678</v>
+        <v>-0.03344783087934439</v>
       </c>
     </row>
     <row r="565">
@@ -4960,7 +4960,7 @@
         <v>43546</v>
       </c>
       <c r="B565" t="n">
-        <v>-0.1293294116505999</v>
+        <v>-0.04838464521460534</v>
       </c>
     </row>
     <row r="566">
@@ -4968,7 +4968,7 @@
         <v>43547</v>
       </c>
       <c r="B566" t="n">
-        <v>-0.1158315709917753</v>
+        <v>-0.09123690303473338</v>
       </c>
     </row>
     <row r="567">
@@ -4976,7 +4976,7 @@
         <v>43550</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.1303065646228612</v>
+        <v>0.002898356340117892</v>
       </c>
     </row>
     <row r="568">
@@ -4984,7 +4984,7 @@
         <v>43551</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.1024266453868693</v>
+        <v>-0.03880499592489911</v>
       </c>
     </row>
     <row r="569">
@@ -4992,7 +4992,7 @@
         <v>43552</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.106158288956706</v>
+        <v>-0.01353872272918003</v>
       </c>
     </row>
     <row r="570">
@@ -5000,7 +5000,7 @@
         <v>43553</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.1127840455006859</v>
+        <v>-0.01378107813480179</v>
       </c>
     </row>
     <row r="571">
@@ -5008,7 +5008,7 @@
         <v>43554</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.03748121398754469</v>
+        <v>0.0251586197908539</v>
       </c>
     </row>
     <row r="572">
@@ -5016,7 +5016,7 @@
         <v>43557</v>
       </c>
       <c r="B572" t="n">
-        <v>-0.1010834715509833</v>
+        <v>0.006238738776737517</v>
       </c>
     </row>
     <row r="573">
@@ -5024,7 +5024,7 @@
         <v>43558</v>
       </c>
       <c r="B573" t="n">
-        <v>-0.03390465460510597</v>
+        <v>0.02265746135991614</v>
       </c>
     </row>
     <row r="574">
@@ -5032,7 +5032,7 @@
         <v>43559</v>
       </c>
       <c r="B574" t="n">
-        <v>-0.009015416811422419</v>
+        <v>0.01165910585289412</v>
       </c>
     </row>
     <row r="575">
@@ -5040,7 +5040,7 @@
         <v>43560</v>
       </c>
       <c r="B575" t="n">
-        <v>-8.44469039071772e-05</v>
+        <v>-0.007082590961823752</v>
       </c>
     </row>
     <row r="576">
@@ -5048,7 +5048,7 @@
         <v>43561</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.003867755981684654</v>
+        <v>0.03188141450257286</v>
       </c>
     </row>
     <row r="577">
@@ -5056,7 +5056,7 @@
         <v>43564</v>
       </c>
       <c r="B577" t="n">
-        <v>0.005240480290791997</v>
+        <v>0.06174702770185456</v>
       </c>
     </row>
     <row r="578">
@@ -5064,7 +5064,7 @@
         <v>43565</v>
       </c>
       <c r="B578" t="n">
-        <v>0.001383972147097356</v>
+        <v>0.0071275712365788</v>
       </c>
     </row>
     <row r="579">
@@ -5072,7 +5072,7 @@
         <v>43566</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.01845434289017954</v>
+        <v>0.02949790638415015</v>
       </c>
     </row>
     <row r="580">
@@ -5080,7 +5080,7 @@
         <v>43567</v>
       </c>
       <c r="B580" t="n">
-        <v>-0.03037129708735568</v>
+        <v>-0.01014643969132648</v>
       </c>
     </row>
     <row r="581">
@@ -5088,7 +5088,7 @@
         <v>43568</v>
       </c>
       <c r="B581" t="n">
-        <v>0.01488607800477391</v>
+        <v>-0.01532688934907166</v>
       </c>
     </row>
     <row r="582">
@@ -5096,7 +5096,7 @@
         <v>43571</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.03404878991987306</v>
+        <v>-0.005815209322220873</v>
       </c>
     </row>
     <row r="583">
@@ -5104,7 +5104,7 @@
         <v>43572</v>
       </c>
       <c r="B583" t="n">
-        <v>-0.008738186900189413</v>
+        <v>0.01202301537571553</v>
       </c>
     </row>
     <row r="584">
@@ -5112,7 +5112,7 @@
         <v>43573</v>
       </c>
       <c r="B584" t="n">
-        <v>0.00278620762915662</v>
+        <v>-0.02720684294088361</v>
       </c>
     </row>
     <row r="585">
@@ -5120,7 +5120,7 @@
         <v>43574</v>
       </c>
       <c r="B585" t="n">
-        <v>0.05836337306913217</v>
+        <v>0.02765368044059618</v>
       </c>
     </row>
     <row r="586">
@@ -5128,7 +5128,7 @@
         <v>43579</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.1457181209598831</v>
+        <v>0.06421913543503932</v>
       </c>
     </row>
     <row r="587">
@@ -5136,7 +5136,7 @@
         <v>43580</v>
       </c>
       <c r="B587" t="n">
-        <v>-0.06354274906470413</v>
+        <v>0.006665182997193167</v>
       </c>
     </row>
     <row r="588">
@@ -5144,7 +5144,7 @@
         <v>43581</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.01736816350814919</v>
+        <v>0.003007647944427414</v>
       </c>
     </row>
     <row r="589">
@@ -5152,7 +5152,7 @@
         <v>43582</v>
       </c>
       <c r="B589" t="n">
-        <v>0.00902101787119257</v>
+        <v>0.08895324942401568</v>
       </c>
     </row>
     <row r="590">
@@ -5160,7 +5160,7 @@
         <v>43585</v>
       </c>
       <c r="B590" t="n">
-        <v>0.005031112891703044</v>
+        <v>0.005214271264072467</v>
       </c>
     </row>
     <row r="591">
@@ -5168,7 +5168,7 @@
         <v>43586</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.1558387538080347</v>
+        <v>0.06651877791335935</v>
       </c>
     </row>
     <row r="592">
@@ -5176,7 +5176,7 @@
         <v>43588</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.08132950764642875</v>
+        <v>0.04387819885421852</v>
       </c>
     </row>
     <row r="593">
@@ -5184,7 +5184,7 @@
         <v>43589</v>
       </c>
       <c r="B593" t="n">
-        <v>0.01702404680276958</v>
+        <v>0.04094726384437112</v>
       </c>
     </row>
     <row r="594">
@@ -5192,7 +5192,7 @@
         <v>43592</v>
       </c>
       <c r="B594" t="n">
-        <v>0.05628025044861148</v>
+        <v>0.01083134451855985</v>
       </c>
     </row>
     <row r="595">
@@ -5200,7 +5200,7 @@
         <v>43593</v>
       </c>
       <c r="B595" t="n">
-        <v>0.03057975678572696</v>
+        <v>-0.02701779577491126</v>
       </c>
     </row>
     <row r="596">
@@ -5208,7 +5208,7 @@
         <v>43594</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.02056844358933265</v>
+        <v>0.03977846185414247</v>
       </c>
     </row>
     <row r="597">
@@ -5216,7 +5216,7 @@
         <v>43595</v>
       </c>
       <c r="B597" t="n">
-        <v>-0.008385851327221588</v>
+        <v>0.005529715479282286</v>
       </c>
     </row>
     <row r="598">
@@ -5224,7 +5224,7 @@
         <v>43596</v>
       </c>
       <c r="B598" t="n">
-        <v>0.00145988477091403</v>
+        <v>-0.01374828122293872</v>
       </c>
     </row>
     <row r="599">
@@ -5232,7 +5232,7 @@
         <v>43599</v>
       </c>
       <c r="B599" t="n">
-        <v>0.01933322257133398</v>
+        <v>-0.04745193165094351</v>
       </c>
     </row>
     <row r="600">
@@ -5240,7 +5240,7 @@
         <v>43600</v>
       </c>
       <c r="B600" t="n">
-        <v>-0.01556032629547312</v>
+        <v>-0.01578570548207819</v>
       </c>
     </row>
     <row r="601">
@@ -5248,7 +5248,7 @@
         <v>43601</v>
       </c>
       <c r="B601" t="n">
-        <v>-0.02752616416029513</v>
+        <v>-0.005723320236857258</v>
       </c>
     </row>
     <row r="602">
@@ -5256,7 +5256,7 @@
         <v>43602</v>
       </c>
       <c r="B602" t="n">
-        <v>-0.05165824246123698</v>
+        <v>-0.03578148719373832</v>
       </c>
     </row>
     <row r="603">
@@ -5264,7 +5264,7 @@
         <v>43603</v>
       </c>
       <c r="B603" t="n">
-        <v>0.03843500582469757</v>
+        <v>0.132891118022808</v>
       </c>
     </row>
     <row r="604">
@@ -5272,7 +5272,7 @@
         <v>43606</v>
       </c>
       <c r="B604" t="n">
-        <v>0.01661901091433224</v>
+        <v>-0.04078514575879406</v>
       </c>
     </row>
     <row r="605">
@@ -5280,7 +5280,7 @@
         <v>43607</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.01641612221188334</v>
+        <v>-0.009511189422034872</v>
       </c>
     </row>
     <row r="606">
@@ -5288,7 +5288,7 @@
         <v>43608</v>
       </c>
       <c r="B606" t="n">
-        <v>-0.02009336109789035</v>
+        <v>-0.009645744554036804</v>
       </c>
     </row>
     <row r="607">
@@ -5296,7 +5296,7 @@
         <v>43609</v>
       </c>
       <c r="B607" t="n">
-        <v>0.008718414939815677</v>
+        <v>-0.02999031616702905</v>
       </c>
     </row>
     <row r="608">
@@ -5304,7 +5304,7 @@
         <v>43610</v>
       </c>
       <c r="B608" t="n">
-        <v>0.02324800658599491</v>
+        <v>-0.04498670868415978</v>
       </c>
     </row>
     <row r="609">
@@ -5312,7 +5312,7 @@
         <v>43613</v>
       </c>
       <c r="B609" t="n">
-        <v>0.003295350070283128</v>
+        <v>0.002030646165080245</v>
       </c>
     </row>
     <row r="610">
@@ -5320,7 +5320,7 @@
         <v>43614</v>
       </c>
       <c r="B610" t="n">
-        <v>0.0208205289502799</v>
+        <v>0.08031223409525344</v>
       </c>
     </row>
     <row r="611">
@@ -5328,7 +5328,7 @@
         <v>43615</v>
       </c>
       <c r="B611" t="n">
-        <v>0.2027952848301202</v>
+        <v>-0.004643026404725081</v>
       </c>
     </row>
     <row r="612">
@@ -5336,7 +5336,7 @@
         <v>43616</v>
       </c>
       <c r="B612" t="n">
-        <v>-0.05685749833977512</v>
+        <v>0.02064392582447839</v>
       </c>
     </row>
     <row r="613">
@@ -5344,7 +5344,7 @@
         <v>43617</v>
       </c>
       <c r="B613" t="n">
-        <v>-0.03083536600710918</v>
+        <v>0.02779752835271933</v>
       </c>
     </row>
     <row r="614">
@@ -5352,7 +5352,7 @@
         <v>43620</v>
       </c>
       <c r="B614" t="n">
-        <v>0.007928624850847339</v>
+        <v>0.005454886080080342</v>
       </c>
     </row>
     <row r="615">
@@ -5360,7 +5360,7 @@
         <v>43621</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.02612969658107027</v>
+        <v>0.05119410442030917</v>
       </c>
     </row>
     <row r="616">
@@ -5368,7 +5368,7 @@
         <v>43622</v>
       </c>
       <c r="B616" t="n">
-        <v>0.001266267789262482</v>
+        <v>-0.01379599826910555</v>
       </c>
     </row>
     <row r="617">
@@ -5376,7 +5376,7 @@
         <v>43623</v>
       </c>
       <c r="B617" t="n">
-        <v>0.02533524088025345</v>
+        <v>0.04995717513650839</v>
       </c>
     </row>
     <row r="618">
@@ -5384,7 +5384,7 @@
         <v>43627</v>
       </c>
       <c r="B618" t="n">
-        <v>0.06746871986880267</v>
+        <v>0.06811536230332524</v>
       </c>
     </row>
     <row r="619">
@@ -5392,7 +5392,7 @@
         <v>43628</v>
       </c>
       <c r="B619" t="n">
-        <v>0.02428777755138619</v>
+        <v>0.05080696300364999</v>
       </c>
     </row>
     <row r="620">
@@ -5400,7 +5400,7 @@
         <v>43629</v>
       </c>
       <c r="B620" t="n">
-        <v>-0.04047759641775135</v>
+        <v>0.03570659814058044</v>
       </c>
     </row>
     <row r="621">
@@ -5408,7 +5408,7 @@
         <v>43630</v>
       </c>
       <c r="B621" t="n">
-        <v>0.05744644877549925</v>
+        <v>-0.003449809783187824</v>
       </c>
     </row>
     <row r="622">
@@ -5416,7 +5416,7 @@
         <v>43631</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.08755181366595804</v>
+        <v>0.01144668541550882</v>
       </c>
     </row>
     <row r="623">
@@ -5424,7 +5424,7 @@
         <v>43634</v>
       </c>
       <c r="B623" t="n">
-        <v>0.05529956211865333</v>
+        <v>0.007257424676143942</v>
       </c>
     </row>
     <row r="624">
@@ -5432,7 +5432,7 @@
         <v>43635</v>
       </c>
       <c r="B624" t="n">
-        <v>0.0285336106348642</v>
+        <v>0.02023646780530749</v>
       </c>
     </row>
     <row r="625">
@@ -5440,7 +5440,7 @@
         <v>43636</v>
       </c>
       <c r="B625" t="n">
-        <v>0.03361705591390339</v>
+        <v>0.05332504671457531</v>
       </c>
     </row>
     <row r="626">
@@ -5448,7 +5448,7 @@
         <v>43637</v>
       </c>
       <c r="B626" t="n">
-        <v>0.02772371842164648</v>
+        <v>0.005055609498590252</v>
       </c>
     </row>
     <row r="627">
@@ -5456,7 +5456,7 @@
         <v>43638</v>
       </c>
       <c r="B627" t="n">
-        <v>0.005705760219142014</v>
+        <v>0.02788633185981918</v>
       </c>
     </row>
     <row r="628">
@@ -5464,7 +5464,7 @@
         <v>43641</v>
       </c>
       <c r="B628" t="n">
-        <v>0.06619457333158338</v>
+        <v>0.01936592547335115</v>
       </c>
     </row>
     <row r="629">
@@ -5472,7 +5472,7 @@
         <v>43642</v>
       </c>
       <c r="B629" t="n">
-        <v>0.0572019168050177</v>
+        <v>0.0275613620738156</v>
       </c>
     </row>
     <row r="630">
@@ -5480,7 +5480,7 @@
         <v>43643</v>
       </c>
       <c r="B630" t="n">
-        <v>0.0279986328321248</v>
+        <v>0.07580776357716994</v>
       </c>
     </row>
     <row r="631">
@@ -5488,7 +5488,7 @@
         <v>43644</v>
       </c>
       <c r="B631" t="n">
-        <v>0.1248453351296356</v>
+        <v>0.0358666039687778</v>
       </c>
     </row>
     <row r="632">
@@ -5496,7 +5496,7 @@
         <v>43645</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.02916361532164902</v>
+        <v>-0.004706044807819917</v>
       </c>
     </row>
     <row r="633">
@@ -5504,7 +5504,7 @@
         <v>43648</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.02656040505346284</v>
+        <v>0.03096335788079118</v>
       </c>
     </row>
     <row r="634">
@@ -5512,7 +5512,7 @@
         <v>43649</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.05034232184286994</v>
+        <v>-0.02113428031591535</v>
       </c>
     </row>
     <row r="635">
@@ -5520,7 +5520,7 @@
         <v>43650</v>
       </c>
       <c r="B635" t="n">
-        <v>-0.08819099607550519</v>
+        <v>-0.02942832906156535</v>
       </c>
     </row>
     <row r="636">
@@ -5528,7 +5528,7 @@
         <v>43651</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.03318162893515534</v>
+        <v>-0.06366978228389231</v>
       </c>
     </row>
     <row r="637">
@@ -5536,7 +5536,7 @@
         <v>43652</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.06774954871909145</v>
+        <v>-0.1028823004279514</v>
       </c>
     </row>
     <row r="638">
@@ -5544,7 +5544,7 @@
         <v>43655</v>
       </c>
       <c r="B638" t="n">
-        <v>0.01134399467541333</v>
+        <v>0.01172027561433463</v>
       </c>
     </row>
     <row r="639">
@@ -5552,7 +5552,7 @@
         <v>43656</v>
       </c>
       <c r="B639" t="n">
-        <v>0.05306169110628393</v>
+        <v>0.08028706300392111</v>
       </c>
     </row>
     <row r="640">
@@ -5560,7 +5560,7 @@
         <v>43657</v>
       </c>
       <c r="B640" t="n">
-        <v>0.1093620872164987</v>
+        <v>0.09654219556914068</v>
       </c>
     </row>
     <row r="641">
@@ -5568,7 +5568,7 @@
         <v>43658</v>
       </c>
       <c r="B641" t="n">
-        <v>0.08422321156181291</v>
+        <v>0.04168228897857412</v>
       </c>
     </row>
     <row r="642">
@@ -5576,7 +5576,7 @@
         <v>43659</v>
       </c>
       <c r="B642" t="n">
-        <v>0.09543020555669292</v>
+        <v>-0.05136271130427027</v>
       </c>
     </row>
     <row r="643">
@@ -5584,7 +5584,7 @@
         <v>43662</v>
       </c>
       <c r="B643" t="n">
-        <v>0.08047589310109993</v>
+        <v>0.004331171891123594</v>
       </c>
     </row>
     <row r="644">
@@ -5592,7 +5592,7 @@
         <v>43663</v>
       </c>
       <c r="B644" t="n">
-        <v>0.09127993676374126</v>
+        <v>-0.005825187159661006</v>
       </c>
     </row>
     <row r="645">
@@ -5600,7 +5600,7 @@
         <v>43664</v>
       </c>
       <c r="B645" t="n">
-        <v>0.1088272252160747</v>
+        <v>0.001508097647289439</v>
       </c>
     </row>
     <row r="646">
@@ -5608,7 +5608,7 @@
         <v>43665</v>
       </c>
       <c r="B646" t="n">
-        <v>0.03232972746921448</v>
+        <v>0.00923928983380436</v>
       </c>
     </row>
     <row r="647">
@@ -5616,7 +5616,7 @@
         <v>43666</v>
       </c>
       <c r="B647" t="n">
-        <v>0.07420118126601749</v>
+        <v>-0.005207357366917724</v>
       </c>
     </row>
     <row r="648">
@@ -5624,7 +5624,7 @@
         <v>43669</v>
       </c>
       <c r="B648" t="n">
-        <v>0.1168678960722502</v>
+        <v>-0.04531595999195278</v>
       </c>
     </row>
     <row r="649">
@@ -5632,7 +5632,7 @@
         <v>43670</v>
       </c>
       <c r="B649" t="n">
-        <v>0.146254756897546</v>
+        <v>-0.01280730687394362</v>
       </c>
     </row>
     <row r="650">
@@ -5640,7 +5640,7 @@
         <v>43671</v>
       </c>
       <c r="B650" t="n">
-        <v>0.2266793998426641</v>
+        <v>0.08211399948455644</v>
       </c>
     </row>
     <row r="651">
@@ -5648,7 +5648,7 @@
         <v>43672</v>
       </c>
       <c r="B651" t="n">
-        <v>0.1327495403440523</v>
+        <v>-0.02321166699333667</v>
       </c>
     </row>
     <row r="652">
@@ -5656,7 +5656,7 @@
         <v>43673</v>
       </c>
       <c r="B652" t="n">
-        <v>0.06066056129127696</v>
+        <v>0.1848940745639557</v>
       </c>
     </row>
     <row r="653">
@@ -5664,7 +5664,7 @@
         <v>43676</v>
       </c>
       <c r="B653" t="n">
-        <v>0.140336633676044</v>
+        <v>-0.01279133637440681</v>
       </c>
     </row>
     <row r="654">
@@ -5672,7 +5672,7 @@
         <v>43677</v>
       </c>
       <c r="B654" t="n">
-        <v>0.0907509681879963</v>
+        <v>-0.024528314216292</v>
       </c>
     </row>
     <row r="655">
@@ -5680,7 +5680,7 @@
         <v>43678</v>
       </c>
       <c r="B655" t="n">
-        <v>0.1478060424498919</v>
+        <v>-0.01909914230043971</v>
       </c>
     </row>
     <row r="656">
@@ -5688,7 +5688,7 @@
         <v>43679</v>
       </c>
       <c r="B656" t="n">
-        <v>0.1345903858583871</v>
+        <v>-0.01948613591511365</v>
       </c>
     </row>
     <row r="657">
@@ -5696,7 +5696,7 @@
         <v>43680</v>
       </c>
       <c r="B657" t="n">
-        <v>0.04373589815942756</v>
+        <v>0.004792629375747263</v>
       </c>
     </row>
     <row r="658">
@@ -5704,7 +5704,7 @@
         <v>43683</v>
       </c>
       <c r="B658" t="n">
-        <v>0.02896888995709318</v>
+        <v>-0.001202574238971343</v>
       </c>
     </row>
     <row r="659">
@@ -5712,7 +5712,7 @@
         <v>43684</v>
       </c>
       <c r="B659" t="n">
-        <v>0.05212953732854535</v>
+        <v>-0.02647066124480008</v>
       </c>
     </row>
     <row r="660">
@@ -5720,7 +5720,7 @@
         <v>43685</v>
       </c>
       <c r="B660" t="n">
-        <v>-0.01476900053694584</v>
+        <v>0.02774578828183233</v>
       </c>
     </row>
     <row r="661">
@@ -5728,7 +5728,7 @@
         <v>43686</v>
       </c>
       <c r="B661" t="n">
-        <v>-0.01869365004388277</v>
+        <v>0.09068841424987813</v>
       </c>
     </row>
     <row r="662">
@@ -5736,7 +5736,7 @@
         <v>43687</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.3383008034357077</v>
+        <v>-1.403245148721759</v>
       </c>
     </row>
     <row r="663">
@@ -5744,7 +5744,7 @@
         <v>43690</v>
       </c>
       <c r="B663" t="n">
-        <v>0.05219984113495648</v>
+        <v>0.07872403367171094</v>
       </c>
     </row>
     <row r="664">
@@ -5752,7 +5752,7 @@
         <v>43691</v>
       </c>
       <c r="B664" t="n">
-        <v>0.09540346143397183</v>
+        <v>0.1040655366038796</v>
       </c>
     </row>
     <row r="665">
@@ -5760,7 +5760,7 @@
         <v>43692</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.05416700893135788</v>
+        <v>0.09992131805583294</v>
       </c>
     </row>
     <row r="666">
@@ -5768,7 +5768,7 @@
         <v>43693</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.05918656268902572</v>
+        <v>0.03071101625135886</v>
       </c>
     </row>
     <row r="667">
@@ -5776,7 +5776,7 @@
         <v>43694</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.08203908988154908</v>
+        <v>0.02850095180887989</v>
       </c>
     </row>
     <row r="668">
@@ -5784,7 +5784,7 @@
         <v>43697</v>
       </c>
       <c r="B668" t="n">
-        <v>0.008643612194722565</v>
+        <v>0.07638780166314633</v>
       </c>
     </row>
     <row r="669">
@@ -5792,7 +5792,7 @@
         <v>43698</v>
       </c>
       <c r="B669" t="n">
-        <v>-0.008241273360993459</v>
+        <v>0.00397588059249021</v>
       </c>
     </row>
     <row r="670">
@@ -5800,7 +5800,7 @@
         <v>43699</v>
       </c>
       <c r="B670" t="n">
-        <v>-0.02000000601252049</v>
+        <v>0.03411714348967818</v>
       </c>
     </row>
     <row r="671">
@@ -5808,7 +5808,7 @@
         <v>43700</v>
       </c>
       <c r="B671" t="n">
-        <v>-0.04396403200781605</v>
+        <v>-0.01119175932066044</v>
       </c>
     </row>
     <row r="672">
@@ -5816,7 +5816,7 @@
         <v>43701</v>
       </c>
       <c r="B672" t="n">
-        <v>-0.05517843338789236</v>
+        <v>-0.05028003607879977</v>
       </c>
     </row>
     <row r="673">
@@ -5824,7 +5824,7 @@
         <v>43704</v>
       </c>
       <c r="B673" t="n">
-        <v>0.05165888347078276</v>
+        <v>-0.005196063397662768</v>
       </c>
     </row>
     <row r="674">
@@ -5832,7 +5832,7 @@
         <v>43705</v>
       </c>
       <c r="B674" t="n">
-        <v>0.1342444671079855</v>
+        <v>0.03013440154123553</v>
       </c>
     </row>
     <row r="675">
@@ -5840,7 +5840,7 @@
         <v>43706</v>
       </c>
       <c r="B675" t="n">
-        <v>0.1390006063528235</v>
+        <v>0.00238958399229909</v>
       </c>
     </row>
     <row r="676">
@@ -5848,7 +5848,7 @@
         <v>43707</v>
       </c>
       <c r="B676" t="n">
-        <v>0.07476645605153415</v>
+        <v>-0.02822066357552499</v>
       </c>
     </row>
     <row r="677">
@@ -5856,7 +5856,7 @@
         <v>43708</v>
       </c>
       <c r="B677" t="n">
-        <v>-0.02575093006415476</v>
+        <v>0.008934407129502308</v>
       </c>
     </row>
     <row r="678">
@@ -5864,7 +5864,7 @@
         <v>43711</v>
       </c>
       <c r="B678" t="n">
-        <v>-0.100720146380516</v>
+        <v>-0.07951353817640824</v>
       </c>
     </row>
     <row r="679">
@@ -5872,7 +5872,7 @@
         <v>43712</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.1643807686670191</v>
+        <v>-0.047891856218613</v>
       </c>
     </row>
     <row r="680">
@@ -5880,7 +5880,7 @@
         <v>43713</v>
       </c>
       <c r="B680" t="n">
-        <v>-0.1367686560810194</v>
+        <v>-0.09316990116516646</v>
       </c>
     </row>
     <row r="681">
@@ -5888,7 +5888,7 @@
         <v>43714</v>
       </c>
       <c r="B681" t="n">
-        <v>-0.1169786591120301</v>
+        <v>-0.0001897942032757075</v>
       </c>
     </row>
     <row r="682">
@@ -5896,7 +5896,7 @@
         <v>43715</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.08687640363034065</v>
+        <v>-0.06947228628526068</v>
       </c>
     </row>
     <row r="683">
@@ -5904,7 +5904,7 @@
         <v>43718</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.1041643457272653</v>
+        <v>-0.003757935276345612</v>
       </c>
     </row>
     <row r="684">
@@ -5912,7 +5912,7 @@
         <v>43719</v>
       </c>
       <c r="B684" t="n">
-        <v>-0.1391240442255268</v>
+        <v>-0.002312266168757733</v>
       </c>
     </row>
     <row r="685">
@@ -5920,7 +5920,7 @@
         <v>43720</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.09845591504564329</v>
+        <v>0.07871681431490153</v>
       </c>
     </row>
     <row r="686">
@@ -5928,7 +5928,7 @@
         <v>43721</v>
       </c>
       <c r="B686" t="n">
-        <v>-0.09532811146265621</v>
+        <v>0.02205912383926935</v>
       </c>
     </row>
     <row r="687">
@@ -5936,7 +5936,7 @@
         <v>43722</v>
       </c>
       <c r="B687" t="n">
-        <v>0.002062167671684955</v>
+        <v>0.04585755805759532</v>
       </c>
     </row>
     <row r="688">
@@ -5944,7 +5944,7 @@
         <v>43725</v>
       </c>
       <c r="B688" t="n">
-        <v>-0.08285402214906519</v>
+        <v>-0.05028400924375863</v>
       </c>
     </row>
     <row r="689">
@@ -5952,7 +5952,7 @@
         <v>43726</v>
       </c>
       <c r="B689" t="n">
-        <v>-0.1201149446343533</v>
+        <v>0.04514297906135514</v>
       </c>
     </row>
     <row r="690">
@@ -5960,7 +5960,7 @@
         <v>43727</v>
       </c>
       <c r="B690" t="n">
-        <v>-0.004277828981747253</v>
+        <v>0.04674304669809437</v>
       </c>
     </row>
     <row r="691">
@@ -5968,7 +5968,7 @@
         <v>43728</v>
       </c>
       <c r="B691" t="n">
-        <v>0.01508272228726244</v>
+        <v>0.01336568004591302</v>
       </c>
     </row>
     <row r="692">
@@ -5976,7 +5976,7 @@
         <v>43729</v>
       </c>
       <c r="B692" t="n">
-        <v>-0.06458981517174815</v>
+        <v>-0.01569630798296213</v>
       </c>
     </row>
     <row r="693">
@@ -5984,7 +5984,7 @@
         <v>43732</v>
       </c>
       <c r="B693" t="n">
-        <v>0.03428223074132708</v>
+        <v>0.0240146626666983</v>
       </c>
     </row>
     <row r="694">
@@ -5992,7 +5992,7 @@
         <v>43733</v>
       </c>
       <c r="B694" t="n">
-        <v>0.06810038943187245</v>
+        <v>-0.01187314894137347</v>
       </c>
     </row>
     <row r="695">
@@ -6000,7 +6000,7 @@
         <v>43734</v>
       </c>
       <c r="B695" t="n">
-        <v>-0.02005196518780555</v>
+        <v>-0.03011538335823847</v>
       </c>
     </row>
     <row r="696">
@@ -6008,7 +6008,7 @@
         <v>43735</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.04991581794704435</v>
+        <v>0.04720245775093881</v>
       </c>
     </row>
     <row r="697">
@@ -6016,7 +6016,7 @@
         <v>43736</v>
       </c>
       <c r="B697" t="n">
-        <v>-0.1137104007178478</v>
+        <v>0.09461138080653474</v>
       </c>
     </row>
     <row r="698">
@@ -6024,7 +6024,7 @@
         <v>43739</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.05327789234203358</v>
+        <v>-0.004651798641180507</v>
       </c>
     </row>
     <row r="699">
@@ -6032,7 +6032,7 @@
         <v>43740</v>
       </c>
       <c r="B699" t="n">
-        <v>0.005123191805900444</v>
+        <v>0.04120525579329525</v>
       </c>
     </row>
     <row r="700">
@@ -6040,7 +6040,7 @@
         <v>43741</v>
       </c>
       <c r="B700" t="n">
-        <v>-0.08078180477859281</v>
+        <v>0.003974538294720041</v>
       </c>
     </row>
     <row r="701">
@@ -6048,7 +6048,7 @@
         <v>43742</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.1005936639889635</v>
+        <v>-0.005662871792935391</v>
       </c>
     </row>
     <row r="702">
@@ -6056,7 +6056,7 @@
         <v>43743</v>
       </c>
       <c r="B702" t="n">
-        <v>-0.04182827662838138</v>
+        <v>-0.01612585939985458</v>
       </c>
     </row>
     <row r="703">
@@ -6064,7 +6064,7 @@
         <v>43746</v>
       </c>
       <c r="B703" t="n">
-        <v>-0.1378832187843642</v>
+        <v>-0.04186242949338607</v>
       </c>
     </row>
     <row r="704">
@@ -6072,7 +6072,7 @@
         <v>43747</v>
       </c>
       <c r="B704" t="n">
-        <v>-0.1742055165891509</v>
+        <v>0.05395856287102831</v>
       </c>
     </row>
     <row r="705">
@@ -6080,7 +6080,7 @@
         <v>43748</v>
       </c>
       <c r="B705" t="n">
-        <v>-0.1453083734434957</v>
+        <v>0.02971103253069404</v>
       </c>
     </row>
     <row r="706">
@@ -6088,7 +6088,7 @@
         <v>43749</v>
       </c>
       <c r="B706" t="n">
-        <v>-0.2480520060618865</v>
+        <v>0.1643481033401561</v>
       </c>
     </row>
     <row r="707">
@@ -6096,7 +6096,7 @@
         <v>43750</v>
       </c>
       <c r="B707" t="n">
-        <v>-0.2991795151211966</v>
+        <v>0.02520001026880572</v>
       </c>
     </row>
     <row r="708">
@@ -6104,7 +6104,7 @@
         <v>43753</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.167357806017869</v>
+        <v>-0.02003152996120363</v>
       </c>
     </row>
     <row r="709">
@@ -6112,7 +6112,7 @@
         <v>43754</v>
       </c>
       <c r="B709" t="n">
-        <v>-0.1061814993942923</v>
+        <v>-0.0601691874265819</v>
       </c>
     </row>
     <row r="710">
@@ -6120,7 +6120,7 @@
         <v>43755</v>
       </c>
       <c r="B710" t="n">
-        <v>-0.07261361055914177</v>
+        <v>0.02903452945441986</v>
       </c>
     </row>
     <row r="711">
@@ -6128,7 +6128,7 @@
         <v>43756</v>
       </c>
       <c r="B711" t="n">
-        <v>-0.134835820162865</v>
+        <v>-0.1008507379301108</v>
       </c>
     </row>
     <row r="712">
@@ -6136,7 +6136,7 @@
         <v>43757</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.1254752868060139</v>
+        <v>-0.07005123918666475</v>
       </c>
     </row>
     <row r="713">
@@ -6144,7 +6144,7 @@
         <v>43760</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.04508749214177566</v>
+        <v>0.0007159508616480094</v>
       </c>
     </row>
     <row r="714">
@@ -6152,7 +6152,7 @@
         <v>43761</v>
       </c>
       <c r="B714" t="n">
-        <v>-0.0782503554183509</v>
+        <v>-0.03288752106786568</v>
       </c>
     </row>
     <row r="715">
@@ -6160,7 +6160,7 @@
         <v>43762</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.1318071776097514</v>
+        <v>-0.01230532994193846</v>
       </c>
     </row>
     <row r="716">
@@ -6168,7 +6168,7 @@
         <v>43763</v>
       </c>
       <c r="B716" t="n">
-        <v>-0.09678108889136944</v>
+        <v>0.0300543459988697</v>
       </c>
     </row>
     <row r="717">
@@ -6176,7 +6176,7 @@
         <v>43764</v>
       </c>
       <c r="B717" t="n">
-        <v>-0.3361744116142422</v>
+        <v>0.129987870816232</v>
       </c>
     </row>
     <row r="718">
@@ -6184,7 +6184,7 @@
         <v>43767</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.0530684169098324</v>
+        <v>-0.008244074124980291</v>
       </c>
     </row>
     <row r="719">
@@ -6192,7 +6192,7 @@
         <v>43768</v>
       </c>
       <c r="B719" t="n">
-        <v>-0.02690011434388767</v>
+        <v>0.01577684133194676</v>
       </c>
     </row>
     <row r="720">
@@ -6200,7 +6200,7 @@
         <v>43769</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.06685437458188569</v>
+        <v>-0.04901779877734241</v>
       </c>
     </row>
     <row r="721">
@@ -6208,7 +6208,7 @@
         <v>43770</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.1758995420226555</v>
+        <v>-0.1766819041681205</v>
       </c>
     </row>
     <row r="722">
@@ -6216,7 +6216,7 @@
         <v>43771</v>
       </c>
       <c r="B722" t="n">
-        <v>-0.2297490617521531</v>
+        <v>-0.1018924307267384</v>
       </c>
     </row>
     <row r="723">
@@ -6224,7 +6224,7 @@
         <v>43774</v>
       </c>
       <c r="B723" t="n">
-        <v>-0.08137218962563006</v>
+        <v>-0.03358206350600496</v>
       </c>
     </row>
     <row r="724">
@@ -6232,7 +6232,7 @@
         <v>43775</v>
       </c>
       <c r="B724" t="n">
-        <v>-0.1311693013091949</v>
+        <v>-0.01239973551104496</v>
       </c>
     </row>
     <row r="725">
@@ -6240,7 +6240,7 @@
         <v>43776</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.08986556564289924</v>
+        <v>-0.02175921772184682</v>
       </c>
     </row>
     <row r="726">
@@ -6248,7 +6248,7 @@
         <v>43777</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.09081901076312635</v>
+        <v>0.01973345781328206</v>
       </c>
     </row>
     <row r="727">
@@ -6256,7 +6256,7 @@
         <v>43778</v>
       </c>
       <c r="B727" t="n">
-        <v>0.006669109270681421</v>
+        <v>0.03237707616017487</v>
       </c>
     </row>
     <row r="728">
@@ -6264,7 +6264,7 @@
         <v>43781</v>
       </c>
       <c r="B728" t="n">
-        <v>-0.01891913128809755</v>
+        <v>0.005583939148119017</v>
       </c>
     </row>
     <row r="729">
@@ -6272,7 +6272,7 @@
         <v>43782</v>
       </c>
       <c r="B729" t="n">
-        <v>0.05256548592351644</v>
+        <v>0.00352068869816463</v>
       </c>
     </row>
     <row r="730">
@@ -6280,7 +6280,7 @@
         <v>43783</v>
       </c>
       <c r="B730" t="n">
-        <v>-0.02771731026637619</v>
+        <v>0.013396324440981</v>
       </c>
     </row>
     <row r="731">
@@ -6288,7 +6288,7 @@
         <v>43784</v>
       </c>
       <c r="B731" t="n">
-        <v>-0.07972817082726785</v>
+        <v>-0.01356679144347278</v>
       </c>
     </row>
     <row r="732">
@@ -6296,7 +6296,7 @@
         <v>43785</v>
       </c>
       <c r="B732" t="n">
-        <v>0.002094002605429616</v>
+        <v>0.05013516301096024</v>
       </c>
     </row>
     <row r="733">
@@ -6304,7 +6304,7 @@
         <v>43788</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.03818828098259397</v>
+        <v>-0.03407869000564221</v>
       </c>
     </row>
     <row r="734">
@@ -6312,7 +6312,7 @@
         <v>43789</v>
       </c>
       <c r="B734" t="n">
-        <v>0.01571907062730717</v>
+        <v>0.00384996771813479</v>
       </c>
     </row>
     <row r="735">
@@ -6320,7 +6320,7 @@
         <v>43790</v>
       </c>
       <c r="B735" t="n">
-        <v>-0.06502919107748317</v>
+        <v>-0.0124858016980546</v>
       </c>
     </row>
     <row r="736">
@@ -6328,7 +6328,7 @@
         <v>43791</v>
       </c>
       <c r="B736" t="n">
-        <v>-0.1482401240928097</v>
+        <v>-0.08088937796378699</v>
       </c>
     </row>
     <row r="737">
@@ -6336,7 +6336,7 @@
         <v>43792</v>
       </c>
       <c r="B737" t="n">
-        <v>-0.1194067834669983</v>
+        <v>0.001423442795340894</v>
       </c>
     </row>
     <row r="738">
@@ -6344,7 +6344,7 @@
         <v>43795</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.05597684905804496</v>
+        <v>-0.04056575982799102</v>
       </c>
     </row>
     <row r="739">
@@ -6352,7 +6352,7 @@
         <v>43796</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.09692258373690804</v>
+        <v>-0.1192890802177508</v>
       </c>
     </row>
     <row r="740">
@@ -6360,7 +6360,7 @@
         <v>43797</v>
       </c>
       <c r="B740" t="n">
-        <v>-0.220018408850944</v>
+        <v>-0.1409805669368618</v>
       </c>
     </row>
     <row r="741">
@@ -6368,7 +6368,7 @@
         <v>43798</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.1087508395087451</v>
+        <v>0.0328927215188469</v>
       </c>
     </row>
     <row r="742">
@@ -6376,7 +6376,7 @@
         <v>43799</v>
       </c>
       <c r="B742" t="n">
-        <v>-0.07891359797161836</v>
+        <v>0.02374156565798612</v>
       </c>
     </row>
     <row r="743">
@@ -6384,7 +6384,7 @@
         <v>43802</v>
       </c>
       <c r="B743" t="n">
-        <v>-0.0205413038594522</v>
+        <v>0.00741202446333278</v>
       </c>
     </row>
     <row r="744">
@@ -6392,7 +6392,7 @@
         <v>43803</v>
       </c>
       <c r="B744" t="n">
-        <v>0.007127768965302461</v>
+        <v>-0.0152718940917997</v>
       </c>
     </row>
     <row r="745">
@@ -6400,7 +6400,7 @@
         <v>43804</v>
       </c>
       <c r="B745" t="n">
-        <v>-0.0414302803860382</v>
+        <v>-0.06097640815930933</v>
       </c>
     </row>
     <row r="746">
@@ -6408,7 +6408,7 @@
         <v>43805</v>
       </c>
       <c r="B746" t="n">
-        <v>-0.2497766424330141</v>
+        <v>0.004711241529139151</v>
       </c>
     </row>
     <row r="747">
@@ -6416,7 +6416,7 @@
         <v>43806</v>
       </c>
       <c r="B747" t="n">
-        <v>-0.3666682274724083</v>
+        <v>0.06868161228160408</v>
       </c>
     </row>
     <row r="748">
@@ -6424,7 +6424,7 @@
         <v>43809</v>
       </c>
       <c r="B748" t="n">
-        <v>-0.04516157554198218</v>
+        <v>0.04098299973955367</v>
       </c>
     </row>
     <row r="749">
@@ -6432,7 +6432,7 @@
         <v>43810</v>
       </c>
       <c r="B749" t="n">
-        <v>-0.1430956686522662</v>
+        <v>0.02865850509175475</v>
       </c>
     </row>
     <row r="750">
@@ -6440,7 +6440,7 @@
         <v>43811</v>
       </c>
       <c r="B750" t="n">
-        <v>-0.1784529149410046</v>
+        <v>0.043233292274607</v>
       </c>
     </row>
     <row r="751">
@@ -6448,7 +6448,7 @@
         <v>43812</v>
       </c>
       <c r="B751" t="n">
-        <v>-0.1690322920464461</v>
+        <v>-0.08782371994668123</v>
       </c>
     </row>
     <row r="752">
@@ -6456,7 +6456,7 @@
         <v>43813</v>
       </c>
       <c r="B752" t="n">
-        <v>-0.2551569891366094</v>
+        <v>0.1798073332547865</v>
       </c>
     </row>
     <row r="753">
@@ -6464,7 +6464,7 @@
         <v>43816</v>
       </c>
       <c r="B753" t="n">
-        <v>-0.1175305618488406</v>
+        <v>-0.01240361616827431</v>
       </c>
     </row>
     <row r="754">
@@ -6472,7 +6472,7 @@
         <v>43817</v>
       </c>
       <c r="B754" t="n">
-        <v>-0.1248194610035688</v>
+        <v>-0.00670592941220062</v>
       </c>
     </row>
     <row r="755">
@@ -6480,7 +6480,7 @@
         <v>43818</v>
       </c>
       <c r="B755" t="n">
-        <v>-0.1626970754713135</v>
+        <v>-0.07642233464864784</v>
       </c>
     </row>
     <row r="756">
@@ -6488,7 +6488,7 @@
         <v>43819</v>
       </c>
       <c r="B756" t="n">
-        <v>-0.2477341121248013</v>
+        <v>-0.008508930141660351</v>
       </c>
     </row>
     <row r="757">
@@ -6496,7 +6496,7 @@
         <v>43820</v>
       </c>
       <c r="B757" t="n">
-        <v>-0.216188263648341</v>
+        <v>-0.03573022945790734</v>
       </c>
     </row>
     <row r="758">
@@ -6504,7 +6504,7 @@
         <v>43823</v>
       </c>
       <c r="B758" t="n">
-        <v>-0.3780933399957348</v>
+        <v>0.02163415491421514</v>
       </c>
     </row>
     <row r="759">
@@ -6512,15 +6512,7 @@
         <v>43827</v>
       </c>
       <c r="B759" t="n">
-        <v>-0.135218540470627</v>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" s="2" t="n">
-        <v>43830</v>
-      </c>
-      <c r="B760" t="n">
-        <v>-0.3021085645550494</v>
+        <v>-0.001969638950332053</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/D1_riskprem_exante.xlsx
+++ b/datasets/D1_riskprem_exante.xlsx
@@ -456,7 +456,7 @@
         <v>42738</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.09492031661173861</v>
+        <v>-0.001750349204123461</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>42739</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.08074381862710953</v>
+        <v>-0.04904532961425123</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>42740</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05720941679772636</v>
+        <v>0.06560829995004193</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>42741</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1208442245255682</v>
+        <v>0.1262852159067602</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>42742</v>
       </c>
       <c r="B6" t="n">
-        <v>0.009717549363427716</v>
+        <v>-0.002302897652803566</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>42745</v>
       </c>
       <c r="B7" t="n">
-        <v>0.004208268692524092</v>
+        <v>0.00910684561297543</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>42746</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.08562985141121325</v>
+        <v>-0.05279335436244473</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>42747</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.06673856166107756</v>
+        <v>-0.05855205781599937</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>42748</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.001318541213385654</v>
+        <v>0.01116497702144703</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         <v>42752</v>
       </c>
       <c r="B12" t="n">
-        <v>0.006049959781591491</v>
+        <v>0.01508633666585728</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>42753</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.02737836940824235</v>
+        <v>-0.03737962010841463</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>42754</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.004598211351638459</v>
+        <v>-0.02477527463505119</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>42755</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0306001117689655</v>
+        <v>-0.02314318955180369</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>42756</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.003337570764003882</v>
+        <v>-0.0416707411192345</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>42759</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04731489355587942</v>
+        <v>0.131396844868512</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>42760</v>
       </c>
       <c r="B18" t="n">
-        <v>0.003138438236205571</v>
+        <v>0.04648392630814038</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>42761</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01988301499139465</v>
+        <v>0.01039573113100959</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>42762</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05751702169326162</v>
+        <v>0.04614587092236634</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>42763</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02769016884381749</v>
+        <v>0.008890958438137898</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>42766</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1007694542396241</v>
+        <v>0.1105029461983345</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>42767</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0402485163201508</v>
+        <v>0.02244881678456296</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>42768</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.01759105591705418</v>
+        <v>-0.03849337387626579</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>42769</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0410851486172027</v>
+        <v>0.05808245716605493</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>42770</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01129715195053308</v>
+        <v>0.02815210448304203</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>42773</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.04953631959298855</v>
+        <v>-0.02384811201442067</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>42774</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.05980201120862774</v>
+        <v>0.01924118253931948</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>42775</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01244280696069527</v>
+        <v>-0.01060467157174329</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>42776</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01050154294941977</v>
+        <v>-0.05265480348491897</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>42777</v>
       </c>
       <c r="B31" t="n">
-        <v>0.002395001699303306</v>
+        <v>-0.006635583901591355</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>42780</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.001299647344609669</v>
+        <v>-0.006787011919639286</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>42781</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02233576466859256</v>
+        <v>-0.002030787235425676</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>42782</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.00887494595817747</v>
+        <v>0.005844733062245672</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>42783</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01740000696252352</v>
+        <v>0.03567665379418562</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>42784</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.02443093056481664</v>
+        <v>-0.01015431003649685</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>42787</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07409779095550163</v>
+        <v>0.07572768138183765</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>42788</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03088641813054188</v>
+        <v>-0.03854062635580068</v>
       </c>
     </row>
     <row r="39">
@@ -760,7 +760,7 @@
         <v>42790</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04813279163257043</v>
+        <v>0.01319503191148475</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>42791</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.05103402188680985</v>
+        <v>-0.001088444091378768</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>42794</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.01577157361248784</v>
+        <v>-0.02650861099126073</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>42795</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.01586941656715656</v>
+        <v>0.002538781396335434</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>42796</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00109798338370087</v>
+        <v>0.03561860350038019</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>42797</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.00713096466440434</v>
+        <v>-0.005814162230272325</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>42798</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0056400659365096</v>
+        <v>-0.00959690475949812</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>42801</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02583894209016781</v>
+        <v>0.01649189022602053</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>42802</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.04345797271836298</v>
+        <v>-0.05147368803077886</v>
       </c>
     </row>
     <row r="49">
@@ -840,7 +840,7 @@
         <v>42804</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.003992373259002237</v>
+        <v>0.00772536352618593</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>42805</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02087119850193804</v>
+        <v>-0.001161992832636161</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>42808</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.009707322810002755</v>
+        <v>-0.0007961260051001613</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>42809</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01965425559959424</v>
+        <v>0.0321080480343984</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>42810</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01667003635403323</v>
+        <v>0.01519873384121995</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>42811</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01270050546359056</v>
+        <v>-0.01304611755667021</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>42812</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.2092617316070296</v>
+        <v>-0.2214269357361522</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>42815</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06371809227354175</v>
+        <v>0.05668524538247703</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>42816</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02716319681543518</v>
+        <v>0.0001325863729237252</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>42817</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.01262338661194535</v>
+        <v>-0.006956949806275145</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>42818</v>
       </c>
       <c r="B60" t="n">
-        <v>0.003125070790250194</v>
+        <v>0.00902580650078116</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>42819</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.001858798230591543</v>
+        <v>0.02665952181996298</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>42823</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.02366477066300236</v>
+        <v>-0.03359360350371761</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>42824</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.008393284310443935</v>
+        <v>-0.01588276101504783</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>42825</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.002107502516471838</v>
+        <v>0.002705483805795937</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>42826</v>
       </c>
       <c r="B66" t="n">
-        <v>0.08881692512611389</v>
+        <v>0.08538758048004734</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>42829</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.001804766379337199</v>
+        <v>0.01132938143146099</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>42830</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.05677255685803555</v>
+        <v>-0.03319187077948652</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>42831</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01768382805047449</v>
+        <v>0.02458337942708785</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>42832</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02053071900456245</v>
+        <v>0.03338779892902934</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>42833</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04449373162238024</v>
+        <v>0.04137583988619398</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>42836</v>
       </c>
       <c r="B72" t="n">
-        <v>0.04554169388786786</v>
+        <v>0.06855676262124857</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>42837</v>
       </c>
       <c r="B73" t="n">
-        <v>0.02570631577431746</v>
+        <v>0.03282927630052798</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>42838</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03098779508947976</v>
+        <v>0.03449455629726715</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>42839</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02751489660738326</v>
+        <v>0.05712125803505368</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>42844</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02843952853917918</v>
+        <v>0.02288789815570194</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>42845</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01582596774206175</v>
+        <v>0.01976327769455032</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>42846</v>
       </c>
       <c r="B78" t="n">
-        <v>0.02773725871668414</v>
+        <v>0.01924356236365369</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>42847</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.09769461447964485</v>
+        <v>-0.04355629134842354</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>42850</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01738295363339127</v>
+        <v>0.01192049482193674</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>42851</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03215665526173574</v>
+        <v>0.01967592182447171</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>42852</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.005288517807054932</v>
+        <v>-0.02089183517478744</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>42853</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.02623770100277757</v>
+        <v>-0.001167939917483153</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>42854</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01496046116570949</v>
+        <v>-0.001023168143986722</v>
       </c>
     </row>
     <row r="85">
@@ -1128,7 +1128,7 @@
         <v>42859</v>
       </c>
       <c r="B86" t="n">
-        <v>0.004458094751455424</v>
+        <v>0.02040187403322456</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>42860</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.002660257357729643</v>
+        <v>0.002767441921956259</v>
       </c>
     </row>
     <row r="88">
@@ -1152,7 +1152,7 @@
         <v>42864</v>
       </c>
       <c r="B89" t="n">
-        <v>0.004232465300512067</v>
+        <v>0.02114311562292998</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>42865</v>
       </c>
       <c r="B90" t="n">
-        <v>0.007495268696550443</v>
+        <v>0.006162602997216457</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>42866</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0002370816299462137</v>
+        <v>-0.01064985259187629</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>42867</v>
       </c>
       <c r="B92" t="n">
-        <v>0.002503812246118401</v>
+        <v>0.02813172925090643</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>42868</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06055482877785611</v>
+        <v>0.09369716717716411</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>42871</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01019476578726532</v>
+        <v>-0.0109981313970829</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>42872</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.02864547164189769</v>
+        <v>-0.03158897021267986</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>42873</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.02972461049101668</v>
+        <v>-0.01109532301244415</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>42874</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03882200883915672</v>
+        <v>0.02062366707847072</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42875</v>
       </c>
       <c r="B98" t="n">
-        <v>0.03967822997661374</v>
+        <v>0.02599825326639518</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42878</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.0328607365613082</v>
+        <v>-0.03141724512334008</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42879</v>
       </c>
       <c r="B100" t="n">
-        <v>0.03326917184699164</v>
+        <v>0.05009765998782213</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42880</v>
       </c>
       <c r="B101" t="n">
-        <v>0.05778913431004627</v>
+        <v>0.06224298329661495</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42881</v>
       </c>
       <c r="B102" t="n">
-        <v>0.06683018488789914</v>
+        <v>0.05852153858814915</v>
       </c>
     </row>
     <row r="103">
@@ -1272,7 +1272,7 @@
         <v>42885</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.01076121710641099</v>
+        <v>0.01750274811912012</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42886</v>
       </c>
       <c r="B105" t="n">
-        <v>0.03124113495513414</v>
+        <v>0.01596348851135438</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42887</v>
       </c>
       <c r="B106" t="n">
-        <v>0.05644847079547624</v>
+        <v>0.07228080482647103</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42888</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.007034339114316742</v>
+        <v>-0.01662159377114407</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42889</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0229710567016556</v>
+        <v>0.02639236458360099</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>42892</v>
       </c>
       <c r="B109" t="n">
-        <v>0.03526466783147218</v>
+        <v>0.02593795911226973</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>42893</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.04422586893003105</v>
+        <v>0.05315489159407896</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>42894</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1104170919682886</v>
+        <v>0.1289240435010934</v>
       </c>
     </row>
     <row r="112">
@@ -1344,7 +1344,7 @@
         <v>42896</v>
       </c>
       <c r="B113" t="n">
-        <v>0.005631654914649673</v>
+        <v>-0.002890647245643969</v>
       </c>
     </row>
     <row r="114">
@@ -1352,7 +1352,7 @@
         <v>42899</v>
       </c>
       <c r="B114" t="n">
-        <v>0.06946943018868797</v>
+        <v>0.07288081593091657</v>
       </c>
     </row>
     <row r="115">
@@ -1360,7 +1360,7 @@
         <v>42900</v>
       </c>
       <c r="B115" t="n">
-        <v>0.04788842563521777</v>
+        <v>0.05487434847278589</v>
       </c>
     </row>
     <row r="116">
@@ -1368,7 +1368,7 @@
         <v>42901</v>
       </c>
       <c r="B116" t="n">
-        <v>0.04741471241046775</v>
+        <v>0.05221203170395076</v>
       </c>
     </row>
     <row r="117">
@@ -1376,7 +1376,7 @@
         <v>42902</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.2134422696429521</v>
+        <v>-0.2012879559288255</v>
       </c>
     </row>
     <row r="118">
@@ -1384,7 +1384,7 @@
         <v>42903</v>
       </c>
       <c r="B118" t="n">
-        <v>0.04138082563644233</v>
+        <v>0.06066565574082085</v>
       </c>
     </row>
     <row r="119">
@@ -1392,7 +1392,7 @@
         <v>42906</v>
       </c>
       <c r="B119" t="n">
-        <v>0.005008593529837293</v>
+        <v>0.009155809184018151</v>
       </c>
     </row>
     <row r="120">
@@ -1400,7 +1400,7 @@
         <v>42907</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01871892710911897</v>
+        <v>0.02520758269580126</v>
       </c>
     </row>
     <row r="121">
@@ -1408,7 +1408,7 @@
         <v>42908</v>
       </c>
       <c r="B121" t="n">
-        <v>0.007715883166574664</v>
+        <v>0.0007661184550810459</v>
       </c>
     </row>
     <row r="122">
@@ -1416,7 +1416,7 @@
         <v>42909</v>
       </c>
       <c r="B122" t="n">
-        <v>0.07206921476656408</v>
+        <v>0.06690676268903653</v>
       </c>
     </row>
     <row r="123">
@@ -1424,7 +1424,7 @@
         <v>42910</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.07509257155630807</v>
+        <v>-0.0852563894512937</v>
       </c>
     </row>
     <row r="124">
@@ -1640,7 +1640,7 @@
         <v>42949</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.03579127030388432</v>
+        <v>-0.03002619568686731</v>
       </c>
     </row>
     <row r="151">
@@ -1648,7 +1648,7 @@
         <v>42950</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.04903413922232621</v>
+        <v>-0.0455823575135144</v>
       </c>
     </row>
     <row r="152">
@@ -1848,7 +1848,7 @@
         <v>42985</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.0243748362410043</v>
+        <v>-0.0108244867443515</v>
       </c>
     </row>
     <row r="177">
@@ -1864,7 +1864,7 @@
         <v>42987</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.01836462045560803</v>
+        <v>-0.004707084740207841</v>
       </c>
     </row>
     <row r="179">
@@ -1888,7 +1888,7 @@
         <v>42992</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.001629327994894949</v>
+        <v>0.009715793277890336</v>
       </c>
     </row>
     <row r="182">
@@ -1896,7 +1896,7 @@
         <v>42993</v>
       </c>
       <c r="B182" t="n">
-        <v>0.05172762970090215</v>
+        <v>0.05628056316281078</v>
       </c>
     </row>
     <row r="183">
@@ -1952,7 +1952,7 @@
         <v>43004</v>
       </c>
       <c r="B189" t="n">
-        <v>0.00751024134839247</v>
+        <v>0.01001648572985599</v>
       </c>
     </row>
     <row r="190">
@@ -1984,7 +1984,7 @@
         <v>43008</v>
       </c>
       <c r="B193" t="n">
-        <v>0.01323103006250674</v>
+        <v>-0.008327076960099782</v>
       </c>
     </row>
     <row r="194">
@@ -1992,7 +1992,7 @@
         <v>43011</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02070320433128918</v>
+        <v>0.09538880464821278</v>
       </c>
     </row>
     <row r="195">
@@ -2000,7 +2000,7 @@
         <v>43012</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.01197877065449842</v>
+        <v>0.05205964235863594</v>
       </c>
     </row>
     <row r="196">
@@ -2008,7 +2008,7 @@
         <v>43013</v>
       </c>
       <c r="B196" t="n">
-        <v>0.006641798565298149</v>
+        <v>0.004192548447134373</v>
       </c>
     </row>
     <row r="197">
@@ -2032,7 +2032,7 @@
         <v>43018</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.02015785364548039</v>
+        <v>-0.001366360427722404</v>
       </c>
     </row>
     <row r="200">
@@ -2040,7 +2040,7 @@
         <v>43019</v>
       </c>
       <c r="B200" t="n">
-        <v>0.01160100694850567</v>
+        <v>0.04321353841564646</v>
       </c>
     </row>
     <row r="201">
@@ -2048,7 +2048,7 @@
         <v>43020</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.04131576926426634</v>
+        <v>-0.04493344560666539</v>
       </c>
     </row>
     <row r="202">
@@ -2072,7 +2072,7 @@
         <v>43025</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.006173905354997069</v>
+        <v>0.0004077244108638779</v>
       </c>
     </row>
     <row r="205">
@@ -2080,7 +2080,7 @@
         <v>43026</v>
       </c>
       <c r="B205" t="n">
-        <v>0.03330564774447047</v>
+        <v>0.08225170474289276</v>
       </c>
     </row>
     <row r="206">
@@ -2088,7 +2088,7 @@
         <v>43027</v>
       </c>
       <c r="B206" t="n">
-        <v>0.01645066899256605</v>
+        <v>0.00336332132313384</v>
       </c>
     </row>
     <row r="207">
@@ -2096,7 +2096,7 @@
         <v>43028</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.008656915943436783</v>
+        <v>0.003319040776709694</v>
       </c>
     </row>
     <row r="208">
@@ -2112,7 +2112,7 @@
         <v>43032</v>
       </c>
       <c r="B209" t="n">
-        <v>0.02566948070867934</v>
+        <v>0.02810575025905628</v>
       </c>
     </row>
     <row r="210">
@@ -2120,7 +2120,7 @@
         <v>43033</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.09588405744344879</v>
+        <v>-0.06000644067533167</v>
       </c>
     </row>
     <row r="211">
@@ -2136,7 +2136,7 @@
         <v>43035</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0005259786784504176</v>
+        <v>-0.002696327211013236</v>
       </c>
     </row>
     <row r="213">
@@ -2152,7 +2152,7 @@
         <v>43039</v>
       </c>
       <c r="B214" t="n">
-        <v>0.07579749042163562</v>
+        <v>0.0816126119914824</v>
       </c>
     </row>
     <row r="215">
@@ -2160,7 +2160,7 @@
         <v>43040</v>
       </c>
       <c r="B215" t="n">
-        <v>0.01422714026679655</v>
+        <v>-0.01169559814257847</v>
       </c>
     </row>
     <row r="216">
@@ -2176,7 +2176,7 @@
         <v>43042</v>
       </c>
       <c r="B217" t="n">
-        <v>0.02432798355471983</v>
+        <v>0.0192570529430628</v>
       </c>
     </row>
     <row r="218">
@@ -2184,7 +2184,7 @@
         <v>43043</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.03245223951755014</v>
+        <v>-0.04627435038158513</v>
       </c>
     </row>
     <row r="219">
@@ -2192,7 +2192,7 @@
         <v>43046</v>
       </c>
       <c r="B219" t="n">
-        <v>0.03036271877950003</v>
+        <v>0.02536095800872576</v>
       </c>
     </row>
     <row r="220">
@@ -2200,7 +2200,7 @@
         <v>43047</v>
       </c>
       <c r="B220" t="n">
-        <v>0.1377520107422481</v>
+        <v>0.1157025531697239</v>
       </c>
     </row>
     <row r="221">
@@ -2208,7 +2208,7 @@
         <v>43048</v>
       </c>
       <c r="B221" t="n">
-        <v>0.03315513503945535</v>
+        <v>0.008319675062545369</v>
       </c>
     </row>
     <row r="222">
@@ -2216,7 +2216,7 @@
         <v>43049</v>
       </c>
       <c r="B222" t="n">
-        <v>0.05802177383030183</v>
+        <v>0.09160976665031141</v>
       </c>
     </row>
     <row r="223">
@@ -2224,7 +2224,7 @@
         <v>43050</v>
       </c>
       <c r="B223" t="n">
-        <v>0.05594252561612409</v>
+        <v>0.09994013085012926</v>
       </c>
     </row>
     <row r="224">
@@ -2240,7 +2240,7 @@
         <v>43054</v>
       </c>
       <c r="B225" t="n">
-        <v>0.09272266993358755</v>
+        <v>0.07861766963831733</v>
       </c>
     </row>
     <row r="226">
@@ -2248,7 +2248,7 @@
         <v>43055</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.02468034020769476</v>
+        <v>-0.09194376502095719</v>
       </c>
     </row>
     <row r="227">
@@ -2256,7 +2256,7 @@
         <v>43056</v>
       </c>
       <c r="B227" t="n">
-        <v>0.0855125898000848</v>
+        <v>-0.0281380858120159</v>
       </c>
     </row>
     <row r="228">
@@ -2264,7 +2264,7 @@
         <v>43057</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.02250207553954934</v>
+        <v>0.00682286219426425</v>
       </c>
     </row>
     <row r="229">
@@ -2272,7 +2272,7 @@
         <v>43060</v>
       </c>
       <c r="B229" t="n">
-        <v>0.04272959038618226</v>
+        <v>0.05336968824726575</v>
       </c>
     </row>
     <row r="230">
@@ -2280,7 +2280,7 @@
         <v>43061</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.03016689513837131</v>
+        <v>-0.008851881844709268</v>
       </c>
     </row>
     <row r="231">
@@ -2288,7 +2288,7 @@
         <v>43062</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.03647318430075474</v>
+        <v>-0.01680937173546402</v>
       </c>
     </row>
     <row r="232">
@@ -2296,7 +2296,7 @@
         <v>43063</v>
       </c>
       <c r="B232" t="n">
-        <v>0.0615892360458098</v>
+        <v>0.07445698436151658</v>
       </c>
     </row>
     <row r="233">
@@ -2304,7 +2304,7 @@
         <v>43064</v>
       </c>
       <c r="B233" t="n">
-        <v>0.02124415883101254</v>
+        <v>0.02779059574659595</v>
       </c>
     </row>
     <row r="234">
@@ -2312,7 +2312,7 @@
         <v>43067</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.01183739339046156</v>
+        <v>-0.0298273498176834</v>
       </c>
     </row>
     <row r="235">
@@ -2328,7 +2328,7 @@
         <v>43069</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.01446155699232006</v>
+        <v>0.009492502386338831</v>
       </c>
     </row>
     <row r="237">
@@ -2336,7 +2336,7 @@
         <v>43070</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.03351388773974635</v>
+        <v>-0.01478353672695074</v>
       </c>
     </row>
     <row r="238">
@@ -2344,7 +2344,7 @@
         <v>43071</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.0249670809143415</v>
+        <v>-0.04217354419232371</v>
       </c>
     </row>
     <row r="239">
@@ -2352,7 +2352,7 @@
         <v>43074</v>
       </c>
       <c r="B239" t="n">
-        <v>0.02487400988550741</v>
+        <v>0.04231867388355864</v>
       </c>
     </row>
     <row r="240">
@@ -2360,7 +2360,7 @@
         <v>43075</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.01916087038466831</v>
+        <v>-0.01267598357729424</v>
       </c>
     </row>
     <row r="241">
@@ -2368,7 +2368,7 @@
         <v>43076</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.03468265389488464</v>
+        <v>0.0152475536622765</v>
       </c>
     </row>
     <row r="242">
@@ -2376,7 +2376,7 @@
         <v>43077</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.04640624269752896</v>
+        <v>-0.05336678107199955</v>
       </c>
     </row>
     <row r="243">
@@ -2392,7 +2392,7 @@
         <v>43081</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.07686058988786258</v>
+        <v>-0.08327128023586353</v>
       </c>
     </row>
     <row r="245">
@@ -2400,7 +2400,7 @@
         <v>43082</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.01348730724107322</v>
+        <v>0.01097168514137951</v>
       </c>
     </row>
     <row r="246">
@@ -2408,7 +2408,7 @@
         <v>43083</v>
       </c>
       <c r="B246" t="n">
-        <v>0.02618648110827966</v>
+        <v>0.03439597295714589</v>
       </c>
     </row>
     <row r="247">
@@ -2416,7 +2416,7 @@
         <v>43084</v>
       </c>
       <c r="B247" t="n">
-        <v>0.08954399858302144</v>
+        <v>0.0841233816746482</v>
       </c>
     </row>
     <row r="248">
@@ -2448,7 +2448,7 @@
         <v>43090</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.01699164262446103</v>
+        <v>-0.01159049780371631</v>
       </c>
     </row>
     <row r="252">
@@ -2456,7 +2456,7 @@
         <v>43091</v>
       </c>
       <c r="B252" t="n">
-        <v>0.1206420187158315</v>
+        <v>0.1109813116579363</v>
       </c>
     </row>
     <row r="253">
@@ -2464,7 +2464,7 @@
         <v>43092</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.003268848911325165</v>
+        <v>0.07646964317576882</v>
       </c>
     </row>
     <row r="254">
@@ -2472,7 +2472,7 @@
         <v>43097</v>
       </c>
       <c r="B254" t="n">
-        <v>0.1225985592473523</v>
+        <v>0.1067873119340093</v>
       </c>
     </row>
     <row r="255">
@@ -2480,7 +2480,7 @@
         <v>43098</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.02026079073841349</v>
+        <v>-0.05056200339598833</v>
       </c>
     </row>
     <row r="256">
@@ -2496,7 +2496,7 @@
         <v>43103</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.4111493726206645</v>
+        <v>-0.44873558287892</v>
       </c>
     </row>
     <row r="258">
@@ -2504,7 +2504,7 @@
         <v>43104</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.0683553985787918</v>
+        <v>-0.0489461360491833</v>
       </c>
     </row>
     <row r="259">
@@ -2512,7 +2512,7 @@
         <v>43105</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.01104606121606026</v>
+        <v>-0.05212082544670314</v>
       </c>
     </row>
     <row r="260">
@@ -2520,7 +2520,7 @@
         <v>43106</v>
       </c>
       <c r="B260" t="n">
-        <v>0.1209447241777334</v>
+        <v>0.09379933911929823</v>
       </c>
     </row>
     <row r="261">
@@ -2528,7 +2528,7 @@
         <v>43109</v>
       </c>
       <c r="B261" t="n">
-        <v>0.0260497696963285</v>
+        <v>0.002730456748684667</v>
       </c>
     </row>
     <row r="262">
@@ -2536,7 +2536,7 @@
         <v>43110</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.01301965120671572</v>
+        <v>-0.01530962881412476</v>
       </c>
     </row>
     <row r="263">
@@ -2544,7 +2544,7 @@
         <v>43111</v>
       </c>
       <c r="B263" t="n">
-        <v>0.002480102212699912</v>
+        <v>-0.01318364938437352</v>
       </c>
     </row>
     <row r="264">
@@ -2560,7 +2560,7 @@
         <v>43113</v>
       </c>
       <c r="B265" t="n">
-        <v>0.004020671156899679</v>
+        <v>-0.003049896949839051</v>
       </c>
     </row>
     <row r="266">
@@ -2568,7 +2568,7 @@
         <v>43116</v>
       </c>
       <c r="B266" t="n">
-        <v>0.04835443691246935</v>
+        <v>0.05853263532909526</v>
       </c>
     </row>
     <row r="267">
@@ -2576,7 +2576,7 @@
         <v>43117</v>
       </c>
       <c r="B267" t="n">
-        <v>0.01134540952681195</v>
+        <v>0.002473958566050442</v>
       </c>
     </row>
     <row r="268">
@@ -2584,7 +2584,7 @@
         <v>43118</v>
       </c>
       <c r="B268" t="n">
-        <v>0.06794161717180566</v>
+        <v>0.05243923885802141</v>
       </c>
     </row>
     <row r="269">
@@ -2608,7 +2608,7 @@
         <v>43123</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.00552894306501142</v>
+        <v>0.02171683931676909</v>
       </c>
     </row>
     <row r="272">
@@ -2616,7 +2616,7 @@
         <v>43124</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.08247841193317423</v>
+        <v>-0.0633633788484487</v>
       </c>
     </row>
     <row r="273">
@@ -2632,7 +2632,7 @@
         <v>43126</v>
       </c>
       <c r="B274" t="n">
-        <v>0.04852485665370961</v>
+        <v>0.07319602975144394</v>
       </c>
     </row>
     <row r="275">
@@ -2640,7 +2640,7 @@
         <v>43127</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.01705003830157535</v>
+        <v>-0.02491363799516274</v>
       </c>
     </row>
     <row r="276">
@@ -2648,7 +2648,7 @@
         <v>43130</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1559445054079635</v>
+        <v>0.181443281262551</v>
       </c>
     </row>
     <row r="277">
@@ -2656,7 +2656,7 @@
         <v>43131</v>
       </c>
       <c r="B277" t="n">
-        <v>0.01754988357524294</v>
+        <v>0.03370146902881822</v>
       </c>
     </row>
     <row r="278">
@@ -2664,7 +2664,7 @@
         <v>43132</v>
       </c>
       <c r="B278" t="n">
-        <v>0.05838555418254818</v>
+        <v>0.09045784370323146</v>
       </c>
     </row>
     <row r="279">
@@ -2680,7 +2680,7 @@
         <v>43134</v>
       </c>
       <c r="B280" t="n">
-        <v>0.0143908579594758</v>
+        <v>0.007846400811350152</v>
       </c>
     </row>
     <row r="281">
@@ -2704,7 +2704,7 @@
         <v>43139</v>
       </c>
       <c r="B283" t="n">
-        <v>0.01498761457590046</v>
+        <v>0.009755719655406128</v>
       </c>
     </row>
     <row r="284">
@@ -2712,7 +2712,7 @@
         <v>43140</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.04137956464475946</v>
+        <v>-0.03092188716815677</v>
       </c>
     </row>
     <row r="285">
@@ -2720,7 +2720,7 @@
         <v>43141</v>
       </c>
       <c r="B285" t="n">
-        <v>0.01981981120705173</v>
+        <v>0.02648530016918933</v>
       </c>
     </row>
     <row r="286">
@@ -2728,7 +2728,7 @@
         <v>43144</v>
       </c>
       <c r="B286" t="n">
-        <v>0.04875438786966131</v>
+        <v>0.03580680283423339</v>
       </c>
     </row>
     <row r="287">
@@ -2736,7 +2736,7 @@
         <v>43145</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.02304104335464923</v>
+        <v>-0.01067447428318909</v>
       </c>
     </row>
     <row r="288">
@@ -2744,7 +2744,7 @@
         <v>43146</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.03941588941463588</v>
+        <v>-0.02528965249426288</v>
       </c>
     </row>
     <row r="289">
@@ -2752,7 +2752,7 @@
         <v>43147</v>
       </c>
       <c r="B289" t="n">
-        <v>0.01826014027957232</v>
+        <v>0.02225331730027649</v>
       </c>
     </row>
     <row r="290">
@@ -2760,7 +2760,7 @@
         <v>43148</v>
       </c>
       <c r="B290" t="n">
-        <v>0.05295167672933029</v>
+        <v>0.03987153167679202</v>
       </c>
     </row>
     <row r="291">
@@ -2768,7 +2768,7 @@
         <v>43151</v>
       </c>
       <c r="B291" t="n">
-        <v>0.01848150277774015</v>
+        <v>0.0615918309376445</v>
       </c>
     </row>
     <row r="292">
@@ -2776,7 +2776,7 @@
         <v>43152</v>
       </c>
       <c r="B292" t="n">
-        <v>0.03002635478026923</v>
+        <v>0.005753192731144057</v>
       </c>
     </row>
     <row r="293">
@@ -2784,7 +2784,7 @@
         <v>43153</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.02465244228392632</v>
+        <v>-0.01057972502498173</v>
       </c>
     </row>
     <row r="294">
@@ -2792,7 +2792,7 @@
         <v>43154</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.04928969656302861</v>
+        <v>-0.01689181313215643</v>
       </c>
     </row>
     <row r="295">
@@ -2800,7 +2800,7 @@
         <v>43155</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.2238528004445358</v>
+        <v>-0.174099774832006</v>
       </c>
     </row>
     <row r="296">
@@ -2808,7 +2808,7 @@
         <v>43158</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.01081935210041165</v>
+        <v>-0.02711399455612195</v>
       </c>
     </row>
     <row r="297">
@@ -2816,7 +2816,7 @@
         <v>43159</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.08082261638719741</v>
+        <v>-0.06744834228701102</v>
       </c>
     </row>
     <row r="298">
@@ -2824,7 +2824,7 @@
         <v>43160</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.04676037711703872</v>
+        <v>-0.06396169362018994</v>
       </c>
     </row>
     <row r="299">
@@ -2832,7 +2832,7 @@
         <v>43161</v>
       </c>
       <c r="B299" t="n">
-        <v>0.04649071925949673</v>
+        <v>0.07056253967829879</v>
       </c>
     </row>
     <row r="300">
@@ -2840,7 +2840,7 @@
         <v>43162</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.05666618594956597</v>
+        <v>-0.07033769050102154</v>
       </c>
     </row>
     <row r="301">
@@ -2848,7 +2848,7 @@
         <v>43165</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.08008132926726783</v>
+        <v>-0.1446849154413766</v>
       </c>
     </row>
     <row r="302">
@@ -2856,7 +2856,7 @@
         <v>43166</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.01552389667347836</v>
+        <v>0.009980665588866757</v>
       </c>
     </row>
     <row r="303">
@@ -2864,7 +2864,7 @@
         <v>43167</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.1067181632502033</v>
+        <v>-0.07458572307934726</v>
       </c>
     </row>
     <row r="304">
@@ -2872,7 +2872,7 @@
         <v>43168</v>
       </c>
       <c r="B304" t="n">
-        <v>0.05951231833468108</v>
+        <v>0.05386158597022937</v>
       </c>
     </row>
     <row r="305">
@@ -2880,7 +2880,7 @@
         <v>43169</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.07487065253183124</v>
+        <v>-0.04662242818165815</v>
       </c>
     </row>
     <row r="306">
@@ -2888,7 +2888,7 @@
         <v>43172</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.03259970809102462</v>
+        <v>0.005057484479928861</v>
       </c>
     </row>
     <row r="307">
@@ -2896,7 +2896,7 @@
         <v>43173</v>
       </c>
       <c r="B307" t="n">
-        <v>0.03751116196308689</v>
+        <v>0.03199248556966622</v>
       </c>
     </row>
     <row r="308">
@@ -2904,7 +2904,7 @@
         <v>43174</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.09314485678808257</v>
+        <v>-0.1011701235421703</v>
       </c>
     </row>
     <row r="309">
@@ -2912,7 +2912,7 @@
         <v>43175</v>
       </c>
       <c r="B309" t="n">
-        <v>0.01381923587945906</v>
+        <v>0.004070973996002718</v>
       </c>
     </row>
     <row r="310">
@@ -2920,7 +2920,7 @@
         <v>43176</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.5952720346070142</v>
+        <v>-0.5851538354721896</v>
       </c>
     </row>
     <row r="311">
@@ -2928,7 +2928,7 @@
         <v>43179</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.09010130538404854</v>
+        <v>-0.07926917806719197</v>
       </c>
     </row>
     <row r="312">
@@ -2936,7 +2936,7 @@
         <v>43180</v>
       </c>
       <c r="B312" t="n">
-        <v>0.03913835597570893</v>
+        <v>0.03505529760252352</v>
       </c>
     </row>
     <row r="313">
@@ -2944,7 +2944,7 @@
         <v>43181</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.04291952706320245</v>
+        <v>-0.05563436426405356</v>
       </c>
     </row>
     <row r="314">
@@ -2968,7 +2968,7 @@
         <v>43186</v>
       </c>
       <c r="B316" t="n">
-        <v>0.007133683951962797</v>
+        <v>-0.01395812094755475</v>
       </c>
     </row>
     <row r="317">
@@ -2976,7 +2976,7 @@
         <v>43187</v>
       </c>
       <c r="B317" t="n">
-        <v>0.02569832450498781</v>
+        <v>0.0231340786937253</v>
       </c>
     </row>
     <row r="318">
@@ -2984,7 +2984,7 @@
         <v>43188</v>
       </c>
       <c r="B318" t="n">
-        <v>0.02638572182907706</v>
+        <v>0.03321009497953634</v>
       </c>
     </row>
     <row r="319">
@@ -2992,7 +2992,7 @@
         <v>43189</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.03602930175705542</v>
+        <v>-0.02147269725338682</v>
       </c>
     </row>
     <row r="320">
@@ -3000,7 +3000,7 @@
         <v>43194</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.02655032068640923</v>
+        <v>-0.0252330680757008</v>
       </c>
     </row>
     <row r="321">
@@ -3008,7 +3008,7 @@
         <v>43195</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.05389858037238962</v>
+        <v>-0.03592428742609648</v>
       </c>
     </row>
     <row r="322">
@@ -3016,7 +3016,7 @@
         <v>43196</v>
       </c>
       <c r="B322" t="n">
-        <v>0.03570120228631703</v>
+        <v>0.04719303254746911</v>
       </c>
     </row>
     <row r="323">
@@ -3024,7 +3024,7 @@
         <v>43197</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.219865994978296</v>
+        <v>-0.2324488015109041</v>
       </c>
     </row>
     <row r="324">
@@ -3032,7 +3032,7 @@
         <v>43200</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.04774925293699103</v>
+        <v>-0.0176060638213274</v>
       </c>
     </row>
     <row r="325">
@@ -3048,7 +3048,7 @@
         <v>43202</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.07446822371962278</v>
+        <v>-0.06294024785847936</v>
       </c>
     </row>
     <row r="327">
@@ -3056,7 +3056,7 @@
         <v>43203</v>
       </c>
       <c r="B327" t="n">
-        <v>0.05373847744078396</v>
+        <v>0.07686579656156926</v>
       </c>
     </row>
     <row r="328">
@@ -3064,7 +3064,7 @@
         <v>43204</v>
       </c>
       <c r="B328" t="n">
-        <v>0.181115343215726</v>
+        <v>0.1865666447997985</v>
       </c>
     </row>
     <row r="329">
@@ -3072,7 +3072,7 @@
         <v>43207</v>
       </c>
       <c r="B329" t="n">
-        <v>0.004007416300939699</v>
+        <v>0.006263612742065438</v>
       </c>
     </row>
     <row r="330">
@@ -3080,7 +3080,7 @@
         <v>43208</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.006417310191840578</v>
+        <v>-0.01127590525202707</v>
       </c>
     </row>
     <row r="331">
@@ -3096,7 +3096,7 @@
         <v>43210</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.00983608023192383</v>
+        <v>-0.007280818503490049</v>
       </c>
     </row>
     <row r="333">
@@ -3104,7 +3104,7 @@
         <v>43211</v>
       </c>
       <c r="B333" t="n">
-        <v>0.003418064932008658</v>
+        <v>0.0243898251315522</v>
       </c>
     </row>
     <row r="334">
@@ -3120,7 +3120,7 @@
         <v>43215</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.0008723621483435653</v>
+        <v>-0.0428525149992535</v>
       </c>
     </row>
     <row r="336">
@@ -3128,7 +3128,7 @@
         <v>43216</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.005967898637854165</v>
+        <v>-0.0138570422994585</v>
       </c>
     </row>
     <row r="337">
@@ -3144,7 +3144,7 @@
         <v>43218</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.01597438987577879</v>
+        <v>-0.02099492870294314</v>
       </c>
     </row>
     <row r="339">
@@ -3160,7 +3160,7 @@
         <v>43224</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.02155000782864832</v>
+        <v>-0.01535728635920938</v>
       </c>
     </row>
     <row r="341">
@@ -3168,7 +3168,7 @@
         <v>43225</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.02692753450015467</v>
+        <v>-0.03572565805801946</v>
       </c>
     </row>
     <row r="342">
@@ -3176,7 +3176,7 @@
         <v>43228</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.07143430873477868</v>
+        <v>-0.09240192111818689</v>
       </c>
     </row>
     <row r="343">
@@ -3192,7 +3192,7 @@
         <v>43230</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.0293365262825149</v>
+        <v>-0.01804974170440461</v>
       </c>
     </row>
     <row r="345">
@@ -3200,7 +3200,7 @@
         <v>43231</v>
       </c>
       <c r="B345" t="n">
-        <v>0.05137006747711877</v>
+        <v>0.08595460917044505</v>
       </c>
     </row>
     <row r="346">
@@ -3216,7 +3216,7 @@
         <v>43235</v>
       </c>
       <c r="B347" t="n">
-        <v>0.0408479234580506</v>
+        <v>0.06036382202288904</v>
       </c>
     </row>
     <row r="348">
@@ -3224,7 +3224,7 @@
         <v>43236</v>
       </c>
       <c r="B348" t="n">
-        <v>0.03247783808081871</v>
+        <v>0.04968580204883243</v>
       </c>
     </row>
     <row r="349">
@@ -3232,7 +3232,7 @@
         <v>43237</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.01388989738340042</v>
+        <v>-0.004235672602538562</v>
       </c>
     </row>
     <row r="350">
@@ -3240,7 +3240,7 @@
         <v>43238</v>
       </c>
       <c r="B350" t="n">
-        <v>0.0424171826199293</v>
+        <v>0.04370570818559045</v>
       </c>
     </row>
     <row r="351">
@@ -3256,7 +3256,7 @@
         <v>43242</v>
       </c>
       <c r="B352" t="n">
-        <v>0.03213512032932007</v>
+        <v>0.03346690758135783</v>
       </c>
     </row>
     <row r="353">
@@ -3288,7 +3288,7 @@
         <v>43246</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.009992250339689764</v>
+        <v>-0.01706373426583484</v>
       </c>
     </row>
     <row r="357">
@@ -3296,7 +3296,7 @@
         <v>43249</v>
       </c>
       <c r="B357" t="n">
-        <v>0.02785627366262953</v>
+        <v>0.02198280924170021</v>
       </c>
     </row>
     <row r="358">
@@ -3312,7 +3312,7 @@
         <v>43251</v>
       </c>
       <c r="B359" t="n">
-        <v>0.07278481773027137</v>
+        <v>0.06016381987462113</v>
       </c>
     </row>
     <row r="360">
@@ -3320,7 +3320,7 @@
         <v>43252</v>
       </c>
       <c r="B360" t="n">
-        <v>0.008361773825416249</v>
+        <v>0.009395991029339693</v>
       </c>
     </row>
     <row r="361">
@@ -3336,7 +3336,7 @@
         <v>43256</v>
       </c>
       <c r="B362" t="n">
-        <v>0.00318425178010127</v>
+        <v>0.01939733059674931</v>
       </c>
     </row>
     <row r="363">
@@ -3352,7 +3352,7 @@
         <v>43258</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.009838359091039131</v>
+        <v>-0.01746966268185961</v>
       </c>
     </row>
     <row r="365">
@@ -3360,7 +3360,7 @@
         <v>43259</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.006840109878421938</v>
+        <v>-0.01648243890872852</v>
       </c>
     </row>
     <row r="366">
@@ -3368,7 +3368,7 @@
         <v>43260</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.03061519757131815</v>
+        <v>-0.02830163002375563</v>
       </c>
     </row>
     <row r="367">
@@ -3376,7 +3376,7 @@
         <v>43263</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.01939102348874913</v>
+        <v>-0.03432415511074788</v>
       </c>
     </row>
     <row r="368">
@@ -3392,7 +3392,7 @@
         <v>43265</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.03149604073632986</v>
+        <v>-0.02279038716991488</v>
       </c>
     </row>
     <row r="370">
@@ -3416,7 +3416,7 @@
         <v>43270</v>
       </c>
       <c r="B372" t="n">
-        <v>0.008961124234286759</v>
+        <v>0.0122193409971531</v>
       </c>
     </row>
     <row r="373">
@@ -3432,7 +3432,7 @@
         <v>43272</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.1111286403257164</v>
+        <v>-0.07880604542846963</v>
       </c>
     </row>
     <row r="375">
@@ -3440,7 +3440,7 @@
         <v>43273</v>
       </c>
       <c r="B375" t="n">
-        <v>0.01625695678646052</v>
+        <v>0.0483492817376119</v>
       </c>
     </row>
     <row r="376">
@@ -3448,7 +3448,7 @@
         <v>43274</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.06608819577301747</v>
+        <v>0.02502515098083448</v>
       </c>
     </row>
     <row r="377">
@@ -3472,7 +3472,7 @@
         <v>43279</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.01344545257849188</v>
+        <v>-0.02103433371250351</v>
       </c>
     </row>
     <row r="380">
@@ -3480,7 +3480,7 @@
         <v>43280</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.02341448466448014</v>
+        <v>-0.01349431577281001</v>
       </c>
     </row>
     <row r="381">
@@ -3512,7 +3512,7 @@
         <v>43286</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.02108701373587897</v>
+        <v>-0.01816488541867267</v>
       </c>
     </row>
     <row r="385">
@@ -3520,7 +3520,7 @@
         <v>43287</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.001864005107574677</v>
+        <v>0.001401434352269649</v>
       </c>
     </row>
     <row r="386">
@@ -3528,7 +3528,7 @@
         <v>43288</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.04844989228130139</v>
+        <v>-0.07130995492919798</v>
       </c>
     </row>
     <row r="387">
@@ -3544,7 +3544,7 @@
         <v>43292</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.001371677448164778</v>
+        <v>-0.000441855918786958</v>
       </c>
     </row>
     <row r="389">
@@ -3552,7 +3552,7 @@
         <v>43293</v>
       </c>
       <c r="B389" t="n">
-        <v>0.005385640045099182</v>
+        <v>0.001627189054276328</v>
       </c>
     </row>
     <row r="390">
@@ -3560,7 +3560,7 @@
         <v>43294</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.01106438720537885</v>
+        <v>-0.01202920243737355</v>
       </c>
     </row>
     <row r="391">
@@ -3568,7 +3568,7 @@
         <v>43295</v>
       </c>
       <c r="B391" t="n">
-        <v>0.006555857381380737</v>
+        <v>0.0119098778993668</v>
       </c>
     </row>
     <row r="392">
@@ -3576,7 +3576,7 @@
         <v>43298</v>
       </c>
       <c r="B392" t="n">
-        <v>0.004519384377747677</v>
+        <v>-0.001985366492413396</v>
       </c>
     </row>
     <row r="393">
@@ -3584,7 +3584,7 @@
         <v>43299</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.01712418317834915</v>
+        <v>-0.03853335938634553</v>
       </c>
     </row>
     <row r="394">
@@ -3592,7 +3592,7 @@
         <v>43300</v>
       </c>
       <c r="B394" t="n">
-        <v>0.005833869590979087</v>
+        <v>0.003908828692240344</v>
       </c>
     </row>
     <row r="395">
@@ -3600,7 +3600,7 @@
         <v>43301</v>
       </c>
       <c r="B395" t="n">
-        <v>0.008324418196796907</v>
+        <v>0.00455498111942565</v>
       </c>
     </row>
     <row r="396">
@@ -3608,7 +3608,7 @@
         <v>43302</v>
       </c>
       <c r="B396" t="n">
-        <v>0.03295442440097705</v>
+        <v>0.03817136593835573</v>
       </c>
     </row>
     <row r="397">
@@ -3616,7 +3616,7 @@
         <v>43305</v>
       </c>
       <c r="B397" t="n">
-        <v>0.04076459845852552</v>
+        <v>0.02266434457229029</v>
       </c>
     </row>
     <row r="398">
@@ -3624,7 +3624,7 @@
         <v>43306</v>
       </c>
       <c r="B398" t="n">
-        <v>0.01203429269999912</v>
+        <v>0.005102550969177236</v>
       </c>
     </row>
     <row r="399">
@@ -3632,7 +3632,7 @@
         <v>43307</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.02972047183808812</v>
+        <v>-0.03322012748520057</v>
       </c>
     </row>
     <row r="400">
@@ -3640,7 +3640,7 @@
         <v>43308</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.02634113472534431</v>
+        <v>0.004056020092986432</v>
       </c>
     </row>
     <row r="401">
@@ -3648,7 +3648,7 @@
         <v>43309</v>
       </c>
       <c r="B401" t="n">
-        <v>0.03937159673820765</v>
+        <v>0.05641047537326024</v>
       </c>
     </row>
     <row r="402">
@@ -3656,7 +3656,7 @@
         <v>43312</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.01246294852560387</v>
+        <v>-0.01159363774085521</v>
       </c>
     </row>
     <row r="403">
@@ -3664,7 +3664,7 @@
         <v>43313</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.001721289867252184</v>
+        <v>-0.006061632085220653</v>
       </c>
     </row>
     <row r="404">
@@ -3672,7 +3672,7 @@
         <v>43314</v>
       </c>
       <c r="B404" t="n">
-        <v>0.01734052721826886</v>
+        <v>0.02166963584472958</v>
       </c>
     </row>
     <row r="405">
@@ -3680,7 +3680,7 @@
         <v>43315</v>
       </c>
       <c r="B405" t="n">
-        <v>0.03885686714130393</v>
+        <v>0.04301229460986915</v>
       </c>
     </row>
     <row r="406">
@@ -3696,7 +3696,7 @@
         <v>43319</v>
       </c>
       <c r="B407" t="n">
-        <v>0.005766381908066547</v>
+        <v>0.003386808449293542</v>
       </c>
     </row>
     <row r="408">
@@ -3704,7 +3704,7 @@
         <v>43320</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.01155665254773322</v>
+        <v>-0.002886096868327369</v>
       </c>
     </row>
     <row r="409">
@@ -3728,7 +3728,7 @@
         <v>43323</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.02096358544628758</v>
+        <v>-0.01520454771361869</v>
       </c>
     </row>
     <row r="412">
@@ -3736,7 +3736,7 @@
         <v>43326</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.005630687291511213</v>
+        <v>-0.003772053062149525</v>
       </c>
     </row>
     <row r="413">
@@ -3744,7 +3744,7 @@
         <v>43327</v>
       </c>
       <c r="B413" t="n">
-        <v>0.03608246805045831</v>
+        <v>0.0408134382242047</v>
       </c>
     </row>
     <row r="414">
@@ -3752,7 +3752,7 @@
         <v>43328</v>
       </c>
       <c r="B414" t="n">
-        <v>0.02236052056818645</v>
+        <v>0.01607735670165674</v>
       </c>
     </row>
     <row r="415">
@@ -3760,7 +3760,7 @@
         <v>43329</v>
       </c>
       <c r="B415" t="n">
-        <v>0.009844070395760433</v>
+        <v>0.03004095180367562</v>
       </c>
     </row>
     <row r="416">
@@ -3768,7 +3768,7 @@
         <v>43330</v>
       </c>
       <c r="B416" t="n">
-        <v>0.05476837616705788</v>
+        <v>0.06491037978404882</v>
       </c>
     </row>
     <row r="417">
@@ -3784,7 +3784,7 @@
         <v>43334</v>
       </c>
       <c r="B418" t="n">
-        <v>0.007003187841175454</v>
+        <v>0.02273761265119382</v>
       </c>
     </row>
     <row r="419">
@@ -3792,7 +3792,7 @@
         <v>43335</v>
       </c>
       <c r="B419" t="n">
-        <v>0.01503038479054644</v>
+        <v>0.02286845725997151</v>
       </c>
     </row>
     <row r="420">
@@ -3800,7 +3800,7 @@
         <v>43336</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.0119035174587828</v>
+        <v>-0.002419170767723917</v>
       </c>
     </row>
     <row r="421">
@@ -3808,7 +3808,7 @@
         <v>43337</v>
       </c>
       <c r="B421" t="n">
-        <v>-1.21235240571439e-05</v>
+        <v>0.01885557225850782</v>
       </c>
     </row>
     <row r="422">
@@ -3816,7 +3816,7 @@
         <v>43340</v>
       </c>
       <c r="B422" t="n">
-        <v>0.04796914748146695</v>
+        <v>0.05603044861593977</v>
       </c>
     </row>
     <row r="423">
@@ -3824,7 +3824,7 @@
         <v>43341</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.03183854275847657</v>
+        <v>-0.03032579048153678</v>
       </c>
     </row>
     <row r="424">
@@ -3832,7 +3832,7 @@
         <v>43342</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.0008146225255455615</v>
+        <v>-0.01826764221942249</v>
       </c>
     </row>
     <row r="425">
@@ -3840,7 +3840,7 @@
         <v>43343</v>
       </c>
       <c r="B425" t="n">
-        <v>0.01534576808174985</v>
+        <v>0.02318627594338498</v>
       </c>
     </row>
     <row r="426">
@@ -3848,7 +3848,7 @@
         <v>43344</v>
       </c>
       <c r="B426" t="n">
-        <v>0.01453428146207723</v>
+        <v>0.01039332521121161</v>
       </c>
     </row>
     <row r="427">
@@ -3856,7 +3856,7 @@
         <v>43347</v>
       </c>
       <c r="B427" t="n">
-        <v>0.004624497578309888</v>
+        <v>-0.00666341812481719</v>
       </c>
     </row>
     <row r="428">
@@ -3864,7 +3864,7 @@
         <v>43348</v>
       </c>
       <c r="B428" t="n">
-        <v>0.009602790455155521</v>
+        <v>0.01338407431453813</v>
       </c>
     </row>
     <row r="429">
@@ -3872,7 +3872,7 @@
         <v>43349</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.003515233695454349</v>
+        <v>0.002588807752046783</v>
       </c>
     </row>
     <row r="430">
@@ -3880,7 +3880,7 @@
         <v>43350</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.006312115438392905</v>
+        <v>-0.01027103131314034</v>
       </c>
     </row>
     <row r="431">
@@ -3888,7 +3888,7 @@
         <v>43351</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.05280973136643449</v>
+        <v>-0.04611242643670219</v>
       </c>
     </row>
     <row r="432">
@@ -3896,7 +3896,7 @@
         <v>43354</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.02899503908401713</v>
+        <v>-0.02220479460208721</v>
       </c>
     </row>
     <row r="433">
@@ -3904,7 +3904,7 @@
         <v>43355</v>
       </c>
       <c r="B433" t="n">
-        <v>0.0222782485332642</v>
+        <v>0.01830051215764839</v>
       </c>
     </row>
     <row r="434">
@@ -3912,7 +3912,7 @@
         <v>43356</v>
       </c>
       <c r="B434" t="n">
-        <v>0.02127634656287664</v>
+        <v>0.006790157249928031</v>
       </c>
     </row>
     <row r="435">
@@ -3920,7 +3920,7 @@
         <v>43357</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.00190681948548115</v>
+        <v>-0.007219863031946184</v>
       </c>
     </row>
     <row r="436">
@@ -3928,7 +3928,7 @@
         <v>43358</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.01042036261678063</v>
+        <v>0.001925640536752786</v>
       </c>
     </row>
     <row r="437">
@@ -3936,7 +3936,7 @@
         <v>43361</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.051315454294165</v>
+        <v>-0.04785310193757431</v>
       </c>
     </row>
     <row r="438">
@@ -3944,7 +3944,7 @@
         <v>43362</v>
       </c>
       <c r="B438" t="n">
-        <v>0.01757407227954812</v>
+        <v>0.004959517664512404</v>
       </c>
     </row>
     <row r="439">
@@ -3952,7 +3952,7 @@
         <v>43363</v>
       </c>
       <c r="B439" t="n">
-        <v>-0.009886551597878634</v>
+        <v>-0.001387723714598623</v>
       </c>
     </row>
     <row r="440">
@@ -3960,7 +3960,7 @@
         <v>43364</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.1154047103792345</v>
+        <v>-0.09181550265601414</v>
       </c>
     </row>
     <row r="441">
@@ -3968,7 +3968,7 @@
         <v>43365</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.1332252056500849</v>
+        <v>-0.1052647284129909</v>
       </c>
     </row>
     <row r="442">
@@ -3976,7 +3976,7 @@
         <v>43368</v>
       </c>
       <c r="B442" t="n">
-        <v>0.1101071476553314</v>
+        <v>0.06389531401253662</v>
       </c>
     </row>
     <row r="443">
@@ -3984,7 +3984,7 @@
         <v>43369</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.05636163617128619</v>
+        <v>-0.09586277698272072</v>
       </c>
     </row>
     <row r="444">
@@ -3992,7 +3992,7 @@
         <v>43370</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.02069304716547874</v>
+        <v>-0.004912745555822917</v>
       </c>
     </row>
     <row r="445">
@@ -4008,7 +4008,7 @@
         <v>43372</v>
       </c>
       <c r="B446" t="n">
-        <v>0.05140373765563825</v>
+        <v>-0.004467958548284559</v>
       </c>
     </row>
     <row r="447">
@@ -4016,7 +4016,7 @@
         <v>43375</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.01100174543775261</v>
+        <v>-0.05994186525114214</v>
       </c>
     </row>
     <row r="448">
@@ -4024,7 +4024,7 @@
         <v>43376</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.2792778045847036</v>
+        <v>-0.3307579614000819</v>
       </c>
     </row>
     <row r="449">
@@ -4032,7 +4032,7 @@
         <v>43377</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.03930306966757297</v>
+        <v>-0.01678673536290671</v>
       </c>
     </row>
     <row r="450">
@@ -4048,7 +4048,7 @@
         <v>43379</v>
       </c>
       <c r="B451" t="n">
-        <v>0.02063432620034043</v>
+        <v>0.04859691047980181</v>
       </c>
     </row>
     <row r="452">
@@ -4056,7 +4056,7 @@
         <v>43382</v>
       </c>
       <c r="B452" t="n">
-        <v>0.00697063717950933</v>
+        <v>0.01448534342711761</v>
       </c>
     </row>
     <row r="453">
@@ -4064,7 +4064,7 @@
         <v>43383</v>
       </c>
       <c r="B453" t="n">
-        <v>-0.02444681021034387</v>
+        <v>-0.01667347802078486</v>
       </c>
     </row>
     <row r="454">
@@ -4072,7 +4072,7 @@
         <v>43384</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.01385129688758992</v>
+        <v>0.0237162727547876</v>
       </c>
     </row>
     <row r="455">
@@ -4080,7 +4080,7 @@
         <v>43385</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.008446360380059281</v>
+        <v>-0.02031110478576802</v>
       </c>
     </row>
     <row r="456">
@@ -4096,7 +4096,7 @@
         <v>43389</v>
       </c>
       <c r="B457" t="n">
-        <v>0.01336039682646618</v>
+        <v>0.02380741122673903</v>
       </c>
     </row>
     <row r="458">
@@ -4112,7 +4112,7 @@
         <v>43391</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.0594213915169458</v>
+        <v>-0.06393255990295561</v>
       </c>
     </row>
     <row r="460">
@@ -4120,7 +4120,7 @@
         <v>43392</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.01916217357900023</v>
+        <v>-0.004577224487238157</v>
       </c>
     </row>
     <row r="461">
@@ -4128,7 +4128,7 @@
         <v>43393</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.04578626839031502</v>
+        <v>-0.0287467374687135</v>
       </c>
     </row>
     <row r="462">
@@ -4136,7 +4136,7 @@
         <v>43396</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.151146679146247</v>
+        <v>-0.1166404465912164</v>
       </c>
     </row>
     <row r="463">
@@ -4144,7 +4144,7 @@
         <v>43397</v>
       </c>
       <c r="B463" t="n">
-        <v>0.08913887840574038</v>
+        <v>0.1396287601861389</v>
       </c>
     </row>
     <row r="464">
@@ -4152,7 +4152,7 @@
         <v>43398</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.0170522273951464</v>
+        <v>-0.03651653972395539</v>
       </c>
     </row>
     <row r="465">
@@ -4160,7 +4160,7 @@
         <v>43399</v>
       </c>
       <c r="B465" t="n">
-        <v>0.0005433274291858308</v>
+        <v>0.004893515809312726</v>
       </c>
     </row>
     <row r="466">
@@ -4168,7 +4168,7 @@
         <v>43400</v>
       </c>
       <c r="B466" t="n">
-        <v>-0.07759162976526983</v>
+        <v>-0.06803299380428816</v>
       </c>
     </row>
     <row r="467">
@@ -4176,7 +4176,7 @@
         <v>43403</v>
       </c>
       <c r="B467" t="n">
-        <v>0.1183562707673297</v>
+        <v>0.1023797526135107</v>
       </c>
     </row>
     <row r="468">
@@ -4184,7 +4184,7 @@
         <v>43404</v>
       </c>
       <c r="B468" t="n">
-        <v>0.02279510355470016</v>
+        <v>0.02812216138571423</v>
       </c>
     </row>
     <row r="469">
@@ -4192,7 +4192,7 @@
         <v>43405</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.0388920351190743</v>
+        <v>-0.02418119892191727</v>
       </c>
     </row>
     <row r="470">
@@ -4200,7 +4200,7 @@
         <v>43406</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.1191956354114991</v>
+        <v>-0.09672613631485368</v>
       </c>
     </row>
     <row r="471">
@@ -4208,7 +4208,7 @@
         <v>43407</v>
       </c>
       <c r="B471" t="n">
-        <v>0.01796117680493272</v>
+        <v>0.008872237726317249</v>
       </c>
     </row>
     <row r="472">
@@ -4216,7 +4216,7 @@
         <v>43410</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.02242257574349875</v>
+        <v>-0.03193040215094478</v>
       </c>
     </row>
     <row r="473">
@@ -4224,7 +4224,7 @@
         <v>43411</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.02021205585890387</v>
+        <v>-0.02368033176736798</v>
       </c>
     </row>
     <row r="474">
@@ -4240,7 +4240,7 @@
         <v>43413</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.02859354417055531</v>
+        <v>0.001100102950868759</v>
       </c>
     </row>
     <row r="476">
@@ -4248,7 +4248,7 @@
         <v>43414</v>
       </c>
       <c r="B476" t="n">
-        <v>0.009623896208209293</v>
+        <v>0.003684932112866885</v>
       </c>
     </row>
     <row r="477">
@@ -4256,7 +4256,7 @@
         <v>43417</v>
       </c>
       <c r="B477" t="n">
-        <v>0.05177986877623004</v>
+        <v>0.07190962703032057</v>
       </c>
     </row>
     <row r="478">
@@ -4264,7 +4264,7 @@
         <v>43418</v>
       </c>
       <c r="B478" t="n">
-        <v>-0.009985618026678994</v>
+        <v>-0.01386802736775084</v>
       </c>
     </row>
     <row r="479">
@@ -4272,7 +4272,7 @@
         <v>43419</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.01220580831911244</v>
+        <v>-0.02373647981733291</v>
       </c>
     </row>
     <row r="480">
@@ -4280,7 +4280,7 @@
         <v>43420</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.01513008676088093</v>
+        <v>-0.002227860823250553</v>
       </c>
     </row>
     <row r="481">
@@ -4288,7 +4288,7 @@
         <v>43421</v>
       </c>
       <c r="B481" t="n">
-        <v>0.01464656794009563</v>
+        <v>0.0004272967177118481</v>
       </c>
     </row>
     <row r="482">
@@ -4296,7 +4296,7 @@
         <v>43424</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.02164407385713254</v>
+        <v>0.009309559964336684</v>
       </c>
     </row>
     <row r="483">
@@ -4312,7 +4312,7 @@
         <v>43426</v>
       </c>
       <c r="B484" t="n">
-        <v>0.09296127369516444</v>
+        <v>0.1594251349333839</v>
       </c>
     </row>
     <row r="485">
@@ -4320,7 +4320,7 @@
         <v>43427</v>
       </c>
       <c r="B485" t="n">
-        <v>0.03071930575714373</v>
+        <v>0.02758642032931046</v>
       </c>
     </row>
     <row r="486">
@@ -4328,7 +4328,7 @@
         <v>43428</v>
       </c>
       <c r="B486" t="n">
-        <v>0.002581388456178371</v>
+        <v>-0.005503945321694036</v>
       </c>
     </row>
     <row r="487">
@@ -4336,7 +4336,7 @@
         <v>43431</v>
       </c>
       <c r="B487" t="n">
-        <v>0.0652729914958451</v>
+        <v>0.04294691083575254</v>
       </c>
     </row>
     <row r="488">
@@ -4344,7 +4344,7 @@
         <v>43432</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.06287126908538933</v>
+        <v>-0.04630806360875895</v>
       </c>
     </row>
     <row r="489">
@@ -4376,7 +4376,7 @@
         <v>43438</v>
       </c>
       <c r="B492" t="n">
-        <v>-0.03996265493835275</v>
+        <v>-0.02656678500725999</v>
       </c>
     </row>
     <row r="493">
@@ -4384,7 +4384,7 @@
         <v>43439</v>
       </c>
       <c r="B493" t="n">
-        <v>-0.03013466435055867</v>
+        <v>-0.04438574683357085</v>
       </c>
     </row>
     <row r="494">
@@ -4392,7 +4392,7 @@
         <v>43440</v>
       </c>
       <c r="B494" t="n">
-        <v>-0.01952056349872099</v>
+        <v>-0.01482927432885841</v>
       </c>
     </row>
     <row r="495">
@@ -4400,7 +4400,7 @@
         <v>43441</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.05289157775608465</v>
+        <v>-0.04119888118517211</v>
       </c>
     </row>
     <row r="496">
@@ -4408,7 +4408,7 @@
         <v>43442</v>
       </c>
       <c r="B496" t="n">
-        <v>0.7540550379645008</v>
+        <v>0.7039391797369436</v>
       </c>
     </row>
     <row r="497">
@@ -4416,7 +4416,7 @@
         <v>43445</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.0251228095895355</v>
+        <v>-0.01601180780999845</v>
       </c>
     </row>
     <row r="498">
@@ -4432,7 +4432,7 @@
         <v>43447</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.09412859143788607</v>
+        <v>-0.07445101235352686</v>
       </c>
     </row>
     <row r="500">
@@ -4440,7 +4440,7 @@
         <v>43448</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.003715383421459614</v>
+        <v>-0.002345920030973725</v>
       </c>
     </row>
     <row r="501">
@@ -4448,7 +4448,7 @@
         <v>43449</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.1490406371545945</v>
+        <v>-0.1339794094936139</v>
       </c>
     </row>
     <row r="502">
@@ -4456,7 +4456,7 @@
         <v>43452</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.16640398833191</v>
+        <v>-0.1796356710568004</v>
       </c>
     </row>
     <row r="503">
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="B503" t="n">
-        <v>0.002990695261795832</v>
+        <v>0.01186671911367013</v>
       </c>
     </row>
     <row r="504">
@@ -4472,7 +4472,7 @@
         <v>43454</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.067424019247769</v>
+        <v>-0.07991387613284352</v>
       </c>
     </row>
     <row r="505">
@@ -4480,7 +4480,7 @@
         <v>43455</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.03849738721669756</v>
+        <v>-0.05687620979505048</v>
       </c>
     </row>
     <row r="506">
@@ -4504,7 +4504,7 @@
         <v>43463</v>
       </c>
       <c r="B508" t="n">
-        <v>0.04125414284075125</v>
+        <v>0.03501908809320184</v>
       </c>
     </row>
     <row r="509">
@@ -4512,7 +4512,7 @@
         <v>43468</v>
       </c>
       <c r="B509" t="n">
-        <v>0.05719331866097702</v>
+        <v>0.02253124263930564</v>
       </c>
     </row>
     <row r="510">
@@ -4520,7 +4520,7 @@
         <v>43469</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.0164749763321911</v>
+        <v>-0.03108178361438628</v>
       </c>
     </row>
     <row r="511">
@@ -4528,7 +4528,7 @@
         <v>43470</v>
       </c>
       <c r="B511" t="n">
-        <v>0.01682444879289446</v>
+        <v>0.02922474694890537</v>
       </c>
     </row>
     <row r="512">
@@ -4536,7 +4536,7 @@
         <v>43473</v>
       </c>
       <c r="B512" t="n">
-        <v>0.02534060147321981</v>
+        <v>0.03425660670342173</v>
       </c>
     </row>
     <row r="513">
@@ -4544,7 +4544,7 @@
         <v>43474</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.08086247932946579</v>
+        <v>-0.07320299999054464</v>
       </c>
     </row>
     <row r="514">
@@ -4552,7 +4552,7 @@
         <v>43475</v>
       </c>
       <c r="B514" t="n">
-        <v>0.03359264321186439</v>
+        <v>0.03750776686039418</v>
       </c>
     </row>
     <row r="515">
@@ -4560,7 +4560,7 @@
         <v>43476</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.03181608553177923</v>
+        <v>-0.01133527195648992</v>
       </c>
     </row>
     <row r="516">
@@ -4568,7 +4568,7 @@
         <v>43477</v>
       </c>
       <c r="B516" t="n">
-        <v>0.04912304083720714</v>
+        <v>0.0605680194645222</v>
       </c>
     </row>
     <row r="517">
@@ -4584,7 +4584,7 @@
         <v>43481</v>
       </c>
       <c r="B518" t="n">
-        <v>-0.005867859452371627</v>
+        <v>-0.003729940870548739</v>
       </c>
     </row>
     <row r="519">
@@ -4592,7 +4592,7 @@
         <v>43482</v>
       </c>
       <c r="B519" t="n">
-        <v>0.01961769803142529</v>
+        <v>-0.002669027608605861</v>
       </c>
     </row>
     <row r="520">
@@ -4600,7 +4600,7 @@
         <v>43483</v>
       </c>
       <c r="B520" t="n">
-        <v>0.02748937523078979</v>
+        <v>0.01939890770928751</v>
       </c>
     </row>
     <row r="521">
@@ -4608,7 +4608,7 @@
         <v>43484</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.02837193708045357</v>
+        <v>-0.03689499026395837</v>
       </c>
     </row>
     <row r="522">
@@ -4632,7 +4632,7 @@
         <v>43489</v>
       </c>
       <c r="B524" t="n">
-        <v>0.07714204699734005</v>
+        <v>0.09019831423367144</v>
       </c>
     </row>
     <row r="525">
@@ -4640,7 +4640,7 @@
         <v>43490</v>
       </c>
       <c r="B525" t="n">
-        <v>0.001613249193473937</v>
+        <v>-0.0413130329148178</v>
       </c>
     </row>
     <row r="526">
@@ -4648,7 +4648,7 @@
         <v>43491</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.09189424670774027</v>
+        <v>-0.09376277706430873</v>
       </c>
     </row>
     <row r="527">
@@ -4656,7 +4656,7 @@
         <v>43494</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.04678928602609558</v>
+        <v>-0.07141389613708807</v>
       </c>
     </row>
     <row r="528">
@@ -4664,7 +4664,7 @@
         <v>43495</v>
       </c>
       <c r="B528" t="n">
-        <v>0.01742663320340716</v>
+        <v>0.02659263890794236</v>
       </c>
     </row>
     <row r="529">
@@ -4672,7 +4672,7 @@
         <v>43496</v>
       </c>
       <c r="B529" t="n">
-        <v>0.005919823141561054</v>
+        <v>0.01423321010967313</v>
       </c>
     </row>
     <row r="530">
@@ -4680,7 +4680,7 @@
         <v>43497</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.009824719878548686</v>
+        <v>-0.01432551660637347</v>
       </c>
     </row>
     <row r="531">
@@ -4688,7 +4688,7 @@
         <v>43498</v>
       </c>
       <c r="B531" t="n">
-        <v>0.007530743360550514</v>
+        <v>-0.02589444717747723</v>
       </c>
     </row>
     <row r="532">
@@ -4696,7 +4696,7 @@
         <v>43501</v>
       </c>
       <c r="B532" t="n">
-        <v>0.0617826996996888</v>
+        <v>0.0718469906921029</v>
       </c>
     </row>
     <row r="533">
@@ -4704,7 +4704,7 @@
         <v>43502</v>
       </c>
       <c r="B533" t="n">
-        <v>0.02465496677298166</v>
+        <v>0.01489634804181041</v>
       </c>
     </row>
     <row r="534">
@@ -4712,7 +4712,7 @@
         <v>43503</v>
       </c>
       <c r="B534" t="n">
-        <v>0.4256573269074017</v>
+        <v>0.4514222183575354</v>
       </c>
     </row>
     <row r="535">
@@ -4720,7 +4720,7 @@
         <v>43504</v>
       </c>
       <c r="B535" t="n">
-        <v>0.03288489326389683</v>
+        <v>0.05262154727530886</v>
       </c>
     </row>
     <row r="536">
@@ -4728,7 +4728,7 @@
         <v>43505</v>
       </c>
       <c r="B536" t="n">
-        <v>4.493877149518696</v>
+        <v>4.817046393608032</v>
       </c>
     </row>
     <row r="537">
@@ -4736,7 +4736,7 @@
         <v>43508</v>
       </c>
       <c r="B537" t="n">
-        <v>0.02980773183160999</v>
+        <v>-0.002373759788127823</v>
       </c>
     </row>
     <row r="538">
@@ -4744,7 +4744,7 @@
         <v>43509</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.004526513725272523</v>
+        <v>-0.002374138619813622</v>
       </c>
     </row>
     <row r="539">
@@ -4752,7 +4752,7 @@
         <v>43510</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.01456332410428018</v>
+        <v>-0.01951526719923355</v>
       </c>
     </row>
     <row r="540">
@@ -4760,7 +4760,7 @@
         <v>43511</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.007216919499240359</v>
+        <v>-0.01040231975753154</v>
       </c>
     </row>
     <row r="541">
@@ -4768,7 +4768,7 @@
         <v>43512</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.03833585200695502</v>
+        <v>-0.01996010395613251</v>
       </c>
     </row>
     <row r="542">
@@ -4776,7 +4776,7 @@
         <v>43515</v>
       </c>
       <c r="B542" t="n">
-        <v>0.02866267785708605</v>
+        <v>0.05152184847613237</v>
       </c>
     </row>
     <row r="543">
@@ -4784,7 +4784,7 @@
         <v>43516</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.007296297064120405</v>
+        <v>-0.0006039125499459992</v>
       </c>
     </row>
     <row r="544">
@@ -4792,7 +4792,7 @@
         <v>43517</v>
       </c>
       <c r="B544" t="n">
-        <v>0.0002030475986503301</v>
+        <v>0.008114258144628387</v>
       </c>
     </row>
     <row r="545">
@@ -4800,7 +4800,7 @@
         <v>43518</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.02139254829685088</v>
+        <v>-0.03700862465381603</v>
       </c>
     </row>
     <row r="546">
@@ -4816,7 +4816,7 @@
         <v>43522</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.04602005510536882</v>
+        <v>-0.04709678190547556</v>
       </c>
     </row>
     <row r="548">
@@ -4824,7 +4824,7 @@
         <v>43523</v>
       </c>
       <c r="B548" t="n">
-        <v>-0.03173636753947742</v>
+        <v>-0.01484804836865435</v>
       </c>
     </row>
     <row r="549">
@@ -4832,7 +4832,7 @@
         <v>43524</v>
       </c>
       <c r="B549" t="n">
-        <v>0.01256762450270336</v>
+        <v>0.0382673104037872</v>
       </c>
     </row>
     <row r="550">
@@ -4840,7 +4840,7 @@
         <v>43525</v>
       </c>
       <c r="B550" t="n">
-        <v>0.01319392269799705</v>
+        <v>0.02225040468859364</v>
       </c>
     </row>
     <row r="551">
@@ -4848,7 +4848,7 @@
         <v>43526</v>
       </c>
       <c r="B551" t="n">
-        <v>0.003229671996007084</v>
+        <v>0.0221585337317808</v>
       </c>
     </row>
     <row r="552">
@@ -4856,7 +4856,7 @@
         <v>43529</v>
       </c>
       <c r="B552" t="n">
-        <v>0.1755521037487796</v>
+        <v>0.2094622605876867</v>
       </c>
     </row>
     <row r="553">
@@ -4864,7 +4864,7 @@
         <v>43530</v>
       </c>
       <c r="B553" t="n">
-        <v>-0.001706270669395207</v>
+        <v>0.01125858295827499</v>
       </c>
     </row>
     <row r="554">
@@ -4872,7 +4872,7 @@
         <v>43531</v>
       </c>
       <c r="B554" t="n">
-        <v>-0.02367798934165363</v>
+        <v>-0.03352325331467899</v>
       </c>
     </row>
     <row r="555">
@@ -4880,7 +4880,7 @@
         <v>43532</v>
       </c>
       <c r="B555" t="n">
-        <v>0.1112580746241526</v>
+        <v>0.1421263544748236</v>
       </c>
     </row>
     <row r="556">
@@ -4888,7 +4888,7 @@
         <v>43533</v>
       </c>
       <c r="B556" t="n">
-        <v>1.927611123514323</v>
+        <v>1.744635428294677</v>
       </c>
     </row>
     <row r="557">
@@ -4896,7 +4896,7 @@
         <v>43536</v>
       </c>
       <c r="B557" t="n">
-        <v>-0.005067290824760672</v>
+        <v>0.0003252983848612975</v>
       </c>
     </row>
     <row r="558">
@@ -4904,7 +4904,7 @@
         <v>43537</v>
       </c>
       <c r="B558" t="n">
-        <v>0.006151579744452692</v>
+        <v>0.02253079150773455</v>
       </c>
     </row>
     <row r="559">
@@ -4912,7 +4912,7 @@
         <v>43538</v>
       </c>
       <c r="B559" t="n">
-        <v>0.0545257262506467</v>
+        <v>0.1665107591268216</v>
       </c>
     </row>
     <row r="560">
@@ -4936,7 +4936,7 @@
         <v>43543</v>
       </c>
       <c r="B562" t="n">
-        <v>0.003704014580610988</v>
+        <v>-0.007423524383697338</v>
       </c>
     </row>
     <row r="563">
@@ -4944,7 +4944,7 @@
         <v>43544</v>
       </c>
       <c r="B563" t="n">
-        <v>0.02741651326994464</v>
+        <v>0.009600041941564096</v>
       </c>
     </row>
     <row r="564">
@@ -4952,7 +4952,7 @@
         <v>43545</v>
       </c>
       <c r="B564" t="n">
-        <v>-0.03344783087934439</v>
+        <v>-0.02748145946501935</v>
       </c>
     </row>
     <row r="565">
@@ -4960,7 +4960,7 @@
         <v>43546</v>
       </c>
       <c r="B565" t="n">
-        <v>-0.04838464521460534</v>
+        <v>-0.0541871778657358</v>
       </c>
     </row>
     <row r="566">
@@ -4976,7 +4976,7 @@
         <v>43550</v>
       </c>
       <c r="B567" t="n">
-        <v>0.002898356340117892</v>
+        <v>-0.01702677656730167</v>
       </c>
     </row>
     <row r="568">
@@ -4984,7 +4984,7 @@
         <v>43551</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.03880499592489911</v>
+        <v>-0.0327597443269425</v>
       </c>
     </row>
     <row r="569">
@@ -4992,7 +4992,7 @@
         <v>43552</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.01353872272918003</v>
+        <v>-0.03104986966298157</v>
       </c>
     </row>
     <row r="570">
@@ -5000,7 +5000,7 @@
         <v>43553</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.01378107813480179</v>
+        <v>0.0002349530544968179</v>
       </c>
     </row>
     <row r="571">
@@ -5008,7 +5008,7 @@
         <v>43554</v>
       </c>
       <c r="B571" t="n">
-        <v>0.0251586197908539</v>
+        <v>0.03264152942436378</v>
       </c>
     </row>
     <row r="572">
@@ -5016,7 +5016,7 @@
         <v>43557</v>
       </c>
       <c r="B572" t="n">
-        <v>0.006238738776737517</v>
+        <v>-0.01487116483396327</v>
       </c>
     </row>
     <row r="573">
@@ -5024,7 +5024,7 @@
         <v>43558</v>
       </c>
       <c r="B573" t="n">
-        <v>0.02265746135991614</v>
+        <v>0.03105406934983102</v>
       </c>
     </row>
     <row r="574">
@@ -5032,7 +5032,7 @@
         <v>43559</v>
       </c>
       <c r="B574" t="n">
-        <v>0.01165910585289412</v>
+        <v>0.0212710688538717</v>
       </c>
     </row>
     <row r="575">
@@ -5040,7 +5040,7 @@
         <v>43560</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.007082590961823752</v>
+        <v>-0.002371239080266503</v>
       </c>
     </row>
     <row r="576">
@@ -5048,7 +5048,7 @@
         <v>43561</v>
       </c>
       <c r="B576" t="n">
-        <v>0.03188141450257286</v>
+        <v>0.02486181304337168</v>
       </c>
     </row>
     <row r="577">
@@ -5056,7 +5056,7 @@
         <v>43564</v>
       </c>
       <c r="B577" t="n">
-        <v>0.06174702770185456</v>
+        <v>0.06799259845304194</v>
       </c>
     </row>
     <row r="578">
@@ -5064,7 +5064,7 @@
         <v>43565</v>
       </c>
       <c r="B578" t="n">
-        <v>0.0071275712365788</v>
+        <v>0.03110679912316401</v>
       </c>
     </row>
     <row r="579">
@@ -5072,7 +5072,7 @@
         <v>43566</v>
       </c>
       <c r="B579" t="n">
-        <v>0.02949790638415015</v>
+        <v>0.02381007264722114</v>
       </c>
     </row>
     <row r="580">
@@ -5080,7 +5080,7 @@
         <v>43567</v>
       </c>
       <c r="B580" t="n">
-        <v>-0.01014643969132648</v>
+        <v>-0.01341688096987933</v>
       </c>
     </row>
     <row r="581">
@@ -5088,7 +5088,7 @@
         <v>43568</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.01532688934907166</v>
+        <v>-0.02010685590562963</v>
       </c>
     </row>
     <row r="582">
@@ -5096,7 +5096,7 @@
         <v>43571</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.005815209322220873</v>
+        <v>-0.004610136848672119</v>
       </c>
     </row>
     <row r="583">
@@ -5104,7 +5104,7 @@
         <v>43572</v>
       </c>
       <c r="B583" t="n">
-        <v>0.01202301537571553</v>
+        <v>-0.004844034880546459</v>
       </c>
     </row>
     <row r="584">
@@ -5112,7 +5112,7 @@
         <v>43573</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.02720684294088361</v>
+        <v>-0.0233668699524924</v>
       </c>
     </row>
     <row r="585">
@@ -5120,7 +5120,7 @@
         <v>43574</v>
       </c>
       <c r="B585" t="n">
-        <v>0.02765368044059618</v>
+        <v>0.04463969168754818</v>
       </c>
     </row>
     <row r="586">
@@ -5128,7 +5128,7 @@
         <v>43579</v>
       </c>
       <c r="B586" t="n">
-        <v>0.06421913543503932</v>
+        <v>0.04856885403158286</v>
       </c>
     </row>
     <row r="587">
@@ -5136,7 +5136,7 @@
         <v>43580</v>
       </c>
       <c r="B587" t="n">
-        <v>0.006665182997193167</v>
+        <v>-0.01269376282967593</v>
       </c>
     </row>
     <row r="588">
@@ -5144,7 +5144,7 @@
         <v>43581</v>
       </c>
       <c r="B588" t="n">
-        <v>0.003007647944427414</v>
+        <v>0.005373232019768079</v>
       </c>
     </row>
     <row r="589">
@@ -5152,7 +5152,7 @@
         <v>43582</v>
       </c>
       <c r="B589" t="n">
-        <v>0.08895324942401568</v>
+        <v>0.0566879679596004</v>
       </c>
     </row>
     <row r="590">
@@ -5160,7 +5160,7 @@
         <v>43585</v>
       </c>
       <c r="B590" t="n">
-        <v>0.005214271264072467</v>
+        <v>-0.00292041069991428</v>
       </c>
     </row>
     <row r="591">
@@ -5168,7 +5168,7 @@
         <v>43586</v>
       </c>
       <c r="B591" t="n">
-        <v>0.06651877791335935</v>
+        <v>-0.02703550085097042</v>
       </c>
     </row>
     <row r="592">
@@ -5176,7 +5176,7 @@
         <v>43588</v>
       </c>
       <c r="B592" t="n">
-        <v>0.04387819885421852</v>
+        <v>0.03731292716331148</v>
       </c>
     </row>
     <row r="593">
@@ -5184,7 +5184,7 @@
         <v>43589</v>
       </c>
       <c r="B593" t="n">
-        <v>0.04094726384437112</v>
+        <v>0.04798069130277903</v>
       </c>
     </row>
     <row r="594">
@@ -5192,7 +5192,7 @@
         <v>43592</v>
       </c>
       <c r="B594" t="n">
-        <v>0.01083134451855985</v>
+        <v>0.03189033086269652</v>
       </c>
     </row>
     <row r="595">
@@ -5200,7 +5200,7 @@
         <v>43593</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.02701779577491126</v>
+        <v>-0.0210849774564656</v>
       </c>
     </row>
     <row r="596">
@@ -5208,7 +5208,7 @@
         <v>43594</v>
       </c>
       <c r="B596" t="n">
-        <v>0.03977846185414247</v>
+        <v>0.05201114964066179</v>
       </c>
     </row>
     <row r="597">
@@ -5216,7 +5216,7 @@
         <v>43595</v>
       </c>
       <c r="B597" t="n">
-        <v>0.005529715479282286</v>
+        <v>-0.01113652289882736</v>
       </c>
     </row>
     <row r="598">
@@ -5224,7 +5224,7 @@
         <v>43596</v>
       </c>
       <c r="B598" t="n">
-        <v>-0.01374828122293872</v>
+        <v>-0.0327146604301899</v>
       </c>
     </row>
     <row r="599">
@@ -5232,7 +5232,7 @@
         <v>43599</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.04745193165094351</v>
+        <v>-0.03597544889975006</v>
       </c>
     </row>
     <row r="600">
@@ -5240,7 +5240,7 @@
         <v>43600</v>
       </c>
       <c r="B600" t="n">
-        <v>-0.01578570548207819</v>
+        <v>-0.02150788161299634</v>
       </c>
     </row>
     <row r="601">
@@ -5248,7 +5248,7 @@
         <v>43601</v>
       </c>
       <c r="B601" t="n">
-        <v>-0.005723320236857258</v>
+        <v>-0.0009316253946251773</v>
       </c>
     </row>
     <row r="602">
@@ -5264,7 +5264,7 @@
         <v>43603</v>
       </c>
       <c r="B603" t="n">
-        <v>0.132891118022808</v>
+        <v>0.1251843757233332</v>
       </c>
     </row>
     <row r="604">
@@ -5272,7 +5272,7 @@
         <v>43606</v>
       </c>
       <c r="B604" t="n">
-        <v>-0.04078514575879406</v>
+        <v>-0.03274382362743062</v>
       </c>
     </row>
     <row r="605">
@@ -5280,7 +5280,7 @@
         <v>43607</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.009511189422034872</v>
+        <v>-0.01566329383556261</v>
       </c>
     </row>
     <row r="606">
@@ -5288,7 +5288,7 @@
         <v>43608</v>
       </c>
       <c r="B606" t="n">
-        <v>-0.009645744554036804</v>
+        <v>-0.01768806449385324</v>
       </c>
     </row>
     <row r="607">
@@ -5296,7 +5296,7 @@
         <v>43609</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.02999031616702905</v>
+        <v>-0.03601522103555682</v>
       </c>
     </row>
     <row r="608">
@@ -5304,7 +5304,7 @@
         <v>43610</v>
       </c>
       <c r="B608" t="n">
-        <v>-0.04498670868415978</v>
+        <v>-0.02522781300176308</v>
       </c>
     </row>
     <row r="609">
@@ -5312,7 +5312,7 @@
         <v>43613</v>
       </c>
       <c r="B609" t="n">
-        <v>0.002030646165080245</v>
+        <v>0.000839170961554652</v>
       </c>
     </row>
     <row r="610">
@@ -5320,7 +5320,7 @@
         <v>43614</v>
       </c>
       <c r="B610" t="n">
-        <v>0.08031223409525344</v>
+        <v>0.07388180413040074</v>
       </c>
     </row>
     <row r="611">
@@ -5336,7 +5336,7 @@
         <v>43616</v>
       </c>
       <c r="B612" t="n">
-        <v>0.02064392582447839</v>
+        <v>0.009192100569785821</v>
       </c>
     </row>
     <row r="613">
@@ -5344,7 +5344,7 @@
         <v>43617</v>
       </c>
       <c r="B613" t="n">
-        <v>0.02779752835271933</v>
+        <v>0.01320734261900568</v>
       </c>
     </row>
     <row r="614">
@@ -5352,7 +5352,7 @@
         <v>43620</v>
       </c>
       <c r="B614" t="n">
-        <v>0.005454886080080342</v>
+        <v>-0.00940405312307359</v>
       </c>
     </row>
     <row r="615">
@@ -5360,7 +5360,7 @@
         <v>43621</v>
       </c>
       <c r="B615" t="n">
-        <v>0.05119410442030917</v>
+        <v>0.06292290893266962</v>
       </c>
     </row>
     <row r="616">
@@ -5368,7 +5368,7 @@
         <v>43622</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.01379599826910555</v>
+        <v>0.03392355020174415</v>
       </c>
     </row>
     <row r="617">
@@ -5376,7 +5376,7 @@
         <v>43623</v>
       </c>
       <c r="B617" t="n">
-        <v>0.04995717513650839</v>
+        <v>0.0574568692446263</v>
       </c>
     </row>
     <row r="618">
@@ -5384,7 +5384,7 @@
         <v>43627</v>
       </c>
       <c r="B618" t="n">
-        <v>0.06811536230332524</v>
+        <v>0.09266973844822926</v>
       </c>
     </row>
     <row r="619">
@@ -5392,7 +5392,7 @@
         <v>43628</v>
       </c>
       <c r="B619" t="n">
-        <v>0.05080696300364999</v>
+        <v>0.08117710644306184</v>
       </c>
     </row>
     <row r="620">
@@ -5400,7 +5400,7 @@
         <v>43629</v>
       </c>
       <c r="B620" t="n">
-        <v>0.03570659814058044</v>
+        <v>0.01553049557940031</v>
       </c>
     </row>
     <row r="621">
@@ -5408,7 +5408,7 @@
         <v>43630</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.003449809783187824</v>
+        <v>0.005109517003950475</v>
       </c>
     </row>
     <row r="622">
@@ -5416,7 +5416,7 @@
         <v>43631</v>
       </c>
       <c r="B622" t="n">
-        <v>0.01144668541550882</v>
+        <v>0.02873637234568846</v>
       </c>
     </row>
     <row r="623">
@@ -5424,7 +5424,7 @@
         <v>43634</v>
       </c>
       <c r="B623" t="n">
-        <v>0.007257424676143942</v>
+        <v>-0.002167206198018775</v>
       </c>
     </row>
     <row r="624">
@@ -5432,7 +5432,7 @@
         <v>43635</v>
       </c>
       <c r="B624" t="n">
-        <v>0.02023646780530749</v>
+        <v>0.02274011557906288</v>
       </c>
     </row>
     <row r="625">
@@ -5440,7 +5440,7 @@
         <v>43636</v>
       </c>
       <c r="B625" t="n">
-        <v>0.05332504671457531</v>
+        <v>0.04625575109904125</v>
       </c>
     </row>
     <row r="626">
@@ -5448,7 +5448,7 @@
         <v>43637</v>
       </c>
       <c r="B626" t="n">
-        <v>0.005055609498590252</v>
+        <v>0.01158194462520448</v>
       </c>
     </row>
     <row r="627">
@@ -5456,7 +5456,7 @@
         <v>43638</v>
       </c>
       <c r="B627" t="n">
-        <v>0.02788633185981918</v>
+        <v>0.01254474481713531</v>
       </c>
     </row>
     <row r="628">
@@ -5464,7 +5464,7 @@
         <v>43641</v>
       </c>
       <c r="B628" t="n">
-        <v>0.01936592547335115</v>
+        <v>0.04550351330600118</v>
       </c>
     </row>
     <row r="629">
@@ -5472,7 +5472,7 @@
         <v>43642</v>
       </c>
       <c r="B629" t="n">
-        <v>0.0275613620738156</v>
+        <v>0.0153928722597835</v>
       </c>
     </row>
     <row r="630">
@@ -5480,7 +5480,7 @@
         <v>43643</v>
       </c>
       <c r="B630" t="n">
-        <v>0.07580776357716994</v>
+        <v>0.09869729046179057</v>
       </c>
     </row>
     <row r="631">
@@ -5488,7 +5488,7 @@
         <v>43644</v>
       </c>
       <c r="B631" t="n">
-        <v>0.0358666039687778</v>
+        <v>0.0611316430899675</v>
       </c>
     </row>
     <row r="632">
@@ -5496,7 +5496,7 @@
         <v>43645</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.004706044807819917</v>
+        <v>-0.006189344293948269</v>
       </c>
     </row>
     <row r="633">
@@ -5504,7 +5504,7 @@
         <v>43648</v>
       </c>
       <c r="B633" t="n">
-        <v>0.03096335788079118</v>
+        <v>0.04479148041570501</v>
       </c>
     </row>
     <row r="634">
@@ -5512,7 +5512,7 @@
         <v>43649</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.02113428031591535</v>
+        <v>-0.07778465171082197</v>
       </c>
     </row>
     <row r="635">
@@ -5520,7 +5520,7 @@
         <v>43650</v>
       </c>
       <c r="B635" t="n">
-        <v>-0.02942832906156535</v>
+        <v>-0.04478989507641819</v>
       </c>
     </row>
     <row r="636">
@@ -5528,7 +5528,7 @@
         <v>43651</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.06366978228389231</v>
+        <v>-0.04360556333283285</v>
       </c>
     </row>
     <row r="637">
@@ -5536,7 +5536,7 @@
         <v>43652</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.1028823004279514</v>
+        <v>-0.06283240312562779</v>
       </c>
     </row>
     <row r="638">
@@ -5544,7 +5544,7 @@
         <v>43655</v>
       </c>
       <c r="B638" t="n">
-        <v>0.01172027561433463</v>
+        <v>0.006395432058469639</v>
       </c>
     </row>
     <row r="639">
@@ -5552,7 +5552,7 @@
         <v>43656</v>
       </c>
       <c r="B639" t="n">
-        <v>0.08028706300392111</v>
+        <v>0.05628068382605612</v>
       </c>
     </row>
     <row r="640">
@@ -5560,7 +5560,7 @@
         <v>43657</v>
       </c>
       <c r="B640" t="n">
-        <v>0.09654219556914068</v>
+        <v>0.07895060954396729</v>
       </c>
     </row>
     <row r="641">
@@ -5568,7 +5568,7 @@
         <v>43658</v>
       </c>
       <c r="B641" t="n">
-        <v>0.04168228897857412</v>
+        <v>0.053655648622006</v>
       </c>
     </row>
     <row r="642">
@@ -5576,7 +5576,7 @@
         <v>43659</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.05136271130427027</v>
+        <v>-0.04489178846187102</v>
       </c>
     </row>
     <row r="643">
@@ -5584,7 +5584,7 @@
         <v>43662</v>
       </c>
       <c r="B643" t="n">
-        <v>0.004331171891123594</v>
+        <v>-0.001343015520690664</v>
       </c>
     </row>
     <row r="644">
@@ -5592,7 +5592,7 @@
         <v>43663</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.005825187159661006</v>
+        <v>-0.01727641537038736</v>
       </c>
     </row>
     <row r="645">
@@ -5608,7 +5608,7 @@
         <v>43665</v>
       </c>
       <c r="B646" t="n">
-        <v>0.00923928983380436</v>
+        <v>0.00586766637110794</v>
       </c>
     </row>
     <row r="647">
@@ -5616,7 +5616,7 @@
         <v>43666</v>
       </c>
       <c r="B647" t="n">
-        <v>-0.005207357366917724</v>
+        <v>-0.01874195114423857</v>
       </c>
     </row>
     <row r="648">
@@ -5632,7 +5632,7 @@
         <v>43670</v>
       </c>
       <c r="B649" t="n">
-        <v>-0.01280730687394362</v>
+        <v>0.01005399759844929</v>
       </c>
     </row>
     <row r="650">
@@ -5640,7 +5640,7 @@
         <v>43671</v>
       </c>
       <c r="B650" t="n">
-        <v>0.08211399948455644</v>
+        <v>0.0873164706359245</v>
       </c>
     </row>
     <row r="651">
@@ -5648,7 +5648,7 @@
         <v>43672</v>
       </c>
       <c r="B651" t="n">
-        <v>-0.02321166699333667</v>
+        <v>0.004226207529322414</v>
       </c>
     </row>
     <row r="652">
@@ -5656,7 +5656,7 @@
         <v>43673</v>
       </c>
       <c r="B652" t="n">
-        <v>0.1848940745639557</v>
+        <v>0.2015827235014762</v>
       </c>
     </row>
     <row r="653">
@@ -5664,7 +5664,7 @@
         <v>43676</v>
       </c>
       <c r="B653" t="n">
-        <v>-0.01279133637440681</v>
+        <v>-0.01836878645138756</v>
       </c>
     </row>
     <row r="654">
@@ -5672,7 +5672,7 @@
         <v>43677</v>
       </c>
       <c r="B654" t="n">
-        <v>-0.024528314216292</v>
+        <v>-0.0222330867203303</v>
       </c>
     </row>
     <row r="655">
@@ -5680,7 +5680,7 @@
         <v>43678</v>
       </c>
       <c r="B655" t="n">
-        <v>-0.01909914230043971</v>
+        <v>-0.01370957714824432</v>
       </c>
     </row>
     <row r="656">
@@ -5688,7 +5688,7 @@
         <v>43679</v>
       </c>
       <c r="B656" t="n">
-        <v>-0.01948613591511365</v>
+        <v>-0.006039088636235179</v>
       </c>
     </row>
     <row r="657">
@@ -5696,7 +5696,7 @@
         <v>43680</v>
       </c>
       <c r="B657" t="n">
-        <v>0.004792629375747263</v>
+        <v>0.006123480540483277</v>
       </c>
     </row>
     <row r="658">
@@ -5704,7 +5704,7 @@
         <v>43683</v>
       </c>
       <c r="B658" t="n">
-        <v>-0.001202574238971343</v>
+        <v>0.00584776053110644</v>
       </c>
     </row>
     <row r="659">
@@ -5712,7 +5712,7 @@
         <v>43684</v>
       </c>
       <c r="B659" t="n">
-        <v>-0.02647066124480008</v>
+        <v>-0.02761464401654525</v>
       </c>
     </row>
     <row r="660">
@@ -5720,7 +5720,7 @@
         <v>43685</v>
       </c>
       <c r="B660" t="n">
-        <v>0.02774578828183233</v>
+        <v>0.01347154122236244</v>
       </c>
     </row>
     <row r="661">
@@ -5728,7 +5728,7 @@
         <v>43686</v>
       </c>
       <c r="B661" t="n">
-        <v>0.09068841424987813</v>
+        <v>0.06848610556285778</v>
       </c>
     </row>
     <row r="662">
@@ -5736,7 +5736,7 @@
         <v>43687</v>
       </c>
       <c r="B662" t="n">
-        <v>-1.403245148721759</v>
+        <v>-2.954188028420831</v>
       </c>
     </row>
     <row r="663">
@@ -5744,7 +5744,7 @@
         <v>43690</v>
       </c>
       <c r="B663" t="n">
-        <v>0.07872403367171094</v>
+        <v>0.09264305346102333</v>
       </c>
     </row>
     <row r="664">
@@ -5752,7 +5752,7 @@
         <v>43691</v>
       </c>
       <c r="B664" t="n">
-        <v>0.1040655366038796</v>
+        <v>0.09749371793361838</v>
       </c>
     </row>
     <row r="665">
@@ -5760,7 +5760,7 @@
         <v>43692</v>
       </c>
       <c r="B665" t="n">
-        <v>0.09992131805583294</v>
+        <v>0.07434175251965078</v>
       </c>
     </row>
     <row r="666">
@@ -5768,7 +5768,7 @@
         <v>43693</v>
       </c>
       <c r="B666" t="n">
-        <v>0.03071101625135886</v>
+        <v>0.03655073872303803</v>
       </c>
     </row>
     <row r="667">
@@ -5776,7 +5776,7 @@
         <v>43694</v>
       </c>
       <c r="B667" t="n">
-        <v>0.02850095180887989</v>
+        <v>-0.009078890661059926</v>
       </c>
     </row>
     <row r="668">
@@ -5784,7 +5784,7 @@
         <v>43697</v>
       </c>
       <c r="B668" t="n">
-        <v>0.07638780166314633</v>
+        <v>0.05232736844949946</v>
       </c>
     </row>
     <row r="669">
@@ -5800,7 +5800,7 @@
         <v>43699</v>
       </c>
       <c r="B670" t="n">
-        <v>0.03411714348967818</v>
+        <v>0.02068705071708495</v>
       </c>
     </row>
     <row r="671">
@@ -5808,7 +5808,7 @@
         <v>43700</v>
       </c>
       <c r="B671" t="n">
-        <v>-0.01119175932066044</v>
+        <v>-0.007329227130506808</v>
       </c>
     </row>
     <row r="672">
@@ -5824,7 +5824,7 @@
         <v>43704</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.005196063397662768</v>
+        <v>0.01715908124508638</v>
       </c>
     </row>
     <row r="674">
@@ -5832,7 +5832,7 @@
         <v>43705</v>
       </c>
       <c r="B674" t="n">
-        <v>0.03013440154123553</v>
+        <v>0.05753159307158753</v>
       </c>
     </row>
     <row r="675">
@@ -5840,7 +5840,7 @@
         <v>43706</v>
       </c>
       <c r="B675" t="n">
-        <v>0.00238958399229909</v>
+        <v>-0.01988574009641861</v>
       </c>
     </row>
     <row r="676">
@@ -5848,7 +5848,7 @@
         <v>43707</v>
       </c>
       <c r="B676" t="n">
-        <v>-0.02822066357552499</v>
+        <v>-0.02012250243865433</v>
       </c>
     </row>
     <row r="677">
@@ -5856,7 +5856,7 @@
         <v>43708</v>
       </c>
       <c r="B677" t="n">
-        <v>0.008934407129502308</v>
+        <v>-0.0198922902170549</v>
       </c>
     </row>
     <row r="678">
@@ -5864,7 +5864,7 @@
         <v>43711</v>
       </c>
       <c r="B678" t="n">
-        <v>-0.07951353817640824</v>
+        <v>-0.111423735519626</v>
       </c>
     </row>
     <row r="679">
@@ -5872,7 +5872,7 @@
         <v>43712</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.047891856218613</v>
+        <v>-0.09515963640634144</v>
       </c>
     </row>
     <row r="680">
@@ -5880,7 +5880,7 @@
         <v>43713</v>
       </c>
       <c r="B680" t="n">
-        <v>-0.09316990116516646</v>
+        <v>-0.05451812646073092</v>
       </c>
     </row>
     <row r="681">
@@ -5888,7 +5888,7 @@
         <v>43714</v>
       </c>
       <c r="B681" t="n">
-        <v>-0.0001897942032757075</v>
+        <v>-0.006114595422811936</v>
       </c>
     </row>
     <row r="682">
@@ -5896,7 +5896,7 @@
         <v>43715</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.06947228628526068</v>
+        <v>-0.06253839870169334</v>
       </c>
     </row>
     <row r="683">
@@ -5904,7 +5904,7 @@
         <v>43718</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.003757935276345612</v>
+        <v>-0.01048930057853247</v>
       </c>
     </row>
     <row r="684">
@@ -5912,7 +5912,7 @@
         <v>43719</v>
       </c>
       <c r="B684" t="n">
-        <v>-0.002312266168757733</v>
+        <v>-0.00802967438555556</v>
       </c>
     </row>
     <row r="685">
@@ -5920,7 +5920,7 @@
         <v>43720</v>
       </c>
       <c r="B685" t="n">
-        <v>0.07871681431490153</v>
+        <v>0.08576725100977017</v>
       </c>
     </row>
     <row r="686">
@@ -5928,7 +5928,7 @@
         <v>43721</v>
       </c>
       <c r="B686" t="n">
-        <v>0.02205912383926935</v>
+        <v>0.027659447805512</v>
       </c>
     </row>
     <row r="687">
@@ -5936,7 +5936,7 @@
         <v>43722</v>
       </c>
       <c r="B687" t="n">
-        <v>0.04585755805759532</v>
+        <v>0.060184373921398</v>
       </c>
     </row>
     <row r="688">
@@ -5944,7 +5944,7 @@
         <v>43725</v>
       </c>
       <c r="B688" t="n">
-        <v>-0.05028400924375863</v>
+        <v>-0.07034843158367922</v>
       </c>
     </row>
     <row r="689">
@@ -5952,7 +5952,7 @@
         <v>43726</v>
       </c>
       <c r="B689" t="n">
-        <v>0.04514297906135514</v>
+        <v>0.03101942529025575</v>
       </c>
     </row>
     <row r="690">
@@ -5960,7 +5960,7 @@
         <v>43727</v>
       </c>
       <c r="B690" t="n">
-        <v>0.04674304669809437</v>
+        <v>0.01782749292190392</v>
       </c>
     </row>
     <row r="691">
@@ -5968,7 +5968,7 @@
         <v>43728</v>
       </c>
       <c r="B691" t="n">
-        <v>0.01336568004591302</v>
+        <v>-0.009279363083604589</v>
       </c>
     </row>
     <row r="692">
@@ -5976,7 +5976,7 @@
         <v>43729</v>
       </c>
       <c r="B692" t="n">
-        <v>-0.01569630798296213</v>
+        <v>-0.03920206779232415</v>
       </c>
     </row>
     <row r="693">
@@ -5984,7 +5984,7 @@
         <v>43732</v>
       </c>
       <c r="B693" t="n">
-        <v>0.0240146626666983</v>
+        <v>0.03306672598308897</v>
       </c>
     </row>
     <row r="694">
@@ -5992,7 +5992,7 @@
         <v>43733</v>
       </c>
       <c r="B694" t="n">
-        <v>-0.01187314894137347</v>
+        <v>-0.006617155052763753</v>
       </c>
     </row>
     <row r="695">
@@ -6000,7 +6000,7 @@
         <v>43734</v>
       </c>
       <c r="B695" t="n">
-        <v>-0.03011538335823847</v>
+        <v>-0.0358885060763442</v>
       </c>
     </row>
     <row r="696">
@@ -6008,7 +6008,7 @@
         <v>43735</v>
       </c>
       <c r="B696" t="n">
-        <v>0.04720245775093881</v>
+        <v>0.06384673522512595</v>
       </c>
     </row>
     <row r="697">
@@ -6016,7 +6016,7 @@
         <v>43736</v>
       </c>
       <c r="B697" t="n">
-        <v>0.09461138080653474</v>
+        <v>0.2281005735878195</v>
       </c>
     </row>
     <row r="698">
@@ -6024,7 +6024,7 @@
         <v>43739</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.004651798641180507</v>
+        <v>0.02664845926318489</v>
       </c>
     </row>
     <row r="699">
@@ -6032,7 +6032,7 @@
         <v>43740</v>
       </c>
       <c r="B699" t="n">
-        <v>0.04120525579329525</v>
+        <v>0.0350076054611923</v>
       </c>
     </row>
     <row r="700">
@@ -6040,7 +6040,7 @@
         <v>43741</v>
       </c>
       <c r="B700" t="n">
-        <v>0.003974538294720041</v>
+        <v>0.01429818393271198</v>
       </c>
     </row>
     <row r="701">
@@ -6048,7 +6048,7 @@
         <v>43742</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.005662871792935391</v>
+        <v>-0.01364493589551507</v>
       </c>
     </row>
     <row r="702">
@@ -6056,7 +6056,7 @@
         <v>43743</v>
       </c>
       <c r="B702" t="n">
-        <v>-0.01612585939985458</v>
+        <v>-0.005086598355252707</v>
       </c>
     </row>
     <row r="703">
@@ -6064,7 +6064,7 @@
         <v>43746</v>
       </c>
       <c r="B703" t="n">
-        <v>-0.04186242949338607</v>
+        <v>-0.02190123010783161</v>
       </c>
     </row>
     <row r="704">
@@ -6080,7 +6080,7 @@
         <v>43748</v>
       </c>
       <c r="B705" t="n">
-        <v>0.02971103253069404</v>
+        <v>0.01497748834504025</v>
       </c>
     </row>
     <row r="706">
@@ -6088,7 +6088,7 @@
         <v>43749</v>
       </c>
       <c r="B706" t="n">
-        <v>0.1643481033401561</v>
+        <v>0.1756524538580217</v>
       </c>
     </row>
     <row r="707">
@@ -6096,7 +6096,7 @@
         <v>43750</v>
       </c>
       <c r="B707" t="n">
-        <v>0.02520001026880572</v>
+        <v>0.01380889904359676</v>
       </c>
     </row>
     <row r="708">
@@ -6104,7 +6104,7 @@
         <v>43753</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.02003152996120363</v>
+        <v>-0.02936456300919213</v>
       </c>
     </row>
     <row r="709">
@@ -6112,7 +6112,7 @@
         <v>43754</v>
       </c>
       <c r="B709" t="n">
-        <v>-0.0601691874265819</v>
+        <v>-0.0417411322780835</v>
       </c>
     </row>
     <row r="710">
@@ -6120,7 +6120,7 @@
         <v>43755</v>
       </c>
       <c r="B710" t="n">
-        <v>0.02903452945441986</v>
+        <v>0.011593266243328</v>
       </c>
     </row>
     <row r="711">
@@ -6128,7 +6128,7 @@
         <v>43756</v>
       </c>
       <c r="B711" t="n">
-        <v>-0.1008507379301108</v>
+        <v>-0.1117863370633933</v>
       </c>
     </row>
     <row r="712">
@@ -6136,7 +6136,7 @@
         <v>43757</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.07005123918666475</v>
+        <v>-0.07699115531213742</v>
       </c>
     </row>
     <row r="713">
@@ -6144,7 +6144,7 @@
         <v>43760</v>
       </c>
       <c r="B713" t="n">
-        <v>0.0007159508616480094</v>
+        <v>-0.01533831572971533</v>
       </c>
     </row>
     <row r="714">
@@ -6152,7 +6152,7 @@
         <v>43761</v>
       </c>
       <c r="B714" t="n">
-        <v>-0.03288752106786568</v>
+        <v>-0.02736116404539634</v>
       </c>
     </row>
     <row r="715">
@@ -6160,7 +6160,7 @@
         <v>43762</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.01230532994193846</v>
+        <v>-0.03731025829783875</v>
       </c>
     </row>
     <row r="716">
@@ -6176,7 +6176,7 @@
         <v>43764</v>
       </c>
       <c r="B717" t="n">
-        <v>0.129987870816232</v>
+        <v>0.0901059459638944</v>
       </c>
     </row>
     <row r="718">
@@ -6184,7 +6184,7 @@
         <v>43767</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.008244074124980291</v>
+        <v>-0.01846836202059905</v>
       </c>
     </row>
     <row r="719">
@@ -6192,7 +6192,7 @@
         <v>43768</v>
       </c>
       <c r="B719" t="n">
-        <v>0.01577684133194676</v>
+        <v>0.005411771522437105</v>
       </c>
     </row>
     <row r="720">
@@ -6208,7 +6208,7 @@
         <v>43770</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.1766819041681205</v>
+        <v>-0.1886102923282044</v>
       </c>
     </row>
     <row r="722">
@@ -6216,7 +6216,7 @@
         <v>43771</v>
       </c>
       <c r="B722" t="n">
-        <v>-0.1018924307267384</v>
+        <v>-0.1099112483095354</v>
       </c>
     </row>
     <row r="723">
@@ -6224,7 +6224,7 @@
         <v>43774</v>
       </c>
       <c r="B723" t="n">
-        <v>-0.03358206350600496</v>
+        <v>-0.04469031564961409</v>
       </c>
     </row>
     <row r="724">
@@ -6232,7 +6232,7 @@
         <v>43775</v>
       </c>
       <c r="B724" t="n">
-        <v>-0.01239973551104496</v>
+        <v>-0.001314426419842463</v>
       </c>
     </row>
     <row r="725">
@@ -6240,7 +6240,7 @@
         <v>43776</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.02175921772184682</v>
+        <v>-0.01038432490465899</v>
       </c>
     </row>
     <row r="726">
@@ -6248,7 +6248,7 @@
         <v>43777</v>
       </c>
       <c r="B726" t="n">
-        <v>0.01973345781328206</v>
+        <v>0.01647205016569164</v>
       </c>
     </row>
     <row r="727">
@@ -6256,7 +6256,7 @@
         <v>43778</v>
       </c>
       <c r="B727" t="n">
-        <v>0.03237707616017487</v>
+        <v>0.04404968129263924</v>
       </c>
     </row>
     <row r="728">
@@ -6264,7 +6264,7 @@
         <v>43781</v>
       </c>
       <c r="B728" t="n">
-        <v>0.005583939148119017</v>
+        <v>0.004365049524909245</v>
       </c>
     </row>
     <row r="729">
@@ -6272,7 +6272,7 @@
         <v>43782</v>
       </c>
       <c r="B729" t="n">
-        <v>0.00352068869816463</v>
+        <v>-0.01215932206274419</v>
       </c>
     </row>
     <row r="730">
@@ -6280,7 +6280,7 @@
         <v>43783</v>
       </c>
       <c r="B730" t="n">
-        <v>0.013396324440981</v>
+        <v>-0.007826635233175673</v>
       </c>
     </row>
     <row r="731">
@@ -6288,7 +6288,7 @@
         <v>43784</v>
       </c>
       <c r="B731" t="n">
-        <v>-0.01356679144347278</v>
+        <v>-0.01869111979961065</v>
       </c>
     </row>
     <row r="732">
@@ -6296,7 +6296,7 @@
         <v>43785</v>
       </c>
       <c r="B732" t="n">
-        <v>0.05013516301096024</v>
+        <v>0.02207811667097283</v>
       </c>
     </row>
     <row r="733">
@@ -6304,7 +6304,7 @@
         <v>43788</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.03407869000564221</v>
+        <v>-0.02278136474255031</v>
       </c>
     </row>
     <row r="734">
@@ -6312,7 +6312,7 @@
         <v>43789</v>
       </c>
       <c r="B734" t="n">
-        <v>0.00384996771813479</v>
+        <v>0.004734417028899617</v>
       </c>
     </row>
     <row r="735">
@@ -6320,7 +6320,7 @@
         <v>43790</v>
       </c>
       <c r="B735" t="n">
-        <v>-0.0124858016980546</v>
+        <v>-0.02216731344611289</v>
       </c>
     </row>
     <row r="736">
@@ -6328,7 +6328,7 @@
         <v>43791</v>
       </c>
       <c r="B736" t="n">
-        <v>-0.08088937796378699</v>
+        <v>-0.09335189487275262</v>
       </c>
     </row>
     <row r="737">
@@ -6336,7 +6336,7 @@
         <v>43792</v>
       </c>
       <c r="B737" t="n">
-        <v>0.001423442795340894</v>
+        <v>0.01784022054608419</v>
       </c>
     </row>
     <row r="738">
@@ -6344,7 +6344,7 @@
         <v>43795</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.04056575982799102</v>
+        <v>-0.04159189270518027</v>
       </c>
     </row>
     <row r="739">
@@ -6352,7 +6352,7 @@
         <v>43796</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.1192890802177508</v>
+        <v>-0.1076240349226217</v>
       </c>
     </row>
     <row r="740">
@@ -6360,7 +6360,7 @@
         <v>43797</v>
       </c>
       <c r="B740" t="n">
-        <v>-0.1409805669368618</v>
+        <v>-0.09839669760552675</v>
       </c>
     </row>
     <row r="741">
@@ -6368,7 +6368,7 @@
         <v>43798</v>
       </c>
       <c r="B741" t="n">
-        <v>0.0328927215188469</v>
+        <v>0.01328083440140045</v>
       </c>
     </row>
     <row r="742">
@@ -6376,7 +6376,7 @@
         <v>43799</v>
       </c>
       <c r="B742" t="n">
-        <v>0.02374156565798612</v>
+        <v>0.03585685045867235</v>
       </c>
     </row>
     <row r="743">
@@ -6384,7 +6384,7 @@
         <v>43802</v>
       </c>
       <c r="B743" t="n">
-        <v>0.00741202446333278</v>
+        <v>0.0023240849458412</v>
       </c>
     </row>
     <row r="744">
@@ -6392,7 +6392,7 @@
         <v>43803</v>
       </c>
       <c r="B744" t="n">
-        <v>-0.0152718940917997</v>
+        <v>-0.02027051391874488</v>
       </c>
     </row>
     <row r="745">
@@ -6400,7 +6400,7 @@
         <v>43804</v>
       </c>
       <c r="B745" t="n">
-        <v>-0.06097640815930933</v>
+        <v>-0.05554852612554811</v>
       </c>
     </row>
     <row r="746">
@@ -6408,7 +6408,7 @@
         <v>43805</v>
       </c>
       <c r="B746" t="n">
-        <v>0.004711241529139151</v>
+        <v>0.02203384914171052</v>
       </c>
     </row>
     <row r="747">
@@ -6424,7 +6424,7 @@
         <v>43809</v>
       </c>
       <c r="B748" t="n">
-        <v>0.04098299973955367</v>
+        <v>0.03467401186234425</v>
       </c>
     </row>
     <row r="749">
@@ -6432,7 +6432,7 @@
         <v>43810</v>
       </c>
       <c r="B749" t="n">
-        <v>0.02865850509175475</v>
+        <v>-0.002512964759510541</v>
       </c>
     </row>
     <row r="750">
@@ -6440,7 +6440,7 @@
         <v>43811</v>
       </c>
       <c r="B750" t="n">
-        <v>0.043233292274607</v>
+        <v>0.06707862466945516</v>
       </c>
     </row>
     <row r="751">
@@ -6456,7 +6456,7 @@
         <v>43813</v>
       </c>
       <c r="B752" t="n">
-        <v>0.1798073332547865</v>
+        <v>0.2187020805049443</v>
       </c>
     </row>
     <row r="753">
@@ -6464,7 +6464,7 @@
         <v>43816</v>
       </c>
       <c r="B753" t="n">
-        <v>-0.01240361616827431</v>
+        <v>-0.002169456750329007</v>
       </c>
     </row>
     <row r="754">
@@ -6480,7 +6480,7 @@
         <v>43818</v>
       </c>
       <c r="B755" t="n">
-        <v>-0.07642233464864784</v>
+        <v>-0.05574522273779667</v>
       </c>
     </row>
     <row r="756">
@@ -6488,7 +6488,7 @@
         <v>43819</v>
       </c>
       <c r="B756" t="n">
-        <v>-0.008508930141660351</v>
+        <v>-0.01514097743168267</v>
       </c>
     </row>
     <row r="757">
@@ -6496,7 +6496,7 @@
         <v>43820</v>
       </c>
       <c r="B757" t="n">
-        <v>-0.03573022945790734</v>
+        <v>-0.01100536354657163</v>
       </c>
     </row>
     <row r="758">
@@ -6504,7 +6504,7 @@
         <v>43823</v>
       </c>
       <c r="B758" t="n">
-        <v>0.02163415491421514</v>
+        <v>-0.06009657747892207</v>
       </c>
     </row>
     <row r="759">
@@ -6512,7 +6512,7 @@
         <v>43827</v>
       </c>
       <c r="B759" t="n">
-        <v>-0.001969638950332053</v>
+        <v>-0.01602640459891893</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/D1_riskprem_exante.xlsx
+++ b/datasets/D1_riskprem_exante.xlsx
@@ -456,7 +456,7 @@
         <v>42738</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.001750349204123461</v>
+        <v>-0.09492031661173861</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>42739</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.04904532961425123</v>
+        <v>-0.08074381862710953</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>42740</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06560829995004193</v>
+        <v>0.05720941679772636</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>42741</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1262852159067602</v>
+        <v>0.1208442245255682</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>42742</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.002302897652803566</v>
+        <v>0.009717549363427716</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>42745</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00910684561297543</v>
+        <v>0.004208268692524092</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>42746</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.05279335436244473</v>
+        <v>-0.08562985141121325</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>42747</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.05855205781599937</v>
+        <v>-0.06673856166107756</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>42748</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01116497702144703</v>
+        <v>-0.001318541213385654</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         <v>42752</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01508633666585728</v>
+        <v>0.006049959781591491</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>42753</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.03737962010841463</v>
+        <v>-0.02737836940824235</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>42754</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.02477527463505119</v>
+        <v>-0.004598211351638459</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>42755</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.02314318955180369</v>
+        <v>-0.0306001117689655</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>42756</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0416707411192345</v>
+        <v>-0.003337570764003882</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>42759</v>
       </c>
       <c r="B17" t="n">
-        <v>0.131396844868512</v>
+        <v>0.04731489355587942</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>42760</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04648392630814038</v>
+        <v>0.003138438236205571</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>42761</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01039573113100959</v>
+        <v>0.01988301499139465</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>42762</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04614587092236634</v>
+        <v>0.05751702169326162</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>42763</v>
       </c>
       <c r="B21" t="n">
-        <v>0.008890958438137898</v>
+        <v>0.02769016884381749</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>42766</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1105029461983345</v>
+        <v>0.1007694542396241</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>42767</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02244881678456296</v>
+        <v>-0.0402485163201508</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>42768</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.03849337387626579</v>
+        <v>-0.01759105591705418</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>42769</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05808245716605493</v>
+        <v>0.0410851486172027</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>42770</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02815210448304203</v>
+        <v>0.01129715195053308</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>42773</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.02384811201442067</v>
+        <v>-0.04953631959298855</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>42774</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01924118253931948</v>
+        <v>-0.05980201120862774</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>42775</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.01060467157174329</v>
+        <v>0.01244280696069527</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>42776</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.05265480348491897</v>
+        <v>0.01050154294941977</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>42777</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.006635583901591355</v>
+        <v>0.002395001699303306</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>42780</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.006787011919639286</v>
+        <v>-0.001299647344609669</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>42781</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.002030787235425676</v>
+        <v>0.02233576466859256</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>42782</v>
       </c>
       <c r="B34" t="n">
-        <v>0.005844733062245672</v>
+        <v>-0.00887494595817747</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>42783</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03567665379418562</v>
+        <v>0.01740000696252352</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>42784</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.01015431003649685</v>
+        <v>-0.02443093056481664</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>42787</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07572768138183765</v>
+        <v>0.07409779095550163</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>42788</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.03854062635580068</v>
+        <v>0.03088641813054188</v>
       </c>
     </row>
     <row r="39">
@@ -760,7 +760,7 @@
         <v>42790</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01319503191148475</v>
+        <v>0.04813279163257043</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>42791</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.001088444091378768</v>
+        <v>-0.05103402188680985</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>42794</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.02650861099126073</v>
+        <v>-0.01577157361248784</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>42795</v>
       </c>
       <c r="B43" t="n">
-        <v>0.002538781396335434</v>
+        <v>-0.01586941656715656</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>42796</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03561860350038019</v>
+        <v>0.00109798338370087</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>42797</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.005814162230272325</v>
+        <v>-0.00713096466440434</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>42798</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.00959690475949812</v>
+        <v>0.0056400659365096</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>42801</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01649189022602053</v>
+        <v>0.02583894209016781</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>42802</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.05147368803077886</v>
+        <v>-0.04345797271836298</v>
       </c>
     </row>
     <row r="49">
@@ -840,7 +840,7 @@
         <v>42804</v>
       </c>
       <c r="B50" t="n">
-        <v>0.00772536352618593</v>
+        <v>-0.003992373259002237</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>42805</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.001161992832636161</v>
+        <v>0.02087119850193804</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>42808</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.0007961260051001613</v>
+        <v>-0.009707322810002755</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>42809</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0321080480343984</v>
+        <v>0.01965425559959424</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>42810</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01519873384121995</v>
+        <v>0.01667003635403323</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>42811</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.01304611755667021</v>
+        <v>0.01270050546359056</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>42812</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.2214269357361522</v>
+        <v>-0.2092617316070296</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>42815</v>
       </c>
       <c r="B57" t="n">
-        <v>0.05668524538247703</v>
+        <v>0.06371809227354175</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>42816</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0001325863729237252</v>
+        <v>0.02716319681543518</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>42817</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.006956949806275145</v>
+        <v>-0.01262338661194535</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>42818</v>
       </c>
       <c r="B60" t="n">
-        <v>0.00902580650078116</v>
+        <v>0.003125070790250194</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>42819</v>
       </c>
       <c r="B61" t="n">
-        <v>0.02665952181996298</v>
+        <v>-0.001858798230591543</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>42823</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.03359360350371761</v>
+        <v>-0.02366477066300236</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>42824</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.01588276101504783</v>
+        <v>-0.008393284310443935</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>42825</v>
       </c>
       <c r="B65" t="n">
-        <v>0.002705483805795937</v>
+        <v>-0.002107502516471838</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>42826</v>
       </c>
       <c r="B66" t="n">
-        <v>0.08538758048004734</v>
+        <v>0.08881692512611389</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>42829</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01132938143146099</v>
+        <v>-0.001804766379337199</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>42830</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.03319187077948652</v>
+        <v>-0.05677255685803555</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>42831</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02458337942708785</v>
+        <v>0.01768382805047449</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>42832</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03338779892902934</v>
+        <v>0.02053071900456245</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>42833</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04137583988619398</v>
+        <v>0.04449373162238024</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>42836</v>
       </c>
       <c r="B72" t="n">
-        <v>0.06855676262124857</v>
+        <v>0.04554169388786786</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>42837</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03282927630052798</v>
+        <v>0.02570631577431746</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>42838</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03449455629726715</v>
+        <v>0.03098779508947976</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>42839</v>
       </c>
       <c r="B75" t="n">
-        <v>0.05712125803505368</v>
+        <v>0.02751489660738326</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>42844</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02288789815570194</v>
+        <v>0.02843952853917918</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>42845</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01976327769455032</v>
+        <v>0.01582596774206175</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>42846</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01924356236365369</v>
+        <v>0.02773725871668414</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>42847</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.04355629134842354</v>
+        <v>-0.09769461447964485</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>42850</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01192049482193674</v>
+        <v>0.01738295363339127</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>42851</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01967592182447171</v>
+        <v>0.03215665526173574</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>42852</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.02089183517478744</v>
+        <v>-0.005288517807054932</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>42853</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.001167939917483153</v>
+        <v>-0.02623770100277757</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>42854</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.001023168143986722</v>
+        <v>0.01496046116570949</v>
       </c>
     </row>
     <row r="85">
@@ -1128,7 +1128,7 @@
         <v>42859</v>
       </c>
       <c r="B86" t="n">
-        <v>0.02040187403322456</v>
+        <v>0.004458094751455424</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>42860</v>
       </c>
       <c r="B87" t="n">
-        <v>0.002767441921956259</v>
+        <v>-0.002660257357729643</v>
       </c>
     </row>
     <row r="88">
@@ -1152,7 +1152,7 @@
         <v>42864</v>
       </c>
       <c r="B89" t="n">
-        <v>0.02114311562292998</v>
+        <v>0.004232465300512067</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>42865</v>
       </c>
       <c r="B90" t="n">
-        <v>0.006162602997216457</v>
+        <v>0.007495268696550443</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>42866</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.01064985259187629</v>
+        <v>0.0002370816299462137</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>42867</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02813172925090643</v>
+        <v>0.002503812246118401</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>42868</v>
       </c>
       <c r="B93" t="n">
-        <v>0.09369716717716411</v>
+        <v>0.06055482877785611</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>42871</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.0109981313970829</v>
+        <v>0.01019476578726532</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>42872</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.03158897021267986</v>
+        <v>-0.02864547164189769</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>42873</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.01109532301244415</v>
+        <v>-0.02972461049101668</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>42874</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02062366707847072</v>
+        <v>0.03882200883915672</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42875</v>
       </c>
       <c r="B98" t="n">
-        <v>0.02599825326639518</v>
+        <v>0.03967822997661374</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42878</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.03141724512334008</v>
+        <v>-0.0328607365613082</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42879</v>
       </c>
       <c r="B100" t="n">
-        <v>0.05009765998782213</v>
+        <v>0.03326917184699164</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42880</v>
       </c>
       <c r="B101" t="n">
-        <v>0.06224298329661495</v>
+        <v>0.05778913431004627</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42881</v>
       </c>
       <c r="B102" t="n">
-        <v>0.05852153858814915</v>
+        <v>0.06683018488789914</v>
       </c>
     </row>
     <row r="103">
@@ -1272,7 +1272,7 @@
         <v>42885</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01750274811912012</v>
+        <v>-0.01076121710641099</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42886</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01596348851135438</v>
+        <v>0.03124113495513414</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42887</v>
       </c>
       <c r="B106" t="n">
-        <v>0.07228080482647103</v>
+        <v>0.05644847079547624</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42888</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.01662159377114407</v>
+        <v>-0.007034339114316742</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42889</v>
       </c>
       <c r="B108" t="n">
-        <v>0.02639236458360099</v>
+        <v>0.0229710567016556</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>42892</v>
       </c>
       <c r="B109" t="n">
-        <v>0.02593795911226973</v>
+        <v>0.03526466783147218</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>42893</v>
       </c>
       <c r="B110" t="n">
-        <v>0.05315489159407896</v>
+        <v>-0.04422586893003105</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>42894</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1289240435010934</v>
+        <v>0.1104170919682886</v>
       </c>
     </row>
     <row r="112">
@@ -1344,7 +1344,7 @@
         <v>42896</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.002890647245643969</v>
+        <v>0.005631654914649673</v>
       </c>
     </row>
     <row r="114">
@@ -1352,7 +1352,7 @@
         <v>42899</v>
       </c>
       <c r="B114" t="n">
-        <v>0.07288081593091657</v>
+        <v>0.06946943018868797</v>
       </c>
     </row>
     <row r="115">
@@ -1360,7 +1360,7 @@
         <v>42900</v>
       </c>
       <c r="B115" t="n">
-        <v>0.05487434847278589</v>
+        <v>0.04788842563521777</v>
       </c>
     </row>
     <row r="116">
@@ -1368,7 +1368,7 @@
         <v>42901</v>
       </c>
       <c r="B116" t="n">
-        <v>0.05221203170395076</v>
+        <v>0.04741471241046775</v>
       </c>
     </row>
     <row r="117">
@@ -1376,7 +1376,7 @@
         <v>42902</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.2012879559288255</v>
+        <v>-0.2134422696429521</v>
       </c>
     </row>
     <row r="118">
@@ -1384,7 +1384,7 @@
         <v>42903</v>
       </c>
       <c r="B118" t="n">
-        <v>0.06066565574082085</v>
+        <v>0.04138082563644233</v>
       </c>
     </row>
     <row r="119">
@@ -1392,7 +1392,7 @@
         <v>42906</v>
       </c>
       <c r="B119" t="n">
-        <v>0.009155809184018151</v>
+        <v>0.005008593529837293</v>
       </c>
     </row>
     <row r="120">
@@ -1400,7 +1400,7 @@
         <v>42907</v>
       </c>
       <c r="B120" t="n">
-        <v>0.02520758269580126</v>
+        <v>0.01871892710911897</v>
       </c>
     </row>
     <row r="121">
@@ -1408,7 +1408,7 @@
         <v>42908</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0007661184550810459</v>
+        <v>0.007715883166574664</v>
       </c>
     </row>
     <row r="122">
@@ -1416,7 +1416,7 @@
         <v>42909</v>
       </c>
       <c r="B122" t="n">
-        <v>0.06690676268903653</v>
+        <v>0.07206921476656408</v>
       </c>
     </row>
     <row r="123">
@@ -1424,7 +1424,7 @@
         <v>42910</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.0852563894512937</v>
+        <v>-0.07509257155630807</v>
       </c>
     </row>
     <row r="124">
@@ -1640,7 +1640,7 @@
         <v>42949</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.03002619568686731</v>
+        <v>-0.03579127030388432</v>
       </c>
     </row>
     <row r="151">
@@ -1648,7 +1648,7 @@
         <v>42950</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.0455823575135144</v>
+        <v>-0.04903413922232621</v>
       </c>
     </row>
     <row r="152">
@@ -1848,7 +1848,7 @@
         <v>42985</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.0108244867443515</v>
+        <v>-0.0243748362410043</v>
       </c>
     </row>
     <row r="177">
@@ -1864,7 +1864,7 @@
         <v>42987</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.004707084740207841</v>
+        <v>-0.01836462045560803</v>
       </c>
     </row>
     <row r="179">
@@ -1888,7 +1888,7 @@
         <v>42992</v>
       </c>
       <c r="B181" t="n">
-        <v>0.009715793277890336</v>
+        <v>-0.001629327994894949</v>
       </c>
     </row>
     <row r="182">
@@ -1896,7 +1896,7 @@
         <v>42993</v>
       </c>
       <c r="B182" t="n">
-        <v>0.05628056316281078</v>
+        <v>0.05172762970090215</v>
       </c>
     </row>
     <row r="183">
@@ -1952,7 +1952,7 @@
         <v>43004</v>
       </c>
       <c r="B189" t="n">
-        <v>0.01001648572985599</v>
+        <v>0.00751024134839247</v>
       </c>
     </row>
     <row r="190">
@@ -1984,7 +1984,7 @@
         <v>43008</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.008327076960099782</v>
+        <v>0.01323103006250674</v>
       </c>
     </row>
     <row r="194">
@@ -1992,7 +1992,7 @@
         <v>43011</v>
       </c>
       <c r="B194" t="n">
-        <v>0.09538880464821278</v>
+        <v>0.02070320433128918</v>
       </c>
     </row>
     <row r="195">
@@ -2000,7 +2000,7 @@
         <v>43012</v>
       </c>
       <c r="B195" t="n">
-        <v>0.05205964235863594</v>
+        <v>-0.01197877065449842</v>
       </c>
     </row>
     <row r="196">
@@ -2008,7 +2008,7 @@
         <v>43013</v>
       </c>
       <c r="B196" t="n">
-        <v>0.004192548447134373</v>
+        <v>0.006641798565298149</v>
       </c>
     </row>
     <row r="197">
@@ -2032,7 +2032,7 @@
         <v>43018</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.001366360427722404</v>
+        <v>-0.02015785364548039</v>
       </c>
     </row>
     <row r="200">
@@ -2040,7 +2040,7 @@
         <v>43019</v>
       </c>
       <c r="B200" t="n">
-        <v>0.04321353841564646</v>
+        <v>0.01160100694850567</v>
       </c>
     </row>
     <row r="201">
@@ -2048,7 +2048,7 @@
         <v>43020</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.04493344560666539</v>
+        <v>-0.04131576926426634</v>
       </c>
     </row>
     <row r="202">
@@ -2072,7 +2072,7 @@
         <v>43025</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0004077244108638779</v>
+        <v>-0.006173905354997069</v>
       </c>
     </row>
     <row r="205">
@@ -2080,7 +2080,7 @@
         <v>43026</v>
       </c>
       <c r="B205" t="n">
-        <v>0.08225170474289276</v>
+        <v>0.03330564774447047</v>
       </c>
     </row>
     <row r="206">
@@ -2088,7 +2088,7 @@
         <v>43027</v>
       </c>
       <c r="B206" t="n">
-        <v>0.00336332132313384</v>
+        <v>0.01645066899256605</v>
       </c>
     </row>
     <row r="207">
@@ -2096,7 +2096,7 @@
         <v>43028</v>
       </c>
       <c r="B207" t="n">
-        <v>0.003319040776709694</v>
+        <v>-0.008656915943436783</v>
       </c>
     </row>
     <row r="208">
@@ -2112,7 +2112,7 @@
         <v>43032</v>
       </c>
       <c r="B209" t="n">
-        <v>0.02810575025905628</v>
+        <v>0.02566948070867934</v>
       </c>
     </row>
     <row r="210">
@@ -2120,7 +2120,7 @@
         <v>43033</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.06000644067533167</v>
+        <v>-0.09588405744344879</v>
       </c>
     </row>
     <row r="211">
@@ -2136,7 +2136,7 @@
         <v>43035</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.002696327211013236</v>
+        <v>0.0005259786784504176</v>
       </c>
     </row>
     <row r="213">
@@ -2152,7 +2152,7 @@
         <v>43039</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0816126119914824</v>
+        <v>0.07579749042163562</v>
       </c>
     </row>
     <row r="215">
@@ -2160,7 +2160,7 @@
         <v>43040</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.01169559814257847</v>
+        <v>0.01422714026679655</v>
       </c>
     </row>
     <row r="216">
@@ -2176,7 +2176,7 @@
         <v>43042</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0192570529430628</v>
+        <v>0.02432798355471983</v>
       </c>
     </row>
     <row r="218">
@@ -2184,7 +2184,7 @@
         <v>43043</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.04627435038158513</v>
+        <v>-0.03245223951755014</v>
       </c>
     </row>
     <row r="219">
@@ -2192,7 +2192,7 @@
         <v>43046</v>
       </c>
       <c r="B219" t="n">
-        <v>0.02536095800872576</v>
+        <v>0.03036271877950003</v>
       </c>
     </row>
     <row r="220">
@@ -2200,7 +2200,7 @@
         <v>43047</v>
       </c>
       <c r="B220" t="n">
-        <v>0.1157025531697239</v>
+        <v>0.1377520107422481</v>
       </c>
     </row>
     <row r="221">
@@ -2208,7 +2208,7 @@
         <v>43048</v>
       </c>
       <c r="B221" t="n">
-        <v>0.008319675062545369</v>
+        <v>0.03315513503945535</v>
       </c>
     </row>
     <row r="222">
@@ -2216,7 +2216,7 @@
         <v>43049</v>
       </c>
       <c r="B222" t="n">
-        <v>0.09160976665031141</v>
+        <v>0.05802177383030183</v>
       </c>
     </row>
     <row r="223">
@@ -2224,7 +2224,7 @@
         <v>43050</v>
       </c>
       <c r="B223" t="n">
-        <v>0.09994013085012926</v>
+        <v>0.05594252561612409</v>
       </c>
     </row>
     <row r="224">
@@ -2240,7 +2240,7 @@
         <v>43054</v>
       </c>
       <c r="B225" t="n">
-        <v>0.07861766963831733</v>
+        <v>0.09272266993358755</v>
       </c>
     </row>
     <row r="226">
@@ -2248,7 +2248,7 @@
         <v>43055</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.09194376502095719</v>
+        <v>-0.02468034020769476</v>
       </c>
     </row>
     <row r="227">
@@ -2256,7 +2256,7 @@
         <v>43056</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.0281380858120159</v>
+        <v>0.0855125898000848</v>
       </c>
     </row>
     <row r="228">
@@ -2264,7 +2264,7 @@
         <v>43057</v>
       </c>
       <c r="B228" t="n">
-        <v>0.00682286219426425</v>
+        <v>-0.02250207553954934</v>
       </c>
     </row>
     <row r="229">
@@ -2272,7 +2272,7 @@
         <v>43060</v>
       </c>
       <c r="B229" t="n">
-        <v>0.05336968824726575</v>
+        <v>0.04272959038618226</v>
       </c>
     </row>
     <row r="230">
@@ -2280,7 +2280,7 @@
         <v>43061</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.008851881844709268</v>
+        <v>-0.03016689513837131</v>
       </c>
     </row>
     <row r="231">
@@ -2288,7 +2288,7 @@
         <v>43062</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.01680937173546402</v>
+        <v>-0.03647318430075474</v>
       </c>
     </row>
     <row r="232">
@@ -2296,7 +2296,7 @@
         <v>43063</v>
       </c>
       <c r="B232" t="n">
-        <v>0.07445698436151658</v>
+        <v>0.0615892360458098</v>
       </c>
     </row>
     <row r="233">
@@ -2304,7 +2304,7 @@
         <v>43064</v>
       </c>
       <c r="B233" t="n">
-        <v>0.02779059574659595</v>
+        <v>0.02124415883101254</v>
       </c>
     </row>
     <row r="234">
@@ -2312,7 +2312,7 @@
         <v>43067</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.0298273498176834</v>
+        <v>-0.01183739339046156</v>
       </c>
     </row>
     <row r="235">
@@ -2328,7 +2328,7 @@
         <v>43069</v>
       </c>
       <c r="B236" t="n">
-        <v>0.009492502386338831</v>
+        <v>-0.01446155699232006</v>
       </c>
     </row>
     <row r="237">
@@ -2336,7 +2336,7 @@
         <v>43070</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.01478353672695074</v>
+        <v>-0.03351388773974635</v>
       </c>
     </row>
     <row r="238">
@@ -2344,7 +2344,7 @@
         <v>43071</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.04217354419232371</v>
+        <v>-0.0249670809143415</v>
       </c>
     </row>
     <row r="239">
@@ -2352,7 +2352,7 @@
         <v>43074</v>
       </c>
       <c r="B239" t="n">
-        <v>0.04231867388355864</v>
+        <v>0.02487400988550741</v>
       </c>
     </row>
     <row r="240">
@@ -2360,7 +2360,7 @@
         <v>43075</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.01267598357729424</v>
+        <v>-0.01916087038466831</v>
       </c>
     </row>
     <row r="241">
@@ -2368,7 +2368,7 @@
         <v>43076</v>
       </c>
       <c r="B241" t="n">
-        <v>0.0152475536622765</v>
+        <v>-0.03468265389488464</v>
       </c>
     </row>
     <row r="242">
@@ -2376,7 +2376,7 @@
         <v>43077</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.05336678107199955</v>
+        <v>-0.04640624269752896</v>
       </c>
     </row>
     <row r="243">
@@ -2392,7 +2392,7 @@
         <v>43081</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.08327128023586353</v>
+        <v>-0.07686058988786258</v>
       </c>
     </row>
     <row r="245">
@@ -2400,7 +2400,7 @@
         <v>43082</v>
       </c>
       <c r="B245" t="n">
-        <v>0.01097168514137951</v>
+        <v>-0.01348730724107322</v>
       </c>
     </row>
     <row r="246">
@@ -2408,7 +2408,7 @@
         <v>43083</v>
       </c>
       <c r="B246" t="n">
-        <v>0.03439597295714589</v>
+        <v>0.02618648110827966</v>
       </c>
     </row>
     <row r="247">
@@ -2416,7 +2416,7 @@
         <v>43084</v>
       </c>
       <c r="B247" t="n">
-        <v>0.0841233816746482</v>
+        <v>0.08954399858302144</v>
       </c>
     </row>
     <row r="248">
@@ -2448,7 +2448,7 @@
         <v>43090</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.01159049780371631</v>
+        <v>-0.01699164262446103</v>
       </c>
     </row>
     <row r="252">
@@ -2456,7 +2456,7 @@
         <v>43091</v>
       </c>
       <c r="B252" t="n">
-        <v>0.1109813116579363</v>
+        <v>0.1206420187158315</v>
       </c>
     </row>
     <row r="253">
@@ -2464,7 +2464,7 @@
         <v>43092</v>
       </c>
       <c r="B253" t="n">
-        <v>0.07646964317576882</v>
+        <v>-0.003268848911325165</v>
       </c>
     </row>
     <row r="254">
@@ -2472,7 +2472,7 @@
         <v>43097</v>
       </c>
       <c r="B254" t="n">
-        <v>0.1067873119340093</v>
+        <v>0.1225985592473523</v>
       </c>
     </row>
     <row r="255">
@@ -2480,7 +2480,7 @@
         <v>43098</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.05056200339598833</v>
+        <v>-0.02026079073841349</v>
       </c>
     </row>
     <row r="256">
@@ -2496,7 +2496,7 @@
         <v>43103</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.44873558287892</v>
+        <v>-0.4111493726206645</v>
       </c>
     </row>
     <row r="258">
@@ -2504,7 +2504,7 @@
         <v>43104</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.0489461360491833</v>
+        <v>-0.0683553985787918</v>
       </c>
     </row>
     <row r="259">
@@ -2512,7 +2512,7 @@
         <v>43105</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.05212082544670314</v>
+        <v>-0.01104606121606026</v>
       </c>
     </row>
     <row r="260">
@@ -2520,7 +2520,7 @@
         <v>43106</v>
       </c>
       <c r="B260" t="n">
-        <v>0.09379933911929823</v>
+        <v>0.1209447241777334</v>
       </c>
     </row>
     <row r="261">
@@ -2528,7 +2528,7 @@
         <v>43109</v>
       </c>
       <c r="B261" t="n">
-        <v>0.002730456748684667</v>
+        <v>0.0260497696963285</v>
       </c>
     </row>
     <row r="262">
@@ -2536,7 +2536,7 @@
         <v>43110</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.01530962881412476</v>
+        <v>-0.01301965120671572</v>
       </c>
     </row>
     <row r="263">
@@ -2544,7 +2544,7 @@
         <v>43111</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.01318364938437352</v>
+        <v>0.002480102212699912</v>
       </c>
     </row>
     <row r="264">
@@ -2560,7 +2560,7 @@
         <v>43113</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.003049896949839051</v>
+        <v>0.004020671156899679</v>
       </c>
     </row>
     <row r="266">
@@ -2568,7 +2568,7 @@
         <v>43116</v>
       </c>
       <c r="B266" t="n">
-        <v>0.05853263532909526</v>
+        <v>0.04835443691246935</v>
       </c>
     </row>
     <row r="267">
@@ -2576,7 +2576,7 @@
         <v>43117</v>
       </c>
       <c r="B267" t="n">
-        <v>0.002473958566050442</v>
+        <v>0.01134540952681195</v>
       </c>
     </row>
     <row r="268">
@@ -2584,7 +2584,7 @@
         <v>43118</v>
       </c>
       <c r="B268" t="n">
-        <v>0.05243923885802141</v>
+        <v>0.06794161717180566</v>
       </c>
     </row>
     <row r="269">
@@ -2608,7 +2608,7 @@
         <v>43123</v>
       </c>
       <c r="B271" t="n">
-        <v>0.02171683931676909</v>
+        <v>-0.00552894306501142</v>
       </c>
     </row>
     <row r="272">
@@ -2616,7 +2616,7 @@
         <v>43124</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.0633633788484487</v>
+        <v>-0.08247841193317423</v>
       </c>
     </row>
     <row r="273">
@@ -2632,7 +2632,7 @@
         <v>43126</v>
       </c>
       <c r="B274" t="n">
-        <v>0.07319602975144394</v>
+        <v>0.04852485665370961</v>
       </c>
     </row>
     <row r="275">
@@ -2640,7 +2640,7 @@
         <v>43127</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.02491363799516274</v>
+        <v>-0.01705003830157535</v>
       </c>
     </row>
     <row r="276">
@@ -2648,7 +2648,7 @@
         <v>43130</v>
       </c>
       <c r="B276" t="n">
-        <v>0.181443281262551</v>
+        <v>0.1559445054079635</v>
       </c>
     </row>
     <row r="277">
@@ -2656,7 +2656,7 @@
         <v>43131</v>
       </c>
       <c r="B277" t="n">
-        <v>0.03370146902881822</v>
+        <v>0.01754988357524294</v>
       </c>
     </row>
     <row r="278">
@@ -2664,7 +2664,7 @@
         <v>43132</v>
       </c>
       <c r="B278" t="n">
-        <v>0.09045784370323146</v>
+        <v>0.05838555418254818</v>
       </c>
     </row>
     <row r="279">
@@ -2680,7 +2680,7 @@
         <v>43134</v>
       </c>
       <c r="B280" t="n">
-        <v>0.007846400811350152</v>
+        <v>0.0143908579594758</v>
       </c>
     </row>
     <row r="281">
@@ -2704,7 +2704,7 @@
         <v>43139</v>
       </c>
       <c r="B283" t="n">
-        <v>0.009755719655406128</v>
+        <v>0.01498761457590046</v>
       </c>
     </row>
     <row r="284">
@@ -2712,7 +2712,7 @@
         <v>43140</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.03092188716815677</v>
+        <v>-0.04137956464475946</v>
       </c>
     </row>
     <row r="285">
@@ -2720,7 +2720,7 @@
         <v>43141</v>
       </c>
       <c r="B285" t="n">
-        <v>0.02648530016918933</v>
+        <v>0.01981981120705173</v>
       </c>
     </row>
     <row r="286">
@@ -2728,7 +2728,7 @@
         <v>43144</v>
       </c>
       <c r="B286" t="n">
-        <v>0.03580680283423339</v>
+        <v>0.04875438786966131</v>
       </c>
     </row>
     <row r="287">
@@ -2736,7 +2736,7 @@
         <v>43145</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.01067447428318909</v>
+        <v>-0.02304104335464923</v>
       </c>
     </row>
     <row r="288">
@@ -2744,7 +2744,7 @@
         <v>43146</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.02528965249426288</v>
+        <v>-0.03941588941463588</v>
       </c>
     </row>
     <row r="289">
@@ -2752,7 +2752,7 @@
         <v>43147</v>
       </c>
       <c r="B289" t="n">
-        <v>0.02225331730027649</v>
+        <v>0.01826014027957232</v>
       </c>
     </row>
     <row r="290">
@@ -2760,7 +2760,7 @@
         <v>43148</v>
       </c>
       <c r="B290" t="n">
-        <v>0.03987153167679202</v>
+        <v>0.05295167672933029</v>
       </c>
     </row>
     <row r="291">
@@ -2768,7 +2768,7 @@
         <v>43151</v>
       </c>
       <c r="B291" t="n">
-        <v>0.0615918309376445</v>
+        <v>0.01848150277774015</v>
       </c>
     </row>
     <row r="292">
@@ -2776,7 +2776,7 @@
         <v>43152</v>
       </c>
       <c r="B292" t="n">
-        <v>0.005753192731144057</v>
+        <v>0.03002635478026923</v>
       </c>
     </row>
     <row r="293">
@@ -2784,7 +2784,7 @@
         <v>43153</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.01057972502498173</v>
+        <v>-0.02465244228392632</v>
       </c>
     </row>
     <row r="294">
@@ -2792,7 +2792,7 @@
         <v>43154</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.01689181313215643</v>
+        <v>-0.04928969656302861</v>
       </c>
     </row>
     <row r="295">
@@ -2800,7 +2800,7 @@
         <v>43155</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.174099774832006</v>
+        <v>-0.2238528004445358</v>
       </c>
     </row>
     <row r="296">
@@ -2808,7 +2808,7 @@
         <v>43158</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.02711399455612195</v>
+        <v>-0.01081935210041165</v>
       </c>
     </row>
     <row r="297">
@@ -2816,7 +2816,7 @@
         <v>43159</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.06744834228701102</v>
+        <v>-0.08082261638719741</v>
       </c>
     </row>
     <row r="298">
@@ -2824,7 +2824,7 @@
         <v>43160</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.06396169362018994</v>
+        <v>-0.04676037711703872</v>
       </c>
     </row>
     <row r="299">
@@ -2832,7 +2832,7 @@
         <v>43161</v>
       </c>
       <c r="B299" t="n">
-        <v>0.07056253967829879</v>
+        <v>0.04649071925949673</v>
       </c>
     </row>
     <row r="300">
@@ -2840,7 +2840,7 @@
         <v>43162</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.07033769050102154</v>
+        <v>-0.05666618594956597</v>
       </c>
     </row>
     <row r="301">
@@ -2848,7 +2848,7 @@
         <v>43165</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.1446849154413766</v>
+        <v>-0.08008132926726783</v>
       </c>
     </row>
     <row r="302">
@@ -2856,7 +2856,7 @@
         <v>43166</v>
       </c>
       <c r="B302" t="n">
-        <v>0.009980665588866757</v>
+        <v>-0.01552389667347836</v>
       </c>
     </row>
     <row r="303">
@@ -2864,7 +2864,7 @@
         <v>43167</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.07458572307934726</v>
+        <v>-0.1067181632502033</v>
       </c>
     </row>
     <row r="304">
@@ -2872,7 +2872,7 @@
         <v>43168</v>
       </c>
       <c r="B304" t="n">
-        <v>0.05386158597022937</v>
+        <v>0.05951231833468108</v>
       </c>
     </row>
     <row r="305">
@@ -2880,7 +2880,7 @@
         <v>43169</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.04662242818165815</v>
+        <v>-0.07487065253183124</v>
       </c>
     </row>
     <row r="306">
@@ -2888,7 +2888,7 @@
         <v>43172</v>
       </c>
       <c r="B306" t="n">
-        <v>0.005057484479928861</v>
+        <v>-0.03259970809102462</v>
       </c>
     </row>
     <row r="307">
@@ -2896,7 +2896,7 @@
         <v>43173</v>
       </c>
       <c r="B307" t="n">
-        <v>0.03199248556966622</v>
+        <v>0.03751116196308689</v>
       </c>
     </row>
     <row r="308">
@@ -2904,7 +2904,7 @@
         <v>43174</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.1011701235421703</v>
+        <v>-0.09314485678808257</v>
       </c>
     </row>
     <row r="309">
@@ -2912,7 +2912,7 @@
         <v>43175</v>
       </c>
       <c r="B309" t="n">
-        <v>0.004070973996002718</v>
+        <v>0.01381923587945906</v>
       </c>
     </row>
     <row r="310">
@@ -2920,7 +2920,7 @@
         <v>43176</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.5851538354721896</v>
+        <v>-0.5952720346070142</v>
       </c>
     </row>
     <row r="311">
@@ -2928,7 +2928,7 @@
         <v>43179</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.07926917806719197</v>
+        <v>-0.09010130538404854</v>
       </c>
     </row>
     <row r="312">
@@ -2936,7 +2936,7 @@
         <v>43180</v>
       </c>
       <c r="B312" t="n">
-        <v>0.03505529760252352</v>
+        <v>0.03913835597570893</v>
       </c>
     </row>
     <row r="313">
@@ -2944,7 +2944,7 @@
         <v>43181</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.05563436426405356</v>
+        <v>-0.04291952706320245</v>
       </c>
     </row>
     <row r="314">
@@ -2968,7 +2968,7 @@
         <v>43186</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.01395812094755475</v>
+        <v>0.007133683951962797</v>
       </c>
     </row>
     <row r="317">
@@ -2976,7 +2976,7 @@
         <v>43187</v>
       </c>
       <c r="B317" t="n">
-        <v>0.0231340786937253</v>
+        <v>0.02569832450498781</v>
       </c>
     </row>
     <row r="318">
@@ -2984,7 +2984,7 @@
         <v>43188</v>
       </c>
       <c r="B318" t="n">
-        <v>0.03321009497953634</v>
+        <v>0.02638572182907706</v>
       </c>
     </row>
     <row r="319">
@@ -2992,7 +2992,7 @@
         <v>43189</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.02147269725338682</v>
+        <v>-0.03602930175705542</v>
       </c>
     </row>
     <row r="320">
@@ -3000,7 +3000,7 @@
         <v>43194</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.0252330680757008</v>
+        <v>-0.02655032068640923</v>
       </c>
     </row>
     <row r="321">
@@ -3008,7 +3008,7 @@
         <v>43195</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.03592428742609648</v>
+        <v>-0.05389858037238962</v>
       </c>
     </row>
     <row r="322">
@@ -3016,7 +3016,7 @@
         <v>43196</v>
       </c>
       <c r="B322" t="n">
-        <v>0.04719303254746911</v>
+        <v>0.03570120228631703</v>
       </c>
     </row>
     <row r="323">
@@ -3024,7 +3024,7 @@
         <v>43197</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.2324488015109041</v>
+        <v>-0.219865994978296</v>
       </c>
     </row>
     <row r="324">
@@ -3032,7 +3032,7 @@
         <v>43200</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.0176060638213274</v>
+        <v>-0.04774925293699103</v>
       </c>
     </row>
     <row r="325">
@@ -3048,7 +3048,7 @@
         <v>43202</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.06294024785847936</v>
+        <v>-0.07446822371962278</v>
       </c>
     </row>
     <row r="327">
@@ -3056,7 +3056,7 @@
         <v>43203</v>
       </c>
       <c r="B327" t="n">
-        <v>0.07686579656156926</v>
+        <v>0.05373847744078396</v>
       </c>
     </row>
     <row r="328">
@@ -3064,7 +3064,7 @@
         <v>43204</v>
       </c>
       <c r="B328" t="n">
-        <v>0.1865666447997985</v>
+        <v>0.181115343215726</v>
       </c>
     </row>
     <row r="329">
@@ -3072,7 +3072,7 @@
         <v>43207</v>
       </c>
       <c r="B329" t="n">
-        <v>0.006263612742065438</v>
+        <v>0.004007416300939699</v>
       </c>
     </row>
     <row r="330">
@@ -3080,7 +3080,7 @@
         <v>43208</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.01127590525202707</v>
+        <v>-0.006417310191840578</v>
       </c>
     </row>
     <row r="331">
@@ -3096,7 +3096,7 @@
         <v>43210</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.007280818503490049</v>
+        <v>-0.00983608023192383</v>
       </c>
     </row>
     <row r="333">
@@ -3104,7 +3104,7 @@
         <v>43211</v>
       </c>
       <c r="B333" t="n">
-        <v>0.0243898251315522</v>
+        <v>0.003418064932008658</v>
       </c>
     </row>
     <row r="334">
@@ -3120,7 +3120,7 @@
         <v>43215</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.0428525149992535</v>
+        <v>-0.0008723621483435653</v>
       </c>
     </row>
     <row r="336">
@@ -3128,7 +3128,7 @@
         <v>43216</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.0138570422994585</v>
+        <v>-0.005967898637854165</v>
       </c>
     </row>
     <row r="337">
@@ -3144,7 +3144,7 @@
         <v>43218</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.02099492870294314</v>
+        <v>-0.01597438987577879</v>
       </c>
     </row>
     <row r="339">
@@ -3160,7 +3160,7 @@
         <v>43224</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.01535728635920938</v>
+        <v>-0.02155000782864832</v>
       </c>
     </row>
     <row r="341">
@@ -3168,7 +3168,7 @@
         <v>43225</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.03572565805801946</v>
+        <v>-0.02692753450015467</v>
       </c>
     </row>
     <row r="342">
@@ -3176,7 +3176,7 @@
         <v>43228</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.09240192111818689</v>
+        <v>-0.07143430873477868</v>
       </c>
     </row>
     <row r="343">
@@ -3192,7 +3192,7 @@
         <v>43230</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.01804974170440461</v>
+        <v>-0.0293365262825149</v>
       </c>
     </row>
     <row r="345">
@@ -3200,7 +3200,7 @@
         <v>43231</v>
       </c>
       <c r="B345" t="n">
-        <v>0.08595460917044505</v>
+        <v>0.05137006747711877</v>
       </c>
     </row>
     <row r="346">
@@ -3216,7 +3216,7 @@
         <v>43235</v>
       </c>
       <c r="B347" t="n">
-        <v>0.06036382202288904</v>
+        <v>0.0408479234580506</v>
       </c>
     </row>
     <row r="348">
@@ -3224,7 +3224,7 @@
         <v>43236</v>
       </c>
       <c r="B348" t="n">
-        <v>0.04968580204883243</v>
+        <v>0.03247783808081871</v>
       </c>
     </row>
     <row r="349">
@@ -3232,7 +3232,7 @@
         <v>43237</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.004235672602538562</v>
+        <v>-0.01388989738340042</v>
       </c>
     </row>
     <row r="350">
@@ -3240,7 +3240,7 @@
         <v>43238</v>
       </c>
       <c r="B350" t="n">
-        <v>0.04370570818559045</v>
+        <v>0.0424171826199293</v>
       </c>
     </row>
     <row r="351">
@@ -3256,7 +3256,7 @@
         <v>43242</v>
       </c>
       <c r="B352" t="n">
-        <v>0.03346690758135783</v>
+        <v>0.03213512032932007</v>
       </c>
     </row>
     <row r="353">
@@ -3288,7 +3288,7 @@
         <v>43246</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.01706373426583484</v>
+        <v>-0.009992250339689764</v>
       </c>
     </row>
     <row r="357">
@@ -3296,7 +3296,7 @@
         <v>43249</v>
       </c>
       <c r="B357" t="n">
-        <v>0.02198280924170021</v>
+        <v>0.02785627366262953</v>
       </c>
     </row>
     <row r="358">
@@ -3312,7 +3312,7 @@
         <v>43251</v>
       </c>
       <c r="B359" t="n">
-        <v>0.06016381987462113</v>
+        <v>0.07278481773027137</v>
       </c>
     </row>
     <row r="360">
@@ -3320,7 +3320,7 @@
         <v>43252</v>
       </c>
       <c r="B360" t="n">
-        <v>0.009395991029339693</v>
+        <v>0.008361773825416249</v>
       </c>
     </row>
     <row r="361">
@@ -3336,7 +3336,7 @@
         <v>43256</v>
       </c>
       <c r="B362" t="n">
-        <v>0.01939733059674931</v>
+        <v>0.00318425178010127</v>
       </c>
     </row>
     <row r="363">
@@ -3352,7 +3352,7 @@
         <v>43258</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.01746966268185961</v>
+        <v>-0.009838359091039131</v>
       </c>
     </row>
     <row r="365">
@@ -3360,7 +3360,7 @@
         <v>43259</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.01648243890872852</v>
+        <v>-0.006840109878421938</v>
       </c>
     </row>
     <row r="366">
@@ -3368,7 +3368,7 @@
         <v>43260</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.02830163002375563</v>
+        <v>-0.03061519757131815</v>
       </c>
     </row>
     <row r="367">
@@ -3376,7 +3376,7 @@
         <v>43263</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.03432415511074788</v>
+        <v>-0.01939102348874913</v>
       </c>
     </row>
     <row r="368">
@@ -3392,7 +3392,7 @@
         <v>43265</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.02279038716991488</v>
+        <v>-0.03149604073632986</v>
       </c>
     </row>
     <row r="370">
@@ -3416,7 +3416,7 @@
         <v>43270</v>
       </c>
       <c r="B372" t="n">
-        <v>0.0122193409971531</v>
+        <v>0.008961124234286759</v>
       </c>
     </row>
     <row r="373">
@@ -3432,7 +3432,7 @@
         <v>43272</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.07880604542846963</v>
+        <v>-0.1111286403257164</v>
       </c>
     </row>
     <row r="375">
@@ -3440,7 +3440,7 @@
         <v>43273</v>
       </c>
       <c r="B375" t="n">
-        <v>0.0483492817376119</v>
+        <v>0.01625695678646052</v>
       </c>
     </row>
     <row r="376">
@@ -3448,7 +3448,7 @@
         <v>43274</v>
       </c>
       <c r="B376" t="n">
-        <v>0.02502515098083448</v>
+        <v>-0.06608819577301747</v>
       </c>
     </row>
     <row r="377">
@@ -3472,7 +3472,7 @@
         <v>43279</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.02103433371250351</v>
+        <v>-0.01344545257849188</v>
       </c>
     </row>
     <row r="380">
@@ -3480,7 +3480,7 @@
         <v>43280</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.01349431577281001</v>
+        <v>-0.02341448466448014</v>
       </c>
     </row>
     <row r="381">
@@ -3512,7 +3512,7 @@
         <v>43286</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.01816488541867267</v>
+        <v>-0.02108701373587897</v>
       </c>
     </row>
     <row r="385">
@@ -3520,7 +3520,7 @@
         <v>43287</v>
       </c>
       <c r="B385" t="n">
-        <v>0.001401434352269649</v>
+        <v>-0.001864005107574677</v>
       </c>
     </row>
     <row r="386">
@@ -3528,7 +3528,7 @@
         <v>43288</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.07130995492919798</v>
+        <v>-0.04844989228130139</v>
       </c>
     </row>
     <row r="387">
@@ -3544,7 +3544,7 @@
         <v>43292</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.000441855918786958</v>
+        <v>-0.001371677448164778</v>
       </c>
     </row>
     <row r="389">
@@ -3552,7 +3552,7 @@
         <v>43293</v>
       </c>
       <c r="B389" t="n">
-        <v>0.001627189054276328</v>
+        <v>0.005385640045099182</v>
       </c>
     </row>
     <row r="390">
@@ -3560,7 +3560,7 @@
         <v>43294</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.01202920243737355</v>
+        <v>-0.01106438720537885</v>
       </c>
     </row>
     <row r="391">
@@ -3568,7 +3568,7 @@
         <v>43295</v>
       </c>
       <c r="B391" t="n">
-        <v>0.0119098778993668</v>
+        <v>0.006555857381380737</v>
       </c>
     </row>
     <row r="392">
@@ -3576,7 +3576,7 @@
         <v>43298</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.001985366492413396</v>
+        <v>0.004519384377747677</v>
       </c>
     </row>
     <row r="393">
@@ -3584,7 +3584,7 @@
         <v>43299</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.03853335938634553</v>
+        <v>-0.01712418317834915</v>
       </c>
     </row>
     <row r="394">
@@ -3592,7 +3592,7 @@
         <v>43300</v>
       </c>
       <c r="B394" t="n">
-        <v>0.003908828692240344</v>
+        <v>0.005833869590979087</v>
       </c>
     </row>
     <row r="395">
@@ -3600,7 +3600,7 @@
         <v>43301</v>
       </c>
       <c r="B395" t="n">
-        <v>0.00455498111942565</v>
+        <v>0.008324418196796907</v>
       </c>
     </row>
     <row r="396">
@@ -3608,7 +3608,7 @@
         <v>43302</v>
       </c>
       <c r="B396" t="n">
-        <v>0.03817136593835573</v>
+        <v>0.03295442440097705</v>
       </c>
     </row>
     <row r="397">
@@ -3616,7 +3616,7 @@
         <v>43305</v>
       </c>
       <c r="B397" t="n">
-        <v>0.02266434457229029</v>
+        <v>0.04076459845852552</v>
       </c>
     </row>
     <row r="398">
@@ -3624,7 +3624,7 @@
         <v>43306</v>
       </c>
       <c r="B398" t="n">
-        <v>0.005102550969177236</v>
+        <v>0.01203429269999912</v>
       </c>
     </row>
     <row r="399">
@@ -3632,7 +3632,7 @@
         <v>43307</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.03322012748520057</v>
+        <v>-0.02972047183808812</v>
       </c>
     </row>
     <row r="400">
@@ -3640,7 +3640,7 @@
         <v>43308</v>
       </c>
       <c r="B400" t="n">
-        <v>0.004056020092986432</v>
+        <v>-0.02634113472534431</v>
       </c>
     </row>
     <row r="401">
@@ -3648,7 +3648,7 @@
         <v>43309</v>
       </c>
       <c r="B401" t="n">
-        <v>0.05641047537326024</v>
+        <v>0.03937159673820765</v>
       </c>
     </row>
     <row r="402">
@@ -3656,7 +3656,7 @@
         <v>43312</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.01159363774085521</v>
+        <v>-0.01246294852560387</v>
       </c>
     </row>
     <row r="403">
@@ -3664,7 +3664,7 @@
         <v>43313</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.006061632085220653</v>
+        <v>-0.001721289867252184</v>
       </c>
     </row>
     <row r="404">
@@ -3672,7 +3672,7 @@
         <v>43314</v>
       </c>
       <c r="B404" t="n">
-        <v>0.02166963584472958</v>
+        <v>0.01734052721826886</v>
       </c>
     </row>
     <row r="405">
@@ -3680,7 +3680,7 @@
         <v>43315</v>
       </c>
       <c r="B405" t="n">
-        <v>0.04301229460986915</v>
+        <v>0.03885686714130393</v>
       </c>
     </row>
     <row r="406">
@@ -3696,7 +3696,7 @@
         <v>43319</v>
       </c>
       <c r="B407" t="n">
-        <v>0.003386808449293542</v>
+        <v>0.005766381908066547</v>
       </c>
     </row>
     <row r="408">
@@ -3704,7 +3704,7 @@
         <v>43320</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.002886096868327369</v>
+        <v>-0.01155665254773322</v>
       </c>
     </row>
     <row r="409">
@@ -3728,7 +3728,7 @@
         <v>43323</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.01520454771361869</v>
+        <v>-0.02096358544628758</v>
       </c>
     </row>
     <row r="412">
@@ -3736,7 +3736,7 @@
         <v>43326</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.003772053062149525</v>
+        <v>-0.005630687291511213</v>
       </c>
     </row>
     <row r="413">
@@ -3744,7 +3744,7 @@
         <v>43327</v>
       </c>
       <c r="B413" t="n">
-        <v>0.0408134382242047</v>
+        <v>0.03608246805045831</v>
       </c>
     </row>
     <row r="414">
@@ -3752,7 +3752,7 @@
         <v>43328</v>
       </c>
       <c r="B414" t="n">
-        <v>0.01607735670165674</v>
+        <v>0.02236052056818645</v>
       </c>
     </row>
     <row r="415">
@@ -3760,7 +3760,7 @@
         <v>43329</v>
       </c>
       <c r="B415" t="n">
-        <v>0.03004095180367562</v>
+        <v>0.009844070395760433</v>
       </c>
     </row>
     <row r="416">
@@ -3768,7 +3768,7 @@
         <v>43330</v>
       </c>
       <c r="B416" t="n">
-        <v>0.06491037978404882</v>
+        <v>0.05476837616705788</v>
       </c>
     </row>
     <row r="417">
@@ -3784,7 +3784,7 @@
         <v>43334</v>
       </c>
       <c r="B418" t="n">
-        <v>0.02273761265119382</v>
+        <v>0.007003187841175454</v>
       </c>
     </row>
     <row r="419">
@@ -3792,7 +3792,7 @@
         <v>43335</v>
       </c>
       <c r="B419" t="n">
-        <v>0.02286845725997151</v>
+        <v>0.01503038479054644</v>
       </c>
     </row>
     <row r="420">
@@ -3800,7 +3800,7 @@
         <v>43336</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.002419170767723917</v>
+        <v>-0.0119035174587828</v>
       </c>
     </row>
     <row r="421">
@@ -3808,7 +3808,7 @@
         <v>43337</v>
       </c>
       <c r="B421" t="n">
-        <v>0.01885557225850782</v>
+        <v>-1.21235240571439e-05</v>
       </c>
     </row>
     <row r="422">
@@ -3816,7 +3816,7 @@
         <v>43340</v>
       </c>
       <c r="B422" t="n">
-        <v>0.05603044861593977</v>
+        <v>0.04796914748146695</v>
       </c>
     </row>
     <row r="423">
@@ -3824,7 +3824,7 @@
         <v>43341</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.03032579048153678</v>
+        <v>-0.03183854275847657</v>
       </c>
     </row>
     <row r="424">
@@ -3832,7 +3832,7 @@
         <v>43342</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.01826764221942249</v>
+        <v>-0.0008146225255455615</v>
       </c>
     </row>
     <row r="425">
@@ -3840,7 +3840,7 @@
         <v>43343</v>
       </c>
       <c r="B425" t="n">
-        <v>0.02318627594338498</v>
+        <v>0.01534576808174985</v>
       </c>
     </row>
     <row r="426">
@@ -3848,7 +3848,7 @@
         <v>43344</v>
       </c>
       <c r="B426" t="n">
-        <v>0.01039332521121161</v>
+        <v>0.01453428146207723</v>
       </c>
     </row>
     <row r="427">
@@ -3856,7 +3856,7 @@
         <v>43347</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.00666341812481719</v>
+        <v>0.004624497578309888</v>
       </c>
     </row>
     <row r="428">
@@ -3864,7 +3864,7 @@
         <v>43348</v>
       </c>
       <c r="B428" t="n">
-        <v>0.01338407431453813</v>
+        <v>0.009602790455155521</v>
       </c>
     </row>
     <row r="429">
@@ -3872,7 +3872,7 @@
         <v>43349</v>
       </c>
       <c r="B429" t="n">
-        <v>0.002588807752046783</v>
+        <v>-0.003515233695454349</v>
       </c>
     </row>
     <row r="430">
@@ -3880,7 +3880,7 @@
         <v>43350</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.01027103131314034</v>
+        <v>-0.006312115438392905</v>
       </c>
     </row>
     <row r="431">
@@ -3888,7 +3888,7 @@
         <v>43351</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.04611242643670219</v>
+        <v>-0.05280973136643449</v>
       </c>
     </row>
     <row r="432">
@@ -3896,7 +3896,7 @@
         <v>43354</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.02220479460208721</v>
+        <v>-0.02899503908401713</v>
       </c>
     </row>
     <row r="433">
@@ -3904,7 +3904,7 @@
         <v>43355</v>
       </c>
       <c r="B433" t="n">
-        <v>0.01830051215764839</v>
+        <v>0.0222782485332642</v>
       </c>
     </row>
     <row r="434">
@@ -3912,7 +3912,7 @@
         <v>43356</v>
       </c>
       <c r="B434" t="n">
-        <v>0.006790157249928031</v>
+        <v>0.02127634656287664</v>
       </c>
     </row>
     <row r="435">
@@ -3920,7 +3920,7 @@
         <v>43357</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.007219863031946184</v>
+        <v>-0.00190681948548115</v>
       </c>
     </row>
     <row r="436">
@@ -3928,7 +3928,7 @@
         <v>43358</v>
       </c>
       <c r="B436" t="n">
-        <v>0.001925640536752786</v>
+        <v>-0.01042036261678063</v>
       </c>
     </row>
     <row r="437">
@@ -3936,7 +3936,7 @@
         <v>43361</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.04785310193757431</v>
+        <v>-0.051315454294165</v>
       </c>
     </row>
     <row r="438">
@@ -3944,7 +3944,7 @@
         <v>43362</v>
       </c>
       <c r="B438" t="n">
-        <v>0.004959517664512404</v>
+        <v>0.01757407227954812</v>
       </c>
     </row>
     <row r="439">
@@ -3952,7 +3952,7 @@
         <v>43363</v>
       </c>
       <c r="B439" t="n">
-        <v>-0.001387723714598623</v>
+        <v>-0.009886551597878634</v>
       </c>
     </row>
     <row r="440">
@@ -3960,7 +3960,7 @@
         <v>43364</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.09181550265601414</v>
+        <v>-0.1154047103792345</v>
       </c>
     </row>
     <row r="441">
@@ -3968,7 +3968,7 @@
         <v>43365</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.1052647284129909</v>
+        <v>-0.1332252056500849</v>
       </c>
     </row>
     <row r="442">
@@ -3976,7 +3976,7 @@
         <v>43368</v>
       </c>
       <c r="B442" t="n">
-        <v>0.06389531401253662</v>
+        <v>0.1101071476553314</v>
       </c>
     </row>
     <row r="443">
@@ -3984,7 +3984,7 @@
         <v>43369</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.09586277698272072</v>
+        <v>-0.05636163617128619</v>
       </c>
     </row>
     <row r="444">
@@ -3992,7 +3992,7 @@
         <v>43370</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.004912745555822917</v>
+        <v>-0.02069304716547874</v>
       </c>
     </row>
     <row r="445">
@@ -4008,7 +4008,7 @@
         <v>43372</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.004467958548284559</v>
+        <v>0.05140373765563825</v>
       </c>
     </row>
     <row r="447">
@@ -4016,7 +4016,7 @@
         <v>43375</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.05994186525114214</v>
+        <v>-0.01100174543775261</v>
       </c>
     </row>
     <row r="448">
@@ -4024,7 +4024,7 @@
         <v>43376</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.3307579614000819</v>
+        <v>-0.2792778045847036</v>
       </c>
     </row>
     <row r="449">
@@ -4032,7 +4032,7 @@
         <v>43377</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.01678673536290671</v>
+        <v>-0.03930306966757297</v>
       </c>
     </row>
     <row r="450">
@@ -4048,7 +4048,7 @@
         <v>43379</v>
       </c>
       <c r="B451" t="n">
-        <v>0.04859691047980181</v>
+        <v>0.02063432620034043</v>
       </c>
     </row>
     <row r="452">
@@ -4056,7 +4056,7 @@
         <v>43382</v>
       </c>
       <c r="B452" t="n">
-        <v>0.01448534342711761</v>
+        <v>0.00697063717950933</v>
       </c>
     </row>
     <row r="453">
@@ -4064,7 +4064,7 @@
         <v>43383</v>
       </c>
       <c r="B453" t="n">
-        <v>-0.01667347802078486</v>
+        <v>-0.02444681021034387</v>
       </c>
     </row>
     <row r="454">
@@ -4072,7 +4072,7 @@
         <v>43384</v>
       </c>
       <c r="B454" t="n">
-        <v>0.0237162727547876</v>
+        <v>-0.01385129688758992</v>
       </c>
     </row>
     <row r="455">
@@ -4080,7 +4080,7 @@
         <v>43385</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.02031110478576802</v>
+        <v>-0.008446360380059281</v>
       </c>
     </row>
     <row r="456">
@@ -4096,7 +4096,7 @@
         <v>43389</v>
       </c>
       <c r="B457" t="n">
-        <v>0.02380741122673903</v>
+        <v>0.01336039682646618</v>
       </c>
     </row>
     <row r="458">
@@ -4112,7 +4112,7 @@
         <v>43391</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.06393255990295561</v>
+        <v>-0.0594213915169458</v>
       </c>
     </row>
     <row r="460">
@@ -4120,7 +4120,7 @@
         <v>43392</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.004577224487238157</v>
+        <v>-0.01916217357900023</v>
       </c>
     </row>
     <row r="461">
@@ -4128,7 +4128,7 @@
         <v>43393</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.0287467374687135</v>
+        <v>-0.04578626839031502</v>
       </c>
     </row>
     <row r="462">
@@ -4136,7 +4136,7 @@
         <v>43396</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.1166404465912164</v>
+        <v>-0.151146679146247</v>
       </c>
     </row>
     <row r="463">
@@ -4144,7 +4144,7 @@
         <v>43397</v>
       </c>
       <c r="B463" t="n">
-        <v>0.1396287601861389</v>
+        <v>0.08913887840574038</v>
       </c>
     </row>
     <row r="464">
@@ -4152,7 +4152,7 @@
         <v>43398</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.03651653972395539</v>
+        <v>-0.0170522273951464</v>
       </c>
     </row>
     <row r="465">
@@ -4160,7 +4160,7 @@
         <v>43399</v>
       </c>
       <c r="B465" t="n">
-        <v>0.004893515809312726</v>
+        <v>0.0005433274291858308</v>
       </c>
     </row>
     <row r="466">
@@ -4168,7 +4168,7 @@
         <v>43400</v>
       </c>
       <c r="B466" t="n">
-        <v>-0.06803299380428816</v>
+        <v>-0.07759162976526983</v>
       </c>
     </row>
     <row r="467">
@@ -4176,7 +4176,7 @@
         <v>43403</v>
       </c>
       <c r="B467" t="n">
-        <v>0.1023797526135107</v>
+        <v>0.1183562707673297</v>
       </c>
     </row>
     <row r="468">
@@ -4184,7 +4184,7 @@
         <v>43404</v>
       </c>
       <c r="B468" t="n">
-        <v>0.02812216138571423</v>
+        <v>0.02279510355470016</v>
       </c>
     </row>
     <row r="469">
@@ -4192,7 +4192,7 @@
         <v>43405</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.02418119892191727</v>
+        <v>-0.0388920351190743</v>
       </c>
     </row>
     <row r="470">
@@ -4200,7 +4200,7 @@
         <v>43406</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.09672613631485368</v>
+        <v>-0.1191956354114991</v>
       </c>
     </row>
     <row r="471">
@@ -4208,7 +4208,7 @@
         <v>43407</v>
       </c>
       <c r="B471" t="n">
-        <v>0.008872237726317249</v>
+        <v>0.01796117680493272</v>
       </c>
     </row>
     <row r="472">
@@ -4216,7 +4216,7 @@
         <v>43410</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.03193040215094478</v>
+        <v>-0.02242257574349875</v>
       </c>
     </row>
     <row r="473">
@@ -4224,7 +4224,7 @@
         <v>43411</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.02368033176736798</v>
+        <v>-0.02021205585890387</v>
       </c>
     </row>
     <row r="474">
@@ -4240,7 +4240,7 @@
         <v>43413</v>
       </c>
       <c r="B475" t="n">
-        <v>0.001100102950868759</v>
+        <v>-0.02859354417055531</v>
       </c>
     </row>
     <row r="476">
@@ -4248,7 +4248,7 @@
         <v>43414</v>
       </c>
       <c r="B476" t="n">
-        <v>0.003684932112866885</v>
+        <v>0.009623896208209293</v>
       </c>
     </row>
     <row r="477">
@@ -4256,7 +4256,7 @@
         <v>43417</v>
       </c>
       <c r="B477" t="n">
-        <v>0.07190962703032057</v>
+        <v>0.05177986877623004</v>
       </c>
     </row>
     <row r="478">
@@ -4264,7 +4264,7 @@
         <v>43418</v>
       </c>
       <c r="B478" t="n">
-        <v>-0.01386802736775084</v>
+        <v>-0.009985618026678994</v>
       </c>
     </row>
     <row r="479">
@@ -4272,7 +4272,7 @@
         <v>43419</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.02373647981733291</v>
+        <v>-0.01220580831911244</v>
       </c>
     </row>
     <row r="480">
@@ -4280,7 +4280,7 @@
         <v>43420</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.002227860823250553</v>
+        <v>-0.01513008676088093</v>
       </c>
     </row>
     <row r="481">
@@ -4288,7 +4288,7 @@
         <v>43421</v>
       </c>
       <c r="B481" t="n">
-        <v>0.0004272967177118481</v>
+        <v>0.01464656794009563</v>
       </c>
     </row>
     <row r="482">
@@ -4296,7 +4296,7 @@
         <v>43424</v>
       </c>
       <c r="B482" t="n">
-        <v>0.009309559964336684</v>
+        <v>-0.02164407385713254</v>
       </c>
     </row>
     <row r="483">
@@ -4312,7 +4312,7 @@
         <v>43426</v>
       </c>
       <c r="B484" t="n">
-        <v>0.1594251349333839</v>
+        <v>0.09296127369516444</v>
       </c>
     </row>
     <row r="485">
@@ -4320,7 +4320,7 @@
         <v>43427</v>
       </c>
       <c r="B485" t="n">
-        <v>0.02758642032931046</v>
+        <v>0.03071930575714373</v>
       </c>
     </row>
     <row r="486">
@@ -4328,7 +4328,7 @@
         <v>43428</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.005503945321694036</v>
+        <v>0.002581388456178371</v>
       </c>
     </row>
     <row r="487">
@@ -4336,7 +4336,7 @@
         <v>43431</v>
       </c>
       <c r="B487" t="n">
-        <v>0.04294691083575254</v>
+        <v>0.0652729914958451</v>
       </c>
     </row>
     <row r="488">
@@ -4344,7 +4344,7 @@
         <v>43432</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.04630806360875895</v>
+        <v>-0.06287126908538933</v>
       </c>
     </row>
     <row r="489">
@@ -4376,7 +4376,7 @@
         <v>43438</v>
       </c>
       <c r="B492" t="n">
-        <v>-0.02656678500725999</v>
+        <v>-0.03996265493835275</v>
       </c>
     </row>
     <row r="493">
@@ -4384,7 +4384,7 @@
         <v>43439</v>
       </c>
       <c r="B493" t="n">
-        <v>-0.04438574683357085</v>
+        <v>-0.03013466435055867</v>
       </c>
     </row>
     <row r="494">
@@ -4392,7 +4392,7 @@
         <v>43440</v>
       </c>
       <c r="B494" t="n">
-        <v>-0.01482927432885841</v>
+        <v>-0.01952056349872099</v>
       </c>
     </row>
     <row r="495">
@@ -4400,7 +4400,7 @@
         <v>43441</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.04119888118517211</v>
+        <v>-0.05289157775608465</v>
       </c>
     </row>
     <row r="496">
@@ -4408,7 +4408,7 @@
         <v>43442</v>
       </c>
       <c r="B496" t="n">
-        <v>0.7039391797369436</v>
+        <v>0.7540550379645008</v>
       </c>
     </row>
     <row r="497">
@@ -4416,7 +4416,7 @@
         <v>43445</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.01601180780999845</v>
+        <v>-0.0251228095895355</v>
       </c>
     </row>
     <row r="498">
@@ -4432,7 +4432,7 @@
         <v>43447</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.07445101235352686</v>
+        <v>-0.09412859143788607</v>
       </c>
     </row>
     <row r="500">
@@ -4440,7 +4440,7 @@
         <v>43448</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.002345920030973725</v>
+        <v>-0.003715383421459614</v>
       </c>
     </row>
     <row r="501">
@@ -4448,7 +4448,7 @@
         <v>43449</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.1339794094936139</v>
+        <v>-0.1490406371545945</v>
       </c>
     </row>
     <row r="502">
@@ -4456,7 +4456,7 @@
         <v>43452</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.1796356710568004</v>
+        <v>-0.16640398833191</v>
       </c>
     </row>
     <row r="503">
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="B503" t="n">
-        <v>0.01186671911367013</v>
+        <v>0.002990695261795832</v>
       </c>
     </row>
     <row r="504">
@@ -4472,7 +4472,7 @@
         <v>43454</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.07991387613284352</v>
+        <v>-0.067424019247769</v>
       </c>
     </row>
     <row r="505">
@@ -4480,7 +4480,7 @@
         <v>43455</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.05687620979505048</v>
+        <v>-0.03849738721669756</v>
       </c>
     </row>
     <row r="506">
@@ -4504,7 +4504,7 @@
         <v>43463</v>
       </c>
       <c r="B508" t="n">
-        <v>0.03501908809320184</v>
+        <v>0.04125414284075125</v>
       </c>
     </row>
     <row r="509">
@@ -4512,7 +4512,7 @@
         <v>43468</v>
       </c>
       <c r="B509" t="n">
-        <v>0.02253124263930564</v>
+        <v>0.05719331866097702</v>
       </c>
     </row>
     <row r="510">
@@ -4520,7 +4520,7 @@
         <v>43469</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.03108178361438628</v>
+        <v>-0.0164749763321911</v>
       </c>
     </row>
     <row r="511">
@@ -4528,7 +4528,7 @@
         <v>43470</v>
       </c>
       <c r="B511" t="n">
-        <v>0.02922474694890537</v>
+        <v>0.01682444879289446</v>
       </c>
     </row>
     <row r="512">
@@ -4536,7 +4536,7 @@
         <v>43473</v>
       </c>
       <c r="B512" t="n">
-        <v>0.03425660670342173</v>
+        <v>0.02534060147321981</v>
       </c>
     </row>
     <row r="513">
@@ -4544,7 +4544,7 @@
         <v>43474</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.07320299999054464</v>
+        <v>-0.08086247932946579</v>
       </c>
     </row>
     <row r="514">
@@ -4552,7 +4552,7 @@
         <v>43475</v>
       </c>
       <c r="B514" t="n">
-        <v>0.03750776686039418</v>
+        <v>0.03359264321186439</v>
       </c>
     </row>
     <row r="515">
@@ -4560,7 +4560,7 @@
         <v>43476</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.01133527195648992</v>
+        <v>-0.03181608553177923</v>
       </c>
     </row>
     <row r="516">
@@ -4568,7 +4568,7 @@
         <v>43477</v>
       </c>
       <c r="B516" t="n">
-        <v>0.0605680194645222</v>
+        <v>0.04912304083720714</v>
       </c>
     </row>
     <row r="517">
@@ -4584,7 +4584,7 @@
         <v>43481</v>
       </c>
       <c r="B518" t="n">
-        <v>-0.003729940870548739</v>
+        <v>-0.005867859452371627</v>
       </c>
     </row>
     <row r="519">
@@ -4592,7 +4592,7 @@
         <v>43482</v>
       </c>
       <c r="B519" t="n">
-        <v>-0.002669027608605861</v>
+        <v>0.01961769803142529</v>
       </c>
     </row>
     <row r="520">
@@ -4600,7 +4600,7 @@
         <v>43483</v>
       </c>
       <c r="B520" t="n">
-        <v>0.01939890770928751</v>
+        <v>0.02748937523078979</v>
       </c>
     </row>
     <row r="521">
@@ -4608,7 +4608,7 @@
         <v>43484</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.03689499026395837</v>
+        <v>-0.02837193708045357</v>
       </c>
     </row>
     <row r="522">
@@ -4632,7 +4632,7 @@
         <v>43489</v>
       </c>
       <c r="B524" t="n">
-        <v>0.09019831423367144</v>
+        <v>0.07714204699734005</v>
       </c>
     </row>
     <row r="525">
@@ -4640,7 +4640,7 @@
         <v>43490</v>
       </c>
       <c r="B525" t="n">
-        <v>-0.0413130329148178</v>
+        <v>0.001613249193473937</v>
       </c>
     </row>
     <row r="526">
@@ -4648,7 +4648,7 @@
         <v>43491</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.09376277706430873</v>
+        <v>-0.09189424670774027</v>
       </c>
     </row>
     <row r="527">
@@ -4656,7 +4656,7 @@
         <v>43494</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.07141389613708807</v>
+        <v>-0.04678928602609558</v>
       </c>
     </row>
     <row r="528">
@@ -4664,7 +4664,7 @@
         <v>43495</v>
       </c>
       <c r="B528" t="n">
-        <v>0.02659263890794236</v>
+        <v>0.01742663320340716</v>
       </c>
     </row>
     <row r="529">
@@ -4672,7 +4672,7 @@
         <v>43496</v>
       </c>
       <c r="B529" t="n">
-        <v>0.01423321010967313</v>
+        <v>0.005919823141561054</v>
       </c>
     </row>
     <row r="530">
@@ -4680,7 +4680,7 @@
         <v>43497</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.01432551660637347</v>
+        <v>-0.009824719878548686</v>
       </c>
     </row>
     <row r="531">
@@ -4688,7 +4688,7 @@
         <v>43498</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.02589444717747723</v>
+        <v>0.007530743360550514</v>
       </c>
     </row>
     <row r="532">
@@ -4696,7 +4696,7 @@
         <v>43501</v>
       </c>
       <c r="B532" t="n">
-        <v>0.0718469906921029</v>
+        <v>0.0617826996996888</v>
       </c>
     </row>
     <row r="533">
@@ -4704,7 +4704,7 @@
         <v>43502</v>
       </c>
       <c r="B533" t="n">
-        <v>0.01489634804181041</v>
+        <v>0.02465496677298166</v>
       </c>
     </row>
     <row r="534">
@@ -4712,7 +4712,7 @@
         <v>43503</v>
       </c>
       <c r="B534" t="n">
-        <v>0.4514222183575354</v>
+        <v>0.4256573269074017</v>
       </c>
     </row>
     <row r="535">
@@ -4720,7 +4720,7 @@
         <v>43504</v>
       </c>
       <c r="B535" t="n">
-        <v>0.05262154727530886</v>
+        <v>0.03288489326389683</v>
       </c>
     </row>
     <row r="536">
@@ -4728,7 +4728,7 @@
         <v>43505</v>
       </c>
       <c r="B536" t="n">
-        <v>4.817046393608032</v>
+        <v>4.493877149518696</v>
       </c>
     </row>
     <row r="537">
@@ -4736,7 +4736,7 @@
         <v>43508</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.002373759788127823</v>
+        <v>0.02980773183160999</v>
       </c>
     </row>
     <row r="538">
@@ -4744,7 +4744,7 @@
         <v>43509</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.002374138619813622</v>
+        <v>-0.004526513725272523</v>
       </c>
     </row>
     <row r="539">
@@ -4752,7 +4752,7 @@
         <v>43510</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.01951526719923355</v>
+        <v>-0.01456332410428018</v>
       </c>
     </row>
     <row r="540">
@@ -4760,7 +4760,7 @@
         <v>43511</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.01040231975753154</v>
+        <v>-0.007216919499240359</v>
       </c>
     </row>
     <row r="541">
@@ -4768,7 +4768,7 @@
         <v>43512</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.01996010395613251</v>
+        <v>-0.03833585200695502</v>
       </c>
     </row>
     <row r="542">
@@ -4776,7 +4776,7 @@
         <v>43515</v>
       </c>
       <c r="B542" t="n">
-        <v>0.05152184847613237</v>
+        <v>0.02866267785708605</v>
       </c>
     </row>
     <row r="543">
@@ -4784,7 +4784,7 @@
         <v>43516</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.0006039125499459992</v>
+        <v>-0.007296297064120405</v>
       </c>
     </row>
     <row r="544">
@@ -4792,7 +4792,7 @@
         <v>43517</v>
       </c>
       <c r="B544" t="n">
-        <v>0.008114258144628387</v>
+        <v>0.0002030475986503301</v>
       </c>
     </row>
     <row r="545">
@@ -4800,7 +4800,7 @@
         <v>43518</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.03700862465381603</v>
+        <v>-0.02139254829685088</v>
       </c>
     </row>
     <row r="546">
@@ -4816,7 +4816,7 @@
         <v>43522</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.04709678190547556</v>
+        <v>-0.04602005510536882</v>
       </c>
     </row>
     <row r="548">
@@ -4824,7 +4824,7 @@
         <v>43523</v>
       </c>
       <c r="B548" t="n">
-        <v>-0.01484804836865435</v>
+        <v>-0.03173636753947742</v>
       </c>
     </row>
     <row r="549">
@@ -4832,7 +4832,7 @@
         <v>43524</v>
       </c>
       <c r="B549" t="n">
-        <v>0.0382673104037872</v>
+        <v>0.01256762450270336</v>
       </c>
     </row>
     <row r="550">
@@ -4840,7 +4840,7 @@
         <v>43525</v>
       </c>
       <c r="B550" t="n">
-        <v>0.02225040468859364</v>
+        <v>0.01319392269799705</v>
       </c>
     </row>
     <row r="551">
@@ -4848,7 +4848,7 @@
         <v>43526</v>
       </c>
       <c r="B551" t="n">
-        <v>0.0221585337317808</v>
+        <v>0.003229671996007084</v>
       </c>
     </row>
     <row r="552">
@@ -4856,7 +4856,7 @@
         <v>43529</v>
       </c>
       <c r="B552" t="n">
-        <v>0.2094622605876867</v>
+        <v>0.1755521037487796</v>
       </c>
     </row>
     <row r="553">
@@ -4864,7 +4864,7 @@
         <v>43530</v>
       </c>
       <c r="B553" t="n">
-        <v>0.01125858295827499</v>
+        <v>-0.001706270669395207</v>
       </c>
     </row>
     <row r="554">
@@ -4872,7 +4872,7 @@
         <v>43531</v>
       </c>
       <c r="B554" t="n">
-        <v>-0.03352325331467899</v>
+        <v>-0.02367798934165363</v>
       </c>
     </row>
     <row r="555">
@@ -4880,7 +4880,7 @@
         <v>43532</v>
       </c>
       <c r="B555" t="n">
-        <v>0.1421263544748236</v>
+        <v>0.1112580746241526</v>
       </c>
     </row>
     <row r="556">
@@ -4888,7 +4888,7 @@
         <v>43533</v>
       </c>
       <c r="B556" t="n">
-        <v>1.744635428294677</v>
+        <v>1.927611123514323</v>
       </c>
     </row>
     <row r="557">
@@ -4896,7 +4896,7 @@
         <v>43536</v>
       </c>
       <c r="B557" t="n">
-        <v>0.0003252983848612975</v>
+        <v>-0.005067290824760672</v>
       </c>
     </row>
     <row r="558">
@@ -4904,7 +4904,7 @@
         <v>43537</v>
       </c>
       <c r="B558" t="n">
-        <v>0.02253079150773455</v>
+        <v>0.006151579744452692</v>
       </c>
     </row>
     <row r="559">
@@ -4912,7 +4912,7 @@
         <v>43538</v>
       </c>
       <c r="B559" t="n">
-        <v>0.1665107591268216</v>
+        <v>0.0545257262506467</v>
       </c>
     </row>
     <row r="560">
@@ -4936,7 +4936,7 @@
         <v>43543</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.007423524383697338</v>
+        <v>0.003704014580610988</v>
       </c>
     </row>
     <row r="563">
@@ -4944,7 +4944,7 @@
         <v>43544</v>
       </c>
       <c r="B563" t="n">
-        <v>0.009600041941564096</v>
+        <v>0.02741651326994464</v>
       </c>
     </row>
     <row r="564">
@@ -4952,7 +4952,7 @@
         <v>43545</v>
       </c>
       <c r="B564" t="n">
-        <v>-0.02748145946501935</v>
+        <v>-0.03344783087934439</v>
       </c>
     </row>
     <row r="565">
@@ -4960,7 +4960,7 @@
         <v>43546</v>
       </c>
       <c r="B565" t="n">
-        <v>-0.0541871778657358</v>
+        <v>-0.04838464521460534</v>
       </c>
     </row>
     <row r="566">
@@ -4976,7 +4976,7 @@
         <v>43550</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.01702677656730167</v>
+        <v>0.002898356340117892</v>
       </c>
     </row>
     <row r="568">
@@ -4984,7 +4984,7 @@
         <v>43551</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.0327597443269425</v>
+        <v>-0.03880499592489911</v>
       </c>
     </row>
     <row r="569">
@@ -4992,7 +4992,7 @@
         <v>43552</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.03104986966298157</v>
+        <v>-0.01353872272918003</v>
       </c>
     </row>
     <row r="570">
@@ -5000,7 +5000,7 @@
         <v>43553</v>
       </c>
       <c r="B570" t="n">
-        <v>0.0002349530544968179</v>
+        <v>-0.01378107813480179</v>
       </c>
     </row>
     <row r="571">
@@ -5008,7 +5008,7 @@
         <v>43554</v>
       </c>
       <c r="B571" t="n">
-        <v>0.03264152942436378</v>
+        <v>0.0251586197908539</v>
       </c>
     </row>
     <row r="572">
@@ -5016,7 +5016,7 @@
         <v>43557</v>
       </c>
       <c r="B572" t="n">
-        <v>-0.01487116483396327</v>
+        <v>0.006238738776737517</v>
       </c>
     </row>
     <row r="573">
@@ -5024,7 +5024,7 @@
         <v>43558</v>
       </c>
       <c r="B573" t="n">
-        <v>0.03105406934983102</v>
+        <v>0.02265746135991614</v>
       </c>
     </row>
     <row r="574">
@@ -5032,7 +5032,7 @@
         <v>43559</v>
       </c>
       <c r="B574" t="n">
-        <v>0.0212710688538717</v>
+        <v>0.01165910585289412</v>
       </c>
     </row>
     <row r="575">
@@ -5040,7 +5040,7 @@
         <v>43560</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.002371239080266503</v>
+        <v>-0.007082590961823752</v>
       </c>
     </row>
     <row r="576">
@@ -5048,7 +5048,7 @@
         <v>43561</v>
       </c>
       <c r="B576" t="n">
-        <v>0.02486181304337168</v>
+        <v>0.03188141450257286</v>
       </c>
     </row>
     <row r="577">
@@ -5056,7 +5056,7 @@
         <v>43564</v>
       </c>
       <c r="B577" t="n">
-        <v>0.06799259845304194</v>
+        <v>0.06174702770185456</v>
       </c>
     </row>
     <row r="578">
@@ -5064,7 +5064,7 @@
         <v>43565</v>
       </c>
       <c r="B578" t="n">
-        <v>0.03110679912316401</v>
+        <v>0.0071275712365788</v>
       </c>
     </row>
     <row r="579">
@@ -5072,7 +5072,7 @@
         <v>43566</v>
       </c>
       <c r="B579" t="n">
-        <v>0.02381007264722114</v>
+        <v>0.02949790638415015</v>
       </c>
     </row>
     <row r="580">
@@ -5080,7 +5080,7 @@
         <v>43567</v>
       </c>
       <c r="B580" t="n">
-        <v>-0.01341688096987933</v>
+        <v>-0.01014643969132648</v>
       </c>
     </row>
     <row r="581">
@@ -5088,7 +5088,7 @@
         <v>43568</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.02010685590562963</v>
+        <v>-0.01532688934907166</v>
       </c>
     </row>
     <row r="582">
@@ -5096,7 +5096,7 @@
         <v>43571</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.004610136848672119</v>
+        <v>-0.005815209322220873</v>
       </c>
     </row>
     <row r="583">
@@ -5104,7 +5104,7 @@
         <v>43572</v>
       </c>
       <c r="B583" t="n">
-        <v>-0.004844034880546459</v>
+        <v>0.01202301537571553</v>
       </c>
     </row>
     <row r="584">
@@ -5112,7 +5112,7 @@
         <v>43573</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.0233668699524924</v>
+        <v>-0.02720684294088361</v>
       </c>
     </row>
     <row r="585">
@@ -5120,7 +5120,7 @@
         <v>43574</v>
       </c>
       <c r="B585" t="n">
-        <v>0.04463969168754818</v>
+        <v>0.02765368044059618</v>
       </c>
     </row>
     <row r="586">
@@ -5128,7 +5128,7 @@
         <v>43579</v>
       </c>
       <c r="B586" t="n">
-        <v>0.04856885403158286</v>
+        <v>0.06421913543503932</v>
       </c>
     </row>
     <row r="587">
@@ -5136,7 +5136,7 @@
         <v>43580</v>
       </c>
       <c r="B587" t="n">
-        <v>-0.01269376282967593</v>
+        <v>0.006665182997193167</v>
       </c>
     </row>
     <row r="588">
@@ -5144,7 +5144,7 @@
         <v>43581</v>
       </c>
       <c r="B588" t="n">
-        <v>0.005373232019768079</v>
+        <v>0.003007647944427414</v>
       </c>
     </row>
     <row r="589">
@@ -5152,7 +5152,7 @@
         <v>43582</v>
       </c>
       <c r="B589" t="n">
-        <v>0.0566879679596004</v>
+        <v>0.08895324942401568</v>
       </c>
     </row>
     <row r="590">
@@ -5160,7 +5160,7 @@
         <v>43585</v>
       </c>
       <c r="B590" t="n">
-        <v>-0.00292041069991428</v>
+        <v>0.005214271264072467</v>
       </c>
     </row>
     <row r="591">
@@ -5168,7 +5168,7 @@
         <v>43586</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.02703550085097042</v>
+        <v>0.06651877791335935</v>
       </c>
     </row>
     <row r="592">
@@ -5176,7 +5176,7 @@
         <v>43588</v>
       </c>
       <c r="B592" t="n">
-        <v>0.03731292716331148</v>
+        <v>0.04387819885421852</v>
       </c>
     </row>
     <row r="593">
@@ -5184,7 +5184,7 @@
         <v>43589</v>
       </c>
       <c r="B593" t="n">
-        <v>0.04798069130277903</v>
+        <v>0.04094726384437112</v>
       </c>
     </row>
     <row r="594">
@@ -5192,7 +5192,7 @@
         <v>43592</v>
       </c>
       <c r="B594" t="n">
-        <v>0.03189033086269652</v>
+        <v>0.01083134451855985</v>
       </c>
     </row>
     <row r="595">
@@ -5200,7 +5200,7 @@
         <v>43593</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.0210849774564656</v>
+        <v>-0.02701779577491126</v>
       </c>
     </row>
     <row r="596">
@@ -5208,7 +5208,7 @@
         <v>43594</v>
       </c>
       <c r="B596" t="n">
-        <v>0.05201114964066179</v>
+        <v>0.03977846185414247</v>
       </c>
     </row>
     <row r="597">
@@ -5216,7 +5216,7 @@
         <v>43595</v>
       </c>
       <c r="B597" t="n">
-        <v>-0.01113652289882736</v>
+        <v>0.005529715479282286</v>
       </c>
     </row>
     <row r="598">
@@ -5224,7 +5224,7 @@
         <v>43596</v>
       </c>
       <c r="B598" t="n">
-        <v>-0.0327146604301899</v>
+        <v>-0.01374828122293872</v>
       </c>
     </row>
     <row r="599">
@@ -5232,7 +5232,7 @@
         <v>43599</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.03597544889975006</v>
+        <v>-0.04745193165094351</v>
       </c>
     </row>
     <row r="600">
@@ -5240,7 +5240,7 @@
         <v>43600</v>
       </c>
       <c r="B600" t="n">
-        <v>-0.02150788161299634</v>
+        <v>-0.01578570548207819</v>
       </c>
     </row>
     <row r="601">
@@ -5248,7 +5248,7 @@
         <v>43601</v>
       </c>
       <c r="B601" t="n">
-        <v>-0.0009316253946251773</v>
+        <v>-0.005723320236857258</v>
       </c>
     </row>
     <row r="602">
@@ -5264,7 +5264,7 @@
         <v>43603</v>
       </c>
       <c r="B603" t="n">
-        <v>0.1251843757233332</v>
+        <v>0.132891118022808</v>
       </c>
     </row>
     <row r="604">
@@ -5272,7 +5272,7 @@
         <v>43606</v>
       </c>
       <c r="B604" t="n">
-        <v>-0.03274382362743062</v>
+        <v>-0.04078514575879406</v>
       </c>
     </row>
     <row r="605">
@@ -5280,7 +5280,7 @@
         <v>43607</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.01566329383556261</v>
+        <v>-0.009511189422034872</v>
       </c>
     </row>
     <row r="606">
@@ -5288,7 +5288,7 @@
         <v>43608</v>
       </c>
       <c r="B606" t="n">
-        <v>-0.01768806449385324</v>
+        <v>-0.009645744554036804</v>
       </c>
     </row>
     <row r="607">
@@ -5296,7 +5296,7 @@
         <v>43609</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.03601522103555682</v>
+        <v>-0.02999031616702905</v>
       </c>
     </row>
     <row r="608">
@@ -5304,7 +5304,7 @@
         <v>43610</v>
       </c>
       <c r="B608" t="n">
-        <v>-0.02522781300176308</v>
+        <v>-0.04498670868415978</v>
       </c>
     </row>
     <row r="609">
@@ -5312,7 +5312,7 @@
         <v>43613</v>
       </c>
       <c r="B609" t="n">
-        <v>0.000839170961554652</v>
+        <v>0.002030646165080245</v>
       </c>
     </row>
     <row r="610">
@@ -5320,7 +5320,7 @@
         <v>43614</v>
       </c>
       <c r="B610" t="n">
-        <v>0.07388180413040074</v>
+        <v>0.08031223409525344</v>
       </c>
     </row>
     <row r="611">
@@ -5336,7 +5336,7 @@
         <v>43616</v>
       </c>
       <c r="B612" t="n">
-        <v>0.009192100569785821</v>
+        <v>0.02064392582447839</v>
       </c>
     </row>
     <row r="613">
@@ -5344,7 +5344,7 @@
         <v>43617</v>
       </c>
       <c r="B613" t="n">
-        <v>0.01320734261900568</v>
+        <v>0.02779752835271933</v>
       </c>
     </row>
     <row r="614">
@@ -5352,7 +5352,7 @@
         <v>43620</v>
       </c>
       <c r="B614" t="n">
-        <v>-0.00940405312307359</v>
+        <v>0.005454886080080342</v>
       </c>
     </row>
     <row r="615">
@@ -5360,7 +5360,7 @@
         <v>43621</v>
       </c>
       <c r="B615" t="n">
-        <v>0.06292290893266962</v>
+        <v>0.05119410442030917</v>
       </c>
     </row>
     <row r="616">
@@ -5368,7 +5368,7 @@
         <v>43622</v>
       </c>
       <c r="B616" t="n">
-        <v>0.03392355020174415</v>
+        <v>-0.01379599826910555</v>
       </c>
     </row>
     <row r="617">
@@ -5376,7 +5376,7 @@
         <v>43623</v>
       </c>
       <c r="B617" t="n">
-        <v>0.0574568692446263</v>
+        <v>0.04995717513650839</v>
       </c>
     </row>
     <row r="618">
@@ -5384,7 +5384,7 @@
         <v>43627</v>
       </c>
       <c r="B618" t="n">
-        <v>0.09266973844822926</v>
+        <v>0.06811536230332524</v>
       </c>
     </row>
     <row r="619">
@@ -5392,7 +5392,7 @@
         <v>43628</v>
       </c>
       <c r="B619" t="n">
-        <v>0.08117710644306184</v>
+        <v>0.05080696300364999</v>
       </c>
     </row>
     <row r="620">
@@ -5400,7 +5400,7 @@
         <v>43629</v>
       </c>
       <c r="B620" t="n">
-        <v>0.01553049557940031</v>
+        <v>0.03570659814058044</v>
       </c>
     </row>
     <row r="621">
@@ -5408,7 +5408,7 @@
         <v>43630</v>
       </c>
       <c r="B621" t="n">
-        <v>0.005109517003950475</v>
+        <v>-0.003449809783187824</v>
       </c>
     </row>
     <row r="622">
@@ -5416,7 +5416,7 @@
         <v>43631</v>
       </c>
       <c r="B622" t="n">
-        <v>0.02873637234568846</v>
+        <v>0.01144668541550882</v>
       </c>
     </row>
     <row r="623">
@@ -5424,7 +5424,7 @@
         <v>43634</v>
       </c>
       <c r="B623" t="n">
-        <v>-0.002167206198018775</v>
+        <v>0.007257424676143942</v>
       </c>
     </row>
     <row r="624">
@@ -5432,7 +5432,7 @@
         <v>43635</v>
       </c>
       <c r="B624" t="n">
-        <v>0.02274011557906288</v>
+        <v>0.02023646780530749</v>
       </c>
     </row>
     <row r="625">
@@ -5440,7 +5440,7 @@
         <v>43636</v>
       </c>
       <c r="B625" t="n">
-        <v>0.04625575109904125</v>
+        <v>0.05332504671457531</v>
       </c>
     </row>
     <row r="626">
@@ -5448,7 +5448,7 @@
         <v>43637</v>
       </c>
       <c r="B626" t="n">
-        <v>0.01158194462520448</v>
+        <v>0.005055609498590252</v>
       </c>
     </row>
     <row r="627">
@@ -5456,7 +5456,7 @@
         <v>43638</v>
       </c>
       <c r="B627" t="n">
-        <v>0.01254474481713531</v>
+        <v>0.02788633185981918</v>
       </c>
     </row>
     <row r="628">
@@ -5464,7 +5464,7 @@
         <v>43641</v>
       </c>
       <c r="B628" t="n">
-        <v>0.04550351330600118</v>
+        <v>0.01936592547335115</v>
       </c>
     </row>
     <row r="629">
@@ -5472,7 +5472,7 @@
         <v>43642</v>
       </c>
       <c r="B629" t="n">
-        <v>0.0153928722597835</v>
+        <v>0.0275613620738156</v>
       </c>
     </row>
     <row r="630">
@@ -5480,7 +5480,7 @@
         <v>43643</v>
       </c>
       <c r="B630" t="n">
-        <v>0.09869729046179057</v>
+        <v>0.07580776357716994</v>
       </c>
     </row>
     <row r="631">
@@ -5488,7 +5488,7 @@
         <v>43644</v>
       </c>
       <c r="B631" t="n">
-        <v>0.0611316430899675</v>
+        <v>0.0358666039687778</v>
       </c>
     </row>
     <row r="632">
@@ -5496,7 +5496,7 @@
         <v>43645</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.006189344293948269</v>
+        <v>-0.004706044807819917</v>
       </c>
     </row>
     <row r="633">
@@ -5504,7 +5504,7 @@
         <v>43648</v>
       </c>
       <c r="B633" t="n">
-        <v>0.04479148041570501</v>
+        <v>0.03096335788079118</v>
       </c>
     </row>
     <row r="634">
@@ -5512,7 +5512,7 @@
         <v>43649</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.07778465171082197</v>
+        <v>-0.02113428031591535</v>
       </c>
     </row>
     <row r="635">
@@ -5520,7 +5520,7 @@
         <v>43650</v>
       </c>
       <c r="B635" t="n">
-        <v>-0.04478989507641819</v>
+        <v>-0.02942832906156535</v>
       </c>
     </row>
     <row r="636">
@@ -5528,7 +5528,7 @@
         <v>43651</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.04360556333283285</v>
+        <v>-0.06366978228389231</v>
       </c>
     </row>
     <row r="637">
@@ -5536,7 +5536,7 @@
         <v>43652</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.06283240312562779</v>
+        <v>-0.1028823004279514</v>
       </c>
     </row>
     <row r="638">
@@ -5544,7 +5544,7 @@
         <v>43655</v>
       </c>
       <c r="B638" t="n">
-        <v>0.006395432058469639</v>
+        <v>0.01172027561433463</v>
       </c>
     </row>
     <row r="639">
@@ -5552,7 +5552,7 @@
         <v>43656</v>
       </c>
       <c r="B639" t="n">
-        <v>0.05628068382605612</v>
+        <v>0.08028706300392111</v>
       </c>
     </row>
     <row r="640">
@@ -5560,7 +5560,7 @@
         <v>43657</v>
       </c>
       <c r="B640" t="n">
-        <v>0.07895060954396729</v>
+        <v>0.09654219556914068</v>
       </c>
     </row>
     <row r="641">
@@ -5568,7 +5568,7 @@
         <v>43658</v>
       </c>
       <c r="B641" t="n">
-        <v>0.053655648622006</v>
+        <v>0.04168228897857412</v>
       </c>
     </row>
     <row r="642">
@@ -5576,7 +5576,7 @@
         <v>43659</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.04489178846187102</v>
+        <v>-0.05136271130427027</v>
       </c>
     </row>
     <row r="643">
@@ -5584,7 +5584,7 @@
         <v>43662</v>
       </c>
       <c r="B643" t="n">
-        <v>-0.001343015520690664</v>
+        <v>0.004331171891123594</v>
       </c>
     </row>
     <row r="644">
@@ -5592,7 +5592,7 @@
         <v>43663</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.01727641537038736</v>
+        <v>-0.005825187159661006</v>
       </c>
     </row>
     <row r="645">
@@ -5608,7 +5608,7 @@
         <v>43665</v>
       </c>
       <c r="B646" t="n">
-        <v>0.00586766637110794</v>
+        <v>0.00923928983380436</v>
       </c>
     </row>
     <row r="647">
@@ -5616,7 +5616,7 @@
         <v>43666</v>
       </c>
       <c r="B647" t="n">
-        <v>-0.01874195114423857</v>
+        <v>-0.005207357366917724</v>
       </c>
     </row>
     <row r="648">
@@ -5632,7 +5632,7 @@
         <v>43670</v>
       </c>
       <c r="B649" t="n">
-        <v>0.01005399759844929</v>
+        <v>-0.01280730687394362</v>
       </c>
     </row>
     <row r="650">
@@ -5640,7 +5640,7 @@
         <v>43671</v>
       </c>
       <c r="B650" t="n">
-        <v>0.0873164706359245</v>
+        <v>0.08211399948455644</v>
       </c>
     </row>
     <row r="651">
@@ -5648,7 +5648,7 @@
         <v>43672</v>
       </c>
       <c r="B651" t="n">
-        <v>0.004226207529322414</v>
+        <v>-0.02321166699333667</v>
       </c>
     </row>
     <row r="652">
@@ -5656,7 +5656,7 @@
         <v>43673</v>
       </c>
       <c r="B652" t="n">
-        <v>0.2015827235014762</v>
+        <v>0.1848940745639557</v>
       </c>
     </row>
     <row r="653">
@@ -5664,7 +5664,7 @@
         <v>43676</v>
       </c>
       <c r="B653" t="n">
-        <v>-0.01836878645138756</v>
+        <v>-0.01279133637440681</v>
       </c>
     </row>
     <row r="654">
@@ -5672,7 +5672,7 @@
         <v>43677</v>
       </c>
       <c r="B654" t="n">
-        <v>-0.0222330867203303</v>
+        <v>-0.024528314216292</v>
       </c>
     </row>
     <row r="655">
@@ -5680,7 +5680,7 @@
         <v>43678</v>
       </c>
       <c r="B655" t="n">
-        <v>-0.01370957714824432</v>
+        <v>-0.01909914230043971</v>
       </c>
     </row>
     <row r="656">
@@ -5688,7 +5688,7 @@
         <v>43679</v>
       </c>
       <c r="B656" t="n">
-        <v>-0.006039088636235179</v>
+        <v>-0.01948613591511365</v>
       </c>
     </row>
     <row r="657">
@@ -5696,7 +5696,7 @@
         <v>43680</v>
       </c>
       <c r="B657" t="n">
-        <v>0.006123480540483277</v>
+        <v>0.004792629375747263</v>
       </c>
     </row>
     <row r="658">
@@ -5704,7 +5704,7 @@
         <v>43683</v>
       </c>
       <c r="B658" t="n">
-        <v>0.00584776053110644</v>
+        <v>-0.001202574238971343</v>
       </c>
     </row>
     <row r="659">
@@ -5712,7 +5712,7 @@
         <v>43684</v>
       </c>
       <c r="B659" t="n">
-        <v>-0.02761464401654525</v>
+        <v>-0.02647066124480008</v>
       </c>
     </row>
     <row r="660">
@@ -5720,7 +5720,7 @@
         <v>43685</v>
       </c>
       <c r="B660" t="n">
-        <v>0.01347154122236244</v>
+        <v>0.02774578828183233</v>
       </c>
     </row>
     <row r="661">
@@ -5728,7 +5728,7 @@
         <v>43686</v>
       </c>
       <c r="B661" t="n">
-        <v>0.06848610556285778</v>
+        <v>0.09068841424987813</v>
       </c>
     </row>
     <row r="662">
@@ -5736,7 +5736,7 @@
         <v>43687</v>
       </c>
       <c r="B662" t="n">
-        <v>-2.954188028420831</v>
+        <v>-1.403245148721759</v>
       </c>
     </row>
     <row r="663">
@@ -5744,7 +5744,7 @@
         <v>43690</v>
       </c>
       <c r="B663" t="n">
-        <v>0.09264305346102333</v>
+        <v>0.07872403367171094</v>
       </c>
     </row>
     <row r="664">
@@ -5752,7 +5752,7 @@
         <v>43691</v>
       </c>
       <c r="B664" t="n">
-        <v>0.09749371793361838</v>
+        <v>0.1040655366038796</v>
       </c>
     </row>
     <row r="665">
@@ -5760,7 +5760,7 @@
         <v>43692</v>
       </c>
       <c r="B665" t="n">
-        <v>0.07434175251965078</v>
+        <v>0.09992131805583294</v>
       </c>
     </row>
     <row r="666">
@@ -5768,7 +5768,7 @@
         <v>43693</v>
       </c>
       <c r="B666" t="n">
-        <v>0.03655073872303803</v>
+        <v>0.03071101625135886</v>
       </c>
     </row>
     <row r="667">
@@ -5776,7 +5776,7 @@
         <v>43694</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.009078890661059926</v>
+        <v>0.02850095180887989</v>
       </c>
     </row>
     <row r="668">
@@ -5784,7 +5784,7 @@
         <v>43697</v>
       </c>
       <c r="B668" t="n">
-        <v>0.05232736844949946</v>
+        <v>0.07638780166314633</v>
       </c>
     </row>
     <row r="669">
@@ -5800,7 +5800,7 @@
         <v>43699</v>
       </c>
       <c r="B670" t="n">
-        <v>0.02068705071708495</v>
+        <v>0.03411714348967818</v>
       </c>
     </row>
     <row r="671">
@@ -5808,7 +5808,7 @@
         <v>43700</v>
       </c>
       <c r="B671" t="n">
-        <v>-0.007329227130506808</v>
+        <v>-0.01119175932066044</v>
       </c>
     </row>
     <row r="672">
@@ -5824,7 +5824,7 @@
         <v>43704</v>
       </c>
       <c r="B673" t="n">
-        <v>0.01715908124508638</v>
+        <v>-0.005196063397662768</v>
       </c>
     </row>
     <row r="674">
@@ -5832,7 +5832,7 @@
         <v>43705</v>
       </c>
       <c r="B674" t="n">
-        <v>0.05753159307158753</v>
+        <v>0.03013440154123553</v>
       </c>
     </row>
     <row r="675">
@@ -5840,7 +5840,7 @@
         <v>43706</v>
       </c>
       <c r="B675" t="n">
-        <v>-0.01988574009641861</v>
+        <v>0.00238958399229909</v>
       </c>
     </row>
     <row r="676">
@@ -5848,7 +5848,7 @@
         <v>43707</v>
       </c>
       <c r="B676" t="n">
-        <v>-0.02012250243865433</v>
+        <v>-0.02822066357552499</v>
       </c>
     </row>
     <row r="677">
@@ -5856,7 +5856,7 @@
         <v>43708</v>
       </c>
       <c r="B677" t="n">
-        <v>-0.0198922902170549</v>
+        <v>0.008934407129502308</v>
       </c>
     </row>
     <row r="678">
@@ -5864,7 +5864,7 @@
         <v>43711</v>
       </c>
       <c r="B678" t="n">
-        <v>-0.111423735519626</v>
+        <v>-0.07951353817640824</v>
       </c>
     </row>
     <row r="679">
@@ -5872,7 +5872,7 @@
         <v>43712</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.09515963640634144</v>
+        <v>-0.047891856218613</v>
       </c>
     </row>
     <row r="680">
@@ -5880,7 +5880,7 @@
         <v>43713</v>
       </c>
       <c r="B680" t="n">
-        <v>-0.05451812646073092</v>
+        <v>-0.09316990116516646</v>
       </c>
     </row>
     <row r="681">
@@ -5888,7 +5888,7 @@
         <v>43714</v>
       </c>
       <c r="B681" t="n">
-        <v>-0.006114595422811936</v>
+        <v>-0.0001897942032757075</v>
       </c>
     </row>
     <row r="682">
@@ -5896,7 +5896,7 @@
         <v>43715</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.06253839870169334</v>
+        <v>-0.06947228628526068</v>
       </c>
     </row>
     <row r="683">
@@ -5904,7 +5904,7 @@
         <v>43718</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.01048930057853247</v>
+        <v>-0.003757935276345612</v>
       </c>
     </row>
     <row r="684">
@@ -5912,7 +5912,7 @@
         <v>43719</v>
       </c>
       <c r="B684" t="n">
-        <v>-0.00802967438555556</v>
+        <v>-0.002312266168757733</v>
       </c>
     </row>
     <row r="685">
@@ -5920,7 +5920,7 @@
         <v>43720</v>
       </c>
       <c r="B685" t="n">
-        <v>0.08576725100977017</v>
+        <v>0.07871681431490153</v>
       </c>
     </row>
     <row r="686">
@@ -5928,7 +5928,7 @@
         <v>43721</v>
       </c>
       <c r="B686" t="n">
-        <v>0.027659447805512</v>
+        <v>0.02205912383926935</v>
       </c>
     </row>
     <row r="687">
@@ -5936,7 +5936,7 @@
         <v>43722</v>
       </c>
       <c r="B687" t="n">
-        <v>0.060184373921398</v>
+        <v>0.04585755805759532</v>
       </c>
     </row>
     <row r="688">
@@ -5944,7 +5944,7 @@
         <v>43725</v>
       </c>
       <c r="B688" t="n">
-        <v>-0.07034843158367922</v>
+        <v>-0.05028400924375863</v>
       </c>
     </row>
     <row r="689">
@@ -5952,7 +5952,7 @@
         <v>43726</v>
       </c>
       <c r="B689" t="n">
-        <v>0.03101942529025575</v>
+        <v>0.04514297906135514</v>
       </c>
     </row>
     <row r="690">
@@ -5960,7 +5960,7 @@
         <v>43727</v>
       </c>
       <c r="B690" t="n">
-        <v>0.01782749292190392</v>
+        <v>0.04674304669809437</v>
       </c>
     </row>
     <row r="691">
@@ -5968,7 +5968,7 @@
         <v>43728</v>
       </c>
       <c r="B691" t="n">
-        <v>-0.009279363083604589</v>
+        <v>0.01336568004591302</v>
       </c>
     </row>
     <row r="692">
@@ -5976,7 +5976,7 @@
         <v>43729</v>
       </c>
       <c r="B692" t="n">
-        <v>-0.03920206779232415</v>
+        <v>-0.01569630798296213</v>
       </c>
     </row>
     <row r="693">
@@ -5984,7 +5984,7 @@
         <v>43732</v>
       </c>
       <c r="B693" t="n">
-        <v>0.03306672598308897</v>
+        <v>0.0240146626666983</v>
       </c>
     </row>
     <row r="694">
@@ -5992,7 +5992,7 @@
         <v>43733</v>
       </c>
       <c r="B694" t="n">
-        <v>-0.006617155052763753</v>
+        <v>-0.01187314894137347</v>
       </c>
     </row>
     <row r="695">
@@ -6000,7 +6000,7 @@
         <v>43734</v>
       </c>
       <c r="B695" t="n">
-        <v>-0.0358885060763442</v>
+        <v>-0.03011538335823847</v>
       </c>
     </row>
     <row r="696">
@@ -6008,7 +6008,7 @@
         <v>43735</v>
       </c>
       <c r="B696" t="n">
-        <v>0.06384673522512595</v>
+        <v>0.04720245775093881</v>
       </c>
     </row>
     <row r="697">
@@ -6016,7 +6016,7 @@
         <v>43736</v>
       </c>
       <c r="B697" t="n">
-        <v>0.2281005735878195</v>
+        <v>0.09461138080653474</v>
       </c>
     </row>
     <row r="698">
@@ -6024,7 +6024,7 @@
         <v>43739</v>
       </c>
       <c r="B698" t="n">
-        <v>0.02664845926318489</v>
+        <v>-0.004651798641180507</v>
       </c>
     </row>
     <row r="699">
@@ -6032,7 +6032,7 @@
         <v>43740</v>
       </c>
       <c r="B699" t="n">
-        <v>0.0350076054611923</v>
+        <v>0.04120525579329525</v>
       </c>
     </row>
     <row r="700">
@@ -6040,7 +6040,7 @@
         <v>43741</v>
       </c>
       <c r="B700" t="n">
-        <v>0.01429818393271198</v>
+        <v>0.003974538294720041</v>
       </c>
     </row>
     <row r="701">
@@ -6048,7 +6048,7 @@
         <v>43742</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.01364493589551507</v>
+        <v>-0.005662871792935391</v>
       </c>
     </row>
     <row r="702">
@@ -6056,7 +6056,7 @@
         <v>43743</v>
       </c>
       <c r="B702" t="n">
-        <v>-0.005086598355252707</v>
+        <v>-0.01612585939985458</v>
       </c>
     </row>
     <row r="703">
@@ -6064,7 +6064,7 @@
         <v>43746</v>
       </c>
       <c r="B703" t="n">
-        <v>-0.02190123010783161</v>
+        <v>-0.04186242949338607</v>
       </c>
     </row>
     <row r="704">
@@ -6080,7 +6080,7 @@
         <v>43748</v>
       </c>
       <c r="B705" t="n">
-        <v>0.01497748834504025</v>
+        <v>0.02971103253069404</v>
       </c>
     </row>
     <row r="706">
@@ -6088,7 +6088,7 @@
         <v>43749</v>
       </c>
       <c r="B706" t="n">
-        <v>0.1756524538580217</v>
+        <v>0.1643481033401561</v>
       </c>
     </row>
     <row r="707">
@@ -6096,7 +6096,7 @@
         <v>43750</v>
       </c>
       <c r="B707" t="n">
-        <v>0.01380889904359676</v>
+        <v>0.02520001026880572</v>
       </c>
     </row>
     <row r="708">
@@ -6104,7 +6104,7 @@
         <v>43753</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.02936456300919213</v>
+        <v>-0.02003152996120363</v>
       </c>
     </row>
     <row r="709">
@@ -6112,7 +6112,7 @@
         <v>43754</v>
       </c>
       <c r="B709" t="n">
-        <v>-0.0417411322780835</v>
+        <v>-0.0601691874265819</v>
       </c>
     </row>
     <row r="710">
@@ -6120,7 +6120,7 @@
         <v>43755</v>
       </c>
       <c r="B710" t="n">
-        <v>0.011593266243328</v>
+        <v>0.02903452945441986</v>
       </c>
     </row>
     <row r="711">
@@ -6128,7 +6128,7 @@
         <v>43756</v>
       </c>
       <c r="B711" t="n">
-        <v>-0.1117863370633933</v>
+        <v>-0.1008507379301108</v>
       </c>
     </row>
     <row r="712">
@@ -6136,7 +6136,7 @@
         <v>43757</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.07699115531213742</v>
+        <v>-0.07005123918666475</v>
       </c>
     </row>
     <row r="713">
@@ -6144,7 +6144,7 @@
         <v>43760</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.01533831572971533</v>
+        <v>0.0007159508616480094</v>
       </c>
     </row>
     <row r="714">
@@ -6152,7 +6152,7 @@
         <v>43761</v>
       </c>
       <c r="B714" t="n">
-        <v>-0.02736116404539634</v>
+        <v>-0.03288752106786568</v>
       </c>
     </row>
     <row r="715">
@@ -6160,7 +6160,7 @@
         <v>43762</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.03731025829783875</v>
+        <v>-0.01230532994193846</v>
       </c>
     </row>
     <row r="716">
@@ -6176,7 +6176,7 @@
         <v>43764</v>
       </c>
       <c r="B717" t="n">
-        <v>0.0901059459638944</v>
+        <v>0.129987870816232</v>
       </c>
     </row>
     <row r="718">
@@ -6184,7 +6184,7 @@
         <v>43767</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.01846836202059905</v>
+        <v>-0.008244074124980291</v>
       </c>
     </row>
     <row r="719">
@@ -6192,7 +6192,7 @@
         <v>43768</v>
       </c>
       <c r="B719" t="n">
-        <v>0.005411771522437105</v>
+        <v>0.01577684133194676</v>
       </c>
     </row>
     <row r="720">
@@ -6208,7 +6208,7 @@
         <v>43770</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.1886102923282044</v>
+        <v>-0.1766819041681205</v>
       </c>
     </row>
     <row r="722">
@@ -6216,7 +6216,7 @@
         <v>43771</v>
       </c>
       <c r="B722" t="n">
-        <v>-0.1099112483095354</v>
+        <v>-0.1018924307267384</v>
       </c>
     </row>
     <row r="723">
@@ -6224,7 +6224,7 @@
         <v>43774</v>
       </c>
       <c r="B723" t="n">
-        <v>-0.04469031564961409</v>
+        <v>-0.03358206350600496</v>
       </c>
     </row>
     <row r="724">
@@ -6232,7 +6232,7 @@
         <v>43775</v>
       </c>
       <c r="B724" t="n">
-        <v>-0.001314426419842463</v>
+        <v>-0.01239973551104496</v>
       </c>
     </row>
     <row r="725">
@@ -6240,7 +6240,7 @@
         <v>43776</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.01038432490465899</v>
+        <v>-0.02175921772184682</v>
       </c>
     </row>
     <row r="726">
@@ -6248,7 +6248,7 @@
         <v>43777</v>
       </c>
       <c r="B726" t="n">
-        <v>0.01647205016569164</v>
+        <v>0.01973345781328206</v>
       </c>
     </row>
     <row r="727">
@@ -6256,7 +6256,7 @@
         <v>43778</v>
       </c>
       <c r="B727" t="n">
-        <v>0.04404968129263924</v>
+        <v>0.03237707616017487</v>
       </c>
     </row>
     <row r="728">
@@ -6264,7 +6264,7 @@
         <v>43781</v>
       </c>
       <c r="B728" t="n">
-        <v>0.004365049524909245</v>
+        <v>0.005583939148119017</v>
       </c>
     </row>
     <row r="729">
@@ -6272,7 +6272,7 @@
         <v>43782</v>
       </c>
       <c r="B729" t="n">
-        <v>-0.01215932206274419</v>
+        <v>0.00352068869816463</v>
       </c>
     </row>
     <row r="730">
@@ -6280,7 +6280,7 @@
         <v>43783</v>
       </c>
       <c r="B730" t="n">
-        <v>-0.007826635233175673</v>
+        <v>0.013396324440981</v>
       </c>
     </row>
     <row r="731">
@@ -6288,7 +6288,7 @@
         <v>43784</v>
       </c>
       <c r="B731" t="n">
-        <v>-0.01869111979961065</v>
+        <v>-0.01356679144347278</v>
       </c>
     </row>
     <row r="732">
@@ -6296,7 +6296,7 @@
         <v>43785</v>
       </c>
       <c r="B732" t="n">
-        <v>0.02207811667097283</v>
+        <v>0.05013516301096024</v>
       </c>
     </row>
     <row r="733">
@@ -6304,7 +6304,7 @@
         <v>43788</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.02278136474255031</v>
+        <v>-0.03407869000564221</v>
       </c>
     </row>
     <row r="734">
@@ -6312,7 +6312,7 @@
         <v>43789</v>
       </c>
       <c r="B734" t="n">
-        <v>0.004734417028899617</v>
+        <v>0.00384996771813479</v>
       </c>
     </row>
     <row r="735">
@@ -6320,7 +6320,7 @@
         <v>43790</v>
       </c>
       <c r="B735" t="n">
-        <v>-0.02216731344611289</v>
+        <v>-0.0124858016980546</v>
       </c>
     </row>
     <row r="736">
@@ -6328,7 +6328,7 @@
         <v>43791</v>
       </c>
       <c r="B736" t="n">
-        <v>-0.09335189487275262</v>
+        <v>-0.08088937796378699</v>
       </c>
     </row>
     <row r="737">
@@ -6336,7 +6336,7 @@
         <v>43792</v>
       </c>
       <c r="B737" t="n">
-        <v>0.01784022054608419</v>
+        <v>0.001423442795340894</v>
       </c>
     </row>
     <row r="738">
@@ -6344,7 +6344,7 @@
         <v>43795</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.04159189270518027</v>
+        <v>-0.04056575982799102</v>
       </c>
     </row>
     <row r="739">
@@ -6352,7 +6352,7 @@
         <v>43796</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.1076240349226217</v>
+        <v>-0.1192890802177508</v>
       </c>
     </row>
     <row r="740">
@@ -6360,7 +6360,7 @@
         <v>43797</v>
       </c>
       <c r="B740" t="n">
-        <v>-0.09839669760552675</v>
+        <v>-0.1409805669368618</v>
       </c>
     </row>
     <row r="741">
@@ -6368,7 +6368,7 @@
         <v>43798</v>
       </c>
       <c r="B741" t="n">
-        <v>0.01328083440140045</v>
+        <v>0.0328927215188469</v>
       </c>
     </row>
     <row r="742">
@@ -6376,7 +6376,7 @@
         <v>43799</v>
       </c>
       <c r="B742" t="n">
-        <v>0.03585685045867235</v>
+        <v>0.02374156565798612</v>
       </c>
     </row>
     <row r="743">
@@ -6384,7 +6384,7 @@
         <v>43802</v>
       </c>
       <c r="B743" t="n">
-        <v>0.0023240849458412</v>
+        <v>0.00741202446333278</v>
       </c>
     </row>
     <row r="744">
@@ -6392,7 +6392,7 @@
         <v>43803</v>
       </c>
       <c r="B744" t="n">
-        <v>-0.02027051391874488</v>
+        <v>-0.0152718940917997</v>
       </c>
     </row>
     <row r="745">
@@ -6400,7 +6400,7 @@
         <v>43804</v>
       </c>
       <c r="B745" t="n">
-        <v>-0.05554852612554811</v>
+        <v>-0.06097640815930933</v>
       </c>
     </row>
     <row r="746">
@@ -6408,7 +6408,7 @@
         <v>43805</v>
       </c>
       <c r="B746" t="n">
-        <v>0.02203384914171052</v>
+        <v>0.004711241529139151</v>
       </c>
     </row>
     <row r="747">
@@ -6424,7 +6424,7 @@
         <v>43809</v>
       </c>
       <c r="B748" t="n">
-        <v>0.03467401186234425</v>
+        <v>0.04098299973955367</v>
       </c>
     </row>
     <row r="749">
@@ -6432,7 +6432,7 @@
         <v>43810</v>
       </c>
       <c r="B749" t="n">
-        <v>-0.002512964759510541</v>
+        <v>0.02865850509175475</v>
       </c>
     </row>
     <row r="750">
@@ -6440,7 +6440,7 @@
         <v>43811</v>
       </c>
       <c r="B750" t="n">
-        <v>0.06707862466945516</v>
+        <v>0.043233292274607</v>
       </c>
     </row>
     <row r="751">
@@ -6456,7 +6456,7 @@
         <v>43813</v>
       </c>
       <c r="B752" t="n">
-        <v>0.2187020805049443</v>
+        <v>0.1798073332547865</v>
       </c>
     </row>
     <row r="753">
@@ -6464,7 +6464,7 @@
         <v>43816</v>
       </c>
       <c r="B753" t="n">
-        <v>-0.002169456750329007</v>
+        <v>-0.01240361616827431</v>
       </c>
     </row>
     <row r="754">
@@ -6480,7 +6480,7 @@
         <v>43818</v>
       </c>
       <c r="B755" t="n">
-        <v>-0.05574522273779667</v>
+        <v>-0.07642233464864784</v>
       </c>
     </row>
     <row r="756">
@@ -6488,7 +6488,7 @@
         <v>43819</v>
       </c>
       <c r="B756" t="n">
-        <v>-0.01514097743168267</v>
+        <v>-0.008508930141660351</v>
       </c>
     </row>
     <row r="757">
@@ -6496,7 +6496,7 @@
         <v>43820</v>
       </c>
       <c r="B757" t="n">
-        <v>-0.01100536354657163</v>
+        <v>-0.03573022945790734</v>
       </c>
     </row>
     <row r="758">
@@ -6504,7 +6504,7 @@
         <v>43823</v>
       </c>
       <c r="B758" t="n">
-        <v>-0.06009657747892207</v>
+        <v>0.02163415491421514</v>
       </c>
     </row>
     <row r="759">
@@ -6512,7 +6512,7 @@
         <v>43827</v>
       </c>
       <c r="B759" t="n">
-        <v>-0.01602640459891893</v>
+        <v>-0.001969638950332053</v>
       </c>
     </row>
   </sheetData>
